--- a/Task-n-Tool.xlsx
+++ b/Task-n-Tool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="2" r:id="rId1"/>
@@ -1414,6 +1414,691 @@
     <t>POSIX поддержка и менеджер пакетов</t>
   </si>
   <si>
+    <t xml:space="preserve">Звуковой редактор и конвертация аудио форматов </t>
+  </si>
+  <si>
+    <t>! Поднять PLEX и протестировать с ATV</t>
+  </si>
+  <si>
+    <t>Видеоредактор и конвертирование видео</t>
+  </si>
+  <si>
+    <t>! Протестировать Java 8</t>
+  </si>
+  <si>
+    <t>! Найти аналоги для Mac OS X</t>
+  </si>
+  <si>
+    <t>!Протестировать на собственном сервере Subversion, CVS, Git</t>
+  </si>
+  <si>
+    <t>ПО</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
+  </si>
+  <si>
+    <t>Blast</t>
+  </si>
+  <si>
+    <t>Felinni</t>
+  </si>
+  <si>
+    <t>MICSERV</t>
+  </si>
+  <si>
+    <t>Melpom.</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Runtime поддержка</t>
+  </si>
+  <si>
+    <t>MS Windows XP Professional</t>
+  </si>
+  <si>
+    <t>Если есть образ - восстановить, иначе - активировать; установить mui; установить sp, драйвера; настроить сеть; установить updates; настроить окружение; обновить bios. Сделать образ при помощи Paragon drive backup 10.
+Рассмотреть возможность использование Home Edition (OEM лицензия)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>RUR</t>
+  </si>
+  <si>
+    <t>MS Windows 7 Ultimate</t>
+  </si>
+  <si>
+    <t>Если есть образ - восстановить, иначе - активировать; установить mui; установить sp, драйвера; настроить сеть; установить updates; настроить окружение; обновить bios. Сделать образ при помощи Paragon drive backup 10.
+Рассмотреть возможность использование Home Edition Extended Rus ().
+Образы доступны здесь: http://forum.ru-board.com/topic.cgi?forum=35&amp;topic=46670&amp;start=712&amp;limit=1&amp;m=1#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Эмуляция CD/DVD.
+Создание образов.</t>
+  </si>
+  <si>
+    <t>Создает только mds образы. Попробовать Pro на предмет создания iso образов. Рассмотреть альтернативы Alcohol и UltraISO</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>Отказаться в пользу 7zip</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Avast! Free</t>
+  </si>
+  <si>
+    <t>Отказаться в пользу Avast</t>
+  </si>
+  <si>
+    <t>Управление файлами.
+Текстовый редактор.</t>
+  </si>
+  <si>
+    <t>Плагины:
+Colorer (http://colorer.sourceforge.net/farplugin.html),
+WinSCP (http://winscp.net).
+Рассмотреть альтернативы с закладками</t>
+  </si>
+  <si>
+    <t>Рассмотреть бесплатные альтернативы</t>
+  </si>
+  <si>
+    <t>Работа с
+документами,
+таблицами,
+презентациями</t>
+  </si>
+  <si>
+    <t>MS Office 2007 Professional</t>
+  </si>
+  <si>
+    <t>Установить MUI и обновления.
+Перейти на Ofice 2010</t>
+  </si>
+  <si>
+    <t>MS Office 2010 Professional+</t>
+  </si>
+  <si>
+    <t>Установить обновления. Рассмотреть переход на версию для дома и учебы.</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Плагины Delicious, Download Statusbar, Minimize to Tray.
+Заменить на Google Chrome</t>
+  </si>
+  <si>
+    <t>Настроить синхронизацию.
+Используемые плагины:
+Delicious Bookmarks Extension (Beta).
+Рассмотреть переход с Delicious на Google Bookmarks</t>
+  </si>
+  <si>
+    <t>JRE</t>
+  </si>
+  <si>
+    <t>Silverlight</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player</t>
+  </si>
+  <si>
+    <t>Синхронизация с PocketPC</t>
+  </si>
+  <si>
+    <t>MS Active Sync</t>
+  </si>
+  <si>
+    <t>Музыкальная библиотека,
+Синхронизация с iPhone</t>
+  </si>
+  <si>
+    <t>Синхронизация с Nokia</t>
+  </si>
+  <si>
+    <t>Nokia PC Suite</t>
+  </si>
+  <si>
+    <t>Купить Свете новый телефон и удалить</t>
+  </si>
+  <si>
+    <t>Перешел на 1Password</t>
+  </si>
+  <si>
+    <t>Обмен мгновенными сообщениями</t>
+  </si>
+  <si>
+    <t>ICQ</t>
+  </si>
+  <si>
+    <t>Перешел на Skype</t>
+  </si>
+  <si>
+    <t>Обмен мгновенными сообщениями,
+VoIP</t>
+  </si>
+  <si>
+    <t>Просмотр видеофайлов</t>
+  </si>
+  <si>
+    <t>CoreAVC</t>
+  </si>
+  <si>
+    <t>Хватает K-Lite</t>
+  </si>
+  <si>
+    <t>PowerDVD</t>
+  </si>
+  <si>
+    <t>Использую Astroburn</t>
+  </si>
+  <si>
+    <t>Проверить функционал</t>
+  </si>
+  <si>
+    <t>Перевод</t>
+  </si>
+  <si>
+    <t>Lingvo x3</t>
+  </si>
+  <si>
+    <t>Использую http://lingvo.yandex.ru</t>
+  </si>
+  <si>
+    <t>Обучение печати в слепую</t>
+  </si>
+  <si>
+    <t>Соло на клавиатуре</t>
+  </si>
+  <si>
+    <t>Так ни разу и не прошел до конца</t>
+  </si>
+  <si>
+    <t>Перешел на http://homemoney.ua/</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop CS2</t>
+  </si>
+  <si>
+    <t>Оплата в интернете</t>
+  </si>
+  <si>
+    <t>WebMoney Classic Keeper</t>
+  </si>
+  <si>
+    <t>Перестал использовать этот кошелек</t>
+  </si>
+  <si>
+    <t>ViceVersa Pro</t>
+  </si>
+  <si>
+    <t>Перешел на MS SyncToy</t>
+  </si>
+  <si>
+    <t>Paragon Drive Backup 10</t>
+  </si>
+  <si>
+    <t>Torrent - http://rutracker.org/forum/viewtopic.php?t=3161076</t>
+  </si>
+  <si>
+    <t>Игры</t>
+  </si>
+  <si>
+    <t>World of Warcraft</t>
+  </si>
+  <si>
+    <t>Пока не играю. Подписка ~ 400 руб в месяц.</t>
+  </si>
+  <si>
+    <t>Книжная библиотека</t>
+  </si>
+  <si>
+    <t>LibRusLib</t>
+  </si>
+  <si>
+    <t>iPhone - вебкамера</t>
+  </si>
+  <si>
+    <t>Mobiola WebCamera for iPhone</t>
+  </si>
+  <si>
+    <t>Версия для iPhone платная</t>
+  </si>
+  <si>
+    <t>Доступ к iPhone</t>
+  </si>
+  <si>
+    <t>iPhoneExplorer</t>
+  </si>
+  <si>
+    <t>iFunBox</t>
+  </si>
+  <si>
+    <t>MS SyncToy</t>
+  </si>
+  <si>
+    <t>Описание http://technet.microsoft.com/ru-ru/magazine/2007.03.utilityspotlight.aspx</t>
+  </si>
+  <si>
+    <t>Кодировка видео</t>
+  </si>
+  <si>
+    <t>Xvid4PSP + AviSynth</t>
+  </si>
+  <si>
+    <t>Кодировка видео для iPhone. Попробовать другие конвертеры.</t>
+  </si>
+  <si>
+    <t>Java разработка</t>
+  </si>
+  <si>
+    <t>Visual VM - для профилирования</t>
+  </si>
+  <si>
+    <t>Java разработка
+C/C++ разработка</t>
+  </si>
+  <si>
+    <t>Конфигурационное управление</t>
+  </si>
+  <si>
+    <t>Java профилирование</t>
+  </si>
+  <si>
+    <t>JProfiler 5</t>
+  </si>
+  <si>
+    <t>Free for Open Source</t>
+  </si>
+  <si>
+    <t>YourKit Profiler</t>
+  </si>
+  <si>
+    <t>ssh клиент</t>
+  </si>
+  <si>
+    <t>Putty</t>
+  </si>
+  <si>
+    <t>Linux runtime поддержка под Windows</t>
+  </si>
+  <si>
+    <t>Ultraedit</t>
+  </si>
+  <si>
+    <t>Использую Notepad++</t>
+  </si>
+  <si>
+    <t>Бесплатный текстовый редактор</t>
+  </si>
+  <si>
+    <t>diameter, tcap, sip, xcap, h248, radius, sync</t>
+  </si>
+  <si>
+    <t>sip</t>
+  </si>
+  <si>
+    <t>JAD,  JD-Core</t>
+  </si>
+  <si>
+    <t>Xming</t>
+  </si>
+  <si>
+    <t>Глючит</t>
+  </si>
+  <si>
+    <t>Jira</t>
+  </si>
+  <si>
+    <t>Confluence</t>
+  </si>
+  <si>
+    <t>Версия</t>
+  </si>
+  <si>
+    <t>Порядок установки</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>MS Windows XP Prof</t>
+  </si>
+  <si>
+    <t>XP Prof</t>
+  </si>
+  <si>
+    <t>Если необходимо установить сетевой драйвер, установить обновление, MS .NET Framework и MUI</t>
+  </si>
+  <si>
+    <t>MS Windows 7 Ult</t>
+  </si>
+  <si>
+    <t>7 Ultimate</t>
+  </si>
+  <si>
+    <t>Если необходимо установить сетевой драйвер, установить MUI и обновление.</t>
+  </si>
+  <si>
+    <t>http://forum.ru-board.com/topic.cgi?forum=35&amp;topic=46670&amp;start=712&amp;limit=1&amp;m=1#1</t>
+  </si>
+  <si>
+    <t>Эмуляция CD/DVD</t>
+  </si>
+  <si>
+    <t>4.35.6</t>
+  </si>
+  <si>
+    <t>http://www.daemon-tools.cc/</t>
+  </si>
+  <si>
+    <t>Упаковка/Распаковка данных</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>http://www.win-rar.ru/</t>
+  </si>
+  <si>
+    <t>9.3.4</t>
+  </si>
+  <si>
+    <t>http://get.adobe.com/reader/</t>
+  </si>
+  <si>
+    <t>Bios Update</t>
+  </si>
+  <si>
+    <t>Hardware Drivers</t>
+  </si>
+  <si>
+    <t>Nod32 Antivirus</t>
+  </si>
+  <si>
+    <t>Smart Security 4</t>
+  </si>
+  <si>
+    <t>1690 за первый год, 950 за последующие</t>
+  </si>
+  <si>
+    <t>http://www.esetnod32.ru/</t>
+  </si>
+  <si>
+    <t>Конвертация набранного в неправильной раскладке текста</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>http://punto.yandex.ru/</t>
+  </si>
+  <si>
+    <t>Управление файлами, редактирование текстовых файлов</t>
+  </si>
+  <si>
+    <t>1.7 beta  5</t>
+  </si>
+  <si>
+    <t>Установить Colorer Plugin, WinSCP</t>
+  </si>
+  <si>
+    <t>http://www.win-rar.ru/; http://colorer.sourceforge.net/farplugin.html</t>
+  </si>
+  <si>
+    <t>Редактирование текстовых файлов, Создание электронных таблиц, Создание презентаций, Управление проектами</t>
+  </si>
+  <si>
+    <t>MS Office</t>
+  </si>
+  <si>
+    <t>2003 EN</t>
+  </si>
+  <si>
+    <t>Установить MUI и обновления</t>
+  </si>
+  <si>
+    <t>http://office.microsoft.com/ru-ru/?CTT=97</t>
+  </si>
+  <si>
+    <t>2007 EN</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>Установить плагины Delicious, Download Statusbar, Minimize to Tray</t>
+  </si>
+  <si>
+    <t>http://www.mozilla-russia.org/</t>
+  </si>
+  <si>
+    <t>6.0.472.53</t>
+  </si>
+  <si>
+    <t>Установить плагин Delicious</t>
+  </si>
+  <si>
+    <t>http://www.google.com/chrome</t>
+  </si>
+  <si>
+    <t>6u21</t>
+  </si>
+  <si>
+    <t>http://www.oracle.com/technetwork/java/index.html</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/getsilverlight</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>http://get.adobe.com/ru/flashplayer/</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/windowsmobile/en-us/downloads/microsoft/activesync-download.mspx</t>
+  </si>
+  <si>
+    <t>iTunes + QuickTime</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>http://www.apple.com/itunes/</t>
+  </si>
+  <si>
+    <t>7.1.51.0</t>
+  </si>
+  <si>
+    <t>http://www.nokia.ru/support/software/nokia-pc-suites/compatibility-and-download</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>http://spb.com/products/wallet/</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>http://www.icq.com/ru.html</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>http://www.skype.com/intl/ru/home</t>
+  </si>
+  <si>
+    <t>2.0.4</t>
+  </si>
+  <si>
+    <t>http://www.utorrent.com/downloads</t>
+  </si>
+  <si>
+    <t>k-Lite Codec Pack</t>
+  </si>
+  <si>
+    <t>6.4.0 Mega</t>
+  </si>
+  <si>
+    <t>http://www.codecguide.com/download_kl.htm</t>
+  </si>
+  <si>
+    <t>Оценить необходимость установки</t>
+  </si>
+  <si>
+    <t>10 Portable</t>
+  </si>
+  <si>
+    <t>http://www.nero.com/rus/index.html; http://rutracker.org/forum/viewtopic.php?t=3153321</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop</t>
+  </si>
+  <si>
+    <t>CS2</t>
+  </si>
+  <si>
+    <t>http://www.adobe.com/ru/products/creativesuite/</t>
+  </si>
+  <si>
+    <t>2 b 2015</t>
+  </si>
+  <si>
+    <t>http://www.tgrmn.com/</t>
+  </si>
+  <si>
+    <t>10 Server Edition</t>
+  </si>
+  <si>
+    <t>http://www.paragon.ru/corporate/db-server/;http://rutracker.org/forum/viewtopic.php?t=3161076</t>
+  </si>
+  <si>
+    <t>http://www.wow-europe.com/ru/index.xml</t>
+  </si>
+  <si>
+    <t>http://www.i-funbox.com/</t>
+  </si>
+  <si>
+    <t>http://agilebits.com/products/1Password</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/</t>
+  </si>
+  <si>
+    <t>AviSynth</t>
+  </si>
+  <si>
+    <t>Xvid4PSP</t>
+  </si>
+  <si>
+    <t>Visual VM</t>
+  </si>
+  <si>
+    <t>JProfiler</t>
+  </si>
+  <si>
+    <t>Teamplayer</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Установить на Mediacenter Windows 7</t>
+  </si>
+  <si>
+    <t>MS Windows MUI</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/downloads/ru-ru/default.aspx</t>
+  </si>
+  <si>
+    <t>Оценить Daemon Tools Pro Advanced для решения задач - эмуляция HD DVD/Blue-ray, Создание образов дисков, Запись дисков.</t>
+  </si>
+  <si>
+    <t>MS Windows XP SP</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>Опробовать последнюю вресию 3.90</t>
+  </si>
+  <si>
+    <t>Network Driver</t>
+  </si>
+  <si>
+    <t>Windows Update</t>
+  </si>
+  <si>
+    <t>http://windowsupdate.microsoft.com</t>
+  </si>
+  <si>
+    <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nod32 </t>
+  </si>
+  <si>
+    <t>редактирование текстовых файлов</t>
+  </si>
+  <si>
+    <t>FAR Colorer Plugin</t>
+  </si>
+  <si>
+    <t>http://colorer.sourceforge.net/farplugin.html</t>
+  </si>
+  <si>
+    <t>2007 EN Enterprise</t>
+  </si>
+  <si>
+    <t>Установить обновление и MUI</t>
+  </si>
+  <si>
+    <t>3.6.8</t>
+  </si>
+  <si>
+    <t>Firefox Delicious</t>
+  </si>
+  <si>
+    <t>Firefox Download Statusbar</t>
+  </si>
+  <si>
+    <t>Firefox Minimize to Tray Plus</t>
+  </si>
+  <si>
+    <t>Google Chrome Delicious</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">! Протестировать MS Windows 8
 ! Протестировать Mac OS X Maverics
@@ -1423,707 +2108,11 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial Cyr"/>
         <charset val="204"/>
       </rPr>
-      <t>! Протестировать iOS 7.1</t>
+      <t>! Выбрать серверный дистрибутив Linux и поднять сервер</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-! Выбрать серверный дистрибутив Linux и поднять сервер</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Звуковой редактор и конвертация аудио форматов </t>
-  </si>
-  <si>
-    <t>! Поднять PLEX и протестировать с ATV</t>
-  </si>
-  <si>
-    <t>Видеоредактор и конвертирование видео</t>
-  </si>
-  <si>
-    <t>! Протестировать Java 8</t>
-  </si>
-  <si>
-    <t>! Найти аналоги для Mac OS X</t>
-  </si>
-  <si>
-    <t>!Протестировать на собственном сервере Subversion, CVS, Git</t>
-  </si>
-  <si>
-    <t>ПО</t>
-  </si>
-  <si>
-    <t>Комментарии</t>
-  </si>
-  <si>
-    <t>Blast</t>
-  </si>
-  <si>
-    <t>Felinni</t>
-  </si>
-  <si>
-    <t>MICSERV</t>
-  </si>
-  <si>
-    <t>Melpom.</t>
-  </si>
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>Runtime поддержка</t>
-  </si>
-  <si>
-    <t>MS Windows XP Professional</t>
-  </si>
-  <si>
-    <t>Если есть образ - восстановить, иначе - активировать; установить mui; установить sp, драйвера; настроить сеть; установить updates; настроить окружение; обновить bios. Сделать образ при помощи Paragon drive backup 10.
-Рассмотреть возможность использование Home Edition (OEM лицензия)</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>RUR</t>
-  </si>
-  <si>
-    <t>MS Windows 7 Ultimate</t>
-  </si>
-  <si>
-    <t>Если есть образ - восстановить, иначе - активировать; установить mui; установить sp, драйвера; настроить сеть; установить updates; настроить окружение; обновить bios. Сделать образ при помощи Paragon drive backup 10.
-Рассмотреть возможность использование Home Edition Extended Rus ().
-Образы доступны здесь: http://forum.ru-board.com/topic.cgi?forum=35&amp;topic=46670&amp;start=712&amp;limit=1&amp;m=1#1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Эмуляция CD/DVD.
-Создание образов.</t>
-  </si>
-  <si>
-    <t>Создает только mds образы. Попробовать Pro на предмет создания iso образов. Рассмотреть альтернативы Alcohol и UltraISO</t>
-  </si>
-  <si>
-    <t>FREE</t>
-  </si>
-  <si>
-    <t>Отказаться в пользу 7zip</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Avast! Free</t>
-  </si>
-  <si>
-    <t>Отказаться в пользу Avast</t>
-  </si>
-  <si>
-    <t>Управление файлами.
-Текстовый редактор.</t>
-  </si>
-  <si>
-    <t>Плагины:
-Colorer (http://colorer.sourceforge.net/farplugin.html),
-WinSCP (http://winscp.net).
-Рассмотреть альтернативы с закладками</t>
-  </si>
-  <si>
-    <t>Рассмотреть бесплатные альтернативы</t>
-  </si>
-  <si>
-    <t>Работа с
-документами,
-таблицами,
-презентациями</t>
-  </si>
-  <si>
-    <t>MS Office 2007 Professional</t>
-  </si>
-  <si>
-    <t>Установить MUI и обновления.
-Перейти на Ofice 2010</t>
-  </si>
-  <si>
-    <t>MS Office 2010 Professional+</t>
-  </si>
-  <si>
-    <t>Установить обновления. Рассмотреть переход на версию для дома и учебы.</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>Плагины Delicious, Download Statusbar, Minimize to Tray.
-Заменить на Google Chrome</t>
-  </si>
-  <si>
-    <t>Настроить синхронизацию.
-Используемые плагины:
-Delicious Bookmarks Extension (Beta).
-Рассмотреть переход с Delicious на Google Bookmarks</t>
-  </si>
-  <si>
-    <t>JRE</t>
-  </si>
-  <si>
-    <t>Silverlight</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player</t>
-  </si>
-  <si>
-    <t>Синхронизация с PocketPC</t>
-  </si>
-  <si>
-    <t>MS Active Sync</t>
-  </si>
-  <si>
-    <t>Музыкальная библиотека,
-Синхронизация с iPhone</t>
-  </si>
-  <si>
-    <t>Синхронизация с Nokia</t>
-  </si>
-  <si>
-    <t>Nokia PC Suite</t>
-  </si>
-  <si>
-    <t>Купить Свете новый телефон и удалить</t>
-  </si>
-  <si>
-    <t>Перешел на 1Password</t>
-  </si>
-  <si>
-    <t>Обмен мгновенными сообщениями</t>
-  </si>
-  <si>
-    <t>ICQ</t>
-  </si>
-  <si>
-    <t>Перешел на Skype</t>
-  </si>
-  <si>
-    <t>Обмен мгновенными сообщениями,
-VoIP</t>
-  </si>
-  <si>
-    <t>Просмотр видеофайлов</t>
-  </si>
-  <si>
-    <t>CoreAVC</t>
-  </si>
-  <si>
-    <t>Хватает K-Lite</t>
-  </si>
-  <si>
-    <t>PowerDVD</t>
-  </si>
-  <si>
-    <t>Использую Astroburn</t>
-  </si>
-  <si>
-    <t>Проверить функционал</t>
-  </si>
-  <si>
-    <t>Перевод</t>
-  </si>
-  <si>
-    <t>Lingvo x3</t>
-  </si>
-  <si>
-    <t>Использую http://lingvo.yandex.ru</t>
-  </si>
-  <si>
-    <t>Обучение печати в слепую</t>
-  </si>
-  <si>
-    <t>Соло на клавиатуре</t>
-  </si>
-  <si>
-    <t>Так ни разу и не прошел до конца</t>
-  </si>
-  <si>
-    <t>Перешел на http://homemoney.ua/</t>
-  </si>
-  <si>
-    <t>Adobe Photoshop CS2</t>
-  </si>
-  <si>
-    <t>Оплата в интернете</t>
-  </si>
-  <si>
-    <t>WebMoney Classic Keeper</t>
-  </si>
-  <si>
-    <t>Перестал использовать этот кошелек</t>
-  </si>
-  <si>
-    <t>ViceVersa Pro</t>
-  </si>
-  <si>
-    <t>Перешел на MS SyncToy</t>
-  </si>
-  <si>
-    <t>Paragon Drive Backup 10</t>
-  </si>
-  <si>
-    <t>Torrent - http://rutracker.org/forum/viewtopic.php?t=3161076</t>
-  </si>
-  <si>
-    <t>Игры</t>
-  </si>
-  <si>
-    <t>World of Warcraft</t>
-  </si>
-  <si>
-    <t>Пока не играю. Подписка ~ 400 руб в месяц.</t>
-  </si>
-  <si>
-    <t>Книжная библиотека</t>
-  </si>
-  <si>
-    <t>LibRusLib</t>
-  </si>
-  <si>
-    <t>iPhone - вебкамера</t>
-  </si>
-  <si>
-    <t>Mobiola WebCamera for iPhone</t>
-  </si>
-  <si>
-    <t>Версия для iPhone платная</t>
-  </si>
-  <si>
-    <t>Доступ к iPhone</t>
-  </si>
-  <si>
-    <t>iPhoneExplorer</t>
-  </si>
-  <si>
-    <t>iFunBox</t>
-  </si>
-  <si>
-    <t>MS SyncToy</t>
-  </si>
-  <si>
-    <t>Описание http://technet.microsoft.com/ru-ru/magazine/2007.03.utilityspotlight.aspx</t>
-  </si>
-  <si>
-    <t>Кодировка видео</t>
-  </si>
-  <si>
-    <t>Xvid4PSP + AviSynth</t>
-  </si>
-  <si>
-    <t>Кодировка видео для iPhone. Попробовать другие конвертеры.</t>
-  </si>
-  <si>
-    <t>Java разработка</t>
-  </si>
-  <si>
-    <t>Visual VM - для профилирования</t>
-  </si>
-  <si>
-    <t>Java разработка
-C/C++ разработка</t>
-  </si>
-  <si>
-    <t>Конфигурационное управление</t>
-  </si>
-  <si>
-    <t>Java профилирование</t>
-  </si>
-  <si>
-    <t>JProfiler 5</t>
-  </si>
-  <si>
-    <t>Free for Open Source</t>
-  </si>
-  <si>
-    <t>YourKit Profiler</t>
-  </si>
-  <si>
-    <t>ssh клиент</t>
-  </si>
-  <si>
-    <t>Putty</t>
-  </si>
-  <si>
-    <t>Linux runtime поддержка под Windows</t>
-  </si>
-  <si>
-    <t>Ultraedit</t>
-  </si>
-  <si>
-    <t>Использую Notepad++</t>
-  </si>
-  <si>
-    <t>Бесплатный текстовый редактор</t>
-  </si>
-  <si>
-    <t>diameter, tcap, sip, xcap, h248, radius, sync</t>
-  </si>
-  <si>
-    <t>sip</t>
-  </si>
-  <si>
-    <t>JAD,  JD-Core</t>
-  </si>
-  <si>
-    <t>Xming</t>
-  </si>
-  <si>
-    <t>Глючит</t>
-  </si>
-  <si>
-    <t>Jira</t>
-  </si>
-  <si>
-    <t>Confluence</t>
-  </si>
-  <si>
-    <t>Версия</t>
-  </si>
-  <si>
-    <t>Порядок установки</t>
-  </si>
-  <si>
-    <t>Ссылка</t>
-  </si>
-  <si>
-    <t>MS Windows XP Prof</t>
-  </si>
-  <si>
-    <t>XP Prof</t>
-  </si>
-  <si>
-    <t>Если необходимо установить сетевой драйвер, установить обновление, MS .NET Framework и MUI</t>
-  </si>
-  <si>
-    <t>MS Windows 7 Ult</t>
-  </si>
-  <si>
-    <t>7 Ultimate</t>
-  </si>
-  <si>
-    <t>Если необходимо установить сетевой драйвер, установить MUI и обновление.</t>
-  </si>
-  <si>
-    <t>http://forum.ru-board.com/topic.cgi?forum=35&amp;topic=46670&amp;start=712&amp;limit=1&amp;m=1#1</t>
-  </si>
-  <si>
-    <t>Эмуляция CD/DVD</t>
-  </si>
-  <si>
-    <t>4.35.6</t>
-  </si>
-  <si>
-    <t>http://www.daemon-tools.cc/</t>
-  </si>
-  <si>
-    <t>Упаковка/Распаковка данных</t>
-  </si>
-  <si>
-    <t>3.93</t>
-  </si>
-  <si>
-    <t>http://www.win-rar.ru/</t>
-  </si>
-  <si>
-    <t>9.3.4</t>
-  </si>
-  <si>
-    <t>http://get.adobe.com/reader/</t>
-  </si>
-  <si>
-    <t>Bios Update</t>
-  </si>
-  <si>
-    <t>Hardware Drivers</t>
-  </si>
-  <si>
-    <t>Nod32 Antivirus</t>
-  </si>
-  <si>
-    <t>Smart Security 4</t>
-  </si>
-  <si>
-    <t>1690 за первый год, 950 за последующие</t>
-  </si>
-  <si>
-    <t>http://www.esetnod32.ru/</t>
-  </si>
-  <si>
-    <t>Конвертация набранного в неправильной раскладке текста</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>http://punto.yandex.ru/</t>
-  </si>
-  <si>
-    <t>Управление файлами, редактирование текстовых файлов</t>
-  </si>
-  <si>
-    <t>1.7 beta  5</t>
-  </si>
-  <si>
-    <t>Установить Colorer Plugin, WinSCP</t>
-  </si>
-  <si>
-    <t>http://www.win-rar.ru/; http://colorer.sourceforge.net/farplugin.html</t>
-  </si>
-  <si>
-    <t>Редактирование текстовых файлов, Создание электронных таблиц, Создание презентаций, Управление проектами</t>
-  </si>
-  <si>
-    <t>MS Office</t>
-  </si>
-  <si>
-    <t>2003 EN</t>
-  </si>
-  <si>
-    <t>Установить MUI и обновления</t>
-  </si>
-  <si>
-    <t>http://office.microsoft.com/ru-ru/?CTT=97</t>
-  </si>
-  <si>
-    <t>2007 EN</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>Установить плагины Delicious, Download Statusbar, Minimize to Tray</t>
-  </si>
-  <si>
-    <t>http://www.mozilla-russia.org/</t>
-  </si>
-  <si>
-    <t>6.0.472.53</t>
-  </si>
-  <si>
-    <t>Установить плагин Delicious</t>
-  </si>
-  <si>
-    <t>http://www.google.com/chrome</t>
-  </si>
-  <si>
-    <t>6u21</t>
-  </si>
-  <si>
-    <t>http://www.oracle.com/technetwork/java/index.html</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>http://www.microsoft.com/getsilverlight</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>http://get.adobe.com/ru/flashplayer/</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>http://www.microsoft.com/windowsmobile/en-us/downloads/microsoft/activesync-download.mspx</t>
-  </si>
-  <si>
-    <t>iTunes + QuickTime</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>http://www.apple.com/itunes/</t>
-  </si>
-  <si>
-    <t>7.1.51.0</t>
-  </si>
-  <si>
-    <t>http://www.nokia.ru/support/software/nokia-pc-suites/compatibility-and-download</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>http://spb.com/products/wallet/</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>http://www.icq.com/ru.html</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>http://www.skype.com/intl/ru/home</t>
-  </si>
-  <si>
-    <t>2.0.4</t>
-  </si>
-  <si>
-    <t>http://www.utorrent.com/downloads</t>
-  </si>
-  <si>
-    <t>k-Lite Codec Pack</t>
-  </si>
-  <si>
-    <t>6.4.0 Mega</t>
-  </si>
-  <si>
-    <t>http://www.codecguide.com/download_kl.htm</t>
-  </si>
-  <si>
-    <t>Оценить необходимость установки</t>
-  </si>
-  <si>
-    <t>10 Portable</t>
-  </si>
-  <si>
-    <t>http://www.nero.com/rus/index.html; http://rutracker.org/forum/viewtopic.php?t=3153321</t>
-  </si>
-  <si>
-    <t>Adobe Photoshop</t>
-  </si>
-  <si>
-    <t>CS2</t>
-  </si>
-  <si>
-    <t>http://www.adobe.com/ru/products/creativesuite/</t>
-  </si>
-  <si>
-    <t>2 b 2015</t>
-  </si>
-  <si>
-    <t>http://www.tgrmn.com/</t>
-  </si>
-  <si>
-    <t>10 Server Edition</t>
-  </si>
-  <si>
-    <t>http://www.paragon.ru/corporate/db-server/;http://rutracker.org/forum/viewtopic.php?t=3161076</t>
-  </si>
-  <si>
-    <t>http://www.wow-europe.com/ru/index.xml</t>
-  </si>
-  <si>
-    <t>http://www.i-funbox.com/</t>
-  </si>
-  <si>
-    <t>http://agilebits.com/products/1Password</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/</t>
-  </si>
-  <si>
-    <t>AviSynth</t>
-  </si>
-  <si>
-    <t>Xvid4PSP</t>
-  </si>
-  <si>
-    <t>Visual VM</t>
-  </si>
-  <si>
-    <t>JProfiler</t>
-  </si>
-  <si>
-    <t>Teamplayer</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Установить на Mediacenter Windows 7</t>
-  </si>
-  <si>
-    <t>MS Windows MUI</t>
-  </si>
-  <si>
-    <t>http://www.microsoft.com/downloads/ru-ru/default.aspx</t>
-  </si>
-  <si>
-    <t>Оценить Daemon Tools Pro Advanced для решения задач - эмуляция HD DVD/Blue-ray, Создание образов дисков, Запись дисков.</t>
-  </si>
-  <si>
-    <t>MS Windows XP SP</t>
-  </si>
-  <si>
-    <t>3.51</t>
-  </si>
-  <si>
-    <t>Опробовать последнюю вресию 3.90</t>
-  </si>
-  <si>
-    <t>Network Driver</t>
-  </si>
-  <si>
-    <t>Windows Update</t>
-  </si>
-  <si>
-    <t>http://windowsupdate.microsoft.com</t>
-  </si>
-  <si>
-    <t>.NET Framework</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nod32 </t>
-  </si>
-  <si>
-    <t>редактирование текстовых файлов</t>
-  </si>
-  <si>
-    <t>FAR Colorer Plugin</t>
-  </si>
-  <si>
-    <t>http://colorer.sourceforge.net/farplugin.html</t>
-  </si>
-  <si>
-    <t>2007 EN Enterprise</t>
-  </si>
-  <si>
-    <t>Установить обновление и MUI</t>
-  </si>
-  <si>
-    <t>3.6.8</t>
-  </si>
-  <si>
-    <t>Firefox Delicious</t>
-  </si>
-  <si>
-    <t>Firefox Download Statusbar</t>
-  </si>
-  <si>
-    <t>Firefox Minimize to Tray Plus</t>
-  </si>
-  <si>
-    <t>Google Chrome Delicious</t>
   </si>
 </sst>
 </file>
@@ -2982,27 +2971,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3011,12 +2979,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3315,6 +3277,33 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3684,7 +3673,7 @@
   <dimension ref="A1:E206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -3697,24 +3686,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1" ht="15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="205" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="205" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="206" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="82"/>
+      <c r="E1" s="206"/>
     </row>
     <row r="2" spans="1:5" s="37" customFormat="1" ht="15">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
       <c r="D2" s="71" t="s">
         <v>199</v>
       </c>
@@ -3731,13 +3720,13 @@
       <c r="D3" s="62"/>
       <c r="E3" s="38"/>
     </row>
-    <row r="4" spans="1:5" s="41" customFormat="1" ht="52">
+    <row r="4" spans="1:5" s="41" customFormat="1" ht="39">
       <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40" t="s">
-        <v>403</v>
+        <v>625</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="39"/>
@@ -4798,7 +4787,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="40" t="s">
@@ -4842,7 +4831,7 @@
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
@@ -4897,7 +4886,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="40" t="s">
@@ -5379,7 +5368,7 @@
       </c>
       <c r="B170" s="39"/>
       <c r="C170" s="40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D170" s="39"/>
       <c r="E170" s="39"/>
@@ -5534,7 +5523,7 @@
       </c>
       <c r="B187" s="39"/>
       <c r="C187" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D187" s="39"/>
       <c r="E187" s="39"/>
@@ -5567,7 +5556,7 @@
       </c>
       <c r="B190" s="39"/>
       <c r="C190" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D190" s="39"/>
       <c r="E190" s="39"/>
@@ -5830,10 +5819,10 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="84"/>
+      <c r="C1" s="211"/>
       <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
@@ -5881,7 +5870,7 @@
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="207" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5892,7 +5881,7 @@
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="85"/>
+      <c r="A6" s="207"/>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
@@ -5901,7 +5890,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="207" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -5914,7 +5903,7 @@
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="85"/>
+      <c r="A8" s="207"/>
       <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
@@ -5923,7 +5912,7 @@
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="207" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -5936,7 +5925,7 @@
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="26">
-      <c r="A10" s="85"/>
+      <c r="A10" s="207"/>
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
@@ -5958,7 +5947,7 @@
       <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="207" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5969,7 +5958,7 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="85"/>
+      <c r="A13" s="207"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -5978,7 +5967,7 @@
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="85"/>
+      <c r="A14" s="207"/>
       <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
@@ -6063,7 +6052,7 @@
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="208" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6076,7 +6065,7 @@
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="87"/>
+      <c r="A22" s="209"/>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -6170,7 +6159,7 @@
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="207" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6183,7 +6172,7 @@
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="85"/>
+      <c r="A31" s="207"/>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
@@ -6286,7 +6275,7 @@
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="208" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -6297,7 +6286,7 @@
       <c r="E40" s="16"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="87"/>
+      <c r="A41" s="209"/>
       <c r="B41" s="6" t="s">
         <v>78</v>
       </c>
@@ -6348,7 +6337,7 @@
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="207" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -6359,7 +6348,7 @@
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="85"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="28" t="s">
         <v>101</v>
       </c>
@@ -6368,7 +6357,7 @@
       <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A48" s="85"/>
+      <c r="A48" s="207"/>
       <c r="B48" s="6" t="s">
         <v>67</v>
       </c>
@@ -6465,7 +6454,7 @@
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="85" t="s">
+      <c r="A57" s="207" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6476,7 +6465,7 @@
       <c r="E57" s="16"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="85"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="6" t="s">
         <v>15</v>
       </c>
@@ -6497,16 +6486,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A46:A48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6603,1404 +6592,1404 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="160" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="151" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="160" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="160" customWidth="1"/>
-    <col min="5" max="5" width="7" style="160" customWidth="1"/>
-    <col min="6" max="7" width="9.28515625" style="160" customWidth="1"/>
-    <col min="8" max="8" width="9" style="160" customWidth="1"/>
-    <col min="9" max="9" width="12" style="161" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" style="151" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="151" customWidth="1"/>
+    <col min="5" max="5" width="7" style="151" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="151" customWidth="1"/>
+    <col min="8" max="8" width="9" style="151" customWidth="1"/>
+    <col min="9" max="9" width="12" style="152" customWidth="1"/>
     <col min="10" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="93" customFormat="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:9" s="84" customFormat="1">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="81" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="D1" s="83" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="E1" s="83" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="F1" s="83" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="G1" s="83" t="s">
         <v>414</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="H1" s="212" t="s">
         <v>415</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="I1" s="213"/>
+    </row>
+    <row r="2" spans="1:9" s="91" customFormat="1" ht="91">
+      <c r="A2" s="85" t="s">
         <v>416</v>
       </c>
-      <c r="I1" s="92"/>
-    </row>
-    <row r="2" spans="1:9" s="100" customFormat="1" ht="91">
-      <c r="A2" s="94" t="s">
+      <c r="B2" s="86" t="s">
         <v>417</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="C2" s="85" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="94" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="96">
+      <c r="D2" s="87">
         <v>10</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97" t="s">
+      <c r="E2" s="87"/>
+      <c r="F2" s="88" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89">
+        <v>5500</v>
+      </c>
+      <c r="I2" s="90" t="s">
         <v>420</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98">
-        <v>5500</v>
-      </c>
-      <c r="I2" s="99" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="143">
+      <c r="A3" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="86" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="143">
-      <c r="A3" s="94" t="s">
-        <v>417</v>
-      </c>
-      <c r="B3" s="95" t="s">
+      <c r="C3" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="D3" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="E3" s="87" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" s="87"/>
+      <c r="G3" s="92" t="s">
+        <v>419</v>
+      </c>
+      <c r="H3" s="93">
+        <v>11990</v>
+      </c>
+      <c r="I3" s="94" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="26">
+      <c r="A4" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="B4" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" s="87">
+        <v>90</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="H5" s="102">
+        <v>29</v>
+      </c>
+      <c r="I5" s="103" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1">
+      <c r="A6" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="104"/>
+      <c r="D6" s="106">
+        <v>80</v>
+      </c>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="104"/>
+      <c r="D7" s="106">
+        <v>40</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A8" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="106">
+        <v>20</v>
+      </c>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102">
+        <v>1080</v>
+      </c>
+      <c r="I9" s="103" t="s">
         <v>420</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="101" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="106">
+        <v>120</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" s="106"/>
+      <c r="G10" s="110" t="s">
+        <v>419</v>
+      </c>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="52">
+      <c r="A11" s="98" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11" s="100"/>
+      <c r="G11" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="H11" s="112"/>
+      <c r="I11" s="113" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="26">
+      <c r="A12" s="98" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="100">
+        <v>160</v>
+      </c>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="102">
+        <v>46</v>
+      </c>
+      <c r="I12" s="103" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="52">
+      <c r="A13" s="98" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" s="101"/>
+      <c r="E13" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="102">
+        <v>15000</v>
+      </c>
+      <c r="I13" s="103" t="s">
         <v>420</v>
       </c>
-      <c r="H3" s="102">
-        <v>11990</v>
-      </c>
-      <c r="I3" s="103" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="26">
-      <c r="A4" s="104" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="104" t="s">
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="52">
+      <c r="A14" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>437</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" s="88">
+        <v>170</v>
+      </c>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="92" t="s">
+        <v>419</v>
+      </c>
+      <c r="H14" s="93">
+        <v>14990</v>
+      </c>
+      <c r="I14" s="94" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="26">
+      <c r="A15" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113" t="s">
         <v>426</v>
       </c>
-      <c r="D4" s="96">
-        <v>90</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>420</v>
-      </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="108" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>428</v>
-      </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109" t="s">
-        <v>420</v>
-      </c>
-      <c r="F5" s="110" t="s">
-        <v>420</v>
-      </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="111">
-        <v>29</v>
-      </c>
-      <c r="I5" s="112" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
-      <c r="A6" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="115">
-        <v>80</v>
-      </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H6" s="117"/>
-      <c r="I6" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="114" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="65">
+      <c r="A16" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" s="87">
+        <v>30</v>
+      </c>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88" t="s">
+        <v>419</v>
+      </c>
+      <c r="G16" s="88" t="s">
+        <v>419</v>
+      </c>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" s="105" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="106">
+        <v>60</v>
+      </c>
+      <c r="E17" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="G17" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" s="108"/>
+      <c r="I17" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18" s="105" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="106">
+        <v>70</v>
+      </c>
+      <c r="E18" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="105" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="106">
         <v>50</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="115">
-        <v>40</v>
-      </c>
-      <c r="E7" s="115" t="s">
-        <v>420</v>
-      </c>
-      <c r="F7" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="G7" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A8" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="114" t="s">
-        <v>430</v>
-      </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="115">
+      <c r="E19" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="106"/>
+      <c r="G19" s="110" t="s">
+        <v>419</v>
+      </c>
+      <c r="H19" s="108"/>
+      <c r="I19" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="120" customFormat="1">
+      <c r="A20" s="115" t="s">
+        <v>445</v>
+      </c>
+      <c r="B20" s="116" t="s">
+        <v>446</v>
+      </c>
+      <c r="C20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="26">
+      <c r="A21" s="104" t="s">
+        <v>447</v>
+      </c>
+      <c r="B21" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="106">
+        <v>200</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="98" t="s">
+        <v>448</v>
+      </c>
+      <c r="B22" s="99" t="s">
+        <v>449</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>450</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="113" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="115"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="108" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="107" t="s">
-        <v>431</v>
-      </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109" t="s">
-        <v>420</v>
-      </c>
-      <c r="F9" s="110" t="s">
-        <v>420</v>
-      </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="111">
-        <v>1080</v>
-      </c>
-      <c r="I9" s="112" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="113" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="115">
-        <v>120</v>
-      </c>
-      <c r="E10" s="115" t="s">
-        <v>420</v>
-      </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="119" t="s">
-        <v>420</v>
-      </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="52">
-      <c r="A11" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11" s="108" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>433</v>
-      </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109" t="s">
-        <v>420</v>
-      </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="120" t="s">
-        <v>420</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="26">
-      <c r="A12" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="B12" s="108" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="107" t="s">
-        <v>434</v>
-      </c>
-      <c r="D12" s="109">
-        <v>160</v>
-      </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="111">
-        <v>46</v>
-      </c>
-      <c r="I12" s="112" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="52">
-      <c r="A13" s="107" t="s">
-        <v>435</v>
-      </c>
-      <c r="B13" s="108" t="s">
-        <v>436</v>
-      </c>
-      <c r="C13" s="107" t="s">
-        <v>437</v>
-      </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="109" t="s">
-        <v>420</v>
-      </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="111">
-        <v>15000</v>
-      </c>
-      <c r="I13" s="112" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="52">
-      <c r="A14" s="104" t="s">
-        <v>435</v>
-      </c>
-      <c r="B14" s="95" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>439</v>
-      </c>
-      <c r="D14" s="97">
-        <v>170</v>
-      </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="101" t="s">
-        <v>420</v>
-      </c>
-      <c r="H14" s="102">
-        <v>14990</v>
-      </c>
-      <c r="I14" s="103" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="26">
-      <c r="A15" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="108" t="s">
-        <v>440</v>
-      </c>
-      <c r="C15" s="107" t="s">
-        <v>441</v>
-      </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109" t="s">
-        <v>420</v>
-      </c>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="65">
-      <c r="A16" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="104" t="s">
-        <v>442</v>
-      </c>
-      <c r="D16" s="96">
-        <v>30</v>
-      </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97" t="s">
-        <v>420</v>
-      </c>
-      <c r="G16" s="97" t="s">
-        <v>420</v>
-      </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="106" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="123" t="s">
-        <v>417</v>
-      </c>
-      <c r="B17" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="115">
-        <v>60</v>
-      </c>
-      <c r="E17" s="115" t="s">
-        <v>420</v>
-      </c>
-      <c r="F17" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="G17" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H17" s="117"/>
-      <c r="I17" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="123" t="s">
-        <v>417</v>
-      </c>
-      <c r="B18" s="114" t="s">
-        <v>444</v>
-      </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="115">
-        <v>70</v>
-      </c>
-      <c r="E18" s="115" t="s">
-        <v>420</v>
-      </c>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="123" t="s">
-        <v>417</v>
-      </c>
-      <c r="B19" s="114" t="s">
-        <v>445</v>
-      </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="115">
-        <v>50</v>
-      </c>
-      <c r="E19" s="115" t="s">
-        <v>420</v>
-      </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="119" t="s">
-        <v>420</v>
-      </c>
-      <c r="H19" s="117"/>
-      <c r="I19" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="129" customFormat="1">
-      <c r="A20" s="124" t="s">
-        <v>446</v>
-      </c>
-      <c r="B20" s="125" t="s">
-        <v>447</v>
-      </c>
-      <c r="C20" s="124"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="26">
-      <c r="A21" s="113" t="s">
-        <v>448</v>
-      </c>
-      <c r="B21" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="115">
-        <v>200</v>
-      </c>
-      <c r="E21" s="115" t="s">
-        <v>420</v>
-      </c>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="107" t="s">
-        <v>449</v>
-      </c>
-      <c r="B22" s="108" t="s">
-        <v>450</v>
-      </c>
-      <c r="C22" s="107" t="s">
+      <c r="B23" s="116" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="115" t="s">
         <v>451</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109" t="s">
-        <v>420</v>
-      </c>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="125" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>452</v>
-      </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="127">
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118">
         <f>9.95*31</f>
         <v>308.45</v>
       </c>
-      <c r="I23" s="128" t="s">
-        <v>421</v>
+      <c r="I23" s="119" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="124" t="s">
+      <c r="A24" s="115" t="s">
+        <v>452</v>
+      </c>
+      <c r="B24" s="116" t="s">
         <v>453</v>
       </c>
-      <c r="B24" s="125" t="s">
+      <c r="C24" s="115" t="s">
         <v>454</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="26">
+      <c r="A25" s="104" t="s">
         <v>455</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="128" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="26">
-      <c r="A25" s="113" t="s">
+      <c r="B25" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="106">
+        <v>190</v>
+      </c>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H25" s="108"/>
+      <c r="I25" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="106">
+        <v>150</v>
+      </c>
+      <c r="E26" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="104" t="s">
         <v>456</v>
       </c>
-      <c r="B25" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="115">
-        <v>190</v>
-      </c>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116" t="s">
+      <c r="B27" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="104"/>
+      <c r="D27" s="106">
+        <v>180</v>
+      </c>
+      <c r="E27" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="115" t="s">
+        <v>456</v>
+      </c>
+      <c r="B28" s="121" t="s">
+        <v>457</v>
+      </c>
+      <c r="C28" s="115" t="s">
+        <v>458</v>
+      </c>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="115" t="s">
+        <v>456</v>
+      </c>
+      <c r="B29" s="121" t="s">
+        <v>459</v>
+      </c>
+      <c r="C29" s="115" t="s">
+        <v>458</v>
+      </c>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="119"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="121" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="115" t="s">
+        <v>460</v>
+      </c>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="118">
+        <v>3000</v>
+      </c>
+      <c r="I30" s="119" t="s">
         <v>420</v>
       </c>
-      <c r="H25" s="117"/>
-      <c r="I25" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="115">
-        <v>150</v>
-      </c>
-      <c r="E26" s="115" t="s">
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="95" t="s">
+        <v>461</v>
+      </c>
+      <c r="D31" s="87">
+        <v>100</v>
+      </c>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="97" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="95" t="s">
+        <v>461</v>
+      </c>
+      <c r="D32" s="87">
+        <v>110</v>
+      </c>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="97" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="115" t="s">
+        <v>462</v>
+      </c>
+      <c r="B33" s="121" t="s">
+        <v>463</v>
+      </c>
+      <c r="C33" s="122" t="s">
+        <v>464</v>
+      </c>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="119"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="115" t="s">
+        <v>465</v>
+      </c>
+      <c r="B34" s="121" t="s">
+        <v>466</v>
+      </c>
+      <c r="C34" s="115" t="s">
+        <v>467</v>
+      </c>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="119"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="121" t="s">
+        <v>354</v>
+      </c>
+      <c r="C35" s="122" t="s">
+        <v>468</v>
+      </c>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="119"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="105" t="s">
+        <v>469</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="106">
+        <v>230</v>
+      </c>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="123">
+        <v>30000</v>
+      </c>
+      <c r="I36" s="124" t="s">
         <v>420</v>
       </c>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="113" t="s">
-        <v>457</v>
-      </c>
-      <c r="B27" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="115">
-        <v>180</v>
-      </c>
-      <c r="E27" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="B28" s="130" t="s">
-        <v>458</v>
-      </c>
-      <c r="C28" s="124" t="s">
-        <v>459</v>
-      </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="B29" s="130" t="s">
-        <v>460</v>
-      </c>
-      <c r="C29" s="124" t="s">
-        <v>459</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="128"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="130" t="s">
-        <v>245</v>
-      </c>
-      <c r="C30" s="124" t="s">
-        <v>461</v>
-      </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="127">
-        <v>3000</v>
-      </c>
-      <c r="I30" s="128" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="104" t="s">
-        <v>462</v>
-      </c>
-      <c r="D31" s="96">
-        <v>100</v>
-      </c>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="106" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="104" t="s">
-        <v>462</v>
-      </c>
-      <c r="D32" s="96">
-        <v>110</v>
-      </c>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="106" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="124" t="s">
-        <v>463</v>
-      </c>
-      <c r="B33" s="130" t="s">
-        <v>464</v>
-      </c>
-      <c r="C33" s="131" t="s">
-        <v>465</v>
-      </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="128"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="124" t="s">
-        <v>466</v>
-      </c>
-      <c r="B34" s="130" t="s">
-        <v>467</v>
-      </c>
-      <c r="C34" s="124" t="s">
-        <v>468</v>
-      </c>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="128"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="124" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="130" t="s">
-        <v>354</v>
-      </c>
-      <c r="C35" s="131" t="s">
-        <v>469</v>
-      </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="128"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="114" t="s">
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="115" t="s">
         <v>470</v>
       </c>
-      <c r="C36" s="113"/>
-      <c r="D36" s="115">
-        <v>230</v>
-      </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="132">
-        <v>30000</v>
-      </c>
-      <c r="I36" s="133" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="124" t="s">
+      <c r="B37" s="121" t="s">
         <v>471</v>
       </c>
-      <c r="B37" s="130" t="s">
+      <c r="C37" s="115" t="s">
         <v>472</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="119" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="125" t="s">
         <v>473</v>
       </c>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="128" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="134" t="s">
+      <c r="C38" s="115" t="s">
         <v>474</v>
       </c>
-      <c r="C38" s="124" t="s">
-        <v>475</v>
-      </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="127">
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="118">
         <f>60*31</f>
         <v>1860</v>
       </c>
-      <c r="I38" s="128" t="s">
-        <v>421</v>
+      <c r="I38" s="119" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="105" t="s">
+        <v>475</v>
+      </c>
+      <c r="C39" s="104" t="s">
         <v>476</v>
       </c>
-      <c r="C39" s="113" t="s">
+      <c r="D39" s="106">
+        <v>220</v>
+      </c>
+      <c r="E39" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="123">
+        <v>9900</v>
+      </c>
+      <c r="I39" s="124" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="126" t="s">
         <v>477</v>
       </c>
-      <c r="D39" s="115">
-        <v>220</v>
-      </c>
-      <c r="E39" s="115" t="s">
-        <v>420</v>
-      </c>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="132">
-        <v>9900</v>
-      </c>
-      <c r="I39" s="133" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="135" t="s">
+      <c r="B40" s="127" t="s">
         <v>478</v>
       </c>
-      <c r="B40" s="136" t="s">
+      <c r="C40" s="126" t="s">
         <v>479</v>
       </c>
-      <c r="C40" s="135" t="s">
+      <c r="D40" s="117"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="129">
+        <v>10</v>
+      </c>
+      <c r="I40" s="130" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="104" t="s">
         <v>480</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="138">
+      <c r="B41" s="131" t="s">
+        <v>481</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="104" t="s">
+        <v>482</v>
+      </c>
+      <c r="B42" s="105" t="s">
+        <v>483</v>
+      </c>
+      <c r="C42" s="104" t="s">
+        <v>484</v>
+      </c>
+      <c r="D42" s="107">
+        <v>210</v>
+      </c>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="132" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="133" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="132"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="136"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="132" t="s">
+        <v>485</v>
+      </c>
+      <c r="B44" s="133" t="s">
+        <v>486</v>
+      </c>
+      <c r="C44" s="132"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="136"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="132" t="s">
+        <v>485</v>
+      </c>
+      <c r="B45" s="137" t="s">
+        <v>487</v>
+      </c>
+      <c r="C45" s="132"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="136"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="104"/>
+      <c r="D46" s="107">
+        <v>140</v>
+      </c>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H46" s="123">
+        <v>50</v>
+      </c>
+      <c r="I46" s="124" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="104"/>
+      <c r="D47" s="107">
+        <v>130</v>
+      </c>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H47" s="108"/>
+      <c r="I47" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="26">
+      <c r="A48" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="105" t="s">
+        <v>488</v>
+      </c>
+      <c r="C48" s="104" t="s">
+        <v>489</v>
+      </c>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="95" t="s">
+        <v>490</v>
+      </c>
+      <c r="B49" s="138" t="s">
+        <v>491</v>
+      </c>
+      <c r="C49" s="95" t="s">
+        <v>492</v>
+      </c>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88" t="s">
+        <v>419</v>
+      </c>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="104" t="s">
+        <v>493</v>
+      </c>
+      <c r="B50" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="104" t="s">
+        <v>494</v>
+      </c>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H50" s="108"/>
+      <c r="I50" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="26">
+      <c r="A51" s="104" t="s">
+        <v>495</v>
+      </c>
+      <c r="B51" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="104"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H51" s="108"/>
+      <c r="I51" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="104" t="s">
+        <v>496</v>
+      </c>
+      <c r="B52" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="104"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H52" s="108"/>
+      <c r="I52" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="B53" s="105" t="s">
+        <v>498</v>
+      </c>
+      <c r="C53" s="104" t="s">
+        <v>499</v>
+      </c>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H53" s="139">
+        <v>500</v>
+      </c>
+      <c r="I53" s="140" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="132" t="s">
+        <v>497</v>
+      </c>
+      <c r="B54" s="133" t="s">
+        <v>500</v>
+      </c>
+      <c r="C54" s="132"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="136"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="139" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="113" t="s">
-        <v>481</v>
-      </c>
-      <c r="B41" s="140" t="s">
-        <v>482</v>
-      </c>
-      <c r="C41" s="113"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="115" t="s">
-        <v>420</v>
-      </c>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="113" t="s">
-        <v>483</v>
-      </c>
-      <c r="B42" s="114" t="s">
-        <v>484</v>
-      </c>
-      <c r="C42" s="113" t="s">
-        <v>485</v>
-      </c>
-      <c r="D42" s="116">
-        <v>210</v>
-      </c>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="142" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="141"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="145"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="141" t="s">
-        <v>486</v>
-      </c>
-      <c r="B44" s="142" t="s">
-        <v>487</v>
-      </c>
-      <c r="C44" s="141"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="145"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="141" t="s">
-        <v>486</v>
-      </c>
-      <c r="B45" s="146" t="s">
-        <v>488</v>
-      </c>
-      <c r="C45" s="141"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="145"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="113"/>
-      <c r="D46" s="116">
-        <v>140</v>
-      </c>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H46" s="132">
-        <v>50</v>
-      </c>
-      <c r="I46" s="133" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="116">
-        <v>130</v>
-      </c>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H47" s="117"/>
-      <c r="I47" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="26">
-      <c r="A48" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="114" t="s">
-        <v>489</v>
-      </c>
-      <c r="C48" s="113" t="s">
-        <v>490</v>
-      </c>
-      <c r="D48" s="116"/>
-      <c r="E48" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="104" t="s">
-        <v>491</v>
-      </c>
-      <c r="B49" s="147" t="s">
-        <v>492</v>
-      </c>
-      <c r="C49" s="104" t="s">
-        <v>493</v>
-      </c>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97" t="s">
-        <v>420</v>
-      </c>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="113" t="s">
-        <v>494</v>
-      </c>
-      <c r="B50" s="114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="113" t="s">
-        <v>495</v>
-      </c>
-      <c r="D50" s="116"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H50" s="117"/>
-      <c r="I50" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="26">
-      <c r="A51" s="113" t="s">
-        <v>496</v>
-      </c>
-      <c r="B51" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H51" s="117"/>
-      <c r="I51" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="113" t="s">
-        <v>497</v>
-      </c>
-      <c r="B52" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="113"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H52" s="117"/>
-      <c r="I52" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="113" t="s">
-        <v>498</v>
-      </c>
-      <c r="B53" s="114" t="s">
-        <v>499</v>
-      </c>
-      <c r="C53" s="113" t="s">
-        <v>500</v>
-      </c>
-      <c r="D53" s="116"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H53" s="148">
-        <v>500</v>
-      </c>
-      <c r="I53" s="149" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="141" t="s">
-        <v>498</v>
-      </c>
-      <c r="B54" s="142" t="s">
+      <c r="C55" s="104"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H55" s="108"/>
+      <c r="I55" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="104" t="s">
         <v>501</v>
       </c>
-      <c r="C54" s="141"/>
-      <c r="D54" s="143"/>
-      <c r="E54" s="143"/>
-      <c r="F54" s="143"/>
-      <c r="G54" s="143"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="145"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="113"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H55" s="117"/>
-      <c r="I55" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="113" t="s">
+      <c r="B56" s="105" t="s">
         <v>502</v>
       </c>
-      <c r="B56" s="114" t="s">
+      <c r="C56" s="104"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H56" s="108"/>
+      <c r="I56" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="104" t="s">
         <v>503</v>
       </c>
-      <c r="C56" s="113"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H56" s="117"/>
-      <c r="I56" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="113" t="s">
+      <c r="B57" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="104"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H57" s="108"/>
+      <c r="I57" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="141" t="s">
         <v>504</v>
       </c>
-      <c r="B57" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="113"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H57" s="117"/>
-      <c r="I57" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="131" t="s">
+      <c r="C58" s="122" t="s">
+        <v>505</v>
+      </c>
+      <c r="D58" s="142"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="143">
+        <v>60</v>
+      </c>
+      <c r="I58" s="144" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="150" t="s">
-        <v>505</v>
-      </c>
-      <c r="C58" s="131" t="s">
+      <c r="B59" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="104" t="s">
         <v>506</v>
       </c>
-      <c r="D58" s="151"/>
-      <c r="E58" s="151"/>
-      <c r="F58" s="151"/>
-      <c r="G58" s="151"/>
-      <c r="H58" s="152">
-        <v>60</v>
-      </c>
-      <c r="I58" s="153" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="114" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="113" t="s">
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H59" s="108"/>
+      <c r="I59" s="145" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="104"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H60" s="108"/>
+      <c r="I60" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="104" t="s">
+        <v>396</v>
+      </c>
+      <c r="B61" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="104" t="s">
         <v>507</v>
       </c>
-      <c r="D59" s="116"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H59" s="117"/>
-      <c r="I59" s="154" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="113"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H60" s="117"/>
-      <c r="I60" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="113" t="s">
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H61" s="108"/>
+      <c r="I61" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="104" t="s">
         <v>396</v>
       </c>
-      <c r="B61" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="113" t="s">
+      <c r="B62" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="104" t="s">
         <v>508</v>
       </c>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H61" s="117"/>
-      <c r="I61" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="113" t="s">
-        <v>396</v>
-      </c>
-      <c r="B62" s="114" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="113" t="s">
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H62" s="108"/>
+      <c r="I62" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="132"/>
+      <c r="B63" s="133" t="s">
         <v>509</v>
       </c>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H62" s="117"/>
-      <c r="I62" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="141"/>
-      <c r="B63" s="142" t="s">
+      <c r="C63" s="132"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="135"/>
+      <c r="I63" s="136"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="105" t="s">
         <v>510</v>
       </c>
-      <c r="C63" s="141"/>
-      <c r="D63" s="143"/>
-      <c r="E63" s="143"/>
-      <c r="F63" s="143"/>
-      <c r="G63" s="143"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="145"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="114" t="s">
+      <c r="C64" s="104" t="s">
         <v>511</v>
       </c>
-      <c r="C64" s="113" t="s">
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H64" s="108"/>
+      <c r="I64" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="104"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="H65" s="108"/>
+      <c r="I65" s="109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="132"/>
+      <c r="B66" s="133" t="s">
         <v>512</v>
       </c>
-      <c r="D64" s="116"/>
-      <c r="E64" s="116"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H64" s="117"/>
-      <c r="I64" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="113"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H65" s="117"/>
-      <c r="I65" s="118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="141"/>
-      <c r="B66" s="142" t="s">
+      <c r="C66" s="132"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="135"/>
+      <c r="I66" s="136"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="132"/>
+      <c r="B67" s="133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="132"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="134"/>
+      <c r="F67" s="134"/>
+      <c r="G67" s="134"/>
+      <c r="H67" s="135"/>
+      <c r="I67" s="136"/>
+    </row>
+    <row r="68" spans="1:9" ht="14" thickBot="1">
+      <c r="A68" s="146"/>
+      <c r="B68" s="147" t="s">
         <v>513</v>
       </c>
-      <c r="C66" s="141"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="143"/>
-      <c r="F66" s="143"/>
-      <c r="G66" s="143"/>
-      <c r="H66" s="144"/>
-      <c r="I66" s="145"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="141"/>
-      <c r="B67" s="142" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="141"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="143"/>
-      <c r="F67" s="143"/>
-      <c r="G67" s="143"/>
-      <c r="H67" s="144"/>
-      <c r="I67" s="145"/>
-    </row>
-    <row r="68" spans="1:9" ht="14" thickBot="1">
-      <c r="A68" s="155"/>
-      <c r="B68" s="156" t="s">
-        <v>514</v>
-      </c>
-      <c r="C68" s="155"/>
-      <c r="D68" s="157"/>
-      <c r="E68" s="157"/>
-      <c r="F68" s="157"/>
-      <c r="G68" s="157"/>
-      <c r="H68" s="158"/>
-      <c r="I68" s="159"/>
+      <c r="C68" s="146"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="148"/>
+      <c r="F68" s="148"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8076,964 +8065,964 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="187" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="178" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="188" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="189" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="187" customWidth="1"/>
-    <col min="6" max="6" width="8" style="187" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" style="187" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="190" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="179" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="180" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="178" customWidth="1"/>
+    <col min="6" max="6" width="8" style="178" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" style="178" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="181" customWidth="1"/>
     <col min="10" max="10" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="163" customFormat="1">
-      <c r="A1" s="162" t="s">
+    <row r="1" spans="1:10" s="154" customFormat="1">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="154" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="155" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="156" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="153" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="164" t="s">
-        <v>515</v>
-      </c>
-      <c r="D1" s="165" t="s">
+      <c r="F1" s="153" t="s">
+        <v>411</v>
+      </c>
+      <c r="G1" s="153" t="s">
+        <v>412</v>
+      </c>
+      <c r="H1" s="153" t="s">
+        <v>413</v>
+      </c>
+      <c r="I1" s="157" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="154" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="162" t="s">
-        <v>411</v>
-      </c>
-      <c r="F1" s="162" t="s">
-        <v>412</v>
-      </c>
-      <c r="G1" s="162" t="s">
-        <v>413</v>
-      </c>
-      <c r="H1" s="162" t="s">
-        <v>414</v>
-      </c>
-      <c r="I1" s="166" t="s">
-        <v>416</v>
-      </c>
-      <c r="J1" s="163" t="s">
+    </row>
+    <row r="2" spans="1:10" s="165" customFormat="1" ht="26">
+      <c r="A2" s="158" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="159" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="174" customFormat="1" ht="26">
-      <c r="A2" s="167" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="168" t="s">
+      <c r="C2" s="160" t="s">
         <v>518</v>
       </c>
-      <c r="C2" s="169" t="s">
+      <c r="D2" s="161">
+        <v>100</v>
+      </c>
+      <c r="E2" s="158" t="s">
         <v>519</v>
       </c>
-      <c r="D2" s="170">
+      <c r="F2" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="158"/>
+      <c r="H2" s="162" t="s">
+        <v>419</v>
+      </c>
+      <c r="I2" s="163">
+        <v>5497.5</v>
+      </c>
+      <c r="J2" s="164"/>
+    </row>
+    <row r="3" spans="1:10" ht="26">
+      <c r="A3" s="158"/>
+      <c r="B3" s="159" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" s="160" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" s="161">
         <v>100</v>
       </c>
-      <c r="E2" s="167" t="s">
-        <v>520</v>
-      </c>
-      <c r="F2" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G2" s="167"/>
-      <c r="H2" s="171" t="s">
-        <v>420</v>
-      </c>
-      <c r="I2" s="172">
-        <v>5497.5</v>
-      </c>
-      <c r="J2" s="173"/>
-    </row>
-    <row r="3" spans="1:10" ht="26">
-      <c r="A3" s="167"/>
-      <c r="B3" s="168" t="s">
-        <v>521</v>
-      </c>
-      <c r="C3" s="169" t="s">
+      <c r="E3" s="158" t="s">
         <v>522</v>
       </c>
-      <c r="D3" s="170">
-        <v>100</v>
-      </c>
-      <c r="E3" s="167" t="s">
+      <c r="F3" s="158" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H3" s="158"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="164" t="s">
         <v>523</v>
       </c>
-      <c r="F3" s="167" t="s">
-        <v>424</v>
-      </c>
-      <c r="G3" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H3" s="167"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="173" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="162" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="171" t="s">
+      <c r="B4" s="159" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="167" t="s">
         <v>525</v>
       </c>
-      <c r="B4" s="168" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="176" t="s">
+      <c r="D4" s="168">
+        <v>300</v>
+      </c>
+      <c r="E4" s="162"/>
+      <c r="F4" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H4" s="158"/>
+      <c r="I4" s="169">
+        <v>0</v>
+      </c>
+      <c r="J4" s="170" t="s">
         <v>526</v>
       </c>
-      <c r="D4" s="177">
-        <v>300</v>
-      </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G4" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H4" s="167"/>
-      <c r="I4" s="178">
-        <v>0</v>
-      </c>
-      <c r="J4" s="179" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="162" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="171" t="s">
+      <c r="B5" s="159" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="167" t="s">
         <v>528</v>
       </c>
-      <c r="B5" s="168" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="176" t="s">
-        <v>529</v>
-      </c>
-      <c r="D5" s="177">
+      <c r="D5" s="168">
         <v>500</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G5" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H5" s="171" t="s">
-        <v>420</v>
-      </c>
-      <c r="I5" s="178">
+      <c r="E5" s="162"/>
+      <c r="F5" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H5" s="162" t="s">
+        <v>419</v>
+      </c>
+      <c r="I5" s="169">
         <f>29*30</f>
         <v>870</v>
       </c>
-      <c r="J5" s="179" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="181" customFormat="1">
-      <c r="A6" s="180" t="s">
-        <v>528</v>
-      </c>
-      <c r="B6" s="181" t="s">
+      <c r="J5" s="170" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="172" customFormat="1">
+      <c r="A6" s="171" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="186"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="177"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="178" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="179" t="s">
+        <v>530</v>
+      </c>
+      <c r="D7" s="180">
+        <v>600</v>
+      </c>
+      <c r="F7" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G7" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H7" s="162" t="s">
+        <v>419</v>
+      </c>
+      <c r="I7" s="181">
+        <v>0</v>
+      </c>
+      <c r="J7" s="182" t="s">
         <v>531</v>
       </c>
-      <c r="D7" s="189">
-        <v>600</v>
-      </c>
-      <c r="F7" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G7" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H7" s="171" t="s">
-        <v>420</v>
-      </c>
-      <c r="I7" s="190">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="178" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="180">
+        <v>800</v>
+      </c>
+      <c r="F8" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G8" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H8" s="162" t="s">
+        <v>419</v>
+      </c>
+      <c r="I8" s="181">
         <v>0</v>
       </c>
-      <c r="J7" s="191" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="187" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A9" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>533</v>
       </c>
-      <c r="D8" s="189">
-        <v>800</v>
-      </c>
-      <c r="F8" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G8" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H8" s="171" t="s">
-        <v>420</v>
-      </c>
-      <c r="I8" s="190">
+      <c r="D9" s="180">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H9" s="162" t="s">
+        <v>419</v>
+      </c>
+      <c r="I9" s="181">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A9" s="187" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>534</v>
       </c>
-      <c r="D9" s="189">
-        <v>1100</v>
-      </c>
-      <c r="F9" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G9" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H9" s="171" t="s">
-        <v>420</v>
-      </c>
-      <c r="I9" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="187" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" s="179" t="s">
         <v>535</v>
       </c>
-      <c r="C10" s="188" t="s">
+      <c r="D10" s="180">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="178" t="s">
         <v>536</v>
       </c>
-      <c r="D10" s="189">
-        <v>1200</v>
-      </c>
-      <c r="E10" s="187" t="s">
+      <c r="F10" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G10" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H10" s="162" t="s">
+        <v>419</v>
+      </c>
+      <c r="I10" s="181">
+        <v>1690</v>
+      </c>
+      <c r="J10" s="182" t="s">
         <v>537</v>
       </c>
-      <c r="F10" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G10" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H10" s="171" t="s">
-        <v>420</v>
-      </c>
-      <c r="I10" s="190">
-        <v>1690</v>
-      </c>
-      <c r="J10" s="191" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="26">
+      <c r="A11" s="178" t="s">
         <v>538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="26">
-      <c r="A11" s="187" t="s">
-        <v>539</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="179" t="s">
+        <v>539</v>
+      </c>
+      <c r="D11" s="180">
+        <v>1300</v>
+      </c>
+      <c r="F11" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G11" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H11" s="158"/>
+      <c r="I11" s="181">
+        <v>0</v>
+      </c>
+      <c r="J11" s="182" t="s">
         <v>540</v>
       </c>
-      <c r="D11" s="189">
-        <v>1300</v>
-      </c>
-      <c r="F11" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G11" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H11" s="167"/>
-      <c r="I11" s="190">
-        <v>0</v>
-      </c>
-      <c r="J11" s="191" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="26">
+      <c r="A12" s="178" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="26">
-      <c r="A12" s="187" t="s">
-        <v>542</v>
       </c>
       <c r="B12" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="188" t="s">
+      <c r="C12" s="179" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="180">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="178" t="s">
         <v>543</v>
       </c>
-      <c r="D12" s="189">
-        <v>1400</v>
-      </c>
-      <c r="E12" s="187" t="s">
+      <c r="F12" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G12" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H12" s="158"/>
+      <c r="I12" s="181">
+        <v>0</v>
+      </c>
+      <c r="J12" s="183" t="s">
         <v>544</v>
       </c>
-      <c r="F12" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G12" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H12" s="167"/>
-      <c r="I12" s="190">
+    </row>
+    <row r="13" spans="1:10" ht="52">
+      <c r="A13" s="162" t="s">
+        <v>545</v>
+      </c>
+      <c r="B13" s="159" t="s">
+        <v>546</v>
+      </c>
+      <c r="C13" s="167" t="s">
+        <v>547</v>
+      </c>
+      <c r="D13" s="168">
+        <v>1600</v>
+      </c>
+      <c r="E13" s="162" t="s">
+        <v>548</v>
+      </c>
+      <c r="F13" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="169">
+        <v>15000</v>
+      </c>
+      <c r="J13" s="170" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="162"/>
+      <c r="B14" s="159" t="s">
+        <v>546</v>
+      </c>
+      <c r="C14" s="167" t="s">
+        <v>550</v>
+      </c>
+      <c r="D14" s="168">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="162" t="s">
+        <v>548</v>
+      </c>
+      <c r="F14" s="162"/>
+      <c r="G14" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H14" s="158"/>
+      <c r="I14" s="169">
         <v>0</v>
       </c>
-      <c r="J12" s="192" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="52">
-      <c r="A13" s="171" t="s">
+      <c r="J14" s="159"/>
+    </row>
+    <row r="15" spans="1:10" s="172" customFormat="1">
+      <c r="A15" s="171"/>
+      <c r="B15" s="172" t="s">
         <v>546</v>
       </c>
-      <c r="B13" s="168" t="s">
-        <v>547</v>
-      </c>
-      <c r="C13" s="176" t="s">
-        <v>548</v>
-      </c>
-      <c r="D13" s="177">
-        <v>1600</v>
-      </c>
-      <c r="E13" s="171" t="s">
-        <v>549</v>
-      </c>
-      <c r="F13" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="178">
-        <v>15000</v>
-      </c>
-      <c r="J13" s="179" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="171"/>
-      <c r="B14" s="168" t="s">
-        <v>547</v>
-      </c>
-      <c r="C14" s="176" t="s">
+      <c r="C15" s="173" t="s">
         <v>551</v>
       </c>
-      <c r="D14" s="177">
-        <v>1700</v>
-      </c>
-      <c r="E14" s="171" t="s">
-        <v>549</v>
-      </c>
-      <c r="F14" s="171"/>
-      <c r="G14" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H14" s="167"/>
-      <c r="I14" s="178">
+      <c r="D15" s="174"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="176"/>
+    </row>
+    <row r="16" spans="1:10" ht="26">
+      <c r="A16" s="178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="179" t="s">
+        <v>552</v>
+      </c>
+      <c r="D16" s="180">
+        <v>1900</v>
+      </c>
+      <c r="E16" s="178" t="s">
+        <v>553</v>
+      </c>
+      <c r="F16" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G16" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H16" s="158"/>
+      <c r="I16" s="181">
         <v>0</v>
       </c>
-      <c r="J14" s="168"/>
-    </row>
-    <row r="15" spans="1:10" s="181" customFormat="1">
-      <c r="A15" s="180"/>
-      <c r="B15" s="181" t="s">
-        <v>547</v>
-      </c>
-      <c r="C15" s="182" t="s">
-        <v>552</v>
-      </c>
-      <c r="D15" s="183"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="185"/>
-    </row>
-    <row r="16" spans="1:10" ht="26">
-      <c r="A16" s="187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>440</v>
-      </c>
-      <c r="C16" s="188" t="s">
-        <v>553</v>
-      </c>
-      <c r="D16" s="189">
-        <v>1900</v>
-      </c>
-      <c r="E16" s="187" t="s">
+      <c r="J16" s="182" t="s">
         <v>554</v>
       </c>
-      <c r="F16" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G16" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H16" s="167"/>
-      <c r="I16" s="190">
-        <v>0</v>
-      </c>
-      <c r="J16" s="191" t="s">
-        <v>555</v>
-      </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="188" t="s">
+      <c r="C17" s="179" t="s">
+        <v>555</v>
+      </c>
+      <c r="D17" s="180">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="178" t="s">
         <v>556</v>
       </c>
-      <c r="D17" s="189">
-        <v>2300</v>
-      </c>
-      <c r="E17" s="187" t="s">
+      <c r="F17" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" s="178" t="s">
+        <v>419</v>
+      </c>
+      <c r="I17" s="181">
+        <v>0</v>
+      </c>
+      <c r="J17" s="182" t="s">
         <v>557</v>
       </c>
-      <c r="F17" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H17" s="187" t="s">
-        <v>420</v>
-      </c>
-      <c r="I17" s="190">
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="178" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18" s="179" t="s">
+        <v>558</v>
+      </c>
+      <c r="D18" s="180">
+        <v>2500</v>
+      </c>
+      <c r="F18" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G18" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H18" s="162" t="s">
+        <v>419</v>
+      </c>
+      <c r="I18" s="181">
         <v>0</v>
       </c>
-      <c r="J17" s="191" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="187" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="J18" s="182" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
         <v>443</v>
       </c>
-      <c r="C18" s="188" t="s">
-        <v>559</v>
-      </c>
-      <c r="D18" s="189">
-        <v>2500</v>
-      </c>
-      <c r="F18" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G18" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H18" s="171" t="s">
-        <v>420</v>
-      </c>
-      <c r="I18" s="190">
+      <c r="C19" s="179" t="s">
+        <v>560</v>
+      </c>
+      <c r="D19" s="180">
+        <v>2600</v>
+      </c>
+      <c r="F19" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G19" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H19" s="158"/>
+      <c r="I19" s="181">
         <v>0</v>
       </c>
-      <c r="J18" s="191" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>444</v>
-      </c>
-      <c r="C19" s="188" t="s">
+      <c r="J19" t="s">
         <v>561</v>
-      </c>
-      <c r="D19" s="189">
-        <v>2600</v>
-      </c>
-      <c r="F19" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H19" s="167"/>
-      <c r="I19" s="190">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" t="s">
-        <v>445</v>
-      </c>
-      <c r="C20" s="188" t="s">
+        <v>444</v>
+      </c>
+      <c r="C20" s="179" t="s">
+        <v>562</v>
+      </c>
+      <c r="D20" s="180">
+        <v>2700</v>
+      </c>
+      <c r="F20" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G20" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H20" s="158"/>
+      <c r="I20" s="181">
+        <v>0</v>
+      </c>
+      <c r="J20" s="182" t="s">
         <v>563</v>
-      </c>
-      <c r="D20" s="189">
-        <v>2700</v>
-      </c>
-      <c r="F20" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H20" s="167"/>
-      <c r="I20" s="190">
-        <v>0</v>
-      </c>
-      <c r="J20" s="191" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" t="s">
-        <v>447</v>
-      </c>
-      <c r="C21" s="188" t="s">
+        <v>446</v>
+      </c>
+      <c r="C21" s="179" t="s">
+        <v>564</v>
+      </c>
+      <c r="D21" s="180">
+        <v>2800</v>
+      </c>
+      <c r="F21" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="I21" s="181">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>565</v>
-      </c>
-      <c r="D21" s="189">
-        <v>2800</v>
-      </c>
-      <c r="F21" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="I21" s="190">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="179" t="s">
         <v>567</v>
       </c>
-      <c r="C22" s="188" t="s">
+      <c r="D22" s="180">
+        <v>2900</v>
+      </c>
+      <c r="F22" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H22" s="158"/>
+      <c r="I22" s="181">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
         <v>568</v>
-      </c>
-      <c r="D22" s="189">
-        <v>2900</v>
-      </c>
-      <c r="F22" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G22" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H22" s="167"/>
-      <c r="I22" s="190">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" t="s">
-        <v>450</v>
-      </c>
-      <c r="C23" s="188" t="s">
+        <v>449</v>
+      </c>
+      <c r="C23" s="179" t="s">
+        <v>569</v>
+      </c>
+      <c r="D23" s="180">
+        <v>3000</v>
+      </c>
+      <c r="F23" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G23" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H23" s="158"/>
+      <c r="I23" s="181">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
         <v>570</v>
-      </c>
-      <c r="D23" s="189">
-        <v>3000</v>
-      </c>
-      <c r="F23" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G23" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H23" s="167"/>
-      <c r="I23" s="190">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="188" t="s">
-        <v>572</v>
-      </c>
-      <c r="D24" s="189">
+      <c r="C24" s="179" t="s">
+        <v>571</v>
+      </c>
+      <c r="D24" s="180">
         <v>3100</v>
       </c>
-      <c r="F24" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G24" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H24" s="167"/>
-      <c r="I24" s="190">
+      <c r="F24" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G24" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H24" s="158"/>
+      <c r="I24" s="181">
         <f>9.95*31</f>
         <v>308.45</v>
       </c>
       <c r="J24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" t="s">
-        <v>454</v>
-      </c>
-      <c r="C25" s="188" t="s">
+        <v>453</v>
+      </c>
+      <c r="C25" s="179" t="s">
+        <v>573</v>
+      </c>
+      <c r="D25" s="180">
+        <v>3200</v>
+      </c>
+      <c r="F25" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="I25" s="181">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
         <v>574</v>
-      </c>
-      <c r="D25" s="189">
-        <v>3200</v>
-      </c>
-      <c r="F25" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="I25" s="190">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="188" t="s">
+      <c r="C26" s="179" t="s">
+        <v>575</v>
+      </c>
+      <c r="D26" s="180">
+        <v>3300</v>
+      </c>
+      <c r="F26" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="I26" s="181">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
         <v>576</v>
-      </c>
-      <c r="D26" s="189">
-        <v>3300</v>
-      </c>
-      <c r="F26" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="I26" s="190">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="188" t="s">
+      <c r="C27" s="179" t="s">
+        <v>577</v>
+      </c>
+      <c r="D27" s="180">
+        <v>3400</v>
+      </c>
+      <c r="F27" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G27" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H27" s="158"/>
+      <c r="I27" s="181">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
         <v>578</v>
-      </c>
-      <c r="D27" s="189">
-        <v>3400</v>
-      </c>
-      <c r="F27" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G27" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H27" s="167"/>
-      <c r="I27" s="190">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" t="s">
+        <v>579</v>
+      </c>
+      <c r="C28" s="179" t="s">
         <v>580</v>
       </c>
-      <c r="C28" s="188" t="s">
+      <c r="D28" s="180">
+        <v>3500</v>
+      </c>
+      <c r="F28" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G28" s="178" t="s">
+        <v>419</v>
+      </c>
+      <c r="I28" s="181">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
         <v>581</v>
       </c>
-      <c r="D28" s="189">
-        <v>3500</v>
-      </c>
-      <c r="F28" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G28" s="187" t="s">
-        <v>420</v>
-      </c>
-      <c r="I28" s="190">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="184"/>
+      <c r="B29" s="185" t="s">
+        <v>457</v>
+      </c>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187">
+        <v>3600</v>
+      </c>
+      <c r="E29" s="184" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="193"/>
-      <c r="B29" s="194" t="s">
-        <v>458</v>
-      </c>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196">
-        <v>3600</v>
-      </c>
-      <c r="E29" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="194"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="185"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="193"/>
-      <c r="B30" s="194" t="s">
-        <v>460</v>
-      </c>
-      <c r="C30" s="195"/>
-      <c r="D30" s="196">
+      <c r="A30" s="184"/>
+      <c r="B30" s="185" t="s">
+        <v>459</v>
+      </c>
+      <c r="C30" s="186"/>
+      <c r="D30" s="187">
         <v>3700</v>
       </c>
-      <c r="E30" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="194"/>
+      <c r="E30" s="184" t="s">
+        <v>582</v>
+      </c>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="185"/>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="188" t="s">
+      <c r="C31" s="179" t="s">
+        <v>583</v>
+      </c>
+      <c r="D31" s="180">
+        <v>3800</v>
+      </c>
+      <c r="F31" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="I31" s="181">
+        <v>3000</v>
+      </c>
+      <c r="J31" t="s">
         <v>584</v>
       </c>
-      <c r="D31" s="189">
-        <v>3800</v>
-      </c>
-      <c r="F31" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="I31" s="190">
-        <v>3000</v>
-      </c>
-      <c r="J31" t="s">
-        <v>585</v>
-      </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="193"/>
-      <c r="B32" s="194" t="s">
-        <v>464</v>
-      </c>
-      <c r="C32" s="195"/>
-      <c r="D32" s="196">
+      <c r="A32" s="184"/>
+      <c r="B32" s="185" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32" s="186"/>
+      <c r="D32" s="187">
         <v>3900</v>
       </c>
-      <c r="E32" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="194"/>
+      <c r="E32" s="184" t="s">
+        <v>582</v>
+      </c>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="185"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="193"/>
-      <c r="B33" s="194" t="s">
-        <v>467</v>
-      </c>
-      <c r="C33" s="195"/>
-      <c r="D33" s="196">
+      <c r="A33" s="184"/>
+      <c r="B33" s="185" t="s">
+        <v>466</v>
+      </c>
+      <c r="C33" s="186"/>
+      <c r="D33" s="187">
         <v>4000</v>
       </c>
-      <c r="E33" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="194"/>
+      <c r="E33" s="184" t="s">
+        <v>582</v>
+      </c>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="185"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="193"/>
-      <c r="B34" s="194" t="s">
+      <c r="A34" s="184"/>
+      <c r="B34" s="185" t="s">
         <v>354</v>
       </c>
-      <c r="C34" s="195"/>
-      <c r="D34" s="196">
+      <c r="C34" s="186"/>
+      <c r="D34" s="187">
         <v>4100</v>
       </c>
-      <c r="E34" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="194"/>
+      <c r="E34" s="184" t="s">
+        <v>582</v>
+      </c>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="185"/>
     </row>
     <row r="35" spans="1:10">
       <c r="B35" t="s">
+        <v>585</v>
+      </c>
+      <c r="C35" s="179" t="s">
         <v>586</v>
       </c>
-      <c r="C35" s="188" t="s">
+      <c r="D35" s="180">
+        <v>4200</v>
+      </c>
+      <c r="F35" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="I35" s="181">
+        <v>30000</v>
+      </c>
+      <c r="J35" t="s">
         <v>587</v>
       </c>
-      <c r="D35" s="189">
-        <v>4200</v>
-      </c>
-      <c r="F35" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="I35" s="190">
-        <v>30000</v>
-      </c>
-      <c r="J35" t="s">
-        <v>588</v>
-      </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="193"/>
-      <c r="B36" s="194" t="s">
-        <v>472</v>
-      </c>
-      <c r="C36" s="195"/>
-      <c r="D36" s="196">
+      <c r="A36" s="184"/>
+      <c r="B36" s="185" t="s">
+        <v>471</v>
+      </c>
+      <c r="C36" s="186"/>
+      <c r="D36" s="187">
         <v>4300</v>
       </c>
-      <c r="E36" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="197"/>
-      <c r="J36" s="194"/>
+      <c r="E36" s="184" t="s">
+        <v>582</v>
+      </c>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="185"/>
     </row>
     <row r="37" spans="1:10">
       <c r="B37" t="s">
-        <v>474</v>
-      </c>
-      <c r="C37" s="188" t="s">
-        <v>589</v>
-      </c>
-      <c r="D37" s="189">
+        <v>473</v>
+      </c>
+      <c r="C37" s="179" t="s">
+        <v>588</v>
+      </c>
+      <c r="D37" s="180">
         <v>4400</v>
       </c>
-      <c r="F37" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G37" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H37" s="167"/>
-      <c r="I37" s="190">
+      <c r="F37" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G37" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H37" s="158"/>
+      <c r="I37" s="181">
         <f>60*31</f>
         <v>1860</v>
       </c>
       <c r="J37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="188" t="s">
+      <c r="C38" s="179" t="s">
+        <v>590</v>
+      </c>
+      <c r="D38" s="180">
+        <v>4500</v>
+      </c>
+      <c r="F38" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="G38" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H38" s="158"/>
+      <c r="I38" s="181">
+        <v>7000</v>
+      </c>
+      <c r="J38" s="182" t="s">
         <v>591</v>
-      </c>
-      <c r="D38" s="189">
-        <v>4500</v>
-      </c>
-      <c r="F38" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="G38" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H38" s="167"/>
-      <c r="I38" s="190">
-        <v>7000</v>
-      </c>
-      <c r="J38" s="191" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" t="s">
-        <v>479</v>
-      </c>
-      <c r="D39" s="189">
+        <v>478</v>
+      </c>
+      <c r="D39" s="180">
         <v>4600</v>
       </c>
-      <c r="F39" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="I39" s="190">
+      <c r="F39" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="I39" s="181">
         <v>0</v>
       </c>
-      <c r="J39" s="191" t="s">
-        <v>593</v>
+      <c r="J39" s="182" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="198"/>
-      <c r="B40" s="199" t="s">
-        <v>482</v>
-      </c>
-      <c r="C40" s="200"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="H40" s="167"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="199"/>
+      <c r="A40" s="189"/>
+      <c r="B40" s="190" t="s">
+        <v>481</v>
+      </c>
+      <c r="C40" s="191"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="189"/>
+      <c r="F40" s="189"/>
+      <c r="G40" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="H40" s="158"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="190"/>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" t="s">
-        <v>484</v>
-      </c>
-      <c r="F41" s="187" t="s">
-        <v>420</v>
+        <v>483</v>
+      </c>
+      <c r="F41" s="178" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -9043,55 +9032,55 @@
     </row>
     <row r="43" spans="1:10">
       <c r="B43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" t="s">
-        <v>488</v>
-      </c>
-      <c r="J44" s="191" t="s">
-        <v>594</v>
+        <v>487</v>
+      </c>
+      <c r="J44" s="182" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" t="s">
         <v>192</v>
       </c>
-      <c r="J45" s="191" t="s">
-        <v>595</v>
+      <c r="J45" s="182" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="191" t="s">
-        <v>596</v>
+      <c r="J46" s="182" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="B48" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="204" customFormat="1">
-      <c r="A51" s="203"/>
-      <c r="B51" s="204" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="195" customFormat="1">
+      <c r="A51" s="194"/>
+      <c r="B51" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="205"/>
-      <c r="D51" s="206"/>
-      <c r="E51" s="203"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="203"/>
-      <c r="H51" s="203"/>
-      <c r="I51" s="207"/>
+      <c r="C51" s="196"/>
+      <c r="D51" s="197"/>
+      <c r="E51" s="194"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="198"/>
     </row>
     <row r="52" spans="1:9">
       <c r="B52" t="s">
@@ -9105,17 +9094,17 @@
     </row>
     <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -9125,7 +9114,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -9135,7 +9124,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -9155,12 +9144,12 @@
     </row>
     <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65" spans="2:2" customFormat="1">
       <c r="B65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="66" spans="2:2" customFormat="1">
@@ -9170,7 +9159,7 @@
     </row>
     <row r="68" spans="2:2" customFormat="1">
       <c r="B68" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="2:2" customFormat="1">
@@ -9180,12 +9169,12 @@
     </row>
     <row r="70" spans="2:2" customFormat="1">
       <c r="B70" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="2:2" customFormat="1">
       <c r="B71" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -9234,876 +9223,876 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="154" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="155" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="156" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="153" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="164" t="s">
-        <v>515</v>
-      </c>
-      <c r="D1" s="165" t="s">
+      <c r="F1" s="157" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="154" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="162" t="s">
-        <v>411</v>
-      </c>
-      <c r="F1" s="166" t="s">
-        <v>416</v>
-      </c>
-      <c r="G1" s="163" t="s">
-        <v>517</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="208"/>
-      <c r="B2" s="199" t="s">
+      <c r="A2" s="199"/>
+      <c r="B2" s="190" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="200" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" s="201"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="165" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="189" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="190" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="191" t="s">
+        <v>518</v>
+      </c>
+      <c r="D3" s="192">
+        <v>100</v>
+      </c>
+      <c r="E3" s="189" t="s">
         <v>602</v>
       </c>
-      <c r="D2" s="210"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="174" t="s">
+      <c r="F3" s="203">
+        <v>5497.5</v>
+      </c>
+      <c r="G3" s="190"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="178" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C4" s="179" t="s">
+        <v>518</v>
+      </c>
+      <c r="D4" s="180">
+        <v>200</v>
+      </c>
+      <c r="E4" s="178"/>
+      <c r="F4" s="181">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="39">
+      <c r="A5" s="189" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="198" t="s">
+      <c r="B5" s="190" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="191" t="s">
+        <v>525</v>
+      </c>
+      <c r="D5" s="192">
+        <v>300</v>
+      </c>
+      <c r="E5" s="189" t="s">
+        <v>605</v>
+      </c>
+      <c r="F5" s="193">
+        <v>0</v>
+      </c>
+      <c r="G5" s="204" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="199" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="200" t="s">
-        <v>519</v>
-      </c>
-      <c r="D3" s="201">
-        <v>100</v>
-      </c>
-      <c r="E3" s="198" t="s">
-        <v>603</v>
-      </c>
-      <c r="F3" s="212">
-        <v>5497.5</v>
-      </c>
-      <c r="G3" s="199"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="187" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C6" s="179">
+        <v>3</v>
+      </c>
+      <c r="D6" s="180">
+        <v>400</v>
+      </c>
+      <c r="E6" s="178"/>
+      <c r="F6" s="181">
+        <v>0</v>
+      </c>
+      <c r="G6" s="182" t="s">
         <v>604</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>519</v>
-      </c>
-      <c r="D4" s="189">
-        <v>200</v>
-      </c>
-      <c r="E4" s="187"/>
-      <c r="F4" s="190">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="39">
-      <c r="A5" s="198" t="s">
-        <v>525</v>
-      </c>
-      <c r="B5" s="199" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="200" t="s">
-        <v>526</v>
-      </c>
-      <c r="D5" s="201">
-        <v>300</v>
-      </c>
-      <c r="E5" s="198" t="s">
-        <v>606</v>
-      </c>
-      <c r="F5" s="202">
-        <v>0</v>
-      </c>
-      <c r="G5" s="213" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="189" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="187" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" s="190" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="191" t="s">
         <v>607</v>
       </c>
-      <c r="C6" s="188">
-        <v>3</v>
-      </c>
-      <c r="D6" s="189">
-        <v>400</v>
-      </c>
-      <c r="E6" s="187"/>
-      <c r="F6" s="190">
-        <v>0</v>
-      </c>
-      <c r="G6" s="191" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="198" t="s">
-        <v>528</v>
-      </c>
-      <c r="B7" s="199" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="200" t="s">
+      <c r="D7" s="192">
+        <v>500</v>
+      </c>
+      <c r="E7" s="189" t="s">
         <v>608</v>
       </c>
-      <c r="D7" s="201">
-        <v>500</v>
-      </c>
-      <c r="E7" s="198" t="s">
-        <v>609</v>
-      </c>
-      <c r="F7" s="202">
+      <c r="F7" s="193">
         <f>29*30</f>
         <v>870</v>
       </c>
-      <c r="G7" s="213" t="s">
-        <v>530</v>
+      <c r="G7" s="204" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="178" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="179" t="s">
+        <v>530</v>
+      </c>
+      <c r="D8" s="180">
+        <v>600</v>
+      </c>
+      <c r="E8" s="178"/>
+      <c r="F8" s="181">
+        <v>0</v>
+      </c>
+      <c r="G8" s="182" t="s">
         <v>531</v>
       </c>
-      <c r="D8" s="189">
-        <v>600</v>
-      </c>
-      <c r="E8" s="187"/>
-      <c r="F8" s="190">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="178" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C9" s="179"/>
+      <c r="D9" s="180">
+        <v>700</v>
+      </c>
+      <c r="E9" s="178"/>
+      <c r="F9" s="181">
         <v>0</v>
       </c>
-      <c r="G8" s="191" t="s">
+      <c r="G9" s="182"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="178" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="187" t="s">
+      <c r="C10" s="179"/>
+      <c r="D10" s="180">
+        <v>800</v>
+      </c>
+      <c r="E10" s="178"/>
+      <c r="F10" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>610</v>
       </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="189">
-        <v>700</v>
-      </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="190">
+      <c r="C11" s="179"/>
+      <c r="D11" s="180">
+        <v>900</v>
+      </c>
+      <c r="E11" s="178"/>
+      <c r="F11" s="181">
         <v>0</v>
       </c>
-      <c r="G9" s="191"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="187" t="s">
+      <c r="G11" s="182" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>612</v>
+      </c>
+      <c r="C12" s="179" t="s">
+        <v>613</v>
+      </c>
+      <c r="D12" s="180">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="178"/>
+      <c r="F12" s="181">
+        <v>0</v>
+      </c>
+      <c r="G12" s="182" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="178" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>533</v>
       </c>
-      <c r="C10" s="188"/>
-      <c r="D10" s="189">
-        <v>800</v>
-      </c>
-      <c r="E10" s="187"/>
-      <c r="F10" s="190">
+      <c r="C13" s="179"/>
+      <c r="D13" s="180">
+        <v>1100</v>
+      </c>
+      <c r="E13" s="178"/>
+      <c r="F13" s="181">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="187" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>611</v>
-      </c>
-      <c r="C11" s="188"/>
-      <c r="D11" s="189">
-        <v>900</v>
-      </c>
-      <c r="E11" s="187"/>
-      <c r="F11" s="190">
-        <v>0</v>
-      </c>
-      <c r="G11" s="191" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="187" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>613</v>
-      </c>
-      <c r="C12" s="188" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>614</v>
       </c>
-      <c r="D12" s="189">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="187"/>
-      <c r="F12" s="190">
-        <v>0</v>
-      </c>
-      <c r="G12" s="191" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="187" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>534</v>
-      </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189">
-        <v>1100</v>
-      </c>
-      <c r="E13" s="187"/>
-      <c r="F13" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="187" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>615</v>
-      </c>
-      <c r="C14" s="188" t="s">
+      <c r="C14" s="179" t="s">
+        <v>535</v>
+      </c>
+      <c r="D14" s="180">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="178" t="s">
         <v>536</v>
       </c>
-      <c r="D14" s="189">
-        <v>1200</v>
-      </c>
-      <c r="E14" s="187" t="s">
+      <c r="F14" s="181">
+        <v>1690</v>
+      </c>
+      <c r="G14" s="182" t="s">
         <v>537</v>
       </c>
-      <c r="F14" s="190">
-        <v>1690</v>
-      </c>
-      <c r="G14" s="191" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="39">
+      <c r="A15" s="178" t="s">
         <v>538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="39">
-      <c r="A15" s="187" t="s">
-        <v>539</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="188" t="s">
+      <c r="C15" s="179" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" s="180">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="178"/>
+      <c r="F15" s="181">
+        <v>0</v>
+      </c>
+      <c r="G15" s="182" t="s">
         <v>540</v>
       </c>
-      <c r="D15" s="189">
-        <v>1300</v>
-      </c>
-      <c r="E15" s="187"/>
-      <c r="F15" s="190">
-        <v>0</v>
-      </c>
-      <c r="G15" s="191" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="39">
+      <c r="A16" s="178" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="39">
-      <c r="A16" s="187" t="s">
-        <v>542</v>
       </c>
       <c r="B16" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="188" t="s">
-        <v>543</v>
-      </c>
-      <c r="D16" s="189">
+      <c r="C16" s="179" t="s">
+        <v>542</v>
+      </c>
+      <c r="D16" s="180">
         <v>1400</v>
       </c>
-      <c r="E16" s="187"/>
-      <c r="F16" s="190">
+      <c r="E16" s="178"/>
+      <c r="F16" s="181">
         <v>0</v>
       </c>
-      <c r="G16" s="191" t="s">
-        <v>530</v>
+      <c r="G16" s="182" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="178" t="s">
+        <v>615</v>
+      </c>
+      <c r="B17" t="s">
         <v>616</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="179"/>
+      <c r="D17" s="180">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="178"/>
+      <c r="F17" s="181">
+        <v>0</v>
+      </c>
+      <c r="G17" s="182" t="s">
         <v>617</v>
       </c>
-      <c r="C17" s="188"/>
-      <c r="D17" s="189">
-        <v>1500</v>
-      </c>
-      <c r="E17" s="187"/>
-      <c r="F17" s="190">
+    </row>
+    <row r="18" spans="1:7" ht="65">
+      <c r="A18" s="189" t="s">
+        <v>545</v>
+      </c>
+      <c r="B18" s="190" t="s">
+        <v>546</v>
+      </c>
+      <c r="C18" s="191" t="s">
+        <v>618</v>
+      </c>
+      <c r="D18" s="192">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="189" t="s">
+        <v>619</v>
+      </c>
+      <c r="F18" s="193">
+        <v>15000</v>
+      </c>
+      <c r="G18" s="204" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C19" s="179" t="s">
+        <v>620</v>
+      </c>
+      <c r="D19" s="180">
+        <v>1900</v>
+      </c>
+      <c r="E19" s="178"/>
+      <c r="F19" s="181">
         <v>0</v>
       </c>
-      <c r="G17" s="191" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="65">
-      <c r="A18" s="198" t="s">
-        <v>546</v>
-      </c>
-      <c r="B18" s="199" t="s">
-        <v>547</v>
-      </c>
-      <c r="C18" s="200" t="s">
-        <v>619</v>
-      </c>
-      <c r="D18" s="201">
-        <v>1600</v>
-      </c>
-      <c r="E18" s="198" t="s">
-        <v>620</v>
-      </c>
-      <c r="F18" s="202">
-        <v>15000</v>
-      </c>
-      <c r="G18" s="213" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>440</v>
-      </c>
-      <c r="C19" s="188" t="s">
+      <c r="G19" s="182" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="178"/>
+      <c r="B20" t="s">
         <v>621</v>
       </c>
-      <c r="D19" s="189">
-        <v>1900</v>
-      </c>
-      <c r="E19" s="187"/>
-      <c r="F19" s="190">
+      <c r="C20" s="179"/>
+      <c r="D20" s="180">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="178"/>
+      <c r="F20" s="181">
         <v>0</v>
       </c>
-      <c r="G19" s="191" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="187"/>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="178"/>
+      <c r="B21" t="s">
         <v>622</v>
       </c>
-      <c r="C20" s="188"/>
-      <c r="D20" s="189">
-        <v>2000</v>
-      </c>
-      <c r="E20" s="187"/>
-      <c r="F20" s="190">
+      <c r="C21" s="179"/>
+      <c r="D21" s="180">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="178"/>
+      <c r="F21" s="181">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="187"/>
-      <c r="B21" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="178"/>
+      <c r="B22" t="s">
         <v>623</v>
       </c>
-      <c r="C21" s="188"/>
-      <c r="D21" s="189">
-        <v>2100</v>
-      </c>
-      <c r="E21" s="187"/>
-      <c r="F21" s="190">
+      <c r="C22" s="179"/>
+      <c r="D22" s="180">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="178"/>
+      <c r="F22" s="181">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="187"/>
-      <c r="B22" t="s">
-        <v>624</v>
-      </c>
-      <c r="C22" s="188"/>
-      <c r="D22" s="189">
-        <v>2200</v>
-      </c>
-      <c r="E22" s="187"/>
-      <c r="F22" s="190">
-        <v>0</v>
-      </c>
-    </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="188" t="s">
-        <v>556</v>
-      </c>
-      <c r="D23" s="189">
+      <c r="C23" s="179" t="s">
+        <v>555</v>
+      </c>
+      <c r="D23" s="180">
         <v>2300</v>
       </c>
-      <c r="E23" s="187"/>
-      <c r="F23" s="190">
+      <c r="E23" s="178"/>
+      <c r="F23" s="181">
         <v>0</v>
       </c>
-      <c r="G23" s="191" t="s">
+      <c r="G23" s="182" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="178"/>
+      <c r="B24" t="s">
+        <v>624</v>
+      </c>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="178"/>
+      <c r="F24" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="178" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" s="179" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="187"/>
-      <c r="B24" t="s">
-        <v>625</v>
-      </c>
-      <c r="C24" s="188"/>
-      <c r="D24" s="189">
-        <v>2400</v>
-      </c>
-      <c r="E24" s="187"/>
-      <c r="F24" s="190">
+      <c r="D25" s="180">
+        <v>2500</v>
+      </c>
+      <c r="E25" s="178"/>
+      <c r="F25" s="181">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="187" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="G25" s="182" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
         <v>443</v>
       </c>
-      <c r="C25" s="188" t="s">
-        <v>559</v>
-      </c>
-      <c r="D25" s="189">
-        <v>2500</v>
-      </c>
-      <c r="E25" s="187"/>
-      <c r="F25" s="190">
+      <c r="C26" s="179" t="s">
+        <v>560</v>
+      </c>
+      <c r="D26" s="180">
+        <v>2600</v>
+      </c>
+      <c r="E26" s="178"/>
+      <c r="F26" s="181">
         <v>0</v>
       </c>
-      <c r="G25" s="191" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="G26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="178"/>
+      <c r="B27" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="188" t="s">
-        <v>561</v>
-      </c>
-      <c r="D26" s="189">
-        <v>2600</v>
-      </c>
-      <c r="E26" s="187"/>
-      <c r="F26" s="190">
+      <c r="C27" s="179" t="s">
+        <v>562</v>
+      </c>
+      <c r="D27" s="180">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="178"/>
+      <c r="F27" s="181">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="187"/>
-      <c r="B27" t="s">
-        <v>445</v>
-      </c>
-      <c r="C27" s="188" t="s">
+      <c r="G27" s="182" t="s">
         <v>563</v>
       </c>
-      <c r="D27" s="189">
-        <v>2700</v>
-      </c>
-      <c r="E27" s="187"/>
-      <c r="F27" s="190">
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="178"/>
+      <c r="B28" t="s">
+        <v>446</v>
+      </c>
+      <c r="C28" s="179" t="s">
+        <v>564</v>
+      </c>
+      <c r="D28" s="180">
+        <v>2800</v>
+      </c>
+      <c r="E28" s="178"/>
+      <c r="F28" s="181">
         <v>0</v>
       </c>
-      <c r="G27" s="191" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="187"/>
-      <c r="B28" t="s">
-        <v>447</v>
-      </c>
-      <c r="C28" s="188" t="s">
+      <c r="G28" t="s">
         <v>565</v>
       </c>
-      <c r="D28" s="189">
-        <v>2800</v>
-      </c>
-      <c r="E28" s="187"/>
-      <c r="F28" s="190">
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="178"/>
+      <c r="B29" t="s">
+        <v>566</v>
+      </c>
+      <c r="C29" s="179" t="s">
+        <v>567</v>
+      </c>
+      <c r="D29" s="180">
+        <v>2900</v>
+      </c>
+      <c r="E29" s="178"/>
+      <c r="F29" s="181">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="187"/>
-      <c r="B29" t="s">
-        <v>567</v>
-      </c>
-      <c r="C29" s="188" t="s">
+      <c r="G29" t="s">
         <v>568</v>
       </c>
-      <c r="D29" s="189">
-        <v>2900</v>
-      </c>
-      <c r="E29" s="187"/>
-      <c r="F29" s="190">
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="178"/>
+      <c r="B30" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30" s="179" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" s="180">
+        <v>3000</v>
+      </c>
+      <c r="E30" s="178"/>
+      <c r="F30" s="181">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="187"/>
-      <c r="B30" t="s">
-        <v>450</v>
-      </c>
-      <c r="C30" s="188" t="s">
+      <c r="G30" t="s">
         <v>570</v>
       </c>
-      <c r="D30" s="189">
-        <v>3000</v>
-      </c>
-      <c r="E30" s="187"/>
-      <c r="F30" s="190">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>571</v>
-      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="187"/>
+      <c r="A31" s="178"/>
       <c r="B31" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="188" t="s">
-        <v>572</v>
-      </c>
-      <c r="D31" s="189">
+      <c r="C31" s="179" t="s">
+        <v>571</v>
+      </c>
+      <c r="D31" s="180">
         <v>3100</v>
       </c>
-      <c r="E31" s="187"/>
-      <c r="F31" s="190">
+      <c r="E31" s="178"/>
+      <c r="F31" s="181">
         <f>9.95*31</f>
         <v>308.45</v>
       </c>
       <c r="G31" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="178"/>
+      <c r="B32" t="s">
+        <v>453</v>
+      </c>
+      <c r="C32" s="179" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="187"/>
-      <c r="B32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C32" s="188" t="s">
+      <c r="D32" s="180">
+        <v>3200</v>
+      </c>
+      <c r="E32" s="178"/>
+      <c r="F32" s="181">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>574</v>
       </c>
-      <c r="D32" s="189">
-        <v>3200</v>
-      </c>
-      <c r="E32" s="187"/>
-      <c r="F32" s="190">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>575</v>
-      </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="187"/>
+      <c r="A33" s="178"/>
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="188" t="s">
+      <c r="C33" s="179" t="s">
+        <v>575</v>
+      </c>
+      <c r="D33" s="180">
+        <v>3300</v>
+      </c>
+      <c r="E33" s="178"/>
+      <c r="F33" s="181">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>576</v>
       </c>
-      <c r="D33" s="189">
-        <v>3300</v>
-      </c>
-      <c r="E33" s="187"/>
-      <c r="F33" s="190">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>577</v>
-      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="187"/>
+      <c r="A34" s="178"/>
       <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="179" t="s">
+        <v>577</v>
+      </c>
+      <c r="D34" s="180">
+        <v>3400</v>
+      </c>
+      <c r="E34" s="178"/>
+      <c r="F34" s="181">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
         <v>578</v>
       </c>
-      <c r="D34" s="189">
-        <v>3400</v>
-      </c>
-      <c r="E34" s="187"/>
-      <c r="F34" s="190">
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="178"/>
+      <c r="B35" t="s">
+        <v>579</v>
+      </c>
+      <c r="C35" s="179" t="s">
+        <v>580</v>
+      </c>
+      <c r="D35" s="180">
+        <v>3500</v>
+      </c>
+      <c r="E35" s="178"/>
+      <c r="F35" s="181">
         <v>0</v>
       </c>
-      <c r="G34" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="187"/>
-      <c r="B35" t="s">
-        <v>580</v>
-      </c>
-      <c r="C35" s="188" t="s">
+      <c r="G35" t="s">
         <v>581</v>
       </c>
-      <c r="D35" s="189">
-        <v>3500</v>
-      </c>
-      <c r="E35" s="187"/>
-      <c r="F35" s="190">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="184"/>
+      <c r="B36" s="185" t="s">
+        <v>457</v>
+      </c>
+      <c r="C36" s="186"/>
+      <c r="D36" s="187">
+        <v>3600</v>
+      </c>
+      <c r="E36" s="184" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="193"/>
-      <c r="B36" s="194" t="s">
-        <v>458</v>
-      </c>
-      <c r="C36" s="195"/>
-      <c r="D36" s="196">
-        <v>3600</v>
-      </c>
-      <c r="E36" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F36" s="197"/>
-      <c r="G36" s="194"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="185"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="193"/>
-      <c r="B37" s="194" t="s">
-        <v>460</v>
-      </c>
-      <c r="C37" s="195"/>
-      <c r="D37" s="196">
+      <c r="A37" s="184"/>
+      <c r="B37" s="185" t="s">
+        <v>459</v>
+      </c>
+      <c r="C37" s="186"/>
+      <c r="D37" s="187">
         <v>3700</v>
       </c>
-      <c r="E37" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F37" s="197"/>
-      <c r="G37" s="194"/>
+      <c r="E37" s="184" t="s">
+        <v>582</v>
+      </c>
+      <c r="F37" s="188"/>
+      <c r="G37" s="185"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="187"/>
+      <c r="A38" s="178"/>
       <c r="B38" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="188" t="s">
+      <c r="C38" s="179" t="s">
+        <v>583</v>
+      </c>
+      <c r="D38" s="180">
+        <v>3800</v>
+      </c>
+      <c r="E38" s="178"/>
+      <c r="F38" s="181">
+        <v>3000</v>
+      </c>
+      <c r="G38" t="s">
         <v>584</v>
       </c>
-      <c r="D38" s="189">
-        <v>3800</v>
-      </c>
-      <c r="E38" s="187"/>
-      <c r="F38" s="190">
-        <v>3000</v>
-      </c>
-      <c r="G38" t="s">
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="184"/>
+      <c r="B39" s="185" t="s">
+        <v>463</v>
+      </c>
+      <c r="C39" s="186"/>
+      <c r="D39" s="187">
+        <v>3900</v>
+      </c>
+      <c r="E39" s="184" t="s">
+        <v>582</v>
+      </c>
+      <c r="F39" s="188"/>
+      <c r="G39" s="185"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="184"/>
+      <c r="B40" s="185" t="s">
+        <v>466</v>
+      </c>
+      <c r="C40" s="186"/>
+      <c r="D40" s="187">
+        <v>4000</v>
+      </c>
+      <c r="E40" s="184" t="s">
+        <v>582</v>
+      </c>
+      <c r="F40" s="188"/>
+      <c r="G40" s="185"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="184"/>
+      <c r="B41" s="185" t="s">
+        <v>354</v>
+      </c>
+      <c r="C41" s="186"/>
+      <c r="D41" s="187">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="184" t="s">
+        <v>582</v>
+      </c>
+      <c r="F41" s="188"/>
+      <c r="G41" s="185"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="178"/>
+      <c r="B42" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="193"/>
-      <c r="B39" s="194" t="s">
-        <v>464</v>
-      </c>
-      <c r="C39" s="195"/>
-      <c r="D39" s="196">
-        <v>3900</v>
-      </c>
-      <c r="E39" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F39" s="197"/>
-      <c r="G39" s="194"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="193"/>
-      <c r="B40" s="194" t="s">
-        <v>467</v>
-      </c>
-      <c r="C40" s="195"/>
-      <c r="D40" s="196">
-        <v>4000</v>
-      </c>
-      <c r="E40" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F40" s="197"/>
-      <c r="G40" s="194"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="193"/>
-      <c r="B41" s="194" t="s">
-        <v>354</v>
-      </c>
-      <c r="C41" s="195"/>
-      <c r="D41" s="196">
-        <v>4100</v>
-      </c>
-      <c r="E41" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F41" s="197"/>
-      <c r="G41" s="194"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="187"/>
-      <c r="B42" t="s">
+      <c r="C42" s="179" t="s">
         <v>586</v>
       </c>
-      <c r="C42" s="188" t="s">
+      <c r="D42" s="180">
+        <v>4200</v>
+      </c>
+      <c r="E42" s="178"/>
+      <c r="F42" s="181">
+        <v>30000</v>
+      </c>
+      <c r="G42" t="s">
         <v>587</v>
       </c>
-      <c r="D42" s="189">
-        <v>4200</v>
-      </c>
-      <c r="E42" s="187"/>
-      <c r="F42" s="190">
-        <v>30000</v>
-      </c>
-      <c r="G42" t="s">
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="184"/>
+      <c r="B43" s="185" t="s">
+        <v>471</v>
+      </c>
+      <c r="C43" s="186"/>
+      <c r="D43" s="187">
+        <v>4300</v>
+      </c>
+      <c r="E43" s="184" t="s">
+        <v>582</v>
+      </c>
+      <c r="F43" s="188"/>
+      <c r="G43" s="185"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="178"/>
+      <c r="B44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C44" s="179" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="193"/>
-      <c r="B43" s="194" t="s">
-        <v>472</v>
-      </c>
-      <c r="C43" s="195"/>
-      <c r="D43" s="196">
-        <v>4300</v>
-      </c>
-      <c r="E43" s="193" t="s">
-        <v>583</v>
-      </c>
-      <c r="F43" s="197"/>
-      <c r="G43" s="194"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="187"/>
-      <c r="B44" t="s">
-        <v>474</v>
-      </c>
-      <c r="C44" s="188" t="s">
-        <v>589</v>
-      </c>
-      <c r="D44" s="189">
+      <c r="D44" s="180">
         <v>4400</v>
       </c>
-      <c r="E44" s="187"/>
-      <c r="F44" s="190">
+      <c r="E44" s="178"/>
+      <c r="F44" s="181">
         <f>60*31</f>
         <v>1860</v>
       </c>
       <c r="G44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="187"/>
+      <c r="A45" s="178"/>
       <c r="B45" t="s">
         <v>187</v>
       </c>
-      <c r="C45" s="188" t="s">
+      <c r="C45" s="179" t="s">
+        <v>590</v>
+      </c>
+      <c r="D45" s="180">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="178"/>
+      <c r="F45" s="181">
+        <v>7000</v>
+      </c>
+      <c r="G45" s="182" t="s">
         <v>591</v>
       </c>
-      <c r="D45" s="189">
-        <v>4500</v>
-      </c>
-      <c r="E45" s="187"/>
-      <c r="F45" s="190">
-        <v>7000</v>
-      </c>
-      <c r="G45" s="191" t="s">
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="178"/>
+      <c r="B46" t="s">
+        <v>478</v>
+      </c>
+      <c r="C46" s="179"/>
+      <c r="D46" s="180">
+        <v>4600</v>
+      </c>
+      <c r="E46" s="178"/>
+      <c r="F46" s="181">
+        <v>0</v>
+      </c>
+      <c r="G46" s="182" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="187"/>
-      <c r="B46" t="s">
-        <v>479</v>
-      </c>
-      <c r="C46" s="188"/>
-      <c r="D46" s="189">
-        <v>4600</v>
-      </c>
-      <c r="E46" s="187"/>
-      <c r="F46" s="190">
-        <v>0</v>
-      </c>
-      <c r="G46" s="191" t="s">
-        <v>593</v>
-      </c>
-    </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="198"/>
-      <c r="B47" s="199" t="s">
-        <v>482</v>
-      </c>
-      <c r="C47" s="200"/>
-      <c r="D47" s="201"/>
-      <c r="E47" s="198"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="199"/>
+      <c r="A47" s="189"/>
+      <c r="B47" s="190" t="s">
+        <v>481</v>
+      </c>
+      <c r="C47" s="191"/>
+      <c r="D47" s="192"/>
+      <c r="E47" s="189"/>
+      <c r="F47" s="193"/>
+      <c r="G47" s="190"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Task-n-Tool.xlsx
+++ b/Task-n-Tool.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014'!$A$1:$E$64</definedName>
     <definedName name="_Toc251017352" localSheetId="0">'2014'!$A$164</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
   <si>
     <t>Задачи</t>
   </si>
@@ -2113,6 +2113,9 @@
       </rPr>
       <t>! Выбрать серверный дистрибутив Linux и поднять сервер</t>
     </r>
+  </si>
+  <si>
+    <t>FAR 3 + Basic plugins</t>
   </si>
 </sst>
 </file>
@@ -3283,6 +3286,12 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3292,12 +3301,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3306,69 +3309,69 @@
     </xf>
   </cellXfs>
   <cellStyles count="63">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3672,11 +3675,11 @@
   </sheetPr>
   <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.42578125" style="45" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="45" customWidth="1"/>
@@ -3685,7 +3688,7 @@
     <col min="5" max="16384" width="11.42578125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="37" customFormat="1" ht="15">
+    <row r="1" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
         <v>180</v>
       </c>
@@ -3700,7 +3703,7 @@
       </c>
       <c r="E1" s="206"/>
     </row>
-    <row r="2" spans="1:5" s="37" customFormat="1" ht="15">
+    <row r="2" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="205"/>
       <c r="B2" s="205"/>
       <c r="C2" s="205"/>
@@ -3711,7 +3714,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>229</v>
       </c>
@@ -3720,7 +3723,7 @@
       <c r="D3" s="62"/>
       <c r="E3" s="38"/>
     </row>
-    <row r="4" spans="1:5" s="41" customFormat="1" ht="39">
+    <row r="4" spans="1:5" s="41" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
@@ -3731,7 +3734,7 @@
       <c r="D4" s="63"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="51" t="s">
         <v>230</v>
       </c>
@@ -3739,7 +3742,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
         <v>231</v>
       </c>
@@ -3750,7 +3753,7 @@
       <c r="D6" s="65"/>
       <c r="E6" s="55"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
         <v>232</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="41" customFormat="1" ht="26">
+    <row r="8" spans="1:5" s="41" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>220</v>
       </c>
@@ -3769,7 +3772,7 @@
       <c r="D8" s="63"/>
       <c r="E8" s="39"/>
     </row>
-    <row r="9" spans="1:5" ht="39">
+    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>221</v>
       </c>
@@ -3780,7 +3783,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>11</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
         <v>19</v>
       </c>
@@ -3800,7 +3803,7 @@
       <c r="D11" s="63"/>
       <c r="E11" s="39"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>51</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
         <v>117</v>
       </c>
@@ -3820,7 +3823,7 @@
       <c r="D13" s="63"/>
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="1:5" ht="26">
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>219</v>
       </c>
@@ -3831,7 +3834,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>216</v>
       </c>
@@ -3844,7 +3847,7 @@
       <c r="D15" s="65"/>
       <c r="E15" s="55"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
         <v>218</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="26" collapsed="1">
+    <row r="17" spans="1:5" ht="25.5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
         <v>18</v>
       </c>
@@ -3866,7 +3869,7 @@
       <c r="D17" s="63"/>
       <c r="E17" s="39"/>
     </row>
-    <row r="18" spans="1:5" ht="39">
+    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>223</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="26">
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>224</v>
       </c>
@@ -3890,7 +3893,7 @@
       <c r="D19" s="65"/>
       <c r="E19" s="55"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>49</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="21" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="59" t="s">
         <v>225</v>
       </c>
@@ -3914,7 +3917,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="55"/>
     </row>
-    <row r="22" spans="1:5" ht="26" collapsed="1">
+    <row r="22" spans="1:5" ht="38.25" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
         <v>118</v>
       </c>
@@ -3925,9 +3928,9 @@
       <c r="D22" s="63"/>
       <c r="E22" s="39"/>
     </row>
-    <row r="23" spans="1:5" ht="39">
+    <row r="23" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
-        <v>236</v>
+        <v>626</v>
       </c>
       <c r="B23" s="45" t="s">
         <v>178</v>
@@ -3936,7 +3939,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="24" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
         <v>238</v>
       </c>
@@ -3949,7 +3952,7 @@
       <c r="D24" s="65"/>
       <c r="E24" s="55"/>
     </row>
-    <row r="25" spans="1:5" collapsed="1">
+    <row r="25" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
         <v>119</v>
       </c>
@@ -3958,7 +3961,7 @@
       <c r="D25" s="63"/>
       <c r="E25" s="39"/>
     </row>
-    <row r="26" spans="1:5" ht="26">
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="53" t="s">
         <v>2</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
         <v>240</v>
       </c>
@@ -3978,7 +3981,7 @@
       <c r="D27" s="63"/>
       <c r="E27" s="39"/>
     </row>
-    <row r="28" spans="1:5" ht="39">
+    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
         <v>46</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="57" t="s">
         <v>241</v>
       </c>
@@ -4000,7 +4003,7 @@
       <c r="D29" s="65"/>
       <c r="E29" s="55"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="s">
         <v>246</v>
       </c>
@@ -4009,7 +4012,7 @@
       <c r="D30" s="63"/>
       <c r="E30" s="39"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
         <v>47</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
         <v>48</v>
       </c>
@@ -4033,7 +4036,7 @@
       <c r="D32" s="65"/>
       <c r="E32" s="55"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="33" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="60" t="s">
         <v>245</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:5" collapsed="1">
+    <row r="34" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="s">
         <v>120</v>
       </c>
@@ -4055,7 +4058,7 @@
       <c r="D34" s="63"/>
       <c r="E34" s="39"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>249</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
         <v>121</v>
       </c>
@@ -4072,7 +4075,7 @@
       <c r="D36" s="63"/>
       <c r="E36" s="39"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="60" t="s">
         <v>250</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="s">
         <v>122</v>
       </c>
@@ -4092,7 +4095,7 @@
       <c r="D38" s="63"/>
       <c r="E38" s="39"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="60" t="s">
         <v>252</v>
       </c>
@@ -4103,7 +4106,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
         <v>123</v>
       </c>
@@ -4114,7 +4117,7 @@
       <c r="D40" s="63"/>
       <c r="E40" s="39"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
         <v>124</v>
       </c>
@@ -4123,7 +4126,7 @@
       <c r="D42" s="63"/>
       <c r="E42" s="39"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="60" t="s">
         <v>255</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="37" customFormat="1" ht="15">
+    <row r="44" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
         <v>114</v>
       </c>
@@ -4146,7 +4149,7 @@
       <c r="D44" s="62"/>
       <c r="E44" s="38"/>
     </row>
-    <row r="45" spans="1:5" s="41" customFormat="1" ht="65">
+    <row r="45" spans="1:5" s="41" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
         <v>115</v>
       </c>
@@ -4157,7 +4160,7 @@
       <c r="D45" s="66"/>
       <c r="E45" s="40"/>
     </row>
-    <row r="46" spans="1:5" ht="39">
+    <row r="46" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="42" t="s">
         <v>166</v>
       </c>
@@ -4169,7 +4172,7 @@
       </c>
       <c r="D46" s="67"/>
     </row>
-    <row r="47" spans="1:5" ht="52">
+    <row r="47" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
         <v>6</v>
       </c>
@@ -4182,7 +4185,7 @@
       <c r="D47" s="68"/>
       <c r="E47" s="55"/>
     </row>
-    <row r="48" spans="1:5" ht="26">
+    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="42" t="s">
         <v>172</v>
       </c>
@@ -4194,7 +4197,7 @@
       </c>
       <c r="D48" s="67"/>
     </row>
-    <row r="49" spans="1:5" ht="26" hidden="1" outlineLevel="1">
+    <row r="49" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54" t="s">
         <v>168</v>
       </c>
@@ -4207,7 +4210,7 @@
       <c r="D49" s="65"/>
       <c r="E49" s="55"/>
     </row>
-    <row r="50" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="50" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="46" t="s">
         <v>173</v>
       </c>
@@ -4218,7 +4221,7 @@
       <c r="D50" s="69"/>
       <c r="E50" s="47"/>
     </row>
-    <row r="51" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="51" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="57" t="s">
         <v>174</v>
       </c>
@@ -4229,7 +4232,7 @@
       <c r="D51" s="65"/>
       <c r="E51" s="55"/>
     </row>
-    <row r="52" spans="1:5" s="41" customFormat="1" ht="52" collapsed="1">
+    <row r="52" spans="1:5" s="41" customFormat="1" ht="51" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="s">
         <v>93</v>
       </c>
@@ -4240,7 +4243,7 @@
       <c r="D52" s="66"/>
       <c r="E52" s="40"/>
     </row>
-    <row r="53" spans="1:5" ht="39">
+    <row r="53" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="52" t="s">
         <v>177</v>
       </c>
@@ -4252,7 +4255,7 @@
       </c>
       <c r="D53" s="70"/>
     </row>
-    <row r="54" spans="1:5" ht="52">
+    <row r="54" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="57" t="s">
         <v>95</v>
       </c>
@@ -4265,7 +4268,7 @@
       <c r="D54" s="68"/>
       <c r="E54" s="55"/>
     </row>
-    <row r="55" spans="1:5" ht="26">
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="51" t="s">
         <v>183</v>
       </c>
@@ -4277,7 +4280,7 @@
       </c>
       <c r="D55" s="70"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="57" t="s">
         <v>185</v>
       </c>
@@ -4290,7 +4293,7 @@
       <c r="D56" s="68"/>
       <c r="E56" s="55"/>
     </row>
-    <row r="57" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="57" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="52" t="s">
         <v>187</v>
       </c>
@@ -4302,7 +4305,7 @@
       </c>
       <c r="D57" s="70"/>
     </row>
-    <row r="58" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="58" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="57" t="s">
         <v>190</v>
       </c>
@@ -4315,7 +4318,7 @@
       <c r="D58" s="68"/>
       <c r="E58" s="55"/>
     </row>
-    <row r="59" spans="1:5" ht="39" collapsed="1">
+    <row r="59" spans="1:5" ht="51" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
         <v>20</v>
       </c>
@@ -4326,7 +4329,7 @@
       <c r="D59" s="63"/>
       <c r="E59" s="39"/>
     </row>
-    <row r="60" spans="1:5" s="41" customFormat="1" ht="52">
+    <row r="60" spans="1:5" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="52" t="s">
         <v>192</v>
       </c>
@@ -4339,7 +4342,7 @@
       <c r="D60" s="70"/>
       <c r="E60" s="45"/>
     </row>
-    <row r="61" spans="1:5" s="41" customFormat="1" ht="26" hidden="1" outlineLevel="1">
+    <row r="61" spans="1:5" s="41" customFormat="1" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
         <v>196</v>
       </c>
@@ -4352,7 +4355,7 @@
       <c r="D61" s="68"/>
       <c r="E61" s="55"/>
     </row>
-    <row r="62" spans="1:5" s="41" customFormat="1" ht="52" hidden="1" outlineLevel="1">
+    <row r="62" spans="1:5" s="41" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="51" t="s">
         <v>195</v>
       </c>
@@ -4363,7 +4366,7 @@
       <c r="D62" s="64"/>
       <c r="E62" s="45"/>
     </row>
-    <row r="63" spans="1:5" s="41" customFormat="1" ht="52" hidden="1" outlineLevel="1">
+    <row r="63" spans="1:5" s="41" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="57" t="s">
         <v>202</v>
       </c>
@@ -4374,7 +4377,7 @@
       <c r="D63" s="65"/>
       <c r="E63" s="55"/>
     </row>
-    <row r="64" spans="1:5" collapsed="1">
+    <row r="64" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="s">
         <v>116</v>
       </c>
@@ -4383,7 +4386,7 @@
       <c r="D64" s="63"/>
       <c r="E64" s="39"/>
     </row>
-    <row r="65" spans="1:5" ht="39">
+    <row r="65" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A65" s="51" t="s">
         <v>204</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="26" hidden="1" outlineLevel="1">
+    <row r="66" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="57" t="s">
         <v>208</v>
       </c>
@@ -4407,7 +4410,7 @@
       <c r="D66" s="65"/>
       <c r="E66" s="55"/>
     </row>
-    <row r="67" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="67" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="51" t="s">
         <v>211</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="68" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="58" t="s">
         <v>213</v>
       </c>
@@ -4429,7 +4432,7 @@
       <c r="D68" s="65"/>
       <c r="E68" s="55"/>
     </row>
-    <row r="69" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1">
+    <row r="69" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A69" s="38" t="s">
         <v>125</v>
       </c>
@@ -4438,7 +4441,7 @@
       <c r="D69" s="62"/>
       <c r="E69" s="38"/>
     </row>
-    <row r="70" spans="1:5" ht="39">
+    <row r="70" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="s">
         <v>126</v>
       </c>
@@ -4449,7 +4452,7 @@
       <c r="D70" s="39"/>
       <c r="E70" s="39"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="53" t="s">
         <v>257</v>
       </c>
@@ -4460,7 +4463,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="39">
+    <row r="72" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="72" t="s">
         <v>258</v>
       </c>
@@ -4473,7 +4476,7 @@
       <c r="D72" s="65"/>
       <c r="E72" s="55"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="s">
         <v>128</v>
       </c>
@@ -4484,7 +4487,7 @@
       <c r="D73" s="39"/>
       <c r="E73" s="39"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="60" t="s">
         <v>31</v>
       </c>
@@ -4495,7 +4498,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="s">
         <v>129</v>
       </c>
@@ -4504,7 +4507,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="60" t="s">
         <v>50</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="57" t="s">
         <v>266</v>
       </c>
@@ -4526,7 +4529,7 @@
       <c r="D77" s="65"/>
       <c r="E77" s="55"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="s">
         <v>130</v>
       </c>
@@ -4535,7 +4538,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="39"/>
     </row>
-    <row r="79" spans="1:5" ht="78">
+    <row r="79" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A79" s="34" t="s">
         <v>91</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" hidden="1" outlineLevel="1">
+    <row r="80" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="75" t="s">
         <v>269</v>
       </c>
@@ -4559,7 +4562,7 @@
       <c r="D80" s="65"/>
       <c r="E80" s="55"/>
     </row>
-    <row r="81" spans="1:5" collapsed="1">
+    <row r="81" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="s">
         <v>131</v>
       </c>
@@ -4570,7 +4573,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="s">
         <v>273</v>
       </c>
@@ -4581,7 +4584,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
     </row>
-    <row r="84" spans="1:5" ht="65">
+    <row r="84" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A84" s="34" t="s">
         <v>272</v>
       </c>
@@ -4592,7 +4595,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="65">
+    <row r="85" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A85" s="35" t="s">
         <v>275</v>
       </c>
@@ -4605,7 +4608,7 @@
       <c r="D85" s="65"/>
       <c r="E85" s="55"/>
     </row>
-    <row r="86" spans="1:5" ht="78">
+    <row r="86" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A86" s="34" t="s">
         <v>277</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="52">
+    <row r="87" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A87" s="35" t="s">
         <v>279</v>
       </c>
@@ -4629,7 +4632,7 @@
       <c r="D87" s="65"/>
       <c r="E87" s="55"/>
     </row>
-    <row r="88" spans="1:5" ht="15" hidden="1" outlineLevel="1">
+    <row r="88" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="74" t="s">
         <v>281</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" hidden="1" outlineLevel="1">
+    <row r="89" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="74" t="s">
         <v>282</v>
       </c>
@@ -4651,7 +4654,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1">
+    <row r="90" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A90" s="38" t="s">
         <v>132</v>
       </c>
@@ -4660,7 +4663,7 @@
       <c r="D90" s="38"/>
       <c r="E90" s="38"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="s">
         <v>133</v>
       </c>
@@ -4669,7 +4672,7 @@
       <c r="D91" s="39"/>
       <c r="E91" s="39"/>
     </row>
-    <row r="92" spans="1:5" ht="78">
+    <row r="92" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A92" s="79" t="s">
         <v>284</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="55" customFormat="1" ht="15" hidden="1" outlineLevel="1">
+    <row r="93" spans="1:5" s="55" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="75" t="s">
         <v>287</v>
       </c>
@@ -4692,7 +4695,7 @@
       </c>
       <c r="D93" s="65"/>
     </row>
-    <row r="94" spans="1:5" collapsed="1">
+    <row r="94" spans="1:5" ht="25.5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
         <v>134</v>
       </c>
@@ -4703,7 +4706,7 @@
       <c r="D94" s="39"/>
       <c r="E94" s="39"/>
     </row>
-    <row r="96" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="96" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="38" t="s">
         <v>135</v>
       </c>
@@ -4712,7 +4715,7 @@
       <c r="D96" s="38"/>
       <c r="E96" s="38"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="s">
         <v>136</v>
       </c>
@@ -4721,7 +4724,7 @@
       <c r="D97" s="39"/>
       <c r="E97" s="39"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="51" t="s">
         <v>291</v>
       </c>
@@ -4732,7 +4735,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="s">
         <v>137</v>
       </c>
@@ -4741,7 +4744,7 @@
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
     </row>
-    <row r="100" spans="1:5" ht="26">
+    <row r="100" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="51" t="s">
         <v>294</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="s">
         <v>138</v>
       </c>
@@ -4761,7 +4764,7 @@
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="60" t="s">
         <v>296</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="72" t="s">
         <v>298</v>
       </c>
@@ -4785,7 +4788,7 @@
       <c r="D103" s="65"/>
       <c r="E103" s="55"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="s">
         <v>403</v>
       </c>
@@ -4796,7 +4799,7 @@
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
     </row>
-    <row r="106" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="106" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="38" t="s">
         <v>139</v>
       </c>
@@ -4805,7 +4808,7 @@
       <c r="D106" s="38"/>
       <c r="E106" s="38"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="s">
         <v>140</v>
       </c>
@@ -4814,7 +4817,7 @@
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="51" t="s">
         <v>299</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="s">
         <v>141</v>
       </c>
@@ -4836,7 +4839,7 @@
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="60" t="s">
         <v>312</v>
       </c>
@@ -4847,7 +4850,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="26">
+    <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="72" t="s">
         <v>310</v>
       </c>
@@ -4860,7 +4863,7 @@
       <c r="D111" s="65"/>
       <c r="E111" s="55"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="72" t="s">
         <v>315</v>
       </c>
@@ -4873,7 +4876,7 @@
       <c r="D112" s="65"/>
       <c r="E112" s="55"/>
     </row>
-    <row r="113" spans="1:5" ht="26">
+    <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="60" t="s">
         <v>311</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="s">
         <v>405</v>
       </c>
@@ -4895,7 +4898,7 @@
       <c r="D114" s="39"/>
       <c r="E114" s="39"/>
     </row>
-    <row r="116" spans="1:5" ht="15">
+    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="38" t="s">
         <v>142</v>
       </c>
@@ -4904,7 +4907,7 @@
       <c r="D116" s="38"/>
       <c r="E116" s="38"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="39" t="s">
         <v>143</v>
       </c>
@@ -4913,7 +4916,7 @@
       <c r="D117" s="39"/>
       <c r="E117" s="39"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="51" t="s">
         <v>143</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="39" t="s">
         <v>144</v>
       </c>
@@ -4933,7 +4936,7 @@
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
     </row>
-    <row r="120" spans="1:5" ht="26">
+    <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="60" t="s">
         <v>319</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="39" t="s">
         <v>145</v>
       </c>
@@ -4955,7 +4958,7 @@
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
     </row>
-    <row r="123" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="123" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="38" t="s">
         <v>5</v>
       </c>
@@ -4964,7 +4967,7 @@
       <c r="D123" s="38"/>
       <c r="E123" s="38"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="39" t="s">
         <v>324</v>
       </c>
@@ -4973,7 +4976,7 @@
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
     </row>
-    <row r="125" spans="1:5" ht="26">
+    <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A125" s="60" t="s">
         <v>53</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="s">
         <v>146</v>
       </c>
@@ -4995,7 +4998,7 @@
       <c r="D126" s="39"/>
       <c r="E126" s="39"/>
     </row>
-    <row r="128" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="128" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="38" t="s">
         <v>147</v>
       </c>
@@ -5004,7 +5007,7 @@
       <c r="D128" s="38"/>
       <c r="E128" s="38"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="39" t="s">
         <v>332</v>
       </c>
@@ -5015,7 +5018,7 @@
       <c r="D129" s="39"/>
       <c r="E129" s="39"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="60" t="s">
         <v>325</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="57" t="s">
         <v>328</v>
       </c>
@@ -5036,7 +5039,7 @@
       <c r="D131" s="65"/>
       <c r="E131" s="55"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="s">
         <v>333</v>
       </c>
@@ -5047,7 +5050,7 @@
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="60" t="s">
         <v>330</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="72" t="s">
         <v>331</v>
       </c>
@@ -5066,7 +5069,7 @@
       <c r="D134" s="65"/>
       <c r="E134" s="55"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="60" t="s">
         <v>334</v>
       </c>
@@ -5074,7 +5077,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="39" t="s">
         <v>338</v>
       </c>
@@ -5085,7 +5088,7 @@
       <c r="D136" s="39"/>
       <c r="E136" s="39"/>
     </row>
-    <row r="137" spans="1:5" ht="39">
+    <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A137" s="60" t="s">
         <v>1</v>
       </c>
@@ -5096,7 +5099,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="72" t="s">
         <v>340</v>
       </c>
@@ -5109,7 +5112,7 @@
       <c r="D138" s="65"/>
       <c r="E138" s="55"/>
     </row>
-    <row r="139" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="139" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="38" t="s">
         <v>148</v>
       </c>
@@ -5118,7 +5121,7 @@
       <c r="D139" s="38"/>
       <c r="E139" s="38"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="39" t="s">
         <v>149</v>
       </c>
@@ -5129,7 +5132,7 @@
       <c r="D140" s="39"/>
       <c r="E140" s="39"/>
     </row>
-    <row r="141" spans="1:5" ht="52">
+    <row r="141" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="60" t="s">
         <v>343</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="52">
+    <row r="142" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="60" t="s">
         <v>346</v>
       </c>
@@ -5151,7 +5154,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="52">
+    <row r="143" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="60" t="s">
         <v>348</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="39" t="s">
         <v>150</v>
       </c>
@@ -5173,7 +5176,7 @@
       <c r="D144" s="39"/>
       <c r="E144" s="39"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="39" t="s">
         <v>151</v>
       </c>
@@ -5184,7 +5187,7 @@
       <c r="D146" s="39"/>
       <c r="E146" s="39"/>
     </row>
-    <row r="148" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="148" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="38" t="s">
         <v>23</v>
       </c>
@@ -5193,7 +5196,7 @@
       <c r="D148" s="38"/>
       <c r="E148" s="38"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="39" t="s">
         <v>152</v>
       </c>
@@ -5204,7 +5207,7 @@
       <c r="D149" s="39"/>
       <c r="E149" s="39"/>
     </row>
-    <row r="150" spans="1:5" ht="39">
+    <row r="150" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="60" t="s">
         <v>352</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="151" spans="1:5" outlineLevel="1">
+    <row r="151" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A151" s="72" t="s">
         <v>353</v>
       </c>
@@ -5228,7 +5231,7 @@
       <c r="D151" s="65"/>
       <c r="E151" s="55"/>
     </row>
-    <row r="152" spans="1:5" outlineLevel="1">
+    <row r="152" spans="1:5" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A152" s="51" t="s">
         <v>354</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="39" t="s">
         <v>153</v>
       </c>
@@ -5250,7 +5253,7 @@
       <c r="D153" s="39"/>
       <c r="E153" s="39"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="39" t="s">
         <v>154</v>
       </c>
@@ -5261,7 +5264,7 @@
       <c r="D155" s="39"/>
       <c r="E155" s="39"/>
     </row>
-    <row r="157" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="157" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="38" t="s">
         <v>155</v>
       </c>
@@ -5270,7 +5273,7 @@
       <c r="D157" s="38"/>
       <c r="E157" s="38"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="39" t="s">
         <v>156</v>
       </c>
@@ -5281,7 +5284,7 @@
       <c r="D158" s="39"/>
       <c r="E158" s="39"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="39" t="s">
         <v>157</v>
       </c>
@@ -5290,7 +5293,7 @@
       <c r="D160" s="39"/>
       <c r="E160" s="39"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="60" t="s">
         <v>359</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="162" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="38" t="s">
         <v>158</v>
       </c>
@@ -5309,7 +5312,7 @@
       <c r="D162" s="38"/>
       <c r="E162" s="38"/>
     </row>
-    <row r="164" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="164" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A164" s="38" t="s">
         <v>267</v>
       </c>
@@ -5318,7 +5321,7 @@
       <c r="D164" s="38"/>
       <c r="E164" s="38"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="39" t="s">
         <v>127</v>
       </c>
@@ -5329,7 +5332,7 @@
       <c r="D165" s="39"/>
       <c r="E165" s="39"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="39" t="s">
         <v>26</v>
       </c>
@@ -5340,7 +5343,7 @@
       <c r="D167" s="39"/>
       <c r="E167" s="39"/>
     </row>
-    <row r="168" spans="1:5" ht="78">
+    <row r="168" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A168" s="34" t="s">
         <v>362</v>
       </c>
@@ -5351,7 +5354,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="52">
+    <row r="169" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" s="34" t="s">
         <v>10</v>
       </c>
@@ -5362,7 +5365,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="39" t="s">
         <v>360</v>
       </c>
@@ -5373,7 +5376,7 @@
       <c r="D170" s="39"/>
       <c r="E170" s="39"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="60" t="s">
         <v>159</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="39">
+    <row r="172" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A172" s="39" t="s">
         <v>79</v>
       </c>
@@ -5392,12 +5395,12 @@
       <c r="D172" s="39"/>
       <c r="E172" s="39"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="60" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="39" t="s">
         <v>162</v>
       </c>
@@ -5408,7 +5411,7 @@
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="51" t="s">
         <v>368</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="57" t="s">
         <v>370</v>
       </c>
@@ -5432,7 +5435,7 @@
       <c r="D176" s="65"/>
       <c r="E176" s="55"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="60" t="s">
         <v>366</v>
       </c>
@@ -5440,7 +5443,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="39" t="s">
         <v>163</v>
       </c>
@@ -5449,7 +5452,7 @@
       <c r="D178" s="39"/>
       <c r="E178" s="39"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="51" t="s">
         <v>372</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="72" t="s">
         <v>374</v>
       </c>
@@ -5471,7 +5474,7 @@
       <c r="D180" s="65"/>
       <c r="E180" s="55"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="60" t="s">
         <v>375</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="39" t="s">
         <v>164</v>
       </c>
@@ -5490,7 +5493,7 @@
       <c r="D182" s="39"/>
       <c r="E182" s="39"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="39" t="s">
         <v>165</v>
       </c>
@@ -5501,7 +5504,7 @@
       <c r="D184" s="39"/>
       <c r="E184" s="39"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="60" t="s">
         <v>104</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="60" t="s">
         <v>103</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="39" t="s">
         <v>290</v>
       </c>
@@ -5528,7 +5531,7 @@
       <c r="D187" s="39"/>
       <c r="E187" s="39"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="60" t="s">
         <v>379</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="26">
+    <row r="189" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A189" s="60" t="s">
         <v>381</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="39" t="s">
         <v>160</v>
       </c>
@@ -5561,7 +5564,7 @@
       <c r="D190" s="39"/>
       <c r="E190" s="39"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="60" t="s">
         <v>383</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="39" t="s">
         <v>72</v>
       </c>
@@ -5580,7 +5583,7 @@
       <c r="D192" s="39"/>
       <c r="E192" s="39"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="39" t="s">
         <v>73</v>
       </c>
@@ -5591,7 +5594,7 @@
       <c r="D194" s="39"/>
       <c r="E194" s="39"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="39" t="s">
         <v>28</v>
       </c>
@@ -5600,7 +5603,7 @@
       <c r="D196" s="39"/>
       <c r="E196" s="39"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="60" t="s">
         <v>390</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="60" t="s">
         <v>392</v>
       </c>
@@ -5616,7 +5619,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="60" t="s">
         <v>12</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="39" t="s">
         <v>396</v>
       </c>
@@ -5633,7 +5636,7 @@
       <c r="D200" s="39"/>
       <c r="E200" s="39"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="60" t="s">
         <v>386</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="60" t="s">
         <v>387</v>
       </c>
@@ -5655,7 +5658,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="60" t="s">
         <v>388</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="s">
         <v>161</v>
       </c>
@@ -5675,7 +5678,7 @@
       <c r="D204" s="39"/>
       <c r="E204" s="39"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="60" t="s">
         <v>389</v>
       </c>
@@ -5686,7 +5689,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="60" t="s">
         <v>108</v>
       </c>
@@ -5718,7 +5721,7 @@
     <hyperlink ref="A19" r:id="rId11" display="http://www.sopht.jp/en/cleanarchiver/"/>
     <hyperlink ref="A20" r:id="rId12" display="http://www.7-zip.org/"/>
     <hyperlink ref="A21" r:id="rId13" display="http://www.win-rar.ru/"/>
-    <hyperlink ref="A23" r:id="rId14"/>
+    <hyperlink ref="A23" r:id="rId14" display="FAR"/>
     <hyperlink ref="A24" r:id="rId15"/>
     <hyperlink ref="A47" r:id="rId16" display="https://www.dropbox.com/"/>
     <hyperlink ref="A46" r:id="rId17" display="https://drive.google.com/"/>
@@ -5806,7 +5809,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="9" customWidth="1"/>
@@ -5815,14 +5818,14 @@
     <col min="6" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="14" thickBot="1">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="211"/>
+      <c r="C1" s="208"/>
       <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1">
+    <row r="2" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
         <v>97</v>
@@ -5841,7 +5844,7 @@
       <c r="D2" s="31"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -5856,7 +5859,7 @@
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -5869,8 +5872,8 @@
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="207" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="209" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5880,8 +5883,8 @@
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="207"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="209"/>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
@@ -5889,8 +5892,8 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="207" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="209" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -5902,8 +5905,8 @@
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="207"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="209"/>
       <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
@@ -5911,8 +5914,8 @@
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="207" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="209" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -5924,8 +5927,8 @@
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" ht="26">
-      <c r="A10" s="207"/>
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="209"/>
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
@@ -5933,7 +5936,7 @@
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -5946,8 +5949,8 @@
       </c>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="207" t="s">
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="209" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5957,8 +5960,8 @@
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="207"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="209"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -5966,8 +5969,8 @@
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="207"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="209"/>
       <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
@@ -5975,7 +5978,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -5988,7 +5991,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="26">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -6001,7 +6004,7 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -6012,7 +6015,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>90</v>
       </c>
@@ -6025,7 +6028,7 @@
       </c>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -6038,7 +6041,7 @@
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="26">
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -6051,8 +6054,8 @@
       </c>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="208" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="210" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6064,8 +6067,8 @@
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="209"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="211"/>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -6075,7 +6078,7 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -6086,7 +6089,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -6099,7 +6102,7 @@
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
       <c r="B25" s="6" t="s">
         <v>113</v>
@@ -6108,7 +6111,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -6121,7 +6124,7 @@
       </c>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -6134,7 +6137,7 @@
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="26">
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
@@ -6145,7 +6148,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
@@ -6158,8 +6161,8 @@
       </c>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="207" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="209" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6171,8 +6174,8 @@
       </c>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="207"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="209"/>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
@@ -6182,7 +6185,7 @@
       </c>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="26">
+    <row r="32" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
@@ -6193,7 +6196,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>93</v>
       </c>
@@ -6210,7 +6213,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="26">
+    <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="6" t="s">
         <v>100</v>
@@ -6219,7 +6222,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -6230,7 +6233,7 @@
       <c r="D35" s="21"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
@@ -6241,7 +6244,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>109</v>
       </c>
@@ -6252,7 +6255,7 @@
       <c r="D37" s="21"/>
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>105</v>
       </c>
@@ -6263,7 +6266,7 @@
       <c r="D38" s="21"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -6274,8 +6277,8 @@
       <c r="D39" s="21"/>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="208" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="210" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -6285,8 +6288,8 @@
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="209"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="211"/>
       <c r="B41" s="6" t="s">
         <v>78</v>
       </c>
@@ -6294,7 +6297,7 @@
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
         <v>102</v>
       </c>
@@ -6305,7 +6308,7 @@
       <c r="D42" s="15"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="6" t="s">
         <v>104</v>
@@ -6314,7 +6317,7 @@
       <c r="D43" s="15"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>63</v>
       </c>
@@ -6325,7 +6328,7 @@
       <c r="D44" s="21"/>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>26</v>
       </c>
@@ -6336,8 +6339,8 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="207" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="209" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -6347,8 +6350,8 @@
       <c r="D46" s="21"/>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="207"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="209"/>
       <c r="B47" s="28" t="s">
         <v>101</v>
       </c>
@@ -6356,8 +6359,8 @@
       <c r="D47" s="21"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A48" s="207"/>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="209"/>
       <c r="B48" s="6" t="s">
         <v>67</v>
       </c>
@@ -6365,7 +6368,7 @@
       <c r="D48" s="21"/>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>65</v>
       </c>
@@ -6376,7 +6379,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>28</v>
       </c>
@@ -6387,7 +6390,7 @@
       <c r="D50" s="21"/>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>111</v>
       </c>
@@ -6398,7 +6401,7 @@
       <c r="D51" s="21"/>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>68</v>
       </c>
@@ -6409,7 +6412,7 @@
       <c r="D52" s="21"/>
       <c r="E52" s="22"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>69</v>
       </c>
@@ -6420,7 +6423,7 @@
       <c r="D53" s="21"/>
       <c r="E53" s="22"/>
     </row>
-    <row r="54" spans="1:5" ht="26">
+    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>29</v>
       </c>
@@ -6431,7 +6434,7 @@
       <c r="D54" s="21"/>
       <c r="E54" s="22"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
@@ -6442,7 +6445,7 @@
       <c r="D55" s="21"/>
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="26" t="s">
         <v>107</v>
       </c>
@@ -6453,8 +6456,8 @@
       <c r="D56" s="15"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="207" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="209" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6464,8 +6467,8 @@
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="207"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="209"/>
       <c r="B58" s="6" t="s">
         <v>15</v>
       </c>
@@ -6473,7 +6476,7 @@
       <c r="D58" s="15"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" ht="14" thickBot="1">
+    <row r="59" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>73</v>
       </c>
@@ -6486,16 +6489,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6586,11 +6589,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="151" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
@@ -6603,7 +6609,7 @@
     <col min="10" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="84" customFormat="1">
+    <row r="1" spans="1:9" s="84" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -6630,7 +6636,7 @@
       </c>
       <c r="I1" s="213"/>
     </row>
-    <row r="2" spans="1:9" s="91" customFormat="1" ht="91">
+    <row r="2" spans="1:9" s="91" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="85" t="s">
         <v>416</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="143">
+    <row r="3" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
         <v>416</v>
       </c>
@@ -6682,7 +6688,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26">
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
         <v>424</v>
       </c>
@@ -6705,7 +6711,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="98" t="s">
         <v>18</v>
       </c>
@@ -6730,7 +6736,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="104" t="s">
         <v>18</v>
       </c>
@@ -6751,7 +6757,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>3</v>
       </c>
@@ -6776,7 +6782,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="38.25" customHeight="1">
+    <row r="8" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="104" t="s">
         <v>4</v>
       </c>
@@ -6795,7 +6801,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="98" t="s">
         <v>4</v>
       </c>
@@ -6820,7 +6826,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="104" t="s">
         <v>19</v>
       </c>
@@ -6843,7 +6849,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52">
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="98" t="s">
         <v>431</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26">
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="98" t="s">
         <v>431</v>
       </c>
@@ -6889,7 +6895,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52">
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="98" t="s">
         <v>434</v>
       </c>
@@ -6912,7 +6918,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="52">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="95" t="s">
         <v>434</v>
       </c>
@@ -6937,7 +6943,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="26">
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="98" t="s">
         <v>5</v>
       </c>
@@ -6958,7 +6964,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="65">
+    <row r="16" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="95" t="s">
         <v>5</v>
       </c>
@@ -6983,7 +6989,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="114" t="s">
         <v>416</v>
       </c>
@@ -7008,7 +7014,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="114" t="s">
         <v>416</v>
       </c>
@@ -7029,7 +7035,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="114" t="s">
         <v>416</v>
       </c>
@@ -7052,7 +7058,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="120" customFormat="1">
+    <row r="20" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="115" t="s">
         <v>445</v>
       </c>
@@ -7069,7 +7075,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="26">
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="104" t="s">
         <v>447</v>
       </c>
@@ -7090,7 +7096,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="98" t="s">
         <v>448</v>
       </c>
@@ -7111,7 +7117,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="115" t="s">
         <v>20</v>
       </c>
@@ -7133,7 +7139,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="115" t="s">
         <v>452</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="26">
+    <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="104" t="s">
         <v>455</v>
       </c>
@@ -7173,7 +7179,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="104" t="s">
         <v>119</v>
       </c>
@@ -7194,7 +7200,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="104" t="s">
         <v>456</v>
       </c>
@@ -7215,7 +7221,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="115" t="s">
         <v>456</v>
       </c>
@@ -7232,7 +7238,7 @@
       <c r="H28" s="118"/>
       <c r="I28" s="119"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="115" t="s">
         <v>456</v>
       </c>
@@ -7249,7 +7255,7 @@
       <c r="H29" s="118"/>
       <c r="I29" s="119"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="115" t="s">
         <v>22</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="95" t="s">
         <v>22</v>
       </c>
@@ -7291,7 +7297,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="95" t="s">
         <v>22</v>
       </c>
@@ -7312,7 +7318,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="115" t="s">
         <v>462</v>
       </c>
@@ -7329,7 +7335,7 @@
       <c r="H33" s="118"/>
       <c r="I33" s="119"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="115" t="s">
         <v>465</v>
       </c>
@@ -7346,7 +7352,7 @@
       <c r="H34" s="118"/>
       <c r="I34" s="119"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="115" t="s">
         <v>23</v>
       </c>
@@ -7363,7 +7369,7 @@
       <c r="H35" s="118"/>
       <c r="I35" s="119"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="104" t="s">
         <v>24</v>
       </c>
@@ -7384,7 +7390,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="115" t="s">
         <v>470</v>
       </c>
@@ -7403,7 +7409,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="115" t="s">
         <v>25</v>
       </c>
@@ -7425,7 +7431,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="104" t="s">
         <v>93</v>
       </c>
@@ -7450,7 +7456,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="126" t="s">
         <v>477</v>
       </c>
@@ -7471,7 +7477,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="104" t="s">
         <v>480</v>
       </c>
@@ -7490,7 +7496,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="104" t="s">
         <v>482</v>
       </c>
@@ -7511,7 +7517,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="132" t="s">
         <v>120</v>
       </c>
@@ -7526,7 +7532,7 @@
       <c r="H43" s="135"/>
       <c r="I43" s="136"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="132" t="s">
         <v>485</v>
       </c>
@@ -7541,7 +7547,7 @@
       <c r="H44" s="135"/>
       <c r="I44" s="136"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="132" t="s">
         <v>485</v>
       </c>
@@ -7556,7 +7562,7 @@
       <c r="H45" s="135"/>
       <c r="I45" s="136"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="104" t="s">
         <v>20</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="104" t="s">
         <v>25</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="26">
+    <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="104" t="s">
         <v>25</v>
       </c>
@@ -7621,7 +7627,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="95" t="s">
         <v>490</v>
       </c>
@@ -7642,7 +7648,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="104" t="s">
         <v>493</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="26">
+    <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="104" t="s">
         <v>495</v>
       </c>
@@ -7682,7 +7688,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="104" t="s">
         <v>496</v>
       </c>
@@ -7701,7 +7707,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="104" t="s">
         <v>497</v>
       </c>
@@ -7724,7 +7730,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="132" t="s">
         <v>497</v>
       </c>
@@ -7739,7 +7745,7 @@
       <c r="H54" s="135"/>
       <c r="I54" s="136"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="104" t="s">
         <v>26</v>
       </c>
@@ -7758,7 +7764,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="104" t="s">
         <v>501</v>
       </c>
@@ -7777,7 +7783,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="104" t="s">
         <v>503</v>
       </c>
@@ -7796,7 +7802,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="122" t="s">
         <v>27</v>
       </c>
@@ -7817,7 +7823,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="104" t="s">
         <v>27</v>
       </c>
@@ -7838,7 +7844,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="104" t="s">
         <v>28</v>
       </c>
@@ -7857,7 +7863,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="104" t="s">
         <v>396</v>
       </c>
@@ -7878,7 +7884,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="104" t="s">
         <v>396</v>
       </c>
@@ -7899,7 +7905,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="132"/>
       <c r="B63" s="133" t="s">
         <v>509</v>
@@ -7912,7 +7918,7 @@
       <c r="H63" s="135"/>
       <c r="I63" s="136"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="104" t="s">
         <v>29</v>
       </c>
@@ -7933,7 +7939,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="104" t="s">
         <v>30</v>
       </c>
@@ -7952,7 +7958,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="132"/>
       <c r="B66" s="133" t="s">
         <v>512</v>
@@ -7965,7 +7971,7 @@
       <c r="H66" s="135"/>
       <c r="I66" s="136"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="132"/>
       <c r="B67" s="133" t="s">
         <v>15</v>
@@ -7978,7 +7984,7 @@
       <c r="H67" s="135"/>
       <c r="I67" s="136"/>
     </row>
-    <row r="68" spans="1:9" ht="14" thickBot="1">
+    <row r="68" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="146"/>
       <c r="B68" s="147" t="s">
         <v>513</v>
@@ -8049,6 +8055,10 @@
     <hyperlink ref="B59" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
+  <headerFooter>
+    <oddFooter>&amp;LLevel 1 – Confidential</oddFooter>
+  </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8059,11 +8069,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="178" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
@@ -8076,7 +8089,7 @@
     <col min="10" max="10" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="154" customFormat="1">
+    <row r="1" spans="1:10" s="154" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
@@ -8108,7 +8121,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="165" customFormat="1" ht="26">
+    <row r="2" spans="1:10" s="165" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="158" t="s">
         <v>35</v>
       </c>
@@ -8136,7 +8149,7 @@
       </c>
       <c r="J2" s="164"/>
     </row>
-    <row r="3" spans="1:10" ht="26">
+    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="158"/>
       <c r="B3" s="159" t="s">
         <v>520</v>
@@ -8162,7 +8175,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="162" t="s">
         <v>524</v>
       </c>
@@ -8190,7 +8203,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="162" t="s">
         <v>527</v>
       </c>
@@ -8221,7 +8234,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="172" customFormat="1">
+    <row r="6" spans="1:10" s="172" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="171" t="s">
         <v>527</v>
       </c>
@@ -8237,7 +8250,7 @@
       <c r="I6" s="176"/>
       <c r="J6" s="177"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="178" t="s">
         <v>3</v>
       </c>
@@ -8266,7 +8279,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="178" t="s">
         <v>35</v>
       </c>
@@ -8289,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="38.25" customHeight="1">
+    <row r="9" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="178" t="s">
         <v>35</v>
       </c>
@@ -8312,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="178" t="s">
         <v>4</v>
       </c>
@@ -8344,7 +8357,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26">
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="178" t="s">
         <v>538</v>
       </c>
@@ -8371,7 +8384,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="26">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="178" t="s">
         <v>541</v>
       </c>
@@ -8401,7 +8414,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="52">
+    <row r="13" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="162" t="s">
         <v>545</v>
       </c>
@@ -8429,7 +8442,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="162"/>
       <c r="B14" s="159" t="s">
         <v>546</v>
@@ -8453,7 +8466,7 @@
       </c>
       <c r="J14" s="159"/>
     </row>
-    <row r="15" spans="1:10" s="172" customFormat="1">
+    <row r="15" spans="1:10" s="172" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="171"/>
       <c r="B15" s="172" t="s">
         <v>546</v>
@@ -8468,7 +8481,7 @@
       <c r="H15" s="175"/>
       <c r="I15" s="176"/>
     </row>
-    <row r="16" spans="1:10" ht="26">
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="178" t="s">
         <v>5</v>
       </c>
@@ -8498,7 +8511,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="178" t="s">
         <v>5</v>
       </c>
@@ -8527,7 +8540,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="178" t="s">
         <v>35</v>
       </c>
@@ -8556,7 +8569,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="178" t="s">
         <v>5</v>
       </c>
@@ -8583,7 +8596,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>444</v>
       </c>
@@ -8607,7 +8620,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>446</v>
       </c>
@@ -8627,7 +8640,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>566</v>
       </c>
@@ -8651,7 +8664,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>449</v>
       </c>
@@ -8675,7 +8688,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>196</v>
       </c>
@@ -8700,7 +8713,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>453</v>
       </c>
@@ -8720,7 +8733,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>1</v>
       </c>
@@ -8740,7 +8753,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>2</v>
       </c>
@@ -8764,7 +8777,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>579</v>
       </c>
@@ -8787,7 +8800,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="184"/>
       <c r="B29" s="185" t="s">
         <v>457</v>
@@ -8805,7 +8818,7 @@
       <c r="I29" s="188"/>
       <c r="J29" s="185"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="184"/>
       <c r="B30" s="185" t="s">
         <v>459</v>
@@ -8823,7 +8836,7 @@
       <c r="I30" s="188"/>
       <c r="J30" s="185"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>245</v>
       </c>
@@ -8843,7 +8856,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="184"/>
       <c r="B32" s="185" t="s">
         <v>463</v>
@@ -8861,7 +8874,7 @@
       <c r="I32" s="188"/>
       <c r="J32" s="185"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="184"/>
       <c r="B33" s="185" t="s">
         <v>466</v>
@@ -8879,7 +8892,7 @@
       <c r="I33" s="188"/>
       <c r="J33" s="185"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="184"/>
       <c r="B34" s="185" t="s">
         <v>354</v>
@@ -8897,7 +8910,7 @@
       <c r="I34" s="188"/>
       <c r="J34" s="185"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>585</v>
       </c>
@@ -8917,7 +8930,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
         <v>471</v>
@@ -8935,7 +8948,7 @@
       <c r="I36" s="188"/>
       <c r="J36" s="185"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>473</v>
       </c>
@@ -8960,7 +8973,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>187</v>
       </c>
@@ -8984,7 +8997,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>478</v>
       </c>
@@ -9001,7 +9014,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="189"/>
       <c r="B40" s="190" t="s">
         <v>481</v>
@@ -9017,7 +9030,7 @@
       <c r="I40" s="193"/>
       <c r="J40" s="190"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>483</v>
       </c>
@@ -9025,17 +9038,17 @@
         <v>419</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>487</v>
       </c>
@@ -9043,7 +9056,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>192</v>
       </c>
@@ -9051,7 +9064,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>6</v>
       </c>
@@ -9059,17 +9072,17 @@
         <v>595</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="195" customFormat="1">
+    <row r="51" spans="1:9" s="195" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="194"/>
       <c r="B51" s="195" t="s">
         <v>9</v>
@@ -9082,97 +9095,97 @@
       <c r="H51" s="194"/>
       <c r="I51" s="198"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="65" spans="2:2" customFormat="1">
+    <row r="65" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="66" spans="2:2" customFormat="1">
+    <row r="66" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:2" customFormat="1">
+    <row r="68" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="69" spans="2:2" customFormat="1">
+    <row r="69" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:2" customFormat="1">
+    <row r="70" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="71" spans="2:2" customFormat="1">
+    <row r="71" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>600</v>
       </c>
@@ -9197,6 +9210,10 @@
     <hyperlink ref="J44" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <headerFooter>
+    <oddFooter>&amp;LLevel 1 – Confidential</oddFooter>
+  </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9207,11 +9224,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
@@ -9222,7 +9242,7 @@
     <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
@@ -9245,7 +9265,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="199"/>
       <c r="B2" s="190" t="s">
         <v>188</v>
@@ -9260,7 +9280,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="189" t="s">
         <v>35</v>
       </c>
@@ -9281,7 +9301,7 @@
       </c>
       <c r="G3" s="190"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="178" t="s">
         <v>35</v>
       </c>
@@ -9302,7 +9322,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39">
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="189" t="s">
         <v>524</v>
       </c>
@@ -9325,7 +9345,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="178" t="s">
         <v>35</v>
       </c>
@@ -9346,7 +9366,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="189" t="s">
         <v>527</v>
       </c>
@@ -9370,7 +9390,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="178" t="s">
         <v>3</v>
       </c>
@@ -9391,7 +9411,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="178" t="s">
         <v>35</v>
       </c>
@@ -9408,7 +9428,7 @@
       </c>
       <c r="G9" s="182"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="178" t="s">
         <v>35</v>
       </c>
@@ -9424,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="178" t="s">
         <v>35</v>
       </c>
@@ -9443,7 +9463,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="178" t="s">
         <v>35</v>
       </c>
@@ -9464,7 +9484,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="178" t="s">
         <v>35</v>
       </c>
@@ -9480,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="178" t="s">
         <v>4</v>
       </c>
@@ -9503,7 +9523,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="39">
+    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="178" t="s">
         <v>538</v>
       </c>
@@ -9524,7 +9544,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39">
+    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="178" t="s">
         <v>541</v>
       </c>
@@ -9545,7 +9565,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="26">
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="178" t="s">
         <v>615</v>
       </c>
@@ -9564,7 +9584,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="65">
+    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="189" t="s">
         <v>545</v>
       </c>
@@ -9587,7 +9607,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="178" t="s">
         <v>5</v>
       </c>
@@ -9608,7 +9628,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="178"/>
       <c r="B20" t="s">
         <v>621</v>
@@ -9622,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="178"/>
       <c r="B21" t="s">
         <v>622</v>
@@ -9636,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="178"/>
       <c r="B22" t="s">
         <v>623</v>
@@ -9650,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="178" t="s">
         <v>5</v>
       </c>
@@ -9671,7 +9691,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="178"/>
       <c r="B24" t="s">
         <v>624</v>
@@ -9685,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="178" t="s">
         <v>35</v>
       </c>
@@ -9706,7 +9726,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="178" t="s">
         <v>5</v>
       </c>
@@ -9727,7 +9747,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="178"/>
       <c r="B27" t="s">
         <v>444</v>
@@ -9746,7 +9766,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="178"/>
       <c r="B28" t="s">
         <v>446</v>
@@ -9765,7 +9785,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="178"/>
       <c r="B29" t="s">
         <v>566</v>
@@ -9784,7 +9804,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="178"/>
       <c r="B30" t="s">
         <v>449</v>
@@ -9803,7 +9823,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="178"/>
       <c r="B31" t="s">
         <v>196</v>
@@ -9823,7 +9843,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="178"/>
       <c r="B32" t="s">
         <v>453</v>
@@ -9842,7 +9862,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="178"/>
       <c r="B33" t="s">
         <v>1</v>
@@ -9861,7 +9881,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="178"/>
       <c r="B34" t="s">
         <v>2</v>
@@ -9880,7 +9900,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="178"/>
       <c r="B35" t="s">
         <v>579</v>
@@ -9899,7 +9919,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
         <v>457</v>
@@ -9914,7 +9934,7 @@
       <c r="F36" s="188"/>
       <c r="G36" s="185"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="184"/>
       <c r="B37" s="185" t="s">
         <v>459</v>
@@ -9929,7 +9949,7 @@
       <c r="F37" s="188"/>
       <c r="G37" s="185"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="178"/>
       <c r="B38" t="s">
         <v>245</v>
@@ -9948,7 +9968,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="184"/>
       <c r="B39" s="185" t="s">
         <v>463</v>
@@ -9963,7 +9983,7 @@
       <c r="F39" s="188"/>
       <c r="G39" s="185"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="184"/>
       <c r="B40" s="185" t="s">
         <v>466</v>
@@ -9978,7 +9998,7 @@
       <c r="F40" s="188"/>
       <c r="G40" s="185"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="184"/>
       <c r="B41" s="185" t="s">
         <v>354</v>
@@ -9993,7 +10013,7 @@
       <c r="F41" s="188"/>
       <c r="G41" s="185"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="178"/>
       <c r="B42" t="s">
         <v>585</v>
@@ -10012,7 +10032,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="184"/>
       <c r="B43" s="185" t="s">
         <v>471</v>
@@ -10027,7 +10047,7 @@
       <c r="F43" s="188"/>
       <c r="G43" s="185"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="178"/>
       <c r="B44" t="s">
         <v>473</v>
@@ -10047,7 +10067,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="178"/>
       <c r="B45" t="s">
         <v>187</v>
@@ -10066,7 +10086,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="178"/>
       <c r="B46" t="s">
         <v>478</v>
@@ -10083,7 +10103,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="189"/>
       <c r="B47" s="190" t="s">
         <v>481</v>
@@ -10115,6 +10135,10 @@
     <hyperlink ref="G46" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <headerFooter>
+    <oddFooter>&amp;LLevel 1 – Confidential</oddFooter>
+  </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Task-n-Tool.xlsx
+++ b/Task-n-Tool.xlsx
@@ -14,8 +14,8 @@
     <sheet name="2012.01" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014'!$A$1:$E$64</definedName>
-    <definedName name="_Toc251017352" localSheetId="0">'2014'!$A$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014'!$A$1:$E$65</definedName>
+    <definedName name="_Toc251017352" localSheetId="0">'2014'!$A$165</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="629">
   <si>
     <t>Задачи</t>
   </si>
@@ -2099,23 +2099,19 @@
     <t>Google Chrome Delicious</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">! Протестировать MS Windows 8
+    <t>FAR 3 + Basic plugins</t>
+  </si>
+  <si>
+    <t>CentOs 6.5</t>
+  </si>
+  <si>
+    <t>! Протестировать MS Windows 8
 ! Протестировать Mac OS X Maverics
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>! Выбрать серверный дистрибутив Linux и поднять сервер</t>
-    </r>
-  </si>
-  <si>
-    <t>FAR 3 + Basic plugins</t>
+! Поднять сервер на CentOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Серверная специализация
++ Клон, использующейся на работе RHEL </t>
   </si>
 </sst>
 </file>
@@ -2736,7 +2732,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3286,26 +3282,32 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -3673,10 +3675,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3729,7 +3731,7 @@
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="39"/>
@@ -3761,271 +3763,273 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="41" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
+        <v>626</v>
+      </c>
+      <c r="B8" s="214" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="215" t="s">
+        <v>628</v>
+      </c>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+    </row>
+    <row r="9" spans="1:5" s="41" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="39"/>
+    </row>
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B10" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C10" s="50" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B11" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C11" s="50" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B13" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C13" s="50" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="39"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B15" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C15" s="50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+    <row r="16" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B16" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C16" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="55"/>
-    </row>
-    <row r="16" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="D16" s="65"/>
+      <c r="E16" s="55"/>
+    </row>
+    <row r="17" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B17" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C17" s="45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+    <row r="18" spans="1:5" ht="25.5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="39"/>
-    </row>
-    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="D18" s="63"/>
+      <c r="E18" s="39"/>
+    </row>
+    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B19" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C19" s="50" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B20" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C20" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="D20" s="65"/>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B21" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C21" s="50" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+    <row r="22" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B22" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C22" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="1:5" ht="38.25" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="D22" s="65"/>
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="1:5" ht="38.25" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="39"/>
-    </row>
-    <row r="23" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
-        <v>626</v>
-      </c>
-      <c r="B23" s="45" t="s">
+      <c r="D23" s="63"/>
+      <c r="E23" s="39"/>
+    </row>
+    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="B24" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C24" s="50" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+    <row r="25" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B25" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C25" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="55"/>
-    </row>
-    <row r="25" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="39"/>
-    </row>
-    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B27" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C27" s="50" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="39"/>
-    </row>
-    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="39"/>
+    </row>
+    <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B29" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C29" s="50" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B30" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="55"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="55"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="39"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
         <v>47</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
-        <v>48</v>
       </c>
       <c r="B32" s="45" t="s">
         <v>178</v>
@@ -4033,1122 +4037,1122 @@
       <c r="C32" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="55"/>
-    </row>
-    <row r="33" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="60" t="s">
-        <v>245</v>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
+        <v>48</v>
       </c>
       <c r="B33" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C33" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="65"/>
+      <c r="E33" s="55"/>
+    </row>
+    <row r="34" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
+    <row r="35" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="39"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="52" t="s">
+      <c r="D35" s="63"/>
+      <c r="E35" s="39"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B36" s="45" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="39"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="60" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="39"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B38" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C38" s="45" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="39" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="39"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B40" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C40" s="50" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="80" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="39"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="39"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="39"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="60" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="39"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B44" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C44" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="64">
+      <c r="D44" s="64">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="38" t="s">
+    <row r="45" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="38"/>
-    </row>
-    <row r="45" spans="1:5" s="41" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="38"/>
+    </row>
+    <row r="46" spans="1:5" s="41" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40" t="s">
+      <c r="B46" s="40"/>
+      <c r="C46" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="40"/>
-    </row>
-    <row r="46" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
+      <c r="D46" s="66"/>
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B47" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C47" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="D46" s="67"/>
-    </row>
-    <row r="47" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="D47" s="67"/>
+    </row>
+    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B48" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C48" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="55"/>
-    </row>
-    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="D48" s="68"/>
+      <c r="E48" s="55"/>
+    </row>
+    <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B49" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C49" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="D48" s="67"/>
-    </row>
-    <row r="49" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="s">
+      <c r="D49" s="67"/>
+    </row>
+    <row r="50" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B50" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C50" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="55"/>
-    </row>
-    <row r="50" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="46" t="s">
+      <c r="D50" s="65"/>
+      <c r="E50" s="55"/>
+    </row>
+    <row r="51" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48" t="s">
+      <c r="B51" s="47"/>
+      <c r="C51" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="69"/>
-      <c r="E50" s="47"/>
-    </row>
-    <row r="51" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57" t="s">
+      <c r="D51" s="69"/>
+      <c r="E51" s="47"/>
+    </row>
+    <row r="52" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55" t="s">
+      <c r="B52" s="55"/>
+      <c r="C52" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="55"/>
-    </row>
-    <row r="52" spans="1:5" s="41" customFormat="1" ht="51" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39" t="s">
+      <c r="D52" s="65"/>
+      <c r="E52" s="55"/>
+    </row>
+    <row r="53" spans="1:5" s="41" customFormat="1" ht="51" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40" t="s">
+      <c r="B53" s="40"/>
+      <c r="C53" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="40"/>
-    </row>
-    <row r="53" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="52" t="s">
+      <c r="D53" s="66"/>
+      <c r="E53" s="40"/>
+    </row>
+    <row r="54" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B54" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C54" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="D53" s="70"/>
-    </row>
-    <row r="54" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="57" t="s">
+      <c r="D54" s="70"/>
+    </row>
+    <row r="55" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A55" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B55" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C55" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="D54" s="68"/>
-      <c r="E54" s="55"/>
-    </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="51" t="s">
+      <c r="D55" s="68"/>
+      <c r="E55" s="55"/>
+    </row>
+    <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B56" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C56" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="D55" s="70"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="57" t="s">
+      <c r="D56" s="70"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B57" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C57" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="55"/>
-    </row>
-    <row r="57" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="D57" s="68"/>
+      <c r="E57" s="55"/>
+    </row>
+    <row r="58" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B58" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C58" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="70"/>
-    </row>
-    <row r="58" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="57" t="s">
+      <c r="D58" s="70"/>
+    </row>
+    <row r="59" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B59" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C59" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="D58" s="68"/>
-      <c r="E58" s="55"/>
-    </row>
-    <row r="59" spans="1:5" ht="51" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="39" t="s">
+      <c r="D59" s="68"/>
+      <c r="E59" s="55"/>
+    </row>
+    <row r="60" spans="1:5" ht="51" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="39"/>
-    </row>
-    <row r="60" spans="1:5" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="52" t="s">
+      <c r="D60" s="63"/>
+      <c r="E60" s="39"/>
+    </row>
+    <row r="61" spans="1:5" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B61" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C61" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D60" s="70"/>
-      <c r="E60" s="45"/>
-    </row>
-    <row r="61" spans="1:5" s="41" customFormat="1" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54" t="s">
+      <c r="D61" s="70"/>
+      <c r="E61" s="45"/>
+    </row>
+    <row r="62" spans="1:5" s="41" customFormat="1" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B62" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C62" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="68"/>
-      <c r="E61" s="55"/>
-    </row>
-    <row r="62" spans="1:5" s="41" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="51" t="s">
+      <c r="D62" s="68"/>
+      <c r="E62" s="55"/>
+    </row>
+    <row r="63" spans="1:5" s="41" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="50" t="s">
+      <c r="B63" s="45"/>
+      <c r="C63" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="45"/>
-    </row>
-    <row r="63" spans="1:5" s="41" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="57" t="s">
+      <c r="D63" s="64"/>
+      <c r="E63" s="45"/>
+    </row>
+    <row r="64" spans="1:5" s="41" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56" t="s">
+      <c r="B64" s="55"/>
+      <c r="C64" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="D63" s="65"/>
-      <c r="E63" s="55"/>
-    </row>
-    <row r="64" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="39" t="s">
+      <c r="D64" s="65"/>
+      <c r="E64" s="55"/>
+    </row>
+    <row r="65" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="39"/>
-    </row>
-    <row r="65" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="51" t="s">
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="39"/>
+    </row>
+    <row r="66" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B66" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C66" s="50" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="57" t="s">
+    <row r="67" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B67" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C67" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="D66" s="65"/>
-      <c r="E66" s="55"/>
-    </row>
-    <row r="67" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="51" t="s">
+      <c r="D67" s="65"/>
+      <c r="E67" s="55"/>
+    </row>
+    <row r="68" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B68" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="C67" s="45" t="s">
+      <c r="C68" s="45" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="58" t="s">
+    <row r="69" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55" t="s">
+      <c r="B69" s="55"/>
+      <c r="C69" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="65"/>
-      <c r="E68" s="55"/>
-    </row>
-    <row r="69" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="38" t="s">
+      <c r="D69" s="65"/>
+      <c r="E69" s="55"/>
+    </row>
+    <row r="70" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="38"/>
-    </row>
-    <row r="70" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="39" t="s">
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="38"/>
+    </row>
+    <row r="71" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="40" t="s">
+      <c r="B71" s="39"/>
+      <c r="C71" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="53" t="s">
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B72" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C71" s="50" t="s">
+      <c r="C72" s="50" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="72" t="s">
+    <row r="73" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B73" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C73" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="D72" s="65"/>
-      <c r="E72" s="55"/>
-    </row>
-    <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="39" t="s">
+      <c r="D73" s="65"/>
+      <c r="E73" s="55"/>
+    </row>
+    <row r="74" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="80" t="s">
+      <c r="B74" s="39"/>
+      <c r="C74" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="60" t="s">
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="45" t="s">
+      <c r="B75" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C75" s="50" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="39" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="60" t="s">
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B77" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C77" s="45" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="57" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B78" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="55"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="39" t="s">
+      <c r="C78" s="55"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="55"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-    </row>
-    <row r="79" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="34" t="s">
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+    </row>
+    <row r="80" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B80" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C79" s="50" t="s">
+      <c r="C80" s="50" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="75" t="s">
+    <row r="81" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B81" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="C80" s="76" t="s">
+      <c r="C81" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="D80" s="65"/>
-      <c r="E80" s="55"/>
-    </row>
-    <row r="81" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="39" t="s">
+      <c r="D81" s="65"/>
+      <c r="E81" s="55"/>
+    </row>
+    <row r="82" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="39"/>
-      <c r="C81" s="40" t="s">
+      <c r="B82" s="39"/>
+      <c r="C82" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-    </row>
-    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="39" t="s">
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+    </row>
+    <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="B83" s="39"/>
-      <c r="C83" s="40" t="s">
+      <c r="B84" s="39"/>
+      <c r="C84" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-    </row>
-    <row r="84" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="34" t="s">
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+    </row>
+    <row r="85" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="B84" s="45" t="s">
+      <c r="B85" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C84" s="50" t="s">
+      <c r="C85" s="50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="35" t="s">
+    <row r="86" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="B85" s="78" t="s">
+      <c r="B86" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="56" t="s">
+      <c r="C86" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="D85" s="65"/>
-      <c r="E85" s="55"/>
-    </row>
-    <row r="86" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="34" t="s">
+      <c r="D86" s="65"/>
+      <c r="E86" s="55"/>
+    </row>
+    <row r="87" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="B86" s="77" t="s">
+      <c r="B87" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C87" s="50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="35" t="s">
+    <row r="88" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="B87" s="78" t="s">
+      <c r="B88" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="56" t="s">
+      <c r="C88" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="D87" s="65"/>
-      <c r="E87" s="55"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="B88" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" s="73" t="s">
-        <v>210</v>
-      </c>
+      <c r="D88" s="65"/>
+      <c r="E88" s="55"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="B89" s="73" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+      <c r="B89" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="C89" s="73" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="38" t="s">
+    <row r="90" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="39" t="s">
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-    </row>
-    <row r="92" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="79" t="s">
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+    </row>
+    <row r="93" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="B92" s="77" t="s">
+      <c r="B93" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="C92" s="50" t="s">
+      <c r="C93" s="50" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="55" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="75" t="s">
+    <row r="94" spans="1:5" s="55" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="B93" s="55" t="s">
+      <c r="B94" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="C93" s="76" t="s">
+      <c r="C94" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="D93" s="65"/>
-    </row>
-    <row r="94" spans="1:5" ht="25.5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="39" t="s">
+      <c r="D94" s="65"/>
+    </row>
+    <row r="95" spans="1:5" ht="25.5" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B94" s="39"/>
-      <c r="C94" s="40" t="s">
+      <c r="B95" s="39"/>
+      <c r="C95" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-    </row>
-    <row r="96" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="38" t="s">
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+    </row>
+    <row r="97" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="39" t="s">
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="51" t="s">
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="45" t="s">
+      <c r="B99" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="45" t="s">
+      <c r="C99" s="45" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="39" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-    </row>
-    <row r="100" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="51" t="s">
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+    </row>
+    <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="B100" s="45" t="s">
+      <c r="B101" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C101" s="50" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="39" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="60" t="s">
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" s="45" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="72" t="s">
-        <v>298</v>
-      </c>
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C103" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="D103" s="65"/>
-      <c r="E103" s="55"/>
-    </row>
-    <row r="104" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="39" t="s">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="B104" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D104" s="65"/>
+      <c r="E104" s="55"/>
+    </row>
+    <row r="105" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="B104" s="39"/>
-      <c r="C104" s="40" t="s">
+      <c r="B105" s="39"/>
+      <c r="C105" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-    </row>
-    <row r="106" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="38" t="s">
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+    </row>
+    <row r="107" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B106" s="38"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="39" t="s">
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B107" s="39"/>
-      <c r="C107" s="61"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="51" t="s">
+      <c r="B108" s="39"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B109" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="45" t="s">
+      <c r="C109" s="45" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="39" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B109" s="39"/>
-      <c r="C109" s="40" t="s">
+      <c r="B110" s="39"/>
+      <c r="C110" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="60" t="s">
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B111" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C110" s="50" t="s">
+      <c r="C111" s="50" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="72" t="s">
+    <row r="112" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="B111" s="55" t="s">
+      <c r="B112" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C112" s="56" t="s">
         <v>314</v>
-      </c>
-      <c r="D111" s="65"/>
-      <c r="E111" s="55"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="72" t="s">
-        <v>315</v>
-      </c>
-      <c r="B112" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" s="56" t="s">
-        <v>316</v>
       </c>
       <c r="D112" s="65"/>
       <c r="E112" s="55"/>
     </row>
-    <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="60" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="D113" s="65"/>
+      <c r="E113" s="55"/>
+    </row>
+    <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B114" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C113" s="50" t="s">
+      <c r="C114" s="50" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="39" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="B114" s="39"/>
-      <c r="C114" s="40" t="s">
+      <c r="B115" s="39"/>
+      <c r="C115" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
-    </row>
-    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="38" t="s">
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+    </row>
+    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="39" t="s">
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="38"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="51" t="s">
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B119" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="C118" s="50" t="s">
+      <c r="C119" s="50" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="39" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-    </row>
-    <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="60" t="s">
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
+    </row>
+    <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="B120" s="45" t="s">
+      <c r="B121" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C120" s="50" t="s">
+      <c r="C121" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="39" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B121" s="39"/>
-      <c r="C121" s="40" t="s">
+      <c r="B122" s="39"/>
+      <c r="C122" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
-    </row>
-    <row r="123" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="38" t="s">
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+    </row>
+    <row r="124" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B123" s="38"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-    </row>
-    <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="39" t="s">
+      <c r="B124" s="38"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="38"/>
+    </row>
+    <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
-    </row>
-    <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="60" t="s">
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+    </row>
+    <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B125" s="45" t="s">
+      <c r="B126" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C125" s="50" t="s">
+      <c r="C126" s="50" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="39" t="s">
+    <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="40" t="s">
+      <c r="B127" s="39"/>
+      <c r="C127" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-    </row>
-    <row r="128" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="38" t="s">
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
+    </row>
+    <row r="129" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B128" s="38"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="39" t="s">
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="B129" s="39"/>
-      <c r="C129" s="40" t="s">
+      <c r="B130" s="39"/>
+      <c r="C130" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="D129" s="39"/>
-      <c r="E129" s="39"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="60" t="s">
+      <c r="D130" s="39"/>
+      <c r="E130" s="39"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="B130" s="45" t="s">
+      <c r="B131" s="45" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="57" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="B131" s="55" t="s">
+      <c r="B132" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C131" s="55" t="s">
+      <c r="C132" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="D131" s="65"/>
-      <c r="E131" s="55"/>
-    </row>
-    <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="39" t="s">
+      <c r="D132" s="65"/>
+      <c r="E132" s="55"/>
+    </row>
+    <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="B132" s="39"/>
-      <c r="C132" s="40" t="s">
+      <c r="B133" s="39"/>
+      <c r="C133" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="60" t="s">
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B134" s="45" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="72" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="B134" s="55" t="s">
+      <c r="B135" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="C134" s="55"/>
-      <c r="D134" s="65"/>
-      <c r="E134" s="55"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="60" t="s">
+      <c r="C135" s="55"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="55"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="B135" s="45" t="s">
+      <c r="B136" s="45" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="39" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="B136" s="39"/>
-      <c r="C136" s="40" t="s">
+      <c r="B137" s="39"/>
+      <c r="C137" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
-    </row>
-    <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="60" t="s">
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+    </row>
+    <row r="138" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A138" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="45" t="s">
+      <c r="B138" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C137" s="50" t="s">
+      <c r="C138" s="50" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="72" t="s">
+    <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="B138" s="55" t="s">
+      <c r="B139" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C138" s="56" t="s">
+      <c r="C139" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="D138" s="65"/>
-      <c r="E138" s="55"/>
-    </row>
-    <row r="139" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="38" t="s">
+      <c r="D139" s="65"/>
+      <c r="E139" s="55"/>
+    </row>
+    <row r="140" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B139" s="38"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="39" t="s">
+      <c r="B140" s="38"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B140" s="39"/>
-      <c r="C140" s="40" t="s">
+      <c r="B141" s="39"/>
+      <c r="C141" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
-    </row>
-    <row r="141" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A141" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="B141" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C141" s="50" t="s">
-        <v>345</v>
-      </c>
+      <c r="D141" s="39"/>
+      <c r="E141" s="39"/>
     </row>
     <row r="142" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="60" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B142" s="45" t="s">
-        <v>34</v>
+        <v>344</v>
       </c>
       <c r="C142" s="50" t="s">
         <v>345</v>
@@ -5156,547 +5160,558 @@
     </row>
     <row r="143" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="B143" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" s="50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A144" s="60" t="s">
         <v>348</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B144" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="C143" s="50" t="s">
+      <c r="C144" s="50" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="39" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B144" s="39"/>
-      <c r="C144" s="40" t="s">
+      <c r="B145" s="39"/>
+      <c r="C145" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="39" t="s">
+      <c r="D145" s="39"/>
+      <c r="E145" s="39"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="39"/>
-      <c r="C146" s="40" t="s">
+      <c r="B147" s="39"/>
+      <c r="C147" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39"/>
-    </row>
-    <row r="148" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="38" t="s">
+      <c r="D147" s="39"/>
+      <c r="E147" s="39"/>
+    </row>
+    <row r="149" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B148" s="38"/>
-      <c r="C148" s="38"/>
-      <c r="D148" s="38"/>
-      <c r="E148" s="38"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="39" t="s">
+      <c r="B149" s="38"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="39"/>
-      <c r="C149" s="40" t="s">
+      <c r="B150" s="39"/>
+      <c r="C150" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
-    </row>
-    <row r="150" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A150" s="60" t="s">
+      <c r="D150" s="39"/>
+      <c r="E150" s="39"/>
+    </row>
+    <row r="151" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A151" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="B150" s="45" t="s">
+      <c r="B151" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="C150" s="50" t="s">
+      <c r="C151" s="50" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="151" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="72" t="s">
+    <row r="152" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="B151" s="55" t="s">
+      <c r="B152" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C151" s="55" t="s">
+      <c r="C152" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="D151" s="65"/>
-      <c r="E151" s="55"/>
-    </row>
-    <row r="152" spans="1:5" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="51" t="s">
+      <c r="D152" s="65"/>
+      <c r="E152" s="55"/>
+    </row>
+    <row r="153" spans="1:5" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="B152" s="45" t="s">
+      <c r="B153" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C152" s="45" t="s">
+      <c r="C153" s="45" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="39" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="39"/>
-      <c r="C153" s="40" t="s">
+      <c r="B154" s="39"/>
+      <c r="C154" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="39" t="s">
+      <c r="D154" s="39"/>
+      <c r="E154" s="39"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="39"/>
-      <c r="C155" s="40" t="s">
+      <c r="B156" s="39"/>
+      <c r="C156" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
-    </row>
-    <row r="157" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="38" t="s">
+      <c r="D156" s="39"/>
+      <c r="E156" s="39"/>
+    </row>
+    <row r="158" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B157" s="38"/>
-      <c r="C157" s="38"/>
-      <c r="D157" s="38"/>
-      <c r="E157" s="38"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="39" t="s">
+      <c r="B158" s="38"/>
+      <c r="C158" s="38"/>
+      <c r="D158" s="38"/>
+      <c r="E158" s="38"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B158" s="39"/>
-      <c r="C158" s="40" t="s">
+      <c r="B159" s="39"/>
+      <c r="C159" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="D158" s="39"/>
-      <c r="E158" s="39"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="39" t="s">
+      <c r="D159" s="39"/>
+      <c r="E159" s="39"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="B160" s="39"/>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="60" t="s">
+      <c r="B161" s="39"/>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="60" t="s">
         <v>359</v>
       </c>
-      <c r="B161" s="45" t="s">
+      <c r="B162" s="45" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="38" t="s">
+    <row r="163" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B162" s="38"/>
-      <c r="C162" s="38" t="s">
+      <c r="B163" s="38"/>
+      <c r="C163" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="D162" s="38"/>
-      <c r="E162" s="38"/>
-    </row>
-    <row r="164" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A164" s="38" t="s">
+      <c r="D163" s="38"/>
+      <c r="E163" s="38"/>
+    </row>
+    <row r="165" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A165" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="B164" s="38"/>
-      <c r="C164" s="38"/>
-      <c r="D164" s="38"/>
-      <c r="E164" s="38"/>
-    </row>
-    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="39" t="s">
+      <c r="B165" s="38"/>
+      <c r="C165" s="38"/>
+      <c r="D165" s="38"/>
+      <c r="E165" s="38"/>
+    </row>
+    <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B165" s="39"/>
-      <c r="C165" s="61" t="s">
+      <c r="B166" s="39"/>
+      <c r="C166" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="39" t="s">
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B167" s="39"/>
-      <c r="C167" s="40" t="s">
+      <c r="B168" s="39"/>
+      <c r="C168" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
-    </row>
-    <row r="168" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="34" t="s">
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
+    </row>
+    <row r="169" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="B168" s="45" t="s">
+      <c r="B169" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C168" s="50" t="s">
+      <c r="C169" s="50" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A169" s="34" t="s">
+    <row r="170" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A170" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B169" s="45" t="s">
+      <c r="B170" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C169" s="50" t="s">
+      <c r="C170" s="50" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="39" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="B170" s="39"/>
-      <c r="C170" s="40" t="s">
+      <c r="B171" s="39"/>
+      <c r="C171" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="D170" s="39"/>
-      <c r="E170" s="39"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="60" t="s">
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="B171" s="45" t="s">
+      <c r="B172" s="45" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A172" s="39" t="s">
+    <row r="173" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A173" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B172" s="39"/>
-      <c r="C172" s="40" t="s">
+      <c r="B173" s="39"/>
+      <c r="C173" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="60" t="s">
+      <c r="D173" s="39"/>
+      <c r="E173" s="39"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="60" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="39" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B174" s="39"/>
-      <c r="C174" s="39" t="s">
+      <c r="B175" s="39"/>
+      <c r="C175" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="D174" s="39"/>
-      <c r="E174" s="39"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="51" t="s">
+      <c r="D175" s="39"/>
+      <c r="E175" s="39"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="B175" s="45" t="s">
+      <c r="B176" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C175" s="45" t="s">
+      <c r="C176" s="45" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="57" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="B176" s="55" t="s">
+      <c r="B177" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C176" s="55" t="s">
+      <c r="C177" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="D176" s="65"/>
-      <c r="E176" s="55"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="60" t="s">
+      <c r="D177" s="65"/>
+      <c r="E177" s="55"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="B177" s="45" t="s">
+      <c r="B178" s="45" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="39" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="B178" s="39"/>
-      <c r="C178" s="39"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="39"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="51" t="s">
+      <c r="B179" s="39"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="39"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="B179" s="45" t="s">
+      <c r="B180" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C179" s="45" t="s">
+      <c r="C180" s="45" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="72" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="B180" s="55" t="s">
+      <c r="B181" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C180" s="55"/>
-      <c r="D180" s="65"/>
-      <c r="E180" s="55"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="60" t="s">
+      <c r="C181" s="55"/>
+      <c r="D181" s="65"/>
+      <c r="E181" s="55"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B181" s="45" t="s">
+      <c r="B182" s="45" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="39" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="B182" s="39"/>
-      <c r="C182" s="40" t="s">
+      <c r="B183" s="39"/>
+      <c r="C183" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="D182" s="39"/>
-      <c r="E182" s="39"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="39" t="s">
+      <c r="D183" s="39"/>
+      <c r="E183" s="39"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B184" s="39"/>
-      <c r="C184" s="40" t="s">
+      <c r="B185" s="39"/>
+      <c r="C185" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="D184" s="39"/>
-      <c r="E184" s="39"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="B185" s="45" t="s">
-        <v>193</v>
-      </c>
+      <c r="D185" s="39"/>
+      <c r="E185" s="39"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B186" s="45" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="39" t="s">
+      <c r="A187" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B187" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="B187" s="39"/>
-      <c r="C187" s="40" t="s">
+      <c r="B188" s="39"/>
+      <c r="C188" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="D187" s="39"/>
-      <c r="E187" s="39"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="60" t="s">
+      <c r="D188" s="39"/>
+      <c r="E188" s="39"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="60" t="s">
         <v>379</v>
       </c>
-      <c r="B188" s="45" t="s">
+      <c r="B189" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C188" s="50" t="s">
+      <c r="C189" s="50" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="60" t="s">
+    <row r="190" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="60" t="s">
         <v>381</v>
       </c>
-      <c r="B189" s="45" t="s">
+      <c r="B190" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C189" s="50" t="s">
+      <c r="C190" s="50" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="39" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="B190" s="39"/>
-      <c r="C190" s="40" t="s">
+      <c r="B191" s="39"/>
+      <c r="C191" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="D190" s="39"/>
-      <c r="E190" s="39"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="60" t="s">
+      <c r="D191" s="39"/>
+      <c r="E191" s="39"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="B191" s="45" t="s">
+      <c r="B192" s="45" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="39" t="s">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B192" s="39"/>
-      <c r="C192" s="40" t="s">
+      <c r="B193" s="39"/>
+      <c r="C193" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="D192" s="39"/>
-      <c r="E192" s="39"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="39" t="s">
+      <c r="D193" s="39"/>
+      <c r="E193" s="39"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B194" s="39"/>
-      <c r="C194" s="40" t="s">
+      <c r="B195" s="39"/>
+      <c r="C195" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="D194" s="39"/>
-      <c r="E194" s="39"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="39" t="s">
+      <c r="D195" s="39"/>
+      <c r="E195" s="39"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B196" s="39"/>
-      <c r="C196" s="39"/>
-      <c r="D196" s="39"/>
-      <c r="E196" s="39"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="B197" s="45" t="s">
-        <v>391</v>
-      </c>
+      <c r="B197" s="39"/>
+      <c r="C197" s="39"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="60" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B198" s="45" t="s">
-        <v>188</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="B199" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B199" s="45" t="s">
+      <c r="B200" s="45" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="39" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="B200" s="39"/>
-      <c r="C200" s="39"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="39"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="B201" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C201" s="45" t="s">
-        <v>394</v>
-      </c>
+      <c r="B201" s="39"/>
+      <c r="C201" s="39"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="39"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B202" s="45" t="s">
-        <v>398</v>
+        <v>193</v>
       </c>
       <c r="C202" s="45" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="B203" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="C203" s="45" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="B203" s="45" t="s">
+      <c r="B204" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="C203" s="45" t="s">
+      <c r="C204" s="45" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="39" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B204" s="39"/>
-      <c r="C204" s="39"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="60" t="s">
-        <v>389</v>
-      </c>
-      <c r="B205" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C205" s="45" t="s">
-        <v>400</v>
-      </c>
+      <c r="B205" s="39"/>
+      <c r="C205" s="39"/>
+      <c r="D205" s="39"/>
+      <c r="E205" s="39"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="60" t="s">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="B206" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C206" s="45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B207" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C207" s="45" t="s">
         <v>401</v>
       </c>
     </row>
@@ -5708,84 +5723,84 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A49" r:id="rId1" location="disk" display="https://mail.yandex.ru/neo2/ - disk"/>
-    <hyperlink ref="A48" r:id="rId2" display="https://github.com/"/>
-    <hyperlink ref="A53" r:id="rId3" display="http://www.acronis.ru/homecomputing/trueimage"/>
-    <hyperlink ref="A57" r:id="rId4" display="http://www.paragon.ru/home/br-professional"/>
-    <hyperlink ref="A60" r:id="rId5" display="https://agilebits.com/onepassword"/>
-    <hyperlink ref="A12" r:id="rId6"/>
-    <hyperlink ref="A14" r:id="rId7" display="Avast! Free"/>
-    <hyperlink ref="A15" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9" display="http://brew.sh/index_ru.html"/>
-    <hyperlink ref="A18" r:id="rId10" display="http://unarchiver.c3.cx/unarchiver"/>
-    <hyperlink ref="A19" r:id="rId11" display="http://www.sopht.jp/en/cleanarchiver/"/>
-    <hyperlink ref="A20" r:id="rId12" display="http://www.7-zip.org/"/>
-    <hyperlink ref="A21" r:id="rId13" display="http://www.win-rar.ru/"/>
-    <hyperlink ref="A23" r:id="rId14" display="FAR"/>
-    <hyperlink ref="A24" r:id="rId15"/>
-    <hyperlink ref="A47" r:id="rId16" display="https://www.dropbox.com/"/>
-    <hyperlink ref="A46" r:id="rId17" display="https://drive.google.com/"/>
-    <hyperlink ref="A26" r:id="rId18"/>
-    <hyperlink ref="A28" r:id="rId19"/>
-    <hyperlink ref="A31" r:id="rId20" tooltip="Подробнее о Astroburn Lite" display="http://www.astroburn.com/rus/products/abLite"/>
-    <hyperlink ref="A32" r:id="rId21" tooltip="Подробнее о Astroburn Audio" display="http://www.astroburn.com/rus/products/abAudio"/>
-    <hyperlink ref="A33" r:id="rId22"/>
-    <hyperlink ref="A35" r:id="rId23"/>
-    <hyperlink ref="A37" r:id="rId24"/>
-    <hyperlink ref="A39" r:id="rId25"/>
-    <hyperlink ref="A43" r:id="rId26"/>
-    <hyperlink ref="A71" r:id="rId27" display="MS Office 2010 Professional+"/>
-    <hyperlink ref="A72" r:id="rId28"/>
-    <hyperlink ref="A74" r:id="rId29"/>
-    <hyperlink ref="A76" r:id="rId30"/>
-    <hyperlink ref="A79" r:id="rId31"/>
-    <hyperlink ref="A84" r:id="rId32"/>
-    <hyperlink ref="A85" r:id="rId33"/>
-    <hyperlink ref="A86" r:id="rId34"/>
-    <hyperlink ref="A87" r:id="rId35"/>
-    <hyperlink ref="A88" r:id="rId36"/>
-    <hyperlink ref="A89" r:id="rId37"/>
-    <hyperlink ref="A102" r:id="rId38"/>
-    <hyperlink ref="A103" r:id="rId39"/>
-    <hyperlink ref="A112" r:id="rId40"/>
-    <hyperlink ref="A113" r:id="rId41"/>
-    <hyperlink ref="A111" r:id="rId42"/>
-    <hyperlink ref="A110" r:id="rId43"/>
-    <hyperlink ref="A120" r:id="rId44"/>
-    <hyperlink ref="A125" r:id="rId45"/>
-    <hyperlink ref="A130" r:id="rId46"/>
-    <hyperlink ref="A133" r:id="rId47"/>
-    <hyperlink ref="A134" r:id="rId48"/>
-    <hyperlink ref="A135" r:id="rId49"/>
-    <hyperlink ref="A137" r:id="rId50"/>
-    <hyperlink ref="A138" r:id="rId51"/>
-    <hyperlink ref="A141" r:id="rId52"/>
-    <hyperlink ref="A142" r:id="rId53"/>
-    <hyperlink ref="A143" r:id="rId54"/>
-    <hyperlink ref="A150" r:id="rId55"/>
-    <hyperlink ref="A151" r:id="rId56"/>
-    <hyperlink ref="A161" r:id="rId57"/>
-    <hyperlink ref="A169" r:id="rId58"/>
-    <hyperlink ref="A168" r:id="rId59"/>
-    <hyperlink ref="A171" r:id="rId60"/>
-    <hyperlink ref="A173" r:id="rId61"/>
-    <hyperlink ref="A177" r:id="rId62"/>
-    <hyperlink ref="A180" r:id="rId63"/>
-    <hyperlink ref="A181" r:id="rId64"/>
-    <hyperlink ref="A185" r:id="rId65"/>
-    <hyperlink ref="A186" r:id="rId66"/>
-    <hyperlink ref="A188" r:id="rId67"/>
-    <hyperlink ref="A189" r:id="rId68"/>
-    <hyperlink ref="A191" r:id="rId69" display="WinCVS"/>
-    <hyperlink ref="A197" r:id="rId70"/>
-    <hyperlink ref="A198" r:id="rId71"/>
-    <hyperlink ref="A199" r:id="rId72"/>
-    <hyperlink ref="A201" r:id="rId73"/>
-    <hyperlink ref="A202" r:id="rId74"/>
-    <hyperlink ref="A203" r:id="rId75"/>
-    <hyperlink ref="A205" r:id="rId76"/>
-    <hyperlink ref="A206" r:id="rId77"/>
-    <hyperlink ref="A10" r:id="rId78"/>
+    <hyperlink ref="A50" r:id="rId1" location="disk" display="https://mail.yandex.ru/neo2/ - disk"/>
+    <hyperlink ref="A49" r:id="rId2" display="https://github.com/"/>
+    <hyperlink ref="A54" r:id="rId3" display="http://www.acronis.ru/homecomputing/trueimage"/>
+    <hyperlink ref="A58" r:id="rId4" display="http://www.paragon.ru/home/br-professional"/>
+    <hyperlink ref="A61" r:id="rId5" display="https://agilebits.com/onepassword"/>
+    <hyperlink ref="A13" r:id="rId6"/>
+    <hyperlink ref="A15" r:id="rId7" display="Avast! Free"/>
+    <hyperlink ref="A16" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://brew.sh/index_ru.html"/>
+    <hyperlink ref="A19" r:id="rId10" display="http://unarchiver.c3.cx/unarchiver"/>
+    <hyperlink ref="A20" r:id="rId11" display="http://www.sopht.jp/en/cleanarchiver/"/>
+    <hyperlink ref="A21" r:id="rId12" display="http://www.7-zip.org/"/>
+    <hyperlink ref="A22" r:id="rId13" display="http://www.win-rar.ru/"/>
+    <hyperlink ref="A24" r:id="rId14" display="FAR"/>
+    <hyperlink ref="A25" r:id="rId15"/>
+    <hyperlink ref="A48" r:id="rId16" display="https://www.dropbox.com/"/>
+    <hyperlink ref="A47" r:id="rId17" display="https://drive.google.com/"/>
+    <hyperlink ref="A27" r:id="rId18"/>
+    <hyperlink ref="A29" r:id="rId19"/>
+    <hyperlink ref="A32" r:id="rId20" tooltip="Подробнее о Astroburn Lite" display="http://www.astroburn.com/rus/products/abLite"/>
+    <hyperlink ref="A33" r:id="rId21" tooltip="Подробнее о Astroburn Audio" display="http://www.astroburn.com/rus/products/abAudio"/>
+    <hyperlink ref="A34" r:id="rId22"/>
+    <hyperlink ref="A36" r:id="rId23"/>
+    <hyperlink ref="A38" r:id="rId24"/>
+    <hyperlink ref="A40" r:id="rId25"/>
+    <hyperlink ref="A44" r:id="rId26"/>
+    <hyperlink ref="A72" r:id="rId27" display="MS Office 2010 Professional+"/>
+    <hyperlink ref="A73" r:id="rId28"/>
+    <hyperlink ref="A75" r:id="rId29"/>
+    <hyperlink ref="A77" r:id="rId30"/>
+    <hyperlink ref="A80" r:id="rId31"/>
+    <hyperlink ref="A85" r:id="rId32"/>
+    <hyperlink ref="A86" r:id="rId33"/>
+    <hyperlink ref="A87" r:id="rId34"/>
+    <hyperlink ref="A88" r:id="rId35"/>
+    <hyperlink ref="A89" r:id="rId36"/>
+    <hyperlink ref="A90" r:id="rId37"/>
+    <hyperlink ref="A103" r:id="rId38"/>
+    <hyperlink ref="A104" r:id="rId39"/>
+    <hyperlink ref="A113" r:id="rId40"/>
+    <hyperlink ref="A114" r:id="rId41"/>
+    <hyperlink ref="A112" r:id="rId42"/>
+    <hyperlink ref="A111" r:id="rId43"/>
+    <hyperlink ref="A121" r:id="rId44"/>
+    <hyperlink ref="A126" r:id="rId45"/>
+    <hyperlink ref="A131" r:id="rId46"/>
+    <hyperlink ref="A134" r:id="rId47"/>
+    <hyperlink ref="A135" r:id="rId48"/>
+    <hyperlink ref="A136" r:id="rId49"/>
+    <hyperlink ref="A138" r:id="rId50"/>
+    <hyperlink ref="A139" r:id="rId51"/>
+    <hyperlink ref="A142" r:id="rId52"/>
+    <hyperlink ref="A143" r:id="rId53"/>
+    <hyperlink ref="A144" r:id="rId54"/>
+    <hyperlink ref="A151" r:id="rId55"/>
+    <hyperlink ref="A152" r:id="rId56"/>
+    <hyperlink ref="A162" r:id="rId57"/>
+    <hyperlink ref="A170" r:id="rId58"/>
+    <hyperlink ref="A169" r:id="rId59"/>
+    <hyperlink ref="A172" r:id="rId60"/>
+    <hyperlink ref="A174" r:id="rId61"/>
+    <hyperlink ref="A178" r:id="rId62"/>
+    <hyperlink ref="A181" r:id="rId63"/>
+    <hyperlink ref="A182" r:id="rId64"/>
+    <hyperlink ref="A186" r:id="rId65"/>
+    <hyperlink ref="A187" r:id="rId66"/>
+    <hyperlink ref="A189" r:id="rId67"/>
+    <hyperlink ref="A190" r:id="rId68"/>
+    <hyperlink ref="A192" r:id="rId69" display="WinCVS"/>
+    <hyperlink ref="A198" r:id="rId70"/>
+    <hyperlink ref="A199" r:id="rId71"/>
+    <hyperlink ref="A200" r:id="rId72"/>
+    <hyperlink ref="A202" r:id="rId73"/>
+    <hyperlink ref="A203" r:id="rId74"/>
+    <hyperlink ref="A204" r:id="rId75"/>
+    <hyperlink ref="A206" r:id="rId76"/>
+    <hyperlink ref="A207" r:id="rId77"/>
+    <hyperlink ref="A11" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5822,10 +5837,10 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="208"/>
+      <c r="C1" s="211"/>
       <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
@@ -5873,7 +5888,7 @@
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="207" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5884,7 +5899,7 @@
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="209"/>
+      <c r="A6" s="207"/>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
@@ -5893,7 +5908,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="207" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -5906,7 +5921,7 @@
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="209"/>
+      <c r="A8" s="207"/>
       <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
@@ -5915,7 +5930,7 @@
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="207" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -5928,7 +5943,7 @@
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="209"/>
+      <c r="A10" s="207"/>
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
@@ -5950,7 +5965,7 @@
       <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="209" t="s">
+      <c r="A12" s="207" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5961,7 +5976,7 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="209"/>
+      <c r="A13" s="207"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -5970,7 +5985,7 @@
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="209"/>
+      <c r="A14" s="207"/>
       <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
@@ -6055,7 +6070,7 @@
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="208" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6068,7 +6083,7 @@
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="211"/>
+      <c r="A22" s="209"/>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -6162,7 +6177,7 @@
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="209" t="s">
+      <c r="A30" s="207" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6175,7 +6190,7 @@
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="209"/>
+      <c r="A31" s="207"/>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
@@ -6278,7 +6293,7 @@
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="210" t="s">
+      <c r="A40" s="208" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -6289,7 +6304,7 @@
       <c r="E40" s="16"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="211"/>
+      <c r="A41" s="209"/>
       <c r="B41" s="6" t="s">
         <v>78</v>
       </c>
@@ -6340,7 +6355,7 @@
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="209" t="s">
+      <c r="A46" s="207" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -6351,7 +6366,7 @@
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="209"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="28" t="s">
         <v>101</v>
       </c>
@@ -6360,7 +6375,7 @@
       <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="209"/>
+      <c r="A48" s="207"/>
       <c r="B48" s="6" t="s">
         <v>67</v>
       </c>
@@ -6457,7 +6472,7 @@
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="209" t="s">
+      <c r="A57" s="207" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6468,7 +6483,7 @@
       <c r="E57" s="16"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="209"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="6" t="s">
         <v>15</v>
       </c>
@@ -6489,16 +6504,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A46:A48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Task-n-Tool.xlsx
+++ b/Task-n-Tool.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="2" r:id="rId1"/>
@@ -14,10 +14,10 @@
     <sheet name="2012.01" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014'!$A$1:$E$65</definedName>
-    <definedName name="_Toc251017352" localSheetId="0">'2014'!$A$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014'!$A$1:$E$66</definedName>
+    <definedName name="_Toc251017352" localSheetId="0">'2014'!$A$166</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="631">
   <si>
     <t>Задачи</t>
   </si>
@@ -1344,9 +1344,6 @@
     <t>Team Viewer</t>
   </si>
   <si>
-    <t>+ Удобный доступ на удаленный компьютер</t>
-  </si>
-  <si>
     <t>Moba X Term</t>
   </si>
   <si>
@@ -2112,6 +2109,16 @@
   <si>
     <t xml:space="preserve">+ Серверная специализация
 + Клон, использующейся на работе RHEL </t>
+  </si>
+  <si>
+    <t>CleanMyMac 2</t>
+  </si>
+  <si>
+    <t>Очистка системы</t>
+  </si>
+  <si>
+    <t>+ Удобный доступ на удаленный компьютер, в том числе из iOS
+- Потенциальная дыра в безопасности</t>
   </si>
 </sst>
 </file>
@@ -2664,12 +2671,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3276,6 +3284,12 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3303,77 +3317,72 @@
     <xf numFmtId="4" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="63">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="64">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="63" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3675,13 +3684,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="51.42578125" style="45" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="45" customWidth="1"/>
@@ -3690,25 +3699,25 @@
     <col min="5" max="16384" width="11.42578125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="205" t="s">
+    <row r="1" spans="1:5" s="37" customFormat="1" ht="15">
+      <c r="A1" s="207" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="207" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="207" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="206"/>
-    </row>
-    <row r="2" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="205"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
+      <c r="E1" s="208"/>
+    </row>
+    <row r="2" spans="1:5" s="37" customFormat="1" ht="15">
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
       <c r="D2" s="71" t="s">
         <v>199</v>
       </c>
@@ -3716,7 +3725,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>229</v>
       </c>
@@ -3725,18 +3734,18 @@
       <c r="D3" s="62"/>
       <c r="E3" s="38"/>
     </row>
-    <row r="4" spans="1:5" s="41" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="41" customFormat="1" ht="39">
       <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="51" t="s">
         <v>230</v>
       </c>
@@ -3744,7 +3753,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="57" t="s">
         <v>231</v>
       </c>
@@ -3755,7 +3764,7 @@
       <c r="D6" s="65"/>
       <c r="E6" s="55"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="51" t="s">
         <v>232</v>
       </c>
@@ -3763,20 +3772,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="26">
       <c r="A8" s="57" t="s">
-        <v>626</v>
-      </c>
-      <c r="B8" s="214" t="s">
-        <v>399</v>
-      </c>
-      <c r="C8" s="215" t="s">
-        <v>628</v>
-      </c>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-    </row>
-    <row r="9" spans="1:5" s="41" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="B8" s="205" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="206" t="s">
+        <v>627</v>
+      </c>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+    </row>
+    <row r="9" spans="1:5" s="41" customFormat="1" ht="26">
       <c r="A9" s="39" t="s">
         <v>220</v>
       </c>
@@ -3787,7 +3796,7 @@
       <c r="D9" s="63"/>
       <c r="E9" s="39"/>
     </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="39">
       <c r="A10" s="34" t="s">
         <v>221</v>
       </c>
@@ -3798,7 +3807,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="34" t="s">
         <v>11</v>
       </c>
@@ -3806,241 +3815,241 @@
         <v>188</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="34" t="s">
+        <v>628</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="39"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B14" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C14" s="50" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" spans="1:5" ht="26">
+      <c r="A16" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B16" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C16" s="50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+    <row r="17" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="A17" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B17" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C17" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="55"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="55"/>
+    </row>
+    <row r="18" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="A18" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B18" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C18" s="45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+    <row r="19" spans="1:5" ht="26" collapsed="1">
+      <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="39"/>
+    </row>
+    <row r="20" spans="1:5" ht="39">
+      <c r="A20" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B20" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C20" s="50" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+    <row r="21" spans="1:5" ht="26">
+      <c r="A21" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B21" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C21" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="D21" s="65"/>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B22" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C22" s="50" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59" t="s">
+    <row r="23" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="A23" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B23" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C23" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="55"/>
-    </row>
-    <row r="23" spans="1:5" ht="38.25" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="D23" s="65"/>
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" spans="1:5" ht="26" collapsed="1">
+      <c r="A24" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="39"/>
-    </row>
-    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
-        <v>625</v>
-      </c>
-      <c r="B24" s="45" t="s">
+      <c r="D24" s="63"/>
+      <c r="E24" s="39"/>
+    </row>
+    <row r="25" spans="1:5" ht="39">
+      <c r="A25" s="53" t="s">
+        <v>624</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C25" s="50" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
+    <row r="26" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="A26" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B26" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C26" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="55"/>
-    </row>
-    <row r="26" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+      <c r="D26" s="65"/>
+      <c r="E26" s="55"/>
+    </row>
+    <row r="27" spans="1:5" collapsed="1">
+      <c r="A27" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="39"/>
-    </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="39"/>
+    </row>
+    <row r="28" spans="1:5" ht="26">
+      <c r="A28" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B28" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C28" s="50" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="39"/>
-    </row>
-    <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="39"/>
+    </row>
+    <row r="30" spans="1:5" ht="39">
+      <c r="A30" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B30" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C30" s="50" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B31" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="55"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="C31" s="55"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="39"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="39"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="53" t="s">
         <v>47</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
-        <v>48</v>
       </c>
       <c r="B33" s="45" t="s">
         <v>178</v>
@@ -4048,1671 +4057,1682 @@
       <c r="C33" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="55"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60" t="s">
-        <v>245</v>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="54" t="s">
+        <v>48</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C34" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="65"/>
+      <c r="E34" s="55"/>
+    </row>
+    <row r="35" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="A35" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="s">
+    <row r="36" spans="1:5" collapsed="1">
+      <c r="A36" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="39"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
+      <c r="D36" s="63"/>
+      <c r="E36" s="39"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B37" s="45" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="39" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="39"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="60" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="39"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B39" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C39" s="45" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="39" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="39"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="39"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B41" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C41" s="50" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="39" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="80" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="39"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
+      <c r="D42" s="63"/>
+      <c r="E42" s="39"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="39"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="60" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="39"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B45" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C45" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="D44" s="64">
+      <c r="D45" s="64">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
+    <row r="46" spans="1:5" s="37" customFormat="1" ht="15">
+      <c r="A46" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="38"/>
-    </row>
-    <row r="46" spans="1:5" s="41" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="38"/>
+    </row>
+    <row r="47" spans="1:5" s="41" customFormat="1" ht="65">
+      <c r="A47" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40" t="s">
+      <c r="B47" s="40"/>
+      <c r="C47" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="40"/>
-    </row>
-    <row r="47" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
+      <c r="D47" s="66"/>
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" spans="1:5" ht="39">
+      <c r="A48" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B48" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C48" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="67"/>
-    </row>
-    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
+      <c r="D48" s="67"/>
+    </row>
+    <row r="49" spans="1:5" ht="52">
+      <c r="A49" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B49" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C49" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="55"/>
-    </row>
-    <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="42" t="s">
+      <c r="D49" s="68"/>
+      <c r="E49" s="55"/>
+    </row>
+    <row r="50" spans="1:5" ht="26">
+      <c r="A50" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B50" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C50" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="D49" s="67"/>
-    </row>
-    <row r="50" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54" t="s">
+      <c r="D50" s="67"/>
+    </row>
+    <row r="51" spans="1:5" ht="26" hidden="1" outlineLevel="1">
+      <c r="A51" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B51" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C51" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="55"/>
-    </row>
-    <row r="51" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="46" t="s">
+      <c r="D51" s="65"/>
+      <c r="E51" s="55"/>
+    </row>
+    <row r="52" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A52" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="48" t="s">
+      <c r="B52" s="47"/>
+      <c r="C52" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="47"/>
-    </row>
-    <row r="52" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="57" t="s">
+      <c r="D52" s="69"/>
+      <c r="E52" s="47"/>
+    </row>
+    <row r="53" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A53" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55" t="s">
+      <c r="B53" s="55"/>
+      <c r="C53" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="65"/>
-      <c r="E52" s="55"/>
-    </row>
-    <row r="53" spans="1:5" s="41" customFormat="1" ht="51" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
+      <c r="D53" s="65"/>
+      <c r="E53" s="55"/>
+    </row>
+    <row r="54" spans="1:5" s="41" customFormat="1" ht="52" collapsed="1">
+      <c r="A54" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40" t="s">
+      <c r="B54" s="40"/>
+      <c r="C54" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="40"/>
-    </row>
-    <row r="54" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="52" t="s">
+      <c r="D54" s="66"/>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" spans="1:5" ht="39">
+      <c r="A55" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B55" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C55" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="D54" s="70"/>
-    </row>
-    <row r="55" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="57" t="s">
+      <c r="D55" s="70"/>
+    </row>
+    <row r="56" spans="1:5" ht="52">
+      <c r="A56" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B56" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C56" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="68"/>
-      <c r="E55" s="55"/>
-    </row>
-    <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="51" t="s">
+      <c r="D56" s="68"/>
+      <c r="E56" s="55"/>
+    </row>
+    <row r="57" spans="1:5" ht="26">
+      <c r="A57" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B57" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C57" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="70"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="57" t="s">
+      <c r="D57" s="70"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B58" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C58" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="55"/>
-    </row>
-    <row r="58" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52" t="s">
+      <c r="D58" s="68"/>
+      <c r="E58" s="55"/>
+    </row>
+    <row r="59" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="A59" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B59" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C59" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="70"/>
-    </row>
-    <row r="59" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="57" t="s">
+      <c r="D59" s="70"/>
+    </row>
+    <row r="60" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="A60" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B60" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C60" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="55"/>
-    </row>
-    <row r="60" spans="1:5" ht="51" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39" t="s">
+      <c r="D60" s="68"/>
+      <c r="E60" s="55"/>
+    </row>
+    <row r="61" spans="1:5" ht="39" collapsed="1">
+      <c r="A61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="40" t="s">
+      <c r="B61" s="39"/>
+      <c r="C61" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="D60" s="63"/>
-      <c r="E60" s="39"/>
-    </row>
-    <row r="61" spans="1:5" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="52" t="s">
+      <c r="D61" s="63"/>
+      <c r="E61" s="39"/>
+    </row>
+    <row r="62" spans="1:5" s="41" customFormat="1" ht="52">
+      <c r="A62" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B62" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C62" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="70"/>
-      <c r="E61" s="45"/>
-    </row>
-    <row r="62" spans="1:5" s="41" customFormat="1" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="54" t="s">
+      <c r="D62" s="70"/>
+      <c r="E62" s="45"/>
+    </row>
+    <row r="63" spans="1:5" s="41" customFormat="1" ht="26" hidden="1" outlineLevel="1">
+      <c r="A63" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B63" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C63" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="D62" s="68"/>
-      <c r="E62" s="55"/>
-    </row>
-    <row r="63" spans="1:5" s="41" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="D63" s="68"/>
+      <c r="E63" s="55"/>
+    </row>
+    <row r="64" spans="1:5" s="41" customFormat="1" ht="52" hidden="1" outlineLevel="1">
+      <c r="A64" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="50" t="s">
+      <c r="B64" s="45"/>
+      <c r="C64" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="D63" s="64"/>
-      <c r="E63" s="45"/>
-    </row>
-    <row r="64" spans="1:5" s="41" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="57" t="s">
+      <c r="D64" s="64"/>
+      <c r="E64" s="45"/>
+    </row>
+    <row r="65" spans="1:5" s="41" customFormat="1" ht="52" hidden="1" outlineLevel="1">
+      <c r="A65" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="56" t="s">
+      <c r="B65" s="55"/>
+      <c r="C65" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="D64" s="65"/>
-      <c r="E64" s="55"/>
-    </row>
-    <row r="65" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="39" t="s">
+      <c r="D65" s="65"/>
+      <c r="E65" s="55"/>
+    </row>
+    <row r="66" spans="1:5" collapsed="1">
+      <c r="A66" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="39"/>
-    </row>
-    <row r="66" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="51" t="s">
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="39"/>
+    </row>
+    <row r="67" spans="1:5" ht="39">
+      <c r="A67" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B67" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="50" t="s">
+      <c r="C67" s="50" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="57" t="s">
+    <row r="68" spans="1:5" ht="26" hidden="1" outlineLevel="1">
+      <c r="A68" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B68" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C68" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="55"/>
-    </row>
-    <row r="68" spans="1:5" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51" t="s">
+      <c r="D68" s="65"/>
+      <c r="E68" s="55"/>
+    </row>
+    <row r="69" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="A69" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B69" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C69" s="45" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="58" t="s">
+    <row r="70" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="A70" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55" t="s">
+      <c r="B70" s="55"/>
+      <c r="C70" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="65"/>
-      <c r="E69" s="55"/>
-    </row>
-    <row r="70" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="38" t="s">
+      <c r="D70" s="65"/>
+      <c r="E70" s="55"/>
+    </row>
+    <row r="71" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1">
+      <c r="A71" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="38"/>
-    </row>
-    <row r="71" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="39" t="s">
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="38"/>
+    </row>
+    <row r="72" spans="1:5" ht="39">
+      <c r="A72" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="40" t="s">
+      <c r="B72" s="39"/>
+      <c r="C72" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="53" t="s">
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="B73" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C73" s="50" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="72" t="s">
+    <row r="74" spans="1:5" ht="39">
+      <c r="A74" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B74" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C74" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="D73" s="65"/>
-      <c r="E73" s="55"/>
-    </row>
-    <row r="74" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="39" t="s">
+      <c r="D74" s="65"/>
+      <c r="E74" s="55"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B74" s="39"/>
-      <c r="C74" s="80" t="s">
+      <c r="B75" s="39"/>
+      <c r="C75" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="60" t="s">
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B76" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C75" s="50" t="s">
+      <c r="C76" s="50" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="39" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="60" t="s">
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B78" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="45" t="s">
+      <c r="C78" s="45" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="57" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B79" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="C78" s="55"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="55"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="39" t="s">
+      <c r="C79" s="55"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="55"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-    </row>
-    <row r="80" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="34" t="s">
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+    </row>
+    <row r="81" spans="1:5" ht="78">
+      <c r="A81" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B81" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C80" s="50" t="s">
+      <c r="C81" s="50" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="75" t="s">
+    <row r="82" spans="1:5" ht="15" hidden="1" outlineLevel="1">
+      <c r="A82" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B82" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="C81" s="76" t="s">
+      <c r="C82" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="D81" s="65"/>
-      <c r="E81" s="55"/>
-    </row>
-    <row r="82" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="39" t="s">
+      <c r="D82" s="65"/>
+      <c r="E82" s="55"/>
+    </row>
+    <row r="83" spans="1:5" collapsed="1">
+      <c r="A83" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="40" t="s">
+      <c r="B83" s="39"/>
+      <c r="C83" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-    </row>
-    <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="39" t="s">
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="40" t="s">
+      <c r="B85" s="39"/>
+      <c r="C85" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-    </row>
-    <row r="85" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="34" t="s">
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+    </row>
+    <row r="86" spans="1:5" ht="65">
+      <c r="A86" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B86" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C86" s="50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="35" t="s">
+    <row r="87" spans="1:5" ht="65">
+      <c r="A87" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="B86" s="78" t="s">
+      <c r="B87" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="56" t="s">
+      <c r="C87" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="D86" s="65"/>
-      <c r="E86" s="55"/>
-    </row>
-    <row r="87" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="34" t="s">
+      <c r="D87" s="65"/>
+      <c r="E87" s="55"/>
+    </row>
+    <row r="88" spans="1:5" ht="78">
+      <c r="A88" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="B87" s="77" t="s">
+      <c r="B88" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C88" s="50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="35" t="s">
+    <row r="89" spans="1:5" ht="52">
+      <c r="A89" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="B88" s="78" t="s">
+      <c r="B89" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="56" t="s">
+      <c r="C89" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="D88" s="65"/>
-      <c r="E88" s="55"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="74" t="s">
+      <c r="D89" s="65"/>
+      <c r="E89" s="55"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" hidden="1" outlineLevel="1">
+      <c r="A90" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B90" s="45" t="s">
         <v>178</v>
-      </c>
-      <c r="C89" s="73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="B90" s="73" t="s">
-        <v>283</v>
       </c>
       <c r="C90" s="73" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="38" t="s">
+    <row r="91" spans="1:5" ht="15" hidden="1" outlineLevel="1">
+      <c r="A91" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B91" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" s="73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1">
+      <c r="A92" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="39" t="s">
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-    </row>
-    <row r="93" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="79" t="s">
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+    </row>
+    <row r="94" spans="1:5" ht="78">
+      <c r="A94" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="B93" s="77" t="s">
+      <c r="B94" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C94" s="50" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="55" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="75" t="s">
+    <row r="95" spans="1:5" s="55" customFormat="1" ht="15" hidden="1" outlineLevel="1">
+      <c r="A95" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="B94" s="55" t="s">
+      <c r="B95" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="76" t="s">
+      <c r="C95" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="D94" s="65"/>
-    </row>
-    <row r="95" spans="1:5" ht="25.5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="39" t="s">
+      <c r="D95" s="65"/>
+    </row>
+    <row r="96" spans="1:5" collapsed="1">
+      <c r="A96" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="40" t="s">
+      <c r="B96" s="39"/>
+      <c r="C96" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-    </row>
-    <row r="97" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="38" t="s">
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+    </row>
+    <row r="98" spans="1:5" s="41" customFormat="1" ht="15">
+      <c r="A98" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="39" t="s">
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="51" t="s">
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="B99" s="45" t="s">
+      <c r="B100" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C99" s="45" t="s">
+      <c r="C100" s="45" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="39" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-    </row>
-    <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="51" t="s">
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+    </row>
+    <row r="102" spans="1:5" ht="26">
+      <c r="A102" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B102" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="C101" s="50" t="s">
+      <c r="C102" s="50" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="39" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="60" t="s">
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="B103" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C103" s="45" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="72" t="s">
-        <v>298</v>
-      </c>
-      <c r="B104" s="55" t="s">
+      <c r="B104" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C104" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="D104" s="65"/>
-      <c r="E104" s="55"/>
-    </row>
-    <row r="105" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="39" t="s">
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="B105" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D105" s="65"/>
+      <c r="E105" s="55"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="B106" s="39"/>
+      <c r="C106" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+    </row>
+    <row r="108" spans="1:5" s="41" customFormat="1" ht="15">
+      <c r="A108" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" s="39"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="B110" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="39"/>
+      <c r="C111" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="B105" s="39"/>
-      <c r="C105" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-    </row>
-    <row r="107" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B108" s="39"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="B109" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="45" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B110" s="39"/>
-      <c r="C110" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="60" t="s">
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="B111" s="45" t="s">
+      <c r="B112" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C112" s="50" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="72" t="s">
+    <row r="113" spans="1:5" ht="26">
+      <c r="A113" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="B112" s="55" t="s">
+      <c r="B113" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C112" s="56" t="s">
+      <c r="C113" s="56" t="s">
         <v>314</v>
-      </c>
-      <c r="D112" s="65"/>
-      <c r="E112" s="55"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="72" t="s">
-        <v>315</v>
-      </c>
-      <c r="B113" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C113" s="56" t="s">
-        <v>316</v>
       </c>
       <c r="D113" s="65"/>
       <c r="E113" s="55"/>
     </row>
-    <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="60" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="B114" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="D114" s="65"/>
+      <c r="E114" s="55"/>
+    </row>
+    <row r="115" spans="1:5" ht="26">
+      <c r="A115" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="B114" s="45" t="s">
+      <c r="B115" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C114" s="50" t="s">
+      <c r="C115" s="50" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="B115" s="39"/>
-      <c r="C115" s="40" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="B116" s="39"/>
+      <c r="C116" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-    </row>
-    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="38" t="s">
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+    </row>
+    <row r="118" spans="1:5" ht="15">
+      <c r="A118" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B117" s="38"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="38"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="39" t="s">
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="38"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="51" t="s">
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="45" t="s">
+      <c r="B120" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="C119" s="50" t="s">
+      <c r="C120" s="50" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="39" t="s">
+    <row r="121" spans="1:5">
+      <c r="A121" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-    </row>
-    <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="60" t="s">
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+    </row>
+    <row r="122" spans="1:5" ht="26">
+      <c r="A122" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="B121" s="45" t="s">
+      <c r="B122" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C121" s="50" t="s">
+      <c r="C122" s="50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="39" t="s">
+    <row r="123" spans="1:5">
+      <c r="A123" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B122" s="39"/>
-      <c r="C122" s="40" t="s">
+      <c r="B123" s="39"/>
+      <c r="C123" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
-    </row>
-    <row r="124" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="38" t="s">
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+    </row>
+    <row r="125" spans="1:5" s="41" customFormat="1" ht="15">
+      <c r="A125" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="38"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-    </row>
-    <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="39" t="s">
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-    </row>
-    <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="60" t="s">
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+    </row>
+    <row r="127" spans="1:5" ht="26">
+      <c r="A127" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B126" s="45" t="s">
+      <c r="B127" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C126" s="50" t="s">
+      <c r="C127" s="50" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="39" t="s">
+    <row r="128" spans="1:5">
+      <c r="A128" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="40" t="s">
+      <c r="B128" s="39"/>
+      <c r="C128" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-    </row>
-    <row r="129" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="38" t="s">
+      <c r="D128" s="39"/>
+      <c r="E128" s="39"/>
+    </row>
+    <row r="130" spans="1:5" s="41" customFormat="1" ht="15">
+      <c r="A130" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B129" s="38"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="39" t="s">
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="B130" s="39"/>
-      <c r="C130" s="40" t="s">
+      <c r="B131" s="39"/>
+      <c r="C131" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="60" t="s">
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="B131" s="45" t="s">
+      <c r="B132" s="45" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="57" t="s">
+    <row r="133" spans="1:5">
+      <c r="A133" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="B132" s="55" t="s">
+      <c r="B133" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C132" s="55" t="s">
+      <c r="C133" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="D132" s="65"/>
-      <c r="E132" s="55"/>
-    </row>
-    <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="39" t="s">
+      <c r="D133" s="65"/>
+      <c r="E133" s="55"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="B133" s="39"/>
-      <c r="C133" s="40" t="s">
+      <c r="B134" s="39"/>
+      <c r="C134" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="60" t="s">
+      <c r="D134" s="39"/>
+      <c r="E134" s="39"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="B134" s="45" t="s">
+      <c r="B135" s="45" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="72" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="B135" s="55" t="s">
+      <c r="B136" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="C135" s="55"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="55"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="60" t="s">
+      <c r="C136" s="55"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="55"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="B136" s="45" t="s">
+      <c r="B137" s="45" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="39" t="s">
+    <row r="138" spans="1:5">
+      <c r="A138" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="B137" s="39"/>
-      <c r="C137" s="40" t="s">
+      <c r="B138" s="39"/>
+      <c r="C138" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-    </row>
-    <row r="138" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="60" t="s">
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+    </row>
+    <row r="139" spans="1:5" ht="39">
+      <c r="A139" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="45" t="s">
+      <c r="B139" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C138" s="50" t="s">
+      <c r="C139" s="50" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="72" t="s">
+    <row r="140" spans="1:5">
+      <c r="A140" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="B139" s="55" t="s">
+      <c r="B140" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C139" s="56" t="s">
+      <c r="C140" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="D139" s="65"/>
-      <c r="E139" s="55"/>
-    </row>
-    <row r="140" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="38" t="s">
+      <c r="D140" s="65"/>
+      <c r="E140" s="55"/>
+    </row>
+    <row r="141" spans="1:5" s="41" customFormat="1" ht="15">
+      <c r="A141" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B140" s="38"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="39" t="s">
+      <c r="B141" s="38"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="38"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B141" s="39"/>
-      <c r="C141" s="40" t="s">
+      <c r="B142" s="39"/>
+      <c r="C142" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
-    </row>
-    <row r="142" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A142" s="60" t="s">
+      <c r="D142" s="39"/>
+      <c r="E142" s="39"/>
+    </row>
+    <row r="143" spans="1:5" ht="52">
+      <c r="A143" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="B142" s="45" t="s">
+      <c r="B143" s="45" t="s">
         <v>344</v>
-      </c>
-      <c r="C142" s="50" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A143" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="B143" s="45" t="s">
-        <v>34</v>
       </c>
       <c r="C143" s="50" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" ht="52">
       <c r="A144" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="B144" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="52">
+      <c r="A145" s="60" t="s">
         <v>348</v>
       </c>
-      <c r="B144" s="45" t="s">
+      <c r="B145" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="C144" s="50" t="s">
+      <c r="C145" s="50" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="39" t="s">
+    <row r="146" spans="1:5">
+      <c r="A146" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="39"/>
-      <c r="C145" s="40" t="s">
+      <c r="B146" s="39"/>
+      <c r="C146" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="39" t="s">
+      <c r="D146" s="39"/>
+      <c r="E146" s="39"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B147" s="39"/>
-      <c r="C147" s="40" t="s">
+      <c r="B148" s="39"/>
+      <c r="C148" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-    </row>
-    <row r="149" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="38" t="s">
+      <c r="D148" s="39"/>
+      <c r="E148" s="39"/>
+    </row>
+    <row r="150" spans="1:5" s="41" customFormat="1" ht="15">
+      <c r="A150" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B149" s="38"/>
-      <c r="C149" s="38"/>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="39" t="s">
+      <c r="B150" s="38"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="38"/>
+      <c r="E150" s="38"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B150" s="39"/>
-      <c r="C150" s="40" t="s">
+      <c r="B151" s="39"/>
+      <c r="C151" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
-    </row>
-    <row r="151" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A151" s="60" t="s">
+      <c r="D151" s="39"/>
+      <c r="E151" s="39"/>
+    </row>
+    <row r="152" spans="1:5" ht="39">
+      <c r="A152" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="B151" s="45" t="s">
+      <c r="B152" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="C151" s="50" t="s">
+      <c r="C152" s="50" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="152" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="72" t="s">
+    <row r="153" spans="1:5" outlineLevel="1">
+      <c r="A153" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="B152" s="55" t="s">
+      <c r="B153" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C152" s="55" t="s">
+      <c r="C153" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="D152" s="65"/>
-      <c r="E152" s="55"/>
-    </row>
-    <row r="153" spans="1:5" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="51" t="s">
+      <c r="D153" s="65"/>
+      <c r="E153" s="55"/>
+    </row>
+    <row r="154" spans="1:5" outlineLevel="1">
+      <c r="A154" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="B153" s="45" t="s">
+      <c r="B154" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C153" s="45" t="s">
+      <c r="C154" s="45" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="39" t="s">
+    <row r="155" spans="1:5">
+      <c r="A155" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="39"/>
-      <c r="C154" s="40" t="s">
+      <c r="B155" s="39"/>
+      <c r="C155" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="39" t="s">
+      <c r="D155" s="39"/>
+      <c r="E155" s="39"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="39"/>
-      <c r="C156" s="40" t="s">
+      <c r="B157" s="39"/>
+      <c r="C157" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="D156" s="39"/>
-      <c r="E156" s="39"/>
-    </row>
-    <row r="158" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="38" t="s">
+      <c r="D157" s="39"/>
+      <c r="E157" s="39"/>
+    </row>
+    <row r="159" spans="1:5" s="41" customFormat="1" ht="15">
+      <c r="A159" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B158" s="38"/>
-      <c r="C158" s="38"/>
-      <c r="D158" s="38"/>
-      <c r="E158" s="38"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="39" t="s">
+      <c r="B159" s="38"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="38"/>
+      <c r="E159" s="38"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B159" s="39"/>
-      <c r="C159" s="40" t="s">
+      <c r="B160" s="39"/>
+      <c r="C160" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="39" t="s">
+      <c r="D160" s="39"/>
+      <c r="E160" s="39"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="B161" s="39"/>
-      <c r="C161" s="39"/>
-      <c r="D161" s="39"/>
-      <c r="E161" s="39"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="60" t="s">
+      <c r="B162" s="39"/>
+      <c r="C162" s="39"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="39"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="60" t="s">
         <v>359</v>
       </c>
-      <c r="B162" s="45" t="s">
+      <c r="B163" s="45" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="38" t="s">
+    <row r="164" spans="1:5" s="41" customFormat="1" ht="15">
+      <c r="A164" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B163" s="38"/>
-      <c r="C163" s="38" t="s">
+      <c r="B164" s="38"/>
+      <c r="C164" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="D163" s="38"/>
-      <c r="E163" s="38"/>
-    </row>
-    <row r="165" spans="1:5" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A165" s="38" t="s">
+      <c r="D164" s="38"/>
+      <c r="E164" s="38"/>
+    </row>
+    <row r="166" spans="1:5" s="41" customFormat="1" ht="15">
+      <c r="A166" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="B165" s="38"/>
-      <c r="C165" s="38"/>
-      <c r="D165" s="38"/>
-      <c r="E165" s="38"/>
-    </row>
-    <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="39" t="s">
+      <c r="B166" s="38"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="38"/>
+      <c r="E166" s="38"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B166" s="39"/>
-      <c r="C166" s="61" t="s">
+      <c r="B167" s="39"/>
+      <c r="C167" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="39" t="s">
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B168" s="39"/>
-      <c r="C168" s="40" t="s">
+      <c r="B169" s="39"/>
+      <c r="C169" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="D168" s="39"/>
-      <c r="E168" s="39"/>
-    </row>
-    <row r="169" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="34" t="s">
+      <c r="D169" s="39"/>
+      <c r="E169" s="39"/>
+    </row>
+    <row r="170" spans="1:5" ht="78">
+      <c r="A170" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="B169" s="45" t="s">
+      <c r="B170" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C169" s="50" t="s">
+      <c r="C170" s="50" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A170" s="34" t="s">
+    <row r="171" spans="1:5" ht="52">
+      <c r="A171" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B170" s="45" t="s">
+      <c r="B171" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C170" s="50" t="s">
+      <c r="C171" s="50" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="39" t="s">
+    <row r="172" spans="1:5">
+      <c r="A172" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="B171" s="39"/>
-      <c r="C171" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="60" t="s">
+      <c r="B172" s="39"/>
+      <c r="C172" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="B172" s="45" t="s">
+      <c r="B173" s="45" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A173" s="39" t="s">
+    <row r="174" spans="1:5" ht="39">
+      <c r="A174" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B173" s="39"/>
-      <c r="C173" s="40" t="s">
+      <c r="B174" s="39"/>
+      <c r="C174" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="60" t="s">
+      <c r="D174" s="39"/>
+      <c r="E174" s="39"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="60" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="39" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B175" s="39"/>
-      <c r="C175" s="39" t="s">
+      <c r="B176" s="39"/>
+      <c r="C176" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="D175" s="39"/>
-      <c r="E175" s="39"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="51" t="s">
+      <c r="D176" s="39"/>
+      <c r="E176" s="39"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="B176" s="45" t="s">
+      <c r="B177" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C176" s="45" t="s">
+      <c r="C177" s="45" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="57" t="s">
+    <row r="178" spans="1:5">
+      <c r="A178" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="B177" s="55" t="s">
+      <c r="B178" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C177" s="55" t="s">
+      <c r="C178" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="D177" s="65"/>
-      <c r="E177" s="55"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="60" t="s">
+      <c r="D178" s="65"/>
+      <c r="E178" s="55"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="B178" s="45" t="s">
+      <c r="B179" s="45" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="39" t="s">
+    <row r="180" spans="1:5">
+      <c r="A180" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="B179" s="39"/>
-      <c r="C179" s="39"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="39"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="51" t="s">
+      <c r="B180" s="39"/>
+      <c r="C180" s="39"/>
+      <c r="D180" s="39"/>
+      <c r="E180" s="39"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="B180" s="45" t="s">
+      <c r="B181" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C180" s="45" t="s">
+      <c r="C181" s="45" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="72" t="s">
+    <row r="182" spans="1:5">
+      <c r="A182" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="B181" s="55" t="s">
+      <c r="B182" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C181" s="55"/>
-      <c r="D181" s="65"/>
-      <c r="E181" s="55"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="60" t="s">
+      <c r="C182" s="55"/>
+      <c r="D182" s="65"/>
+      <c r="E182" s="55"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B182" s="45" t="s">
+      <c r="B183" s="45" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="39" t="s">
+    <row r="184" spans="1:5">
+      <c r="A184" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="39"/>
-      <c r="C183" s="40" t="s">
+      <c r="B184" s="39"/>
+      <c r="C184" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="D183" s="39"/>
-      <c r="E183" s="39"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="39" t="s">
+      <c r="D184" s="39"/>
+      <c r="E184" s="39"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B185" s="39"/>
-      <c r="C185" s="40" t="s">
+      <c r="B186" s="39"/>
+      <c r="C186" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="D185" s="39"/>
-      <c r="E185" s="39"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="60" t="s">
+      <c r="D186" s="39"/>
+      <c r="E186" s="39"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="60" t="s">
         <v>104</v>
-      </c>
-      <c r="B186" s="45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="60" t="s">
-        <v>103</v>
       </c>
       <c r="B187" s="45" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="39" t="s">
+    <row r="188" spans="1:5">
+      <c r="A188" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B188" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="B188" s="39"/>
-      <c r="C188" s="40" t="s">
+      <c r="B189" s="39"/>
+      <c r="C189" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="D189" s="39"/>
+      <c r="E189" s="39"/>
+    </row>
+    <row r="190" spans="1:5" ht="26">
+      <c r="A190" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="B190" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C190" s="50" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="26">
+      <c r="A191" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C191" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B192" s="39"/>
+      <c r="C192" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="D188" s="39"/>
-      <c r="E188" s="39"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="60" t="s">
-        <v>379</v>
-      </c>
-      <c r="B189" s="45" t="s">
+      <c r="D192" s="39"/>
+      <c r="E192" s="39"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B193" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C189" s="50" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="B190" s="45" t="s">
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B194" s="39"/>
+      <c r="C194" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="D194" s="39"/>
+      <c r="E194" s="39"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B196" s="39"/>
+      <c r="C196" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="D196" s="39"/>
+      <c r="E196" s="39"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B198" s="39"/>
+      <c r="C198" s="39"/>
+      <c r="D198" s="39"/>
+      <c r="E198" s="39"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="B199" s="45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="B200" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="50" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="B191" s="39"/>
-      <c r="C191" s="40" t="s">
-        <v>408</v>
-      </c>
-      <c r="D191" s="39"/>
-      <c r="E191" s="39"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="B192" s="45" t="s">
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" s="45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="B202" s="39"/>
+      <c r="C202" s="39"/>
+      <c r="D202" s="39"/>
+      <c r="E202" s="39"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="B203" s="45" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B193" s="39"/>
-      <c r="C193" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="D193" s="39"/>
-      <c r="E193" s="39"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B195" s="39"/>
-      <c r="C195" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="D195" s="39"/>
-      <c r="E195" s="39"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B197" s="39"/>
-      <c r="C197" s="39"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="39"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="B198" s="45" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="B199" s="45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B200" s="45" t="s">
+      <c r="C203" s="45" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="39" t="s">
+    <row r="204" spans="1:5">
+      <c r="A204" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B204" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="C204" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="B201" s="39"/>
-      <c r="C201" s="39"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="39"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="B202" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C202" s="45" t="s">
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="B205" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="C205" s="45" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="60" t="s">
-        <v>387</v>
-      </c>
-      <c r="B203" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="C203" s="45" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="60" t="s">
+    <row r="206" spans="1:5">
+      <c r="A206" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B206" s="39"/>
+      <c r="C206" s="39"/>
+      <c r="D206" s="39"/>
+      <c r="E206" s="39"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="60" t="s">
         <v>388</v>
-      </c>
-      <c r="B204" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="C204" s="45" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B205" s="39"/>
-      <c r="C205" s="39"/>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="60" t="s">
-        <v>389</v>
-      </c>
-      <c r="B206" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C206" s="45" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="60" t="s">
-        <v>108</v>
       </c>
       <c r="B207" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C207" s="45" t="s">
-        <v>401</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B208" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C208" s="45" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -5723,84 +5743,85 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A50" r:id="rId1" location="disk" display="https://mail.yandex.ru/neo2/ - disk"/>
-    <hyperlink ref="A49" r:id="rId2" display="https://github.com/"/>
-    <hyperlink ref="A54" r:id="rId3" display="http://www.acronis.ru/homecomputing/trueimage"/>
-    <hyperlink ref="A58" r:id="rId4" display="http://www.paragon.ru/home/br-professional"/>
-    <hyperlink ref="A61" r:id="rId5" display="https://agilebits.com/onepassword"/>
-    <hyperlink ref="A13" r:id="rId6"/>
-    <hyperlink ref="A15" r:id="rId7" display="Avast! Free"/>
-    <hyperlink ref="A16" r:id="rId8"/>
+    <hyperlink ref="A51" r:id="rId1" location="disk" display="https://mail.yandex.ru/neo2/ - disk"/>
+    <hyperlink ref="A50" r:id="rId2" display="https://github.com/"/>
+    <hyperlink ref="A55" r:id="rId3" display="http://www.acronis.ru/homecomputing/trueimage"/>
+    <hyperlink ref="A59" r:id="rId4" display="http://www.paragon.ru/home/br-professional"/>
+    <hyperlink ref="A62" r:id="rId5" display="https://agilebits.com/onepassword"/>
+    <hyperlink ref="A14" r:id="rId6"/>
+    <hyperlink ref="A16" r:id="rId7" display="Avast! Free"/>
+    <hyperlink ref="A17" r:id="rId8"/>
     <hyperlink ref="A10" r:id="rId9" display="http://brew.sh/index_ru.html"/>
-    <hyperlink ref="A19" r:id="rId10" display="http://unarchiver.c3.cx/unarchiver"/>
-    <hyperlink ref="A20" r:id="rId11" display="http://www.sopht.jp/en/cleanarchiver/"/>
-    <hyperlink ref="A21" r:id="rId12" display="http://www.7-zip.org/"/>
-    <hyperlink ref="A22" r:id="rId13" display="http://www.win-rar.ru/"/>
-    <hyperlink ref="A24" r:id="rId14" display="FAR"/>
-    <hyperlink ref="A25" r:id="rId15"/>
-    <hyperlink ref="A48" r:id="rId16" display="https://www.dropbox.com/"/>
-    <hyperlink ref="A47" r:id="rId17" display="https://drive.google.com/"/>
-    <hyperlink ref="A27" r:id="rId18"/>
-    <hyperlink ref="A29" r:id="rId19"/>
-    <hyperlink ref="A32" r:id="rId20" tooltip="Подробнее о Astroburn Lite" display="http://www.astroburn.com/rus/products/abLite"/>
-    <hyperlink ref="A33" r:id="rId21" tooltip="Подробнее о Astroburn Audio" display="http://www.astroburn.com/rus/products/abAudio"/>
-    <hyperlink ref="A34" r:id="rId22"/>
-    <hyperlink ref="A36" r:id="rId23"/>
-    <hyperlink ref="A38" r:id="rId24"/>
-    <hyperlink ref="A40" r:id="rId25"/>
-    <hyperlink ref="A44" r:id="rId26"/>
-    <hyperlink ref="A72" r:id="rId27" display="MS Office 2010 Professional+"/>
-    <hyperlink ref="A73" r:id="rId28"/>
-    <hyperlink ref="A75" r:id="rId29"/>
-    <hyperlink ref="A77" r:id="rId30"/>
-    <hyperlink ref="A80" r:id="rId31"/>
-    <hyperlink ref="A85" r:id="rId32"/>
-    <hyperlink ref="A86" r:id="rId33"/>
-    <hyperlink ref="A87" r:id="rId34"/>
-    <hyperlink ref="A88" r:id="rId35"/>
-    <hyperlink ref="A89" r:id="rId36"/>
-    <hyperlink ref="A90" r:id="rId37"/>
-    <hyperlink ref="A103" r:id="rId38"/>
-    <hyperlink ref="A104" r:id="rId39"/>
-    <hyperlink ref="A113" r:id="rId40"/>
-    <hyperlink ref="A114" r:id="rId41"/>
-    <hyperlink ref="A112" r:id="rId42"/>
-    <hyperlink ref="A111" r:id="rId43"/>
-    <hyperlink ref="A121" r:id="rId44"/>
-    <hyperlink ref="A126" r:id="rId45"/>
-    <hyperlink ref="A131" r:id="rId46"/>
-    <hyperlink ref="A134" r:id="rId47"/>
-    <hyperlink ref="A135" r:id="rId48"/>
-    <hyperlink ref="A136" r:id="rId49"/>
-    <hyperlink ref="A138" r:id="rId50"/>
-    <hyperlink ref="A139" r:id="rId51"/>
-    <hyperlink ref="A142" r:id="rId52"/>
-    <hyperlink ref="A143" r:id="rId53"/>
-    <hyperlink ref="A144" r:id="rId54"/>
-    <hyperlink ref="A151" r:id="rId55"/>
-    <hyperlink ref="A152" r:id="rId56"/>
-    <hyperlink ref="A162" r:id="rId57"/>
-    <hyperlink ref="A170" r:id="rId58"/>
-    <hyperlink ref="A169" r:id="rId59"/>
-    <hyperlink ref="A172" r:id="rId60"/>
-    <hyperlink ref="A174" r:id="rId61"/>
-    <hyperlink ref="A178" r:id="rId62"/>
-    <hyperlink ref="A181" r:id="rId63"/>
-    <hyperlink ref="A182" r:id="rId64"/>
-    <hyperlink ref="A186" r:id="rId65"/>
-    <hyperlink ref="A187" r:id="rId66"/>
-    <hyperlink ref="A189" r:id="rId67"/>
-    <hyperlink ref="A190" r:id="rId68"/>
-    <hyperlink ref="A192" r:id="rId69" display="WinCVS"/>
-    <hyperlink ref="A198" r:id="rId70"/>
-    <hyperlink ref="A199" r:id="rId71"/>
-    <hyperlink ref="A200" r:id="rId72"/>
-    <hyperlink ref="A202" r:id="rId73"/>
-    <hyperlink ref="A203" r:id="rId74"/>
-    <hyperlink ref="A204" r:id="rId75"/>
-    <hyperlink ref="A206" r:id="rId76"/>
-    <hyperlink ref="A207" r:id="rId77"/>
+    <hyperlink ref="A20" r:id="rId10" display="http://unarchiver.c3.cx/unarchiver"/>
+    <hyperlink ref="A21" r:id="rId11" display="http://www.sopht.jp/en/cleanarchiver/"/>
+    <hyperlink ref="A22" r:id="rId12" display="http://www.7-zip.org/"/>
+    <hyperlink ref="A23" r:id="rId13" display="http://www.win-rar.ru/"/>
+    <hyperlink ref="A25" r:id="rId14" display="FAR"/>
+    <hyperlink ref="A26" r:id="rId15"/>
+    <hyperlink ref="A49" r:id="rId16" display="https://www.dropbox.com/"/>
+    <hyperlink ref="A48" r:id="rId17" display="https://drive.google.com/"/>
+    <hyperlink ref="A28" r:id="rId18"/>
+    <hyperlink ref="A30" r:id="rId19"/>
+    <hyperlink ref="A33" r:id="rId20" tooltip="Подробнее о Astroburn Lite" display="http://www.astroburn.com/rus/products/abLite"/>
+    <hyperlink ref="A34" r:id="rId21" tooltip="Подробнее о Astroburn Audio" display="http://www.astroburn.com/rus/products/abAudio"/>
+    <hyperlink ref="A35" r:id="rId22"/>
+    <hyperlink ref="A37" r:id="rId23"/>
+    <hyperlink ref="A39" r:id="rId24"/>
+    <hyperlink ref="A41" r:id="rId25"/>
+    <hyperlink ref="A45" r:id="rId26"/>
+    <hyperlink ref="A73" r:id="rId27" display="MS Office 2010 Professional+"/>
+    <hyperlink ref="A74" r:id="rId28"/>
+    <hyperlink ref="A76" r:id="rId29"/>
+    <hyperlink ref="A78" r:id="rId30"/>
+    <hyperlink ref="A81" r:id="rId31"/>
+    <hyperlink ref="A86" r:id="rId32"/>
+    <hyperlink ref="A87" r:id="rId33"/>
+    <hyperlink ref="A88" r:id="rId34"/>
+    <hyperlink ref="A89" r:id="rId35"/>
+    <hyperlink ref="A90" r:id="rId36"/>
+    <hyperlink ref="A91" r:id="rId37"/>
+    <hyperlink ref="A104" r:id="rId38"/>
+    <hyperlink ref="A105" r:id="rId39"/>
+    <hyperlink ref="A114" r:id="rId40"/>
+    <hyperlink ref="A115" r:id="rId41"/>
+    <hyperlink ref="A113" r:id="rId42"/>
+    <hyperlink ref="A112" r:id="rId43"/>
+    <hyperlink ref="A122" r:id="rId44"/>
+    <hyperlink ref="A127" r:id="rId45"/>
+    <hyperlink ref="A132" r:id="rId46"/>
+    <hyperlink ref="A135" r:id="rId47"/>
+    <hyperlink ref="A136" r:id="rId48"/>
+    <hyperlink ref="A137" r:id="rId49"/>
+    <hyperlink ref="A139" r:id="rId50"/>
+    <hyperlink ref="A140" r:id="rId51"/>
+    <hyperlink ref="A143" r:id="rId52"/>
+    <hyperlink ref="A144" r:id="rId53"/>
+    <hyperlink ref="A145" r:id="rId54"/>
+    <hyperlink ref="A152" r:id="rId55"/>
+    <hyperlink ref="A153" r:id="rId56"/>
+    <hyperlink ref="A163" r:id="rId57"/>
+    <hyperlink ref="A171" r:id="rId58"/>
+    <hyperlink ref="A170" r:id="rId59"/>
+    <hyperlink ref="A173" r:id="rId60"/>
+    <hyperlink ref="A175" r:id="rId61"/>
+    <hyperlink ref="A179" r:id="rId62"/>
+    <hyperlink ref="A182" r:id="rId63"/>
+    <hyperlink ref="A183" r:id="rId64"/>
+    <hyperlink ref="A187" r:id="rId65"/>
+    <hyperlink ref="A188" r:id="rId66"/>
+    <hyperlink ref="A190" r:id="rId67"/>
+    <hyperlink ref="A191" r:id="rId68"/>
+    <hyperlink ref="A193" r:id="rId69" display="WinCVS"/>
+    <hyperlink ref="A199" r:id="rId70"/>
+    <hyperlink ref="A200" r:id="rId71"/>
+    <hyperlink ref="A201" r:id="rId72"/>
+    <hyperlink ref="A203" r:id="rId73"/>
+    <hyperlink ref="A204" r:id="rId74"/>
+    <hyperlink ref="A205" r:id="rId75"/>
+    <hyperlink ref="A207" r:id="rId76"/>
+    <hyperlink ref="A208" r:id="rId77"/>
     <hyperlink ref="A11" r:id="rId78"/>
+    <hyperlink ref="A12" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5824,7 +5845,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="9" customWidth="1"/>
@@ -5833,14 +5854,14 @@
     <col min="6" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="14" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="211"/>
+      <c r="C1" s="213"/>
       <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
@@ -5848,7 +5869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="14" customFormat="1">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
         <v>97</v>
@@ -5859,7 +5880,7 @@
       <c r="D2" s="31"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -5874,7 +5895,7 @@
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -5887,8 +5908,8 @@
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="207" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="209" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5898,8 +5919,8 @@
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="207"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="209"/>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
@@ -5907,8 +5928,8 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="207" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="209" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -5920,8 +5941,8 @@
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="207"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="209"/>
       <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
@@ -5929,8 +5950,8 @@
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="207" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="209" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -5942,8 +5963,8 @@
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="207"/>
+    <row r="10" spans="1:5" ht="26">
+      <c r="A10" s="209"/>
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
@@ -5951,7 +5972,7 @@
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -5964,8 +5985,8 @@
       </c>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="207" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="209" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5975,8 +5996,8 @@
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="207"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="209"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -5984,8 +6005,8 @@
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="207"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="209"/>
       <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
@@ -5993,7 +6014,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -6006,7 +6027,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="26">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -6019,7 +6040,7 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -6030,7 +6051,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>90</v>
       </c>
@@ -6043,7 +6064,7 @@
       </c>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -6056,7 +6077,7 @@
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="26">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -6069,8 +6090,8 @@
       </c>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="208" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="210" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6082,8 +6103,8 @@
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="209"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="211"/>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -6093,7 +6114,7 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -6104,7 +6125,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -6117,7 +6138,7 @@
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="25"/>
       <c r="B25" s="6" t="s">
         <v>113</v>
@@ -6126,7 +6147,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -6139,7 +6160,7 @@
       </c>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -6152,7 +6173,7 @@
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="26">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
@@ -6163,7 +6184,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
@@ -6176,8 +6197,8 @@
       </c>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="207" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="209" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6189,8 +6210,8 @@
       </c>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="207"/>
+    <row r="31" spans="1:5">
+      <c r="A31" s="209"/>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
@@ -6200,7 +6221,7 @@
       </c>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="26">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
@@ -6211,7 +6232,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="24" t="s">
         <v>93</v>
       </c>
@@ -6228,7 +6249,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="26">
       <c r="A34" s="24"/>
       <c r="B34" s="6" t="s">
         <v>100</v>
@@ -6237,7 +6258,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -6248,7 +6269,7 @@
       <c r="D35" s="21"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
@@ -6259,7 +6280,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="25" t="s">
         <v>109</v>
       </c>
@@ -6270,7 +6291,7 @@
       <c r="D37" s="21"/>
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="25" t="s">
         <v>105</v>
       </c>
@@ -6281,7 +6302,7 @@
       <c r="D38" s="21"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -6292,8 +6313,8 @@
       <c r="D39" s="21"/>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="208" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="210" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -6303,8 +6324,8 @@
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="209"/>
+    <row r="41" spans="1:5">
+      <c r="A41" s="211"/>
       <c r="B41" s="6" t="s">
         <v>78</v>
       </c>
@@ -6312,7 +6333,7 @@
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="26" t="s">
         <v>102</v>
       </c>
@@ -6323,7 +6344,7 @@
       <c r="D42" s="15"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="26"/>
       <c r="B43" s="6" t="s">
         <v>104</v>
@@ -6332,7 +6353,7 @@
       <c r="D43" s="15"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
         <v>63</v>
       </c>
@@ -6343,7 +6364,7 @@
       <c r="D44" s="21"/>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>26</v>
       </c>
@@ -6354,8 +6375,8 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="207" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="209" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -6365,8 +6386,8 @@
       <c r="D46" s="21"/>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="207"/>
+    <row r="47" spans="1:5">
+      <c r="A47" s="209"/>
       <c r="B47" s="28" t="s">
         <v>101</v>
       </c>
@@ -6374,8 +6395,8 @@
       <c r="D47" s="21"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="207"/>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A48" s="209"/>
       <c r="B48" s="6" t="s">
         <v>67</v>
       </c>
@@ -6383,7 +6404,7 @@
       <c r="D48" s="21"/>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>65</v>
       </c>
@@ -6394,7 +6415,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
         <v>28</v>
       </c>
@@ -6405,7 +6426,7 @@
       <c r="D50" s="21"/>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="25" t="s">
         <v>111</v>
       </c>
@@ -6416,7 +6437,7 @@
       <c r="D51" s="21"/>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
         <v>68</v>
       </c>
@@ -6427,7 +6448,7 @@
       <c r="D52" s="21"/>
       <c r="E52" s="22"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
         <v>69</v>
       </c>
@@ -6438,7 +6459,7 @@
       <c r="D53" s="21"/>
       <c r="E53" s="22"/>
     </row>
-    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="26">
       <c r="A54" s="4" t="s">
         <v>29</v>
       </c>
@@ -6449,7 +6470,7 @@
       <c r="D54" s="21"/>
       <c r="E54" s="22"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
@@ -6460,7 +6481,7 @@
       <c r="D55" s="21"/>
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="26" t="s">
         <v>107</v>
       </c>
@@ -6471,8 +6492,8 @@
       <c r="D56" s="15"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="207" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="209" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6482,8 +6503,8 @@
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="207"/>
+    <row r="58" spans="1:5">
+      <c r="A58" s="209"/>
       <c r="B58" s="6" t="s">
         <v>15</v>
       </c>
@@ -6491,7 +6512,7 @@
       <c r="D58" s="15"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="14" thickBot="1">
       <c r="A59" s="10" t="s">
         <v>73</v>
       </c>
@@ -6604,14 +6625,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="151" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
@@ -6624,109 +6645,109 @@
     <col min="10" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="84" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="84" customFormat="1">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="81" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="83" t="s">
         <v>410</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="E1" s="83" t="s">
         <v>411</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="F1" s="83" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="G1" s="83" t="s">
         <v>413</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="H1" s="214" t="s">
         <v>414</v>
       </c>
-      <c r="H1" s="212" t="s">
+      <c r="I1" s="215"/>
+    </row>
+    <row r="2" spans="1:9" s="91" customFormat="1" ht="91">
+      <c r="A2" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="I1" s="213"/>
-    </row>
-    <row r="2" spans="1:9" s="91" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>416</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="C2" s="85" t="s">
         <v>417</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>418</v>
       </c>
       <c r="D2" s="87">
         <v>10</v>
       </c>
       <c r="E2" s="87"/>
       <c r="F2" s="88" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G2" s="88"/>
       <c r="H2" s="89">
         <v>5500</v>
       </c>
       <c r="I2" s="90" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="143">
+      <c r="A3" s="85" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="86" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
-        <v>416</v>
-      </c>
-      <c r="B3" s="86" t="s">
+      <c r="C3" s="85" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="D3" s="87" t="s">
         <v>422</v>
       </c>
-      <c r="D3" s="87" t="s">
-        <v>423</v>
-      </c>
       <c r="E3" s="87" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="92" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H3" s="93">
         <v>11990</v>
       </c>
       <c r="I3" s="94" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="26">
       <c r="A4" s="95" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D4" s="87">
         <v>90</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87"/>
       <c r="H4" s="96"/>
       <c r="I4" s="97" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="98" t="s">
         <v>18</v>
       </c>
@@ -6734,24 +6755,24 @@
         <v>225</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D5" s="100"/>
       <c r="E5" s="100" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G5" s="101"/>
       <c r="H5" s="102">
         <v>29</v>
       </c>
       <c r="I5" s="103" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="A6" s="104" t="s">
         <v>18</v>
       </c>
@@ -6765,14 +6786,14 @@
       <c r="E6" s="106"/>
       <c r="F6" s="107"/>
       <c r="G6" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H6" s="108"/>
       <c r="I6" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="104" t="s">
         <v>3</v>
       </c>
@@ -6784,25 +6805,25 @@
         <v>40</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H7" s="108"/>
       <c r="I7" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" customHeight="1">
       <c r="A8" s="104" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C8" s="104"/>
       <c r="D8" s="106">
@@ -6813,10 +6834,10 @@
       <c r="G8" s="107"/>
       <c r="H8" s="108"/>
       <c r="I8" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="98" t="s">
         <v>4</v>
       </c>
@@ -6824,24 +6845,24 @@
         <v>216</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D9" s="100"/>
       <c r="E9" s="100" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="102">
         <v>1080</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="104" t="s">
         <v>19</v>
       </c>
@@ -6853,49 +6874,49 @@
         <v>120</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F10" s="106"/>
       <c r="G10" s="110" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H10" s="108"/>
       <c r="I10" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="52">
       <c r="A11" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B11" s="99" t="s">
         <v>236</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D11" s="100"/>
       <c r="E11" s="100" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F11" s="100"/>
       <c r="G11" s="111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H11" s="112"/>
       <c r="I11" s="113" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="26">
       <c r="A12" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B12" s="99" t="s">
         <v>238</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D12" s="100">
         <v>160</v>
@@ -6907,22 +6928,22 @@
         <v>46</v>
       </c>
       <c r="I12" s="103" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="52">
       <c r="A13" s="98" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="99" t="s">
         <v>434</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="C13" s="98" t="s">
         <v>435</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>436</v>
       </c>
       <c r="D13" s="101"/>
       <c r="E13" s="100" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F13" s="100"/>
       <c r="G13" s="100"/>
@@ -6930,18 +6951,18 @@
         <v>15000</v>
       </c>
       <c r="I13" s="103" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="52">
       <c r="A14" s="95" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B14" s="86" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="95" t="s">
         <v>437</v>
-      </c>
-      <c r="C14" s="95" t="s">
-        <v>438</v>
       </c>
       <c r="D14" s="88">
         <v>170</v>
@@ -6949,37 +6970,37 @@
       <c r="E14" s="87"/>
       <c r="F14" s="87"/>
       <c r="G14" s="92" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H14" s="93">
         <v>14990</v>
       </c>
       <c r="I14" s="94" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="26">
       <c r="A15" s="98" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="C15" s="98" t="s">
         <v>439</v>
-      </c>
-      <c r="C15" s="98" t="s">
-        <v>440</v>
       </c>
       <c r="D15" s="100"/>
       <c r="E15" s="100" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F15" s="100"/>
       <c r="G15" s="100"/>
       <c r="H15" s="112"/>
       <c r="I15" s="113" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="65">
       <c r="A16" s="95" t="s">
         <v>5</v>
       </c>
@@ -6987,98 +7008,98 @@
         <v>53</v>
       </c>
       <c r="C16" s="95" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D16" s="87">
         <v>30</v>
       </c>
       <c r="E16" s="88"/>
       <c r="F16" s="88" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H16" s="96"/>
       <c r="I16" s="97" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="114" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C17" s="104"/>
       <c r="D17" s="106">
         <v>60</v>
       </c>
       <c r="E17" s="106" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H17" s="108"/>
       <c r="I17" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="114" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C18" s="104"/>
       <c r="D18" s="106">
         <v>70</v>
       </c>
       <c r="E18" s="106" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F18" s="106"/>
       <c r="G18" s="106"/>
       <c r="H18" s="108"/>
       <c r="I18" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="114" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B19" s="105" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C19" s="104"/>
       <c r="D19" s="106">
         <v>50</v>
       </c>
       <c r="E19" s="106" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F19" s="106"/>
       <c r="G19" s="110" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H19" s="108"/>
       <c r="I19" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="120" customFormat="1">
       <c r="A20" s="115" t="s">
+        <v>444</v>
+      </c>
+      <c r="B20" s="116" t="s">
         <v>445</v>
-      </c>
-      <c r="B20" s="116" t="s">
-        <v>446</v>
       </c>
       <c r="C20" s="115"/>
       <c r="D20" s="117"/>
@@ -7087,12 +7108,12 @@
       <c r="G20" s="117"/>
       <c r="H20" s="118"/>
       <c r="I20" s="119" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="26">
       <c r="A21" s="104" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B21" s="105" t="s">
         <v>17</v>
@@ -7102,37 +7123,37 @@
         <v>200</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F21" s="106"/>
       <c r="G21" s="106"/>
       <c r="H21" s="108"/>
       <c r="I21" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="98" t="s">
+        <v>447</v>
+      </c>
+      <c r="B22" s="99" t="s">
         <v>448</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="C22" s="98" t="s">
         <v>449</v>
-      </c>
-      <c r="C22" s="98" t="s">
-        <v>450</v>
       </c>
       <c r="D22" s="100"/>
       <c r="E22" s="100" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F22" s="100"/>
       <c r="G22" s="100"/>
       <c r="H22" s="112"/>
       <c r="I22" s="113" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="115" t="s">
         <v>20</v>
       </c>
@@ -7140,7 +7161,7 @@
         <v>196</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D23" s="117"/>
       <c r="E23" s="117"/>
@@ -7151,18 +7172,18 @@
         <v>308.45</v>
       </c>
       <c r="I23" s="119" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="115" t="s">
+        <v>451</v>
+      </c>
+      <c r="B24" s="116" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="C24" s="115" t="s">
         <v>453</v>
-      </c>
-      <c r="C24" s="115" t="s">
-        <v>454</v>
       </c>
       <c r="D24" s="117"/>
       <c r="E24" s="117"/>
@@ -7170,12 +7191,12 @@
       <c r="G24" s="117"/>
       <c r="H24" s="118"/>
       <c r="I24" s="119" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="26">
       <c r="A25" s="104" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B25" s="105" t="s">
         <v>1</v>
@@ -7187,14 +7208,14 @@
       <c r="E25" s="107"/>
       <c r="F25" s="107"/>
       <c r="G25" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H25" s="108"/>
       <c r="I25" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="104" t="s">
         <v>119</v>
       </c>
@@ -7206,18 +7227,18 @@
         <v>150</v>
       </c>
       <c r="E26" s="106" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F26" s="106"/>
       <c r="G26" s="106"/>
       <c r="H26" s="108"/>
       <c r="I26" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="104" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B27" s="105" t="s">
         <v>21</v>
@@ -7227,24 +7248,24 @@
         <v>180</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F27" s="107"/>
       <c r="G27" s="107"/>
       <c r="H27" s="108"/>
       <c r="I27" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="115" t="s">
+        <v>455</v>
+      </c>
+      <c r="B28" s="121" t="s">
         <v>456</v>
       </c>
-      <c r="B28" s="121" t="s">
+      <c r="C28" s="115" t="s">
         <v>457</v>
-      </c>
-      <c r="C28" s="115" t="s">
-        <v>458</v>
       </c>
       <c r="D28" s="117"/>
       <c r="E28" s="117"/>
@@ -7253,15 +7274,15 @@
       <c r="H28" s="118"/>
       <c r="I28" s="119"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="115" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B29" s="121" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C29" s="115" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="117"/>
@@ -7270,7 +7291,7 @@
       <c r="H29" s="118"/>
       <c r="I29" s="119"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="115" t="s">
         <v>22</v>
       </c>
@@ -7278,7 +7299,7 @@
         <v>245</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D30" s="117"/>
       <c r="E30" s="117"/>
@@ -7288,10 +7309,10 @@
         <v>3000</v>
       </c>
       <c r="I30" s="119" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="95" t="s">
         <v>22</v>
       </c>
@@ -7299,7 +7320,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="95" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D31" s="87">
         <v>100</v>
@@ -7309,10 +7330,10 @@
       <c r="G31" s="88"/>
       <c r="H31" s="96"/>
       <c r="I31" s="97" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="95" t="s">
         <v>22</v>
       </c>
@@ -7320,7 +7341,7 @@
         <v>48</v>
       </c>
       <c r="C32" s="95" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D32" s="87">
         <v>110</v>
@@ -7330,18 +7351,18 @@
       <c r="G32" s="88"/>
       <c r="H32" s="96"/>
       <c r="I32" s="97" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="115" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="121" t="s">
         <v>462</v>
       </c>
-      <c r="B33" s="121" t="s">
+      <c r="C33" s="122" t="s">
         <v>463</v>
-      </c>
-      <c r="C33" s="122" t="s">
-        <v>464</v>
       </c>
       <c r="D33" s="117"/>
       <c r="E33" s="117"/>
@@ -7350,15 +7371,15 @@
       <c r="H33" s="118"/>
       <c r="I33" s="119"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="115" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" s="121" t="s">
         <v>465</v>
       </c>
-      <c r="B34" s="121" t="s">
+      <c r="C34" s="115" t="s">
         <v>466</v>
-      </c>
-      <c r="C34" s="115" t="s">
-        <v>467</v>
       </c>
       <c r="D34" s="117"/>
       <c r="E34" s="117"/>
@@ -7367,7 +7388,7 @@
       <c r="H34" s="118"/>
       <c r="I34" s="119"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="115" t="s">
         <v>23</v>
       </c>
@@ -7375,7 +7396,7 @@
         <v>354</v>
       </c>
       <c r="C35" s="122" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D35" s="117"/>
       <c r="E35" s="117"/>
@@ -7384,12 +7405,12 @@
       <c r="H35" s="118"/>
       <c r="I35" s="119"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="104" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C36" s="104"/>
       <c r="D36" s="106">
@@ -7402,18 +7423,18 @@
         <v>30000</v>
       </c>
       <c r="I36" s="124" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="115" t="s">
+        <v>469</v>
+      </c>
+      <c r="B37" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="B37" s="121" t="s">
+      <c r="C37" s="115" t="s">
         <v>471</v>
-      </c>
-      <c r="C37" s="115" t="s">
-        <v>472</v>
       </c>
       <c r="D37" s="117"/>
       <c r="E37" s="117"/>
@@ -7421,18 +7442,18 @@
       <c r="G37" s="117"/>
       <c r="H37" s="118"/>
       <c r="I37" s="119" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="115" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="125" t="s">
+        <v>472</v>
+      </c>
+      <c r="C38" s="115" t="s">
         <v>473</v>
-      </c>
-      <c r="C38" s="115" t="s">
-        <v>474</v>
       </c>
       <c r="D38" s="117"/>
       <c r="E38" s="117"/>
@@ -7443,24 +7464,24 @@
         <v>1860</v>
       </c>
       <c r="I38" s="119" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="104" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="105" t="s">
+        <v>474</v>
+      </c>
+      <c r="C39" s="104" t="s">
         <v>475</v>
-      </c>
-      <c r="C39" s="104" t="s">
-        <v>476</v>
       </c>
       <c r="D39" s="106">
         <v>220</v>
       </c>
       <c r="E39" s="106" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F39" s="106"/>
       <c r="G39" s="106"/>
@@ -7468,18 +7489,18 @@
         <v>9900</v>
       </c>
       <c r="I39" s="124" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="126" t="s">
+        <v>476</v>
+      </c>
+      <c r="B40" s="127" t="s">
         <v>477</v>
       </c>
-      <c r="B40" s="127" t="s">
+      <c r="C40" s="126" t="s">
         <v>478</v>
-      </c>
-      <c r="C40" s="126" t="s">
-        <v>479</v>
       </c>
       <c r="D40" s="117"/>
       <c r="E40" s="128"/>
@@ -7489,37 +7510,37 @@
         <v>10</v>
       </c>
       <c r="I40" s="130" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="104" t="s">
+        <v>479</v>
+      </c>
+      <c r="B41" s="131" t="s">
         <v>480</v>
-      </c>
-      <c r="B41" s="131" t="s">
-        <v>481</v>
       </c>
       <c r="C41" s="104"/>
       <c r="D41" s="107"/>
       <c r="E41" s="106" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F41" s="106"/>
       <c r="G41" s="106"/>
       <c r="H41" s="108"/>
       <c r="I41" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="104" t="s">
+        <v>481</v>
+      </c>
+      <c r="B42" s="105" t="s">
         <v>482</v>
       </c>
-      <c r="B42" s="105" t="s">
+      <c r="C42" s="104" t="s">
         <v>483</v>
-      </c>
-      <c r="C42" s="104" t="s">
-        <v>484</v>
       </c>
       <c r="D42" s="107">
         <v>210</v>
@@ -7529,10 +7550,10 @@
       <c r="G42" s="107"/>
       <c r="H42" s="108"/>
       <c r="I42" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="132" t="s">
         <v>120</v>
       </c>
@@ -7547,12 +7568,12 @@
       <c r="H43" s="135"/>
       <c r="I43" s="136"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="132" t="s">
+        <v>484</v>
+      </c>
+      <c r="B44" s="133" t="s">
         <v>485</v>
-      </c>
-      <c r="B44" s="133" t="s">
-        <v>486</v>
       </c>
       <c r="C44" s="132"/>
       <c r="D44" s="134"/>
@@ -7562,12 +7583,12 @@
       <c r="H44" s="135"/>
       <c r="I44" s="136"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="132" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B45" s="137" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C45" s="132"/>
       <c r="D45" s="134"/>
@@ -7577,7 +7598,7 @@
       <c r="H45" s="135"/>
       <c r="I45" s="136"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="104" t="s">
         <v>20</v>
       </c>
@@ -7591,16 +7612,16 @@
       <c r="E46" s="107"/>
       <c r="F46" s="107"/>
       <c r="G46" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H46" s="123">
         <v>50</v>
       </c>
       <c r="I46" s="124" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="104" t="s">
         <v>25</v>
       </c>
@@ -7614,79 +7635,79 @@
       <c r="E47" s="107"/>
       <c r="F47" s="107"/>
       <c r="G47" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H47" s="108"/>
       <c r="I47" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="26">
       <c r="A48" s="104" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="105" t="s">
+        <v>487</v>
+      </c>
+      <c r="C48" s="104" t="s">
         <v>488</v>
-      </c>
-      <c r="C48" s="104" t="s">
-        <v>489</v>
       </c>
       <c r="D48" s="107"/>
       <c r="E48" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F48" s="107"/>
       <c r="G48" s="107"/>
       <c r="H48" s="108"/>
       <c r="I48" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="95" t="s">
+        <v>489</v>
+      </c>
+      <c r="B49" s="138" t="s">
         <v>490</v>
       </c>
-      <c r="B49" s="138" t="s">
+      <c r="C49" s="95" t="s">
         <v>491</v>
-      </c>
-      <c r="C49" s="95" t="s">
-        <v>492</v>
       </c>
       <c r="D49" s="88"/>
       <c r="E49" s="88" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F49" s="88"/>
       <c r="G49" s="88"/>
       <c r="H49" s="96"/>
       <c r="I49" s="97" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="104" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B50" s="105" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D50" s="107"/>
       <c r="E50" s="107"/>
       <c r="F50" s="107"/>
       <c r="G50" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H50" s="108"/>
       <c r="I50" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="26">
       <c r="A51" s="104" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B51" s="105" t="s">
         <v>7</v>
@@ -7696,16 +7717,16 @@
       <c r="E51" s="107"/>
       <c r="F51" s="107"/>
       <c r="G51" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H51" s="108"/>
       <c r="I51" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="104" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B52" s="105" t="s">
         <v>8</v>
@@ -7715,42 +7736,42 @@
       <c r="E52" s="107"/>
       <c r="F52" s="107"/>
       <c r="G52" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H52" s="108"/>
       <c r="I52" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="104" t="s">
+        <v>496</v>
+      </c>
+      <c r="B53" s="105" t="s">
         <v>497</v>
       </c>
-      <c r="B53" s="105" t="s">
+      <c r="C53" s="104" t="s">
         <v>498</v>
-      </c>
-      <c r="C53" s="104" t="s">
-        <v>499</v>
       </c>
       <c r="D53" s="107"/>
       <c r="E53" s="107"/>
       <c r="F53" s="107"/>
       <c r="G53" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H53" s="139">
         <v>500</v>
       </c>
       <c r="I53" s="140" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="132" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B54" s="133" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C54" s="132"/>
       <c r="D54" s="134"/>
@@ -7760,7 +7781,7 @@
       <c r="H54" s="135"/>
       <c r="I54" s="136"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="104" t="s">
         <v>26</v>
       </c>
@@ -7772,35 +7793,35 @@
       <c r="E55" s="107"/>
       <c r="F55" s="107"/>
       <c r="G55" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H55" s="108"/>
       <c r="I55" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="104" t="s">
+        <v>500</v>
+      </c>
+      <c r="B56" s="105" t="s">
         <v>501</v>
-      </c>
-      <c r="B56" s="105" t="s">
-        <v>502</v>
       </c>
       <c r="C56" s="104"/>
       <c r="D56" s="107"/>
       <c r="E56" s="107"/>
       <c r="F56" s="107"/>
       <c r="G56" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H56" s="108"/>
       <c r="I56" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="104" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B57" s="105" t="s">
         <v>11</v>
@@ -7810,22 +7831,22 @@
       <c r="E57" s="107"/>
       <c r="F57" s="107"/>
       <c r="G57" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H57" s="108"/>
       <c r="I57" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="122" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="141" t="s">
+        <v>503</v>
+      </c>
+      <c r="C58" s="122" t="s">
         <v>504</v>
-      </c>
-      <c r="C58" s="122" t="s">
-        <v>505</v>
       </c>
       <c r="D58" s="142"/>
       <c r="E58" s="142"/>
@@ -7835,10 +7856,10 @@
         <v>60</v>
       </c>
       <c r="I58" s="144" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="104" t="s">
         <v>27</v>
       </c>
@@ -7846,20 +7867,20 @@
         <v>31</v>
       </c>
       <c r="C59" s="104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D59" s="107"/>
       <c r="E59" s="107"/>
       <c r="F59" s="107"/>
       <c r="G59" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H59" s="108"/>
       <c r="I59" s="145" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="104" t="s">
         <v>28</v>
       </c>
@@ -7871,59 +7892,59 @@
       <c r="E60" s="107"/>
       <c r="F60" s="107"/>
       <c r="G60" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H60" s="108"/>
       <c r="I60" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B61" s="105" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="104" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D61" s="107"/>
       <c r="E61" s="107"/>
       <c r="F61" s="107"/>
       <c r="G61" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H61" s="108"/>
       <c r="I61" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B62" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="104" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D62" s="107"/>
       <c r="E62" s="107"/>
       <c r="F62" s="107"/>
       <c r="G62" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H62" s="108"/>
       <c r="I62" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="132"/>
       <c r="B63" s="133" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C63" s="132"/>
       <c r="D63" s="134"/>
@@ -7933,28 +7954,28 @@
       <c r="H63" s="135"/>
       <c r="I63" s="136"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="104" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="105" t="s">
+        <v>509</v>
+      </c>
+      <c r="C64" s="104" t="s">
         <v>510</v>
-      </c>
-      <c r="C64" s="104" t="s">
-        <v>511</v>
       </c>
       <c r="D64" s="107"/>
       <c r="E64" s="107"/>
       <c r="F64" s="107"/>
       <c r="G64" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H64" s="108"/>
       <c r="I64" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="104" t="s">
         <v>30</v>
       </c>
@@ -7966,17 +7987,17 @@
       <c r="E65" s="107"/>
       <c r="F65" s="107"/>
       <c r="G65" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H65" s="108"/>
       <c r="I65" s="109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="132"/>
       <c r="B66" s="133" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C66" s="132"/>
       <c r="D66" s="134"/>
@@ -7986,7 +8007,7 @@
       <c r="H66" s="135"/>
       <c r="I66" s="136"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="132"/>
       <c r="B67" s="133" t="s">
         <v>15</v>
@@ -7999,10 +8020,10 @@
       <c r="H67" s="135"/>
       <c r="I67" s="136"/>
     </row>
-    <row r="68" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="14" thickBot="1">
       <c r="A68" s="146"/>
       <c r="B68" s="147" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C68" s="146"/>
       <c r="D68" s="148"/>
@@ -8070,7 +8091,7 @@
     <hyperlink ref="B59" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;LLevel 1 – Confidential</oddFooter>
   </headerFooter>
@@ -8084,14 +8105,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="178" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
@@ -8104,154 +8125,154 @@
     <col min="10" max="10" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="154" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="154" customFormat="1">
       <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="154" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="155" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="156" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" s="153" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="155" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1" s="156" t="s">
+      <c r="F1" s="153" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" s="153" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" s="153" t="s">
+        <v>412</v>
+      </c>
+      <c r="I1" s="157" t="s">
+        <v>414</v>
+      </c>
+      <c r="J1" s="154" t="s">
         <v>515</v>
       </c>
-      <c r="E1" s="153" t="s">
-        <v>410</v>
-      </c>
-      <c r="F1" s="153" t="s">
-        <v>411</v>
-      </c>
-      <c r="G1" s="153" t="s">
-        <v>412</v>
-      </c>
-      <c r="H1" s="153" t="s">
-        <v>413</v>
-      </c>
-      <c r="I1" s="157" t="s">
-        <v>415</v>
-      </c>
-      <c r="J1" s="154" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="165" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="165" customFormat="1" ht="26">
       <c r="A2" s="158" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="159" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="160" t="s">
         <v>517</v>
-      </c>
-      <c r="C2" s="160" t="s">
-        <v>518</v>
       </c>
       <c r="D2" s="161">
         <v>100</v>
       </c>
       <c r="E2" s="158" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F2" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G2" s="158"/>
       <c r="H2" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I2" s="163">
         <v>5497.5</v>
       </c>
       <c r="J2" s="164"/>
     </row>
-    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="26">
       <c r="A3" s="158"/>
       <c r="B3" s="159" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" s="160" t="s">
         <v>520</v>
-      </c>
-      <c r="C3" s="160" t="s">
-        <v>521</v>
       </c>
       <c r="D3" s="161">
         <v>100</v>
       </c>
       <c r="E3" s="158" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F3" s="158" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G3" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H3" s="158"/>
       <c r="I3" s="166"/>
       <c r="J3" s="164" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="162" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="162" t="s">
-        <v>524</v>
       </c>
       <c r="B4" s="159" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="167" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D4" s="168">
         <v>300</v>
       </c>
       <c r="E4" s="162"/>
       <c r="F4" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G4" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H4" s="158"/>
       <c r="I4" s="169">
         <v>0</v>
       </c>
       <c r="J4" s="170" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="162" t="s">
         <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="162" t="s">
-        <v>527</v>
       </c>
       <c r="B5" s="159" t="s">
         <v>225</v>
       </c>
       <c r="C5" s="167" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D5" s="168">
         <v>500</v>
       </c>
       <c r="E5" s="162"/>
       <c r="F5" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G5" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H5" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I5" s="169">
         <f>29*30</f>
         <v>870</v>
       </c>
       <c r="J5" s="170" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="172" customFormat="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="172" customFormat="1">
       <c r="A6" s="171" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B6" s="172" t="s">
         <v>49</v>
@@ -8265,7 +8286,7 @@
       <c r="I6" s="176"/>
       <c r="J6" s="177"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="178" t="s">
         <v>3</v>
       </c>
@@ -8273,180 +8294,180 @@
         <v>50</v>
       </c>
       <c r="C7" s="179" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D7" s="180">
         <v>600</v>
       </c>
       <c r="F7" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G7" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H7" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I7" s="181">
         <v>0</v>
       </c>
       <c r="J7" s="182" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="178" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D8" s="180">
         <v>800</v>
       </c>
       <c r="F8" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G8" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H8" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I8" s="181">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="38.25" customHeight="1">
       <c r="A9" s="178" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D9" s="180">
         <v>1100</v>
       </c>
       <c r="F9" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G9" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H9" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I9" s="181">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="178" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C10" s="179" t="s">
         <v>534</v>
-      </c>
-      <c r="C10" s="179" t="s">
-        <v>535</v>
       </c>
       <c r="D10" s="180">
         <v>1200</v>
       </c>
       <c r="E10" s="178" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F10" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G10" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H10" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I10" s="181">
         <v>1690</v>
       </c>
       <c r="J10" s="182" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="26">
+      <c r="A11" s="178" t="s">
         <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="178" t="s">
-        <v>538</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="179" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D11" s="180">
         <v>1300</v>
       </c>
       <c r="F11" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G11" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H11" s="158"/>
       <c r="I11" s="181">
         <v>0</v>
       </c>
       <c r="J11" s="182" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="26">
+      <c r="A12" s="178" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="178" t="s">
-        <v>541</v>
       </c>
       <c r="B12" t="s">
         <v>236</v>
       </c>
       <c r="C12" s="179" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D12" s="180">
         <v>1400</v>
       </c>
       <c r="E12" s="178" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F12" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G12" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H12" s="158"/>
       <c r="I12" s="181">
         <v>0</v>
       </c>
       <c r="J12" s="183" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="52">
+      <c r="A13" s="162" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="162" t="s">
+      <c r="B13" s="159" t="s">
         <v>545</v>
       </c>
-      <c r="B13" s="159" t="s">
+      <c r="C13" s="167" t="s">
         <v>546</v>
-      </c>
-      <c r="C13" s="167" t="s">
-        <v>547</v>
       </c>
       <c r="D13" s="168">
         <v>1600</v>
       </c>
       <c r="E13" s="162" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F13" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G13" s="162"/>
       <c r="H13" s="162"/>
@@ -8454,26 +8475,26 @@
         <v>15000</v>
       </c>
       <c r="J13" s="170" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="162"/>
       <c r="B14" s="159" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C14" s="167" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D14" s="168">
         <v>1700</v>
       </c>
       <c r="E14" s="162" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F14" s="162"/>
       <c r="G14" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H14" s="158"/>
       <c r="I14" s="169">
@@ -8481,13 +8502,13 @@
       </c>
       <c r="J14" s="159"/>
     </row>
-    <row r="15" spans="1:10" s="172" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="172" customFormat="1">
       <c r="A15" s="171"/>
       <c r="B15" s="172" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C15" s="173" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D15" s="174"/>
       <c r="E15" s="171"/>
@@ -8496,37 +8517,37 @@
       <c r="H15" s="175"/>
       <c r="I15" s="176"/>
     </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="26">
       <c r="A16" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C16" s="179" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D16" s="180">
         <v>1900</v>
       </c>
       <c r="E16" s="178" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F16" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G16" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H16" s="158"/>
       <c r="I16" s="181">
         <v>0</v>
       </c>
       <c r="J16" s="182" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="178" t="s">
         <v>5</v>
       </c>
@@ -8534,190 +8555,190 @@
         <v>53</v>
       </c>
       <c r="C17" s="179" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D17" s="180">
         <v>2300</v>
       </c>
       <c r="E17" s="178" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F17" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H17" s="178" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I17" s="181">
         <v>0</v>
       </c>
       <c r="J17" s="182" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="178" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C18" s="179" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D18" s="180">
         <v>2500</v>
       </c>
       <c r="F18" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G18" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H18" s="162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I18" s="181">
         <v>0</v>
       </c>
       <c r="J18" s="182" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C19" s="179" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D19" s="180">
         <v>2600</v>
       </c>
       <c r="F19" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G19" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H19" s="158"/>
       <c r="I19" s="181">
         <v>0</v>
       </c>
       <c r="J19" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C20" s="179" t="s">
         <v>561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>444</v>
-      </c>
-      <c r="C20" s="179" t="s">
-        <v>562</v>
       </c>
       <c r="D20" s="180">
         <v>2700</v>
       </c>
       <c r="F20" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G20" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H20" s="158"/>
       <c r="I20" s="181">
         <v>0</v>
       </c>
       <c r="J20" s="182" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C21" s="179" t="s">
         <v>563</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>446</v>
-      </c>
-      <c r="C21" s="179" t="s">
-        <v>564</v>
       </c>
       <c r="D21" s="180">
         <v>2800</v>
       </c>
       <c r="F21" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I21" s="181">
         <v>0</v>
       </c>
       <c r="J21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="C22" s="179" t="s">
         <v>566</v>
-      </c>
-      <c r="C22" s="179" t="s">
-        <v>567</v>
       </c>
       <c r="D22" s="180">
         <v>2900</v>
       </c>
       <c r="F22" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G22" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H22" s="158"/>
       <c r="I22" s="181">
         <v>0</v>
       </c>
       <c r="J22" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" s="179" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>449</v>
-      </c>
-      <c r="C23" s="179" t="s">
-        <v>569</v>
       </c>
       <c r="D23" s="180">
         <v>3000</v>
       </c>
       <c r="F23" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G23" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H23" s="158"/>
       <c r="I23" s="181">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="B24" t="s">
         <v>196</v>
       </c>
       <c r="C24" s="179" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D24" s="180">
         <v>3100</v>
       </c>
       <c r="F24" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G24" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H24" s="158"/>
       <c r="I24" s="181">
@@ -8725,107 +8746,107 @@
         <v>308.45</v>
       </c>
       <c r="J24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C25" s="179" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>453</v>
-      </c>
-      <c r="C25" s="179" t="s">
-        <v>573</v>
       </c>
       <c r="D25" s="180">
         <v>3200</v>
       </c>
       <c r="F25" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I25" s="181">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="179" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D26" s="180">
         <v>3300</v>
       </c>
       <c r="F26" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I26" s="181">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="179" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D27" s="180">
         <v>3400</v>
       </c>
       <c r="F27" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G27" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H27" s="158"/>
       <c r="I27" s="181">
         <v>0</v>
       </c>
       <c r="J27" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="C28" s="179" t="s">
         <v>579</v>
-      </c>
-      <c r="C28" s="179" t="s">
-        <v>580</v>
       </c>
       <c r="D28" s="180">
         <v>3500</v>
       </c>
       <c r="F28" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G28" s="178" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I28" s="181">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="184"/>
       <c r="B29" s="185" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C29" s="186"/>
       <c r="D29" s="187">
         <v>3600</v>
       </c>
       <c r="E29" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F29" s="184"/>
       <c r="G29" s="184"/>
@@ -8833,17 +8854,17 @@
       <c r="I29" s="188"/>
       <c r="J29" s="185"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="184"/>
       <c r="B30" s="185" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C30" s="186"/>
       <c r="D30" s="187">
         <v>3700</v>
       </c>
       <c r="E30" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F30" s="184"/>
       <c r="G30" s="184"/>
@@ -8851,37 +8872,37 @@
       <c r="I30" s="188"/>
       <c r="J30" s="185"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="B31" t="s">
         <v>245</v>
       </c>
       <c r="C31" s="179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D31" s="180">
         <v>3800</v>
       </c>
       <c r="F31" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I31" s="181">
         <v>3000</v>
       </c>
       <c r="J31" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="184"/>
       <c r="B32" s="185" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C32" s="186"/>
       <c r="D32" s="187">
         <v>3900</v>
       </c>
       <c r="E32" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F32" s="184"/>
       <c r="G32" s="184"/>
@@ -8889,17 +8910,17 @@
       <c r="I32" s="188"/>
       <c r="J32" s="185"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="184"/>
       <c r="B33" s="185" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C33" s="186"/>
       <c r="D33" s="187">
         <v>4000</v>
       </c>
       <c r="E33" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F33" s="184"/>
       <c r="G33" s="184"/>
@@ -8907,7 +8928,7 @@
       <c r="I33" s="188"/>
       <c r="J33" s="185"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="184"/>
       <c r="B34" s="185" t="s">
         <v>354</v>
@@ -8917,7 +8938,7 @@
         <v>4100</v>
       </c>
       <c r="E34" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F34" s="184"/>
       <c r="G34" s="184"/>
@@ -8925,37 +8946,37 @@
       <c r="I34" s="188"/>
       <c r="J34" s="185"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="B35" t="s">
+        <v>584</v>
+      </c>
+      <c r="C35" s="179" t="s">
         <v>585</v>
-      </c>
-      <c r="C35" s="179" t="s">
-        <v>586</v>
       </c>
       <c r="D35" s="180">
         <v>4200</v>
       </c>
       <c r="F35" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I35" s="181">
         <v>30000</v>
       </c>
       <c r="J35" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C36" s="186"/>
       <c r="D36" s="187">
         <v>4300</v>
       </c>
       <c r="E36" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F36" s="184"/>
       <c r="G36" s="184"/>
@@ -8963,21 +8984,21 @@
       <c r="I36" s="188"/>
       <c r="J36" s="185"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="B37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C37" s="179" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D37" s="180">
         <v>4400</v>
       </c>
       <c r="F37" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G37" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H37" s="158"/>
       <c r="I37" s="181">
@@ -8985,119 +9006,119 @@
         <v>1860</v>
       </c>
       <c r="J37" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="B38" t="s">
         <v>187</v>
       </c>
       <c r="C38" s="179" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D38" s="180">
         <v>4500</v>
       </c>
       <c r="F38" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G38" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H38" s="158"/>
       <c r="I38" s="181">
         <v>7000</v>
       </c>
       <c r="J38" s="182" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="B39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D39" s="180">
         <v>4600</v>
       </c>
       <c r="F39" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I39" s="181">
         <v>0</v>
       </c>
       <c r="J39" s="182" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="189"/>
       <c r="B40" s="190" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C40" s="191"/>
       <c r="D40" s="192"/>
       <c r="E40" s="189"/>
       <c r="F40" s="189"/>
       <c r="G40" s="158" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H40" s="158"/>
       <c r="I40" s="193"/>
       <c r="J40" s="190"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="B41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F41" s="178" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="B42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="B43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>487</v>
-      </c>
       <c r="J44" s="182" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="B45" t="s">
         <v>192</v>
       </c>
       <c r="J45" s="182" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="J46" s="182" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="49" spans="1:9">
+      <c r="B49" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="195" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="195" customFormat="1">
       <c r="A51" s="194"/>
       <c r="B51" s="195" t="s">
         <v>9</v>
@@ -9110,99 +9131,99 @@
       <c r="H51" s="194"/>
       <c r="I51" s="198"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" customFormat="1">
+      <c r="B65" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="65" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" customFormat="1">
       <c r="B66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" customFormat="1">
       <c r="B68" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" customFormat="1">
       <c r="B69" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" customFormat="1">
       <c r="B70" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" customFormat="1">
       <c r="B71" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -9225,7 +9246,7 @@
     <hyperlink ref="J44" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;LLevel 1 – Confidential</oddFooter>
   </headerFooter>
@@ -9239,14 +9260,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
@@ -9257,45 +9278,45 @@
     <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="154" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="155" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="156" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" s="153" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="155" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1" s="156" t="s">
+      <c r="F1" s="157" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="154" t="s">
         <v>515</v>
       </c>
-      <c r="E1" s="153" t="s">
-        <v>410</v>
-      </c>
-      <c r="F1" s="157" t="s">
-        <v>415</v>
-      </c>
-      <c r="G1" s="154" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="199"/>
       <c r="B2" s="190" t="s">
         <v>188</v>
       </c>
       <c r="C2" s="200" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D2" s="201"/>
       <c r="E2" s="199"/>
       <c r="F2" s="202"/>
       <c r="G2" s="165" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="189" t="s">
         <v>35</v>
       </c>
@@ -9303,28 +9324,28 @@
         <v>188</v>
       </c>
       <c r="C3" s="191" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D3" s="192">
         <v>100</v>
       </c>
       <c r="E3" s="189" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F3" s="203">
         <v>5497.5</v>
       </c>
       <c r="G3" s="190"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="178" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="179" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D4" s="180">
         <v>200</v>
@@ -9334,38 +9355,38 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="39">
       <c r="A5" s="189" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B5" s="190" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D5" s="192">
         <v>300</v>
       </c>
       <c r="E5" s="189" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F5" s="193">
         <v>0</v>
       </c>
       <c r="G5" s="204" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="178" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C6" s="179">
         <v>3</v>
@@ -9378,34 +9399,34 @@
         <v>0</v>
       </c>
       <c r="G6" s="182" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="189" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B7" s="190" t="s">
         <v>225</v>
       </c>
       <c r="C7" s="191" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D7" s="192">
         <v>500</v>
       </c>
       <c r="E7" s="189" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F7" s="193">
         <f>29*30</f>
         <v>870</v>
       </c>
       <c r="G7" s="204" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="178" t="s">
         <v>3</v>
       </c>
@@ -9413,7 +9434,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="179" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D8" s="180">
         <v>600</v>
@@ -9423,15 +9444,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="182" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="178" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C9" s="179"/>
       <c r="D9" s="180">
@@ -9443,12 +9464,12 @@
       </c>
       <c r="G9" s="182"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="178" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C10" s="179"/>
       <c r="D10" s="180">
@@ -9459,12 +9480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="178" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C11" s="179"/>
       <c r="D11" s="180">
@@ -9475,18 +9496,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="182" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="178" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C12" s="179" t="s">
         <v>612</v>
-      </c>
-      <c r="C12" s="179" t="s">
-        <v>613</v>
       </c>
       <c r="D12" s="180">
         <v>1000</v>
@@ -9496,15 +9517,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="182" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="178" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C13" s="179"/>
       <c r="D13" s="180">
@@ -9515,38 +9536,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="178" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C14" s="179" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D14" s="180">
         <v>1200</v>
       </c>
       <c r="E14" s="178" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F14" s="181">
         <v>1690</v>
       </c>
       <c r="G14" s="182" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="39">
+      <c r="A15" s="178" t="s">
         <v>537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="178" t="s">
-        <v>538</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="179" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D15" s="180">
         <v>1300</v>
@@ -9556,18 +9577,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="182" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="39">
+      <c r="A16" s="178" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="178" t="s">
-        <v>541</v>
       </c>
       <c r="B16" t="s">
         <v>236</v>
       </c>
       <c r="C16" s="179" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D16" s="180">
         <v>1400</v>
@@ -9577,15 +9598,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="182" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="26">
       <c r="A17" s="178" t="s">
+        <v>614</v>
+      </c>
+      <c r="B17" t="s">
         <v>615</v>
-      </c>
-      <c r="B17" t="s">
-        <v>616</v>
       </c>
       <c r="C17" s="179"/>
       <c r="D17" s="180">
@@ -9596,41 +9617,41 @@
         <v>0</v>
       </c>
       <c r="G17" s="182" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="65">
+      <c r="A18" s="189" t="s">
+        <v>544</v>
+      </c>
+      <c r="B18" s="190" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" s="191" t="s">
         <v>617</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="189" t="s">
-        <v>545</v>
-      </c>
-      <c r="B18" s="190" t="s">
-        <v>546</v>
-      </c>
-      <c r="C18" s="191" t="s">
-        <v>618</v>
       </c>
       <c r="D18" s="192">
         <v>1600</v>
       </c>
       <c r="E18" s="189" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F18" s="193">
         <v>15000</v>
       </c>
       <c r="G18" s="204" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C19" s="179" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D19" s="180">
         <v>1900</v>
@@ -9640,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="182" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="178"/>
       <c r="B20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C20" s="179"/>
       <c r="D20" s="180">
@@ -9657,10 +9678,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="178"/>
       <c r="B21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C21" s="179"/>
       <c r="D21" s="180">
@@ -9671,10 +9692,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="178"/>
       <c r="B22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C22" s="179"/>
       <c r="D22" s="180">
@@ -9685,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="178" t="s">
         <v>5</v>
       </c>
@@ -9693,7 +9714,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="179" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D23" s="180">
         <v>2300</v>
@@ -9703,13 +9724,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="182" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="178"/>
       <c r="B24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C24" s="179"/>
       <c r="D24" s="180">
@@ -9720,15 +9741,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="178" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C25" s="179" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D25" s="180">
         <v>2500</v>
@@ -9738,18 +9759,18 @@
         <v>0</v>
       </c>
       <c r="G25" s="182" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C26" s="179" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D26" s="180">
         <v>2600</v>
@@ -9759,16 +9780,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="178"/>
       <c r="B27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C27" s="179" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D27" s="180">
         <v>2700</v>
@@ -9778,16 +9799,16 @@
         <v>0</v>
       </c>
       <c r="G27" s="182" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="178"/>
       <c r="B28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C28" s="179" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D28" s="180">
         <v>2800</v>
@@ -9797,16 +9818,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="178"/>
       <c r="B29" t="s">
+        <v>565</v>
+      </c>
+      <c r="C29" s="179" t="s">
         <v>566</v>
-      </c>
-      <c r="C29" s="179" t="s">
-        <v>567</v>
       </c>
       <c r="D29" s="180">
         <v>2900</v>
@@ -9816,16 +9837,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="178"/>
       <c r="B30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C30" s="179" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D30" s="180">
         <v>3000</v>
@@ -9835,16 +9856,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="178"/>
       <c r="B31" t="s">
         <v>196</v>
       </c>
       <c r="C31" s="179" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D31" s="180">
         <v>3100</v>
@@ -9855,16 +9876,16 @@
         <v>308.45</v>
       </c>
       <c r="G31" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="178"/>
       <c r="B32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C32" s="179" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D32" s="180">
         <v>3200</v>
@@ -9874,16 +9895,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="178"/>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="179" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D33" s="180">
         <v>3300</v>
@@ -9893,16 +9914,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="178"/>
       <c r="B34" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="179" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D34" s="180">
         <v>3400</v>
@@ -9912,16 +9933,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="178"/>
       <c r="B35" t="s">
+        <v>578</v>
+      </c>
+      <c r="C35" s="179" t="s">
         <v>579</v>
-      </c>
-      <c r="C35" s="179" t="s">
-        <v>580</v>
       </c>
       <c r="D35" s="180">
         <v>3500</v>
@@ -9931,46 +9952,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C36" s="186"/>
       <c r="D36" s="187">
         <v>3600</v>
       </c>
       <c r="E36" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F36" s="188"/>
       <c r="G36" s="185"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="184"/>
       <c r="B37" s="185" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C37" s="186"/>
       <c r="D37" s="187">
         <v>3700</v>
       </c>
       <c r="E37" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F37" s="188"/>
       <c r="G37" s="185"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="178"/>
       <c r="B38" t="s">
         <v>245</v>
       </c>
       <c r="C38" s="179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D38" s="180">
         <v>3800</v>
@@ -9980,40 +10001,40 @@
         <v>3000</v>
       </c>
       <c r="G38" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="184"/>
       <c r="B39" s="185" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C39" s="186"/>
       <c r="D39" s="187">
         <v>3900</v>
       </c>
       <c r="E39" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F39" s="188"/>
       <c r="G39" s="185"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="184"/>
       <c r="B40" s="185" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C40" s="186"/>
       <c r="D40" s="187">
         <v>4000</v>
       </c>
       <c r="E40" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F40" s="188"/>
       <c r="G40" s="185"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="184"/>
       <c r="B41" s="185" t="s">
         <v>354</v>
@@ -10023,18 +10044,18 @@
         <v>4100</v>
       </c>
       <c r="E41" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F41" s="188"/>
       <c r="G41" s="185"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="178"/>
       <c r="B42" t="s">
+        <v>584</v>
+      </c>
+      <c r="C42" s="179" t="s">
         <v>585</v>
-      </c>
-      <c r="C42" s="179" t="s">
-        <v>586</v>
       </c>
       <c r="D42" s="180">
         <v>4200</v>
@@ -10044,31 +10065,31 @@
         <v>30000</v>
       </c>
       <c r="G42" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="184"/>
       <c r="B43" s="185" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C43" s="186"/>
       <c r="D43" s="187">
         <v>4300</v>
       </c>
       <c r="E43" s="184" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F43" s="188"/>
       <c r="G43" s="185"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="178"/>
       <c r="B44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C44" s="179" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D44" s="180">
         <v>4400</v>
@@ -10079,16 +10100,16 @@
         <v>1860</v>
       </c>
       <c r="G44" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="178"/>
       <c r="B45" t="s">
         <v>187</v>
       </c>
       <c r="C45" s="179" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D45" s="180">
         <v>4500</v>
@@ -10098,13 +10119,13 @@
         <v>7000</v>
       </c>
       <c r="G45" s="182" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="178"/>
       <c r="B46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C46" s="179"/>
       <c r="D46" s="180">
@@ -10115,13 +10136,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="182" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="189"/>
       <c r="B47" s="190" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C47" s="191"/>
       <c r="D47" s="192"/>
@@ -10150,7 +10171,7 @@
     <hyperlink ref="G46" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;LLevel 1 – Confidential</oddFooter>
   </headerFooter>

--- a/Task-n-Tool.xlsx
+++ b/Task-n-Tool.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="632">
   <si>
     <t>Задачи</t>
   </si>
@@ -1031,30 +1031,1034 @@
     <t>Камера</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>! Протестировать утилиты очистки мака, например CleanMyMac2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-! Протестировать разные менеджеры пакетов под Linux.</t>
-    </r>
-  </si>
-  <si>
     <t>! Найти утилиту для работы с архивами под iOS.
 ! Найти all in one решение для Mac OS X</t>
+  </si>
+  <si>
+    <t>! Посмотреть альтернативы, в том числе и для Mac OS X</t>
+  </si>
+  <si>
+    <t>! Найти для iPhone c калибровкой</t>
+  </si>
+  <si>
+    <t>! Перенести часть проектов в Google Disk и GitHub
+? Хранение в облаках небезопасно, т.к. третьи лица могут получить доступ к приватной информации. Кроме того на работе есть строгая тенденция по запрещению работы с публичными облачными сервисами. Создавать ли собственный облачный сервер с учетом того, что теряется geo redundancy</t>
+  </si>
+  <si>
+    <t>! Протестировать Open Office и др.
+! Найти редактор офисных файлов для iPad
+! Попробовать Office 365</t>
+  </si>
+  <si>
+    <t>! Протестировать Abbyy Finereader</t>
+  </si>
+  <si>
+    <t>! Чем читать pdf, doc, rtf, txt и прочее?</t>
+  </si>
+  <si>
+    <t>! Подобрать софт, Photoshop дорог</t>
+  </si>
+  <si>
+    <t>VLC</t>
+  </si>
+  <si>
+    <t>Media Player Classic + K-lite Codec Pac</t>
+  </si>
+  <si>
+    <t>Beamer</t>
+  </si>
+  <si>
+    <t>+ Мультиформатный транслятор видео на ATV</t>
+  </si>
+  <si>
+    <t>+ Отличный мультиформатный проигрыватель
++ Бесплатный</t>
+  </si>
+  <si>
+    <t>AVPlayerHD</t>
+  </si>
+  <si>
+    <t>+ Пожалуй лучший плеер для iPad</t>
+  </si>
+  <si>
+    <t>Mac Os X, iOS</t>
+  </si>
+  <si>
+    <t>+ Синхронизация через iCloud; пользуюсь редко</t>
+  </si>
+  <si>
+    <t>TODO Pro</t>
+  </si>
+  <si>
+    <t>+ Отличный список задач с синхронизацием между устройствами
+- Платный</t>
+  </si>
+  <si>
+    <t>! Протестировать умный будильник</t>
+  </si>
+  <si>
+    <t>! Найти замену Google reader или другой способ знакомиться с новостями</t>
+  </si>
+  <si>
+    <t>+отличный быстрый браузер с синхронизацией закладок и паролей между устройствами</t>
+  </si>
+  <si>
+    <t>Просмотр интернет страниц и синхронизация закладок</t>
+  </si>
+  <si>
+    <t>Яндекс.Почта</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>! Настроить правила в web клинете</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Настроен на Яндекс.Почту</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Одноклассники</t>
+  </si>
+  <si>
+    <t>Электронная почта</t>
+  </si>
+  <si>
+    <t>Социальные сети и блоги</t>
+  </si>
+  <si>
+    <t>Livejournal</t>
+  </si>
+  <si>
+    <t>! Придумать оптимальную по времени работу с соцсетями и блогами</t>
+  </si>
+  <si>
+    <t>Web, iOS</t>
+  </si>
+  <si>
+    <t>! Сравнить цену с Sip звонками</t>
+  </si>
+  <si>
+    <t>Видеозвонки и обмен сообщениями</t>
+  </si>
+  <si>
+    <t>+ Бесплатные видеозвонки
++ Недорогие международные звонки
+- Плохо передает офлайновые текстовые сообщения</t>
+  </si>
+  <si>
+    <t>Whatsup</t>
+  </si>
+  <si>
+    <t>iOS, мобильные платформы</t>
+  </si>
+  <si>
+    <t>+ Отличная замена смскам</t>
+  </si>
+  <si>
+    <t>Яндекс.Карты</t>
+  </si>
+  <si>
+    <t>iOS, Web</t>
+  </si>
+  <si>
+    <t>+ Лучшие онлайн карты по России
++ Прокладка маршрутов
++ Офлайн карты
+- Для прокладки маршрута нужен интернет</t>
+  </si>
+  <si>
+    <t>Яндекс.Навигатор</t>
+  </si>
+  <si>
+    <t>! Найти офлайн навигатор</t>
+  </si>
+  <si>
+    <t>Google Maps</t>
+  </si>
+  <si>
+    <t>+ Лучшие онлайн карты по Штатам и Европе
++ Прокладка маршрутов
++ Офлайн карты
+- Для прокладки маршрута нужен интернет</t>
+  </si>
+  <si>
+    <t>! Провести ревизию</t>
+  </si>
+  <si>
+    <t>! Найти офлайновый переводчик, протестировать Lingvo</t>
+  </si>
+  <si>
+    <t>Home Money</t>
+  </si>
+  <si>
+    <t>iBearMoney</t>
+  </si>
+  <si>
+    <t>MS Money</t>
+  </si>
+  <si>
+    <t>Моя первая домашняя бухгалтерия, синхронизировал с чем-то на Windows Mobile</t>
+  </si>
+  <si>
+    <t>Достаточно долго использовал на iPhone</t>
+  </si>
+  <si>
+    <t>+ Отличная онлайн домашняя бухгалтерия
++ Есть клиент для офлайнового ввода транзакций на мобильных устройствах
+- Онлайн, данные хранятся в облаке</t>
+  </si>
+  <si>
+    <t>! Найти офлайн домашнюю бухгалтерию с синхронизацией</t>
+  </si>
+  <si>
+    <t>Lingvalleo</t>
+  </si>
+  <si>
+    <t>Java JDK &amp; JRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Сравнение папок
++ Бесплатен
++ Подсветка синтаксиса
++ Работа с разными кодировками </t>
+  </si>
+  <si>
+    <t>Meld</t>
+  </si>
+  <si>
+    <t>+ Сравнение папок
++ Бесплатен
++ Подсветка синтаксиса
++ Работа с разными кодировками
+- Требуется установка XCode, XQuartz (X11), и менеджера пакетов, например, Homebrew</t>
+  </si>
+  <si>
+    <t>! Настроить связь с Git</t>
+  </si>
+  <si>
+    <t>Eclipse memory analizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">! </t>
+  </si>
+  <si>
+    <t>jmap</t>
+  </si>
+  <si>
+    <t>Часть JDK, снятие дампа памяти</t>
+  </si>
+  <si>
+    <t>jhat</t>
+  </si>
+  <si>
+    <t>Часть JDK, анализ дампа памяти</t>
+  </si>
+  <si>
+    <t>jvisualvm</t>
+  </si>
+  <si>
+    <t>Часть JDK, простенький профайлер</t>
+  </si>
+  <si>
+    <t>jProfiler</t>
+  </si>
+  <si>
+    <t>yourKitProfiler</t>
+  </si>
+  <si>
+    <t>! Найти и протестировать</t>
+  </si>
+  <si>
+    <t>! Протестировать gradlew</t>
+  </si>
+  <si>
+    <t>Team Viewer</t>
+  </si>
+  <si>
+    <t>Moba X Term</t>
+  </si>
+  <si>
+    <t>+ X11 сервер
++ Tabbed SSH client</t>
+  </si>
+  <si>
+    <t>CVS gui</t>
+  </si>
+  <si>
+    <t>!Протестировать на собственном сервере Confluence и д.р.</t>
+  </si>
+  <si>
+    <t>!Протестировать на собственном сервере Jira, Bugzilla и д.р.</t>
+  </si>
+  <si>
+    <t>Soap UI</t>
+  </si>
+  <si>
+    <t>seagull</t>
+  </si>
+  <si>
+    <t>sipp</t>
+  </si>
+  <si>
+    <t>Squirrel</t>
+  </si>
+  <si>
+    <t>tcpdump</t>
+  </si>
+  <si>
+    <t>Linux, Mac OS X</t>
+  </si>
+  <si>
+    <t>windump</t>
+  </si>
+  <si>
+    <t>MS Windows, Mac OS X</t>
+  </si>
+  <si>
+    <t>Нагрузочное тестирование SOAP, REST, HTTP</t>
+  </si>
+  <si>
+    <t>Нагрузочная эмуляция SIP траффика</t>
+  </si>
+  <si>
+    <t>Эмуляция траффика</t>
+  </si>
+  <si>
+    <t>Нагрузочная эмуляция diameter, tcap и пр. траффика</t>
+  </si>
+  <si>
+    <t>Linux, MS Windows</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Универсальный SQL клиент, написан на Java</t>
+  </si>
+  <si>
+    <t>Бесплатный Oracle клиент, написан на Java</t>
+  </si>
+  <si>
+    <t>POSIX поддержка и менеджер пакетов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Звуковой редактор и конвертация аудио форматов </t>
+  </si>
+  <si>
+    <t>! Поднять PLEX и протестировать с ATV</t>
+  </si>
+  <si>
+    <t>Видеоредактор и конвертирование видео</t>
+  </si>
+  <si>
+    <t>! Протестировать Java 8</t>
+  </si>
+  <si>
+    <t>! Найти аналоги для Mac OS X</t>
+  </si>
+  <si>
+    <t>!Протестировать на собственном сервере Subversion, CVS, Git</t>
+  </si>
+  <si>
+    <t>ПО</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
+  </si>
+  <si>
+    <t>Blast</t>
+  </si>
+  <si>
+    <t>Felinni</t>
+  </si>
+  <si>
+    <t>MICSERV</t>
+  </si>
+  <si>
+    <t>Melpom.</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Runtime поддержка</t>
+  </si>
+  <si>
+    <t>MS Windows XP Professional</t>
+  </si>
+  <si>
+    <t>Если есть образ - восстановить, иначе - активировать; установить mui; установить sp, драйвера; настроить сеть; установить updates; настроить окружение; обновить bios. Сделать образ при помощи Paragon drive backup 10.
+Рассмотреть возможность использование Home Edition (OEM лицензия)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>RUR</t>
+  </si>
+  <si>
+    <t>MS Windows 7 Ultimate</t>
+  </si>
+  <si>
+    <t>Если есть образ - восстановить, иначе - активировать; установить mui; установить sp, драйвера; настроить сеть; установить updates; настроить окружение; обновить bios. Сделать образ при помощи Paragon drive backup 10.
+Рассмотреть возможность использование Home Edition Extended Rus ().
+Образы доступны здесь: http://forum.ru-board.com/topic.cgi?forum=35&amp;topic=46670&amp;start=712&amp;limit=1&amp;m=1#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Эмуляция CD/DVD.
+Создание образов.</t>
+  </si>
+  <si>
+    <t>Создает только mds образы. Попробовать Pro на предмет создания iso образов. Рассмотреть альтернативы Alcohol и UltraISO</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>Отказаться в пользу 7zip</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Avast! Free</t>
+  </si>
+  <si>
+    <t>Отказаться в пользу Avast</t>
+  </si>
+  <si>
+    <t>Управление файлами.
+Текстовый редактор.</t>
+  </si>
+  <si>
+    <t>Плагины:
+Colorer (http://colorer.sourceforge.net/farplugin.html),
+WinSCP (http://winscp.net).
+Рассмотреть альтернативы с закладками</t>
+  </si>
+  <si>
+    <t>Рассмотреть бесплатные альтернативы</t>
+  </si>
+  <si>
+    <t>Работа с
+документами,
+таблицами,
+презентациями</t>
+  </si>
+  <si>
+    <t>MS Office 2007 Professional</t>
+  </si>
+  <si>
+    <t>Установить MUI и обновления.
+Перейти на Ofice 2010</t>
+  </si>
+  <si>
+    <t>MS Office 2010 Professional+</t>
+  </si>
+  <si>
+    <t>Установить обновления. Рассмотреть переход на версию для дома и учебы.</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Плагины Delicious, Download Statusbar, Minimize to Tray.
+Заменить на Google Chrome</t>
+  </si>
+  <si>
+    <t>Настроить синхронизацию.
+Используемые плагины:
+Delicious Bookmarks Extension (Beta).
+Рассмотреть переход с Delicious на Google Bookmarks</t>
+  </si>
+  <si>
+    <t>JRE</t>
+  </si>
+  <si>
+    <t>Silverlight</t>
+  </si>
+  <si>
+    <t>Adobe Flash Player</t>
+  </si>
+  <si>
+    <t>Синхронизация с PocketPC</t>
+  </si>
+  <si>
+    <t>MS Active Sync</t>
+  </si>
+  <si>
+    <t>Музыкальная библиотека,
+Синхронизация с iPhone</t>
+  </si>
+  <si>
+    <t>Синхронизация с Nokia</t>
+  </si>
+  <si>
+    <t>Nokia PC Suite</t>
+  </si>
+  <si>
+    <t>Купить Свете новый телефон и удалить</t>
+  </si>
+  <si>
+    <t>Перешел на 1Password</t>
+  </si>
+  <si>
+    <t>Обмен мгновенными сообщениями</t>
+  </si>
+  <si>
+    <t>ICQ</t>
+  </si>
+  <si>
+    <t>Перешел на Skype</t>
+  </si>
+  <si>
+    <t>Обмен мгновенными сообщениями,
+VoIP</t>
+  </si>
+  <si>
+    <t>Просмотр видеофайлов</t>
+  </si>
+  <si>
+    <t>CoreAVC</t>
+  </si>
+  <si>
+    <t>Хватает K-Lite</t>
+  </si>
+  <si>
+    <t>PowerDVD</t>
+  </si>
+  <si>
+    <t>Использую Astroburn</t>
+  </si>
+  <si>
+    <t>Проверить функционал</t>
+  </si>
+  <si>
+    <t>Перевод</t>
+  </si>
+  <si>
+    <t>Lingvo x3</t>
+  </si>
+  <si>
+    <t>Использую http://lingvo.yandex.ru</t>
+  </si>
+  <si>
+    <t>Обучение печати в слепую</t>
+  </si>
+  <si>
+    <t>Соло на клавиатуре</t>
+  </si>
+  <si>
+    <t>Так ни разу и не прошел до конца</t>
+  </si>
+  <si>
+    <t>Перешел на http://homemoney.ua/</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop CS2</t>
+  </si>
+  <si>
+    <t>Оплата в интернете</t>
+  </si>
+  <si>
+    <t>WebMoney Classic Keeper</t>
+  </si>
+  <si>
+    <t>Перестал использовать этот кошелек</t>
+  </si>
+  <si>
+    <t>ViceVersa Pro</t>
+  </si>
+  <si>
+    <t>Перешел на MS SyncToy</t>
+  </si>
+  <si>
+    <t>Paragon Drive Backup 10</t>
+  </si>
+  <si>
+    <t>Torrent - http://rutracker.org/forum/viewtopic.php?t=3161076</t>
+  </si>
+  <si>
+    <t>Игры</t>
+  </si>
+  <si>
+    <t>World of Warcraft</t>
+  </si>
+  <si>
+    <t>Пока не играю. Подписка ~ 400 руб в месяц.</t>
+  </si>
+  <si>
+    <t>Книжная библиотека</t>
+  </si>
+  <si>
+    <t>LibRusLib</t>
+  </si>
+  <si>
+    <t>iPhone - вебкамера</t>
+  </si>
+  <si>
+    <t>Mobiola WebCamera for iPhone</t>
+  </si>
+  <si>
+    <t>Версия для iPhone платная</t>
+  </si>
+  <si>
+    <t>Доступ к iPhone</t>
+  </si>
+  <si>
+    <t>iPhoneExplorer</t>
+  </si>
+  <si>
+    <t>iFunBox</t>
+  </si>
+  <si>
+    <t>MS SyncToy</t>
+  </si>
+  <si>
+    <t>Описание http://technet.microsoft.com/ru-ru/magazine/2007.03.utilityspotlight.aspx</t>
+  </si>
+  <si>
+    <t>Кодировка видео</t>
+  </si>
+  <si>
+    <t>Xvid4PSP + AviSynth</t>
+  </si>
+  <si>
+    <t>Кодировка видео для iPhone. Попробовать другие конвертеры.</t>
+  </si>
+  <si>
+    <t>Java разработка</t>
+  </si>
+  <si>
+    <t>Visual VM - для профилирования</t>
+  </si>
+  <si>
+    <t>Java разработка
+C/C++ разработка</t>
+  </si>
+  <si>
+    <t>Конфигурационное управление</t>
+  </si>
+  <si>
+    <t>Java профилирование</t>
+  </si>
+  <si>
+    <t>JProfiler 5</t>
+  </si>
+  <si>
+    <t>Free for Open Source</t>
+  </si>
+  <si>
+    <t>YourKit Profiler</t>
+  </si>
+  <si>
+    <t>ssh клиент</t>
+  </si>
+  <si>
+    <t>Putty</t>
+  </si>
+  <si>
+    <t>Linux runtime поддержка под Windows</t>
+  </si>
+  <si>
+    <t>Ultraedit</t>
+  </si>
+  <si>
+    <t>Использую Notepad++</t>
+  </si>
+  <si>
+    <t>Бесплатный текстовый редактор</t>
+  </si>
+  <si>
+    <t>diameter, tcap, sip, xcap, h248, radius, sync</t>
+  </si>
+  <si>
+    <t>sip</t>
+  </si>
+  <si>
+    <t>JAD,  JD-Core</t>
+  </si>
+  <si>
+    <t>Xming</t>
+  </si>
+  <si>
+    <t>Глючит</t>
+  </si>
+  <si>
+    <t>Jira</t>
+  </si>
+  <si>
+    <t>Confluence</t>
+  </si>
+  <si>
+    <t>Версия</t>
+  </si>
+  <si>
+    <t>Порядок установки</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>MS Windows XP Prof</t>
+  </si>
+  <si>
+    <t>XP Prof</t>
+  </si>
+  <si>
+    <t>Если необходимо установить сетевой драйвер, установить обновление, MS .NET Framework и MUI</t>
+  </si>
+  <si>
+    <t>MS Windows 7 Ult</t>
+  </si>
+  <si>
+    <t>7 Ultimate</t>
+  </si>
+  <si>
+    <t>Если необходимо установить сетевой драйвер, установить MUI и обновление.</t>
+  </si>
+  <si>
+    <t>http://forum.ru-board.com/topic.cgi?forum=35&amp;topic=46670&amp;start=712&amp;limit=1&amp;m=1#1</t>
+  </si>
+  <si>
+    <t>Эмуляция CD/DVD</t>
+  </si>
+  <si>
+    <t>4.35.6</t>
+  </si>
+  <si>
+    <t>http://www.daemon-tools.cc/</t>
+  </si>
+  <si>
+    <t>Упаковка/Распаковка данных</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>http://www.win-rar.ru/</t>
+  </si>
+  <si>
+    <t>9.3.4</t>
+  </si>
+  <si>
+    <t>http://get.adobe.com/reader/</t>
+  </si>
+  <si>
+    <t>Bios Update</t>
+  </si>
+  <si>
+    <t>Hardware Drivers</t>
+  </si>
+  <si>
+    <t>Nod32 Antivirus</t>
+  </si>
+  <si>
+    <t>Smart Security 4</t>
+  </si>
+  <si>
+    <t>1690 за первый год, 950 за последующие</t>
+  </si>
+  <si>
+    <t>http://www.esetnod32.ru/</t>
+  </si>
+  <si>
+    <t>Конвертация набранного в неправильной раскладке текста</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>http://punto.yandex.ru/</t>
+  </si>
+  <si>
+    <t>Управление файлами, редактирование текстовых файлов</t>
+  </si>
+  <si>
+    <t>1.7 beta  5</t>
+  </si>
+  <si>
+    <t>Установить Colorer Plugin, WinSCP</t>
+  </si>
+  <si>
+    <t>http://www.win-rar.ru/; http://colorer.sourceforge.net/farplugin.html</t>
+  </si>
+  <si>
+    <t>Редактирование текстовых файлов, Создание электронных таблиц, Создание презентаций, Управление проектами</t>
+  </si>
+  <si>
+    <t>MS Office</t>
+  </si>
+  <si>
+    <t>2003 EN</t>
+  </si>
+  <si>
+    <t>Установить MUI и обновления</t>
+  </si>
+  <si>
+    <t>http://office.microsoft.com/ru-ru/?CTT=97</t>
+  </si>
+  <si>
+    <t>2007 EN</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>Установить плагины Delicious, Download Statusbar, Minimize to Tray</t>
+  </si>
+  <si>
+    <t>http://www.mozilla-russia.org/</t>
+  </si>
+  <si>
+    <t>6.0.472.53</t>
+  </si>
+  <si>
+    <t>Установить плагин Delicious</t>
+  </si>
+  <si>
+    <t>http://www.google.com/chrome</t>
+  </si>
+  <si>
+    <t>6u21</t>
+  </si>
+  <si>
+    <t>http://www.oracle.com/technetwork/java/index.html</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/getsilverlight</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>http://get.adobe.com/ru/flashplayer/</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/windowsmobile/en-us/downloads/microsoft/activesync-download.mspx</t>
+  </si>
+  <si>
+    <t>iTunes + QuickTime</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>http://www.apple.com/itunes/</t>
+  </si>
+  <si>
+    <t>7.1.51.0</t>
+  </si>
+  <si>
+    <t>http://www.nokia.ru/support/software/nokia-pc-suites/compatibility-and-download</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>http://spb.com/products/wallet/</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>http://www.icq.com/ru.html</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>http://www.skype.com/intl/ru/home</t>
+  </si>
+  <si>
+    <t>2.0.4</t>
+  </si>
+  <si>
+    <t>http://www.utorrent.com/downloads</t>
+  </si>
+  <si>
+    <t>k-Lite Codec Pack</t>
+  </si>
+  <si>
+    <t>6.4.0 Mega</t>
+  </si>
+  <si>
+    <t>http://www.codecguide.com/download_kl.htm</t>
+  </si>
+  <si>
+    <t>Оценить необходимость установки</t>
+  </si>
+  <si>
+    <t>10 Portable</t>
+  </si>
+  <si>
+    <t>http://www.nero.com/rus/index.html; http://rutracker.org/forum/viewtopic.php?t=3153321</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop</t>
+  </si>
+  <si>
+    <t>CS2</t>
+  </si>
+  <si>
+    <t>http://www.adobe.com/ru/products/creativesuite/</t>
+  </si>
+  <si>
+    <t>2 b 2015</t>
+  </si>
+  <si>
+    <t>http://www.tgrmn.com/</t>
+  </si>
+  <si>
+    <t>10 Server Edition</t>
+  </si>
+  <si>
+    <t>http://www.paragon.ru/corporate/db-server/;http://rutracker.org/forum/viewtopic.php?t=3161076</t>
+  </si>
+  <si>
+    <t>http://www.wow-europe.com/ru/index.xml</t>
+  </si>
+  <si>
+    <t>http://www.i-funbox.com/</t>
+  </si>
+  <si>
+    <t>http://agilebits.com/products/1Password</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/</t>
+  </si>
+  <si>
+    <t>AviSynth</t>
+  </si>
+  <si>
+    <t>Xvid4PSP</t>
+  </si>
+  <si>
+    <t>Visual VM</t>
+  </si>
+  <si>
+    <t>JProfiler</t>
+  </si>
+  <si>
+    <t>Teamplayer</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Установить на Mediacenter Windows 7</t>
+  </si>
+  <si>
+    <t>MS Windows MUI</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/downloads/ru-ru/default.aspx</t>
+  </si>
+  <si>
+    <t>Оценить Daemon Tools Pro Advanced для решения задач - эмуляция HD DVD/Blue-ray, Создание образов дисков, Запись дисков.</t>
+  </si>
+  <si>
+    <t>MS Windows XP SP</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>Опробовать последнюю вресию 3.90</t>
+  </si>
+  <si>
+    <t>Network Driver</t>
+  </si>
+  <si>
+    <t>Windows Update</t>
+  </si>
+  <si>
+    <t>http://windowsupdate.microsoft.com</t>
+  </si>
+  <si>
+    <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nod32 </t>
+  </si>
+  <si>
+    <t>редактирование текстовых файлов</t>
+  </si>
+  <si>
+    <t>FAR Colorer Plugin</t>
+  </si>
+  <si>
+    <t>http://colorer.sourceforge.net/farplugin.html</t>
+  </si>
+  <si>
+    <t>2007 EN Enterprise</t>
+  </si>
+  <si>
+    <t>Установить обновление и MUI</t>
+  </si>
+  <si>
+    <t>3.6.8</t>
+  </si>
+  <si>
+    <t>Firefox Delicious</t>
+  </si>
+  <si>
+    <t>Firefox Download Statusbar</t>
+  </si>
+  <si>
+    <t>Firefox Minimize to Tray Plus</t>
+  </si>
+  <si>
+    <t>Google Chrome Delicious</t>
+  </si>
+  <si>
+    <t>CentOs 6.5</t>
+  </si>
+  <si>
+    <t>! Протестировать MS Windows 8
+! Протестировать Mac OS X Maverics
+! Поднять сервер на CentOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Серверная специализация
++ Клон, использующейся на работе RHEL </t>
+  </si>
+  <si>
+    <t>CleanMyMac 2</t>
+  </si>
+  <si>
+    <t>+ Удобный доступ на удаленный компьютер, в том числе из iOS
+- Потенциальная дыра в безопасности</t>
+  </si>
+  <si>
+    <t>+ отличная очистка системы
+- платный, но мне достался вместе с Parallels Desktop</t>
+  </si>
+  <si>
+    <t>! Протестировать разные менеджеры пакетов под Linux.
+! Найти уттилиты для чистки Windows</t>
   </si>
   <si>
     <r>
@@ -1067,1058 +2071,20 @@
       </rPr>
       <t>! Найти файловый менеджер под Mac OS X</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>! Подобрать плагины для Far (colorer, ftp, sftp, ?, настроить редактор)</t>
-    </r>
-  </si>
-  <si>
-    <t>! Посмотреть альтернативы, в том числе и для Mac OS X</t>
-  </si>
-  <si>
-    <t>! Найти для iPhone c калибровкой</t>
-  </si>
-  <si>
-    <t>! Перенести часть проектов в Google Disk и GitHub
-? Хранение в облаках небезопасно, т.к. третьи лица могут получить доступ к приватной информации. Кроме того на работе есть строгая тенденция по запрещению работы с публичными облачными сервисами. Создавать ли собственный облачный сервер с учетом того, что теряется geo redundancy</t>
-  </si>
-  <si>
-    <t>! Протестировать Open Office и др.
-! Найти редактор офисных файлов для iPad
-! Попробовать Office 365</t>
-  </si>
-  <si>
-    <t>! Протестировать Abbyy Finereader</t>
-  </si>
-  <si>
-    <t>! Чем читать pdf, doc, rtf, txt и прочее?</t>
-  </si>
-  <si>
-    <t>! Подобрать софт, Photoshop дорог</t>
-  </si>
-  <si>
-    <t>VLC</t>
-  </si>
-  <si>
-    <t>Media Player Classic + K-lite Codec Pac</t>
-  </si>
-  <si>
-    <t>Beamer</t>
-  </si>
-  <si>
-    <t>+ Мультиформатный транслятор видео на ATV</t>
-  </si>
-  <si>
-    <t>+ Отличный мультиформатный проигрыватель
-+ Бесплатный</t>
-  </si>
-  <si>
-    <t>AVPlayerHD</t>
-  </si>
-  <si>
-    <t>+ Пожалуй лучший плеер для iPad</t>
-  </si>
-  <si>
-    <t>Mac Os X, iOS</t>
-  </si>
-  <si>
-    <t>+ Синхронизация через iCloud; пользуюсь редко</t>
-  </si>
-  <si>
-    <t>TODO Pro</t>
-  </si>
-  <si>
-    <t>+ Отличный список задач с синхронизацием между устройствами
-- Платный</t>
-  </si>
-  <si>
-    <t>! Протестировать умный будильник</t>
-  </si>
-  <si>
-    <t>! Найти замену Google reader или другой способ знакомиться с новостями</t>
-  </si>
-  <si>
-    <t>+отличный быстрый браузер с синхронизацией закладок и паролей между устройствами</t>
-  </si>
-  <si>
-    <t>Просмотр интернет страниц и синхронизация закладок</t>
-  </si>
-  <si>
-    <t>Яндекс.Почта</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>! Настроить правила в web клинете</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Настроен на Яндекс.Почту</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Одноклассники</t>
-  </si>
-  <si>
-    <t>Электронная почта</t>
-  </si>
-  <si>
-    <t>Социальные сети и блоги</t>
-  </si>
-  <si>
-    <t>Livejournal</t>
-  </si>
-  <si>
-    <t>! Придумать оптимальную по времени работу с соцсетями и блогами</t>
-  </si>
-  <si>
-    <t>Web, iOS</t>
-  </si>
-  <si>
-    <t>! Сравнить цену с Sip звонками</t>
-  </si>
-  <si>
-    <t>Видеозвонки и обмен сообщениями</t>
-  </si>
-  <si>
-    <t>+ Бесплатные видеозвонки
-+ Недорогие международные звонки
-- Плохо передает офлайновые текстовые сообщения</t>
-  </si>
-  <si>
-    <t>Whatsup</t>
-  </si>
-  <si>
-    <t>iOS, мобильные платформы</t>
-  </si>
-  <si>
-    <t>+ Отличная замена смскам</t>
-  </si>
-  <si>
-    <t>Яндекс.Карты</t>
-  </si>
-  <si>
-    <t>iOS, Web</t>
-  </si>
-  <si>
-    <t>+ Лучшие онлайн карты по России
-+ Прокладка маршрутов
-+ Офлайн карты
-- Для прокладки маршрута нужен интернет</t>
-  </si>
-  <si>
-    <t>Яндекс.Навигатор</t>
-  </si>
-  <si>
-    <t>! Найти офлайн навигатор</t>
-  </si>
-  <si>
-    <t>Google Maps</t>
-  </si>
-  <si>
-    <t>+ Лучшие онлайн карты по Штатам и Европе
-+ Прокладка маршрутов
-+ Офлайн карты
-- Для прокладки маршрута нужен интернет</t>
-  </si>
-  <si>
-    <t>! Провести ревизию</t>
-  </si>
-  <si>
-    <t>! Найти офлайновый переводчик, протестировать Lingvo</t>
-  </si>
-  <si>
-    <t>Home Money</t>
-  </si>
-  <si>
-    <t>iBearMoney</t>
-  </si>
-  <si>
-    <t>MS Money</t>
-  </si>
-  <si>
-    <t>Моя первая домашняя бухгалтерия, синхронизировал с чем-то на Windows Mobile</t>
-  </si>
-  <si>
-    <t>Достаточно долго использовал на iPhone</t>
-  </si>
-  <si>
-    <t>+ Отличная онлайн домашняя бухгалтерия
-+ Есть клиент для офлайнового ввода транзакций на мобильных устройствах
-- Онлайн, данные хранятся в облаке</t>
-  </si>
-  <si>
-    <t>! Найти офлайн домашнюю бухгалтерию с синхронизацией</t>
-  </si>
-  <si>
-    <t>Lingvalleo</t>
-  </si>
-  <si>
-    <t>Java JDK &amp; JRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ Сравнение папок
-+ Бесплатен
-+ Подсветка синтаксиса
-+ Работа с разными кодировками </t>
-  </si>
-  <si>
-    <t>Meld</t>
-  </si>
-  <si>
-    <t>+ Сравнение папок
-+ Бесплатен
-+ Подсветка синтаксиса
-+ Работа с разными кодировками
-- Требуется установка XCode, XQuartz (X11), и менеджера пакетов, например, Homebrew</t>
-  </si>
-  <si>
-    <t>! Настроить связь с Git</t>
-  </si>
-  <si>
-    <t>Eclipse Indigo</t>
-  </si>
-  <si>
-    <t>Eclipse memory analizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">! </t>
-  </si>
-  <si>
-    <t>jmap</t>
-  </si>
-  <si>
-    <t>Часть JDK, снятие дампа памяти</t>
-  </si>
-  <si>
-    <t>jhat</t>
-  </si>
-  <si>
-    <t>Часть JDK, анализ дампа памяти</t>
-  </si>
-  <si>
-    <t>jvisualvm</t>
-  </si>
-  <si>
-    <t>Часть JDK, простенький профайлер</t>
-  </si>
-  <si>
-    <t>jProfiler</t>
-  </si>
-  <si>
-    <t>yourKitProfiler</t>
-  </si>
-  <si>
-    <t>! Найти и протестировать</t>
-  </si>
-  <si>
-    <t>! Протестировать gradlew</t>
+  </si>
+  <si>
+    <t>FAR 3</t>
+  </si>
+  <si>
+    <t>! Переход с TODO Pro на Напоминания</t>
+  </si>
+  <si>
+    <t>Eclipse Kepler 4.3</t>
   </si>
   <si>
     <t>! Потестировать IntelliJ Idea
-! Протестировать Eclipse Kepler
+! Протестировать Eclipse Luna 4.4
 ! Сформировать список используемых плагинов</t>
-  </si>
-  <si>
-    <t>Team Viewer</t>
-  </si>
-  <si>
-    <t>Moba X Term</t>
-  </si>
-  <si>
-    <t>+ X11 сервер
-+ Tabbed SSH client</t>
-  </si>
-  <si>
-    <t>CVS gui</t>
-  </si>
-  <si>
-    <t>!Протестировать на собственном сервере Confluence и д.р.</t>
-  </si>
-  <si>
-    <t>!Протестировать на собственном сервере Jira, Bugzilla и д.р.</t>
-  </si>
-  <si>
-    <t>Soap UI</t>
-  </si>
-  <si>
-    <t>seagull</t>
-  </si>
-  <si>
-    <t>sipp</t>
-  </si>
-  <si>
-    <t>Squirrel</t>
-  </si>
-  <si>
-    <t>tcpdump</t>
-  </si>
-  <si>
-    <t>Linux, Mac OS X</t>
-  </si>
-  <si>
-    <t>windump</t>
-  </si>
-  <si>
-    <t>MS Windows, Mac OS X</t>
-  </si>
-  <si>
-    <t>Нагрузочное тестирование SOAP, REST, HTTP</t>
-  </si>
-  <si>
-    <t>Нагрузочная эмуляция SIP траффика</t>
-  </si>
-  <si>
-    <t>Эмуляция траффика</t>
-  </si>
-  <si>
-    <t>Нагрузочная эмуляция diameter, tcap и пр. траффика</t>
-  </si>
-  <si>
-    <t>Linux, MS Windows</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>Универсальный SQL клиент, написан на Java</t>
-  </si>
-  <si>
-    <t>Бесплатный Oracle клиент, написан на Java</t>
-  </si>
-  <si>
-    <t>POSIX поддержка и менеджер пакетов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Звуковой редактор и конвертация аудио форматов </t>
-  </si>
-  <si>
-    <t>! Поднять PLEX и протестировать с ATV</t>
-  </si>
-  <si>
-    <t>Видеоредактор и конвертирование видео</t>
-  </si>
-  <si>
-    <t>! Протестировать Java 8</t>
-  </si>
-  <si>
-    <t>! Найти аналоги для Mac OS X</t>
-  </si>
-  <si>
-    <t>!Протестировать на собственном сервере Subversion, CVS, Git</t>
-  </si>
-  <si>
-    <t>ПО</t>
-  </si>
-  <si>
-    <t>Комментарии</t>
-  </si>
-  <si>
-    <t>Blast</t>
-  </si>
-  <si>
-    <t>Felinni</t>
-  </si>
-  <si>
-    <t>MICSERV</t>
-  </si>
-  <si>
-    <t>Melpom.</t>
-  </si>
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>Runtime поддержка</t>
-  </si>
-  <si>
-    <t>MS Windows XP Professional</t>
-  </si>
-  <si>
-    <t>Если есть образ - восстановить, иначе - активировать; установить mui; установить sp, драйвера; настроить сеть; установить updates; настроить окружение; обновить bios. Сделать образ при помощи Paragon drive backup 10.
-Рассмотреть возможность использование Home Edition (OEM лицензия)</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>RUR</t>
-  </si>
-  <si>
-    <t>MS Windows 7 Ultimate</t>
-  </si>
-  <si>
-    <t>Если есть образ - восстановить, иначе - активировать; установить mui; установить sp, драйвера; настроить сеть; установить updates; настроить окружение; обновить bios. Сделать образ при помощи Paragon drive backup 10.
-Рассмотреть возможность использование Home Edition Extended Rus ().
-Образы доступны здесь: http://forum.ru-board.com/topic.cgi?forum=35&amp;topic=46670&amp;start=712&amp;limit=1&amp;m=1#1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Эмуляция CD/DVD.
-Создание образов.</t>
-  </si>
-  <si>
-    <t>Создает только mds образы. Попробовать Pro на предмет создания iso образов. Рассмотреть альтернативы Alcohol и UltraISO</t>
-  </si>
-  <si>
-    <t>FREE</t>
-  </si>
-  <si>
-    <t>Отказаться в пользу 7zip</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Avast! Free</t>
-  </si>
-  <si>
-    <t>Отказаться в пользу Avast</t>
-  </si>
-  <si>
-    <t>Управление файлами.
-Текстовый редактор.</t>
-  </si>
-  <si>
-    <t>Плагины:
-Colorer (http://colorer.sourceforge.net/farplugin.html),
-WinSCP (http://winscp.net).
-Рассмотреть альтернативы с закладками</t>
-  </si>
-  <si>
-    <t>Рассмотреть бесплатные альтернативы</t>
-  </si>
-  <si>
-    <t>Работа с
-документами,
-таблицами,
-презентациями</t>
-  </si>
-  <si>
-    <t>MS Office 2007 Professional</t>
-  </si>
-  <si>
-    <t>Установить MUI и обновления.
-Перейти на Ofice 2010</t>
-  </si>
-  <si>
-    <t>MS Office 2010 Professional+</t>
-  </si>
-  <si>
-    <t>Установить обновления. Рассмотреть переход на версию для дома и учебы.</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>Плагины Delicious, Download Statusbar, Minimize to Tray.
-Заменить на Google Chrome</t>
-  </si>
-  <si>
-    <t>Настроить синхронизацию.
-Используемые плагины:
-Delicious Bookmarks Extension (Beta).
-Рассмотреть переход с Delicious на Google Bookmarks</t>
-  </si>
-  <si>
-    <t>JRE</t>
-  </si>
-  <si>
-    <t>Silverlight</t>
-  </si>
-  <si>
-    <t>Adobe Flash Player</t>
-  </si>
-  <si>
-    <t>Синхронизация с PocketPC</t>
-  </si>
-  <si>
-    <t>MS Active Sync</t>
-  </si>
-  <si>
-    <t>Музыкальная библиотека,
-Синхронизация с iPhone</t>
-  </si>
-  <si>
-    <t>Синхронизация с Nokia</t>
-  </si>
-  <si>
-    <t>Nokia PC Suite</t>
-  </si>
-  <si>
-    <t>Купить Свете новый телефон и удалить</t>
-  </si>
-  <si>
-    <t>Перешел на 1Password</t>
-  </si>
-  <si>
-    <t>Обмен мгновенными сообщениями</t>
-  </si>
-  <si>
-    <t>ICQ</t>
-  </si>
-  <si>
-    <t>Перешел на Skype</t>
-  </si>
-  <si>
-    <t>Обмен мгновенными сообщениями,
-VoIP</t>
-  </si>
-  <si>
-    <t>Просмотр видеофайлов</t>
-  </si>
-  <si>
-    <t>CoreAVC</t>
-  </si>
-  <si>
-    <t>Хватает K-Lite</t>
-  </si>
-  <si>
-    <t>PowerDVD</t>
-  </si>
-  <si>
-    <t>Использую Astroburn</t>
-  </si>
-  <si>
-    <t>Проверить функционал</t>
-  </si>
-  <si>
-    <t>Перевод</t>
-  </si>
-  <si>
-    <t>Lingvo x3</t>
-  </si>
-  <si>
-    <t>Использую http://lingvo.yandex.ru</t>
-  </si>
-  <si>
-    <t>Обучение печати в слепую</t>
-  </si>
-  <si>
-    <t>Соло на клавиатуре</t>
-  </si>
-  <si>
-    <t>Так ни разу и не прошел до конца</t>
-  </si>
-  <si>
-    <t>Перешел на http://homemoney.ua/</t>
-  </si>
-  <si>
-    <t>Adobe Photoshop CS2</t>
-  </si>
-  <si>
-    <t>Оплата в интернете</t>
-  </si>
-  <si>
-    <t>WebMoney Classic Keeper</t>
-  </si>
-  <si>
-    <t>Перестал использовать этот кошелек</t>
-  </si>
-  <si>
-    <t>ViceVersa Pro</t>
-  </si>
-  <si>
-    <t>Перешел на MS SyncToy</t>
-  </si>
-  <si>
-    <t>Paragon Drive Backup 10</t>
-  </si>
-  <si>
-    <t>Torrent - http://rutracker.org/forum/viewtopic.php?t=3161076</t>
-  </si>
-  <si>
-    <t>Игры</t>
-  </si>
-  <si>
-    <t>World of Warcraft</t>
-  </si>
-  <si>
-    <t>Пока не играю. Подписка ~ 400 руб в месяц.</t>
-  </si>
-  <si>
-    <t>Книжная библиотека</t>
-  </si>
-  <si>
-    <t>LibRusLib</t>
-  </si>
-  <si>
-    <t>iPhone - вебкамера</t>
-  </si>
-  <si>
-    <t>Mobiola WebCamera for iPhone</t>
-  </si>
-  <si>
-    <t>Версия для iPhone платная</t>
-  </si>
-  <si>
-    <t>Доступ к iPhone</t>
-  </si>
-  <si>
-    <t>iPhoneExplorer</t>
-  </si>
-  <si>
-    <t>iFunBox</t>
-  </si>
-  <si>
-    <t>MS SyncToy</t>
-  </si>
-  <si>
-    <t>Описание http://technet.microsoft.com/ru-ru/magazine/2007.03.utilityspotlight.aspx</t>
-  </si>
-  <si>
-    <t>Кодировка видео</t>
-  </si>
-  <si>
-    <t>Xvid4PSP + AviSynth</t>
-  </si>
-  <si>
-    <t>Кодировка видео для iPhone. Попробовать другие конвертеры.</t>
-  </si>
-  <si>
-    <t>Java разработка</t>
-  </si>
-  <si>
-    <t>Visual VM - для профилирования</t>
-  </si>
-  <si>
-    <t>Java разработка
-C/C++ разработка</t>
-  </si>
-  <si>
-    <t>Конфигурационное управление</t>
-  </si>
-  <si>
-    <t>Java профилирование</t>
-  </si>
-  <si>
-    <t>JProfiler 5</t>
-  </si>
-  <si>
-    <t>Free for Open Source</t>
-  </si>
-  <si>
-    <t>YourKit Profiler</t>
-  </si>
-  <si>
-    <t>ssh клиент</t>
-  </si>
-  <si>
-    <t>Putty</t>
-  </si>
-  <si>
-    <t>Linux runtime поддержка под Windows</t>
-  </si>
-  <si>
-    <t>Ultraedit</t>
-  </si>
-  <si>
-    <t>Использую Notepad++</t>
-  </si>
-  <si>
-    <t>Бесплатный текстовый редактор</t>
-  </si>
-  <si>
-    <t>diameter, tcap, sip, xcap, h248, radius, sync</t>
-  </si>
-  <si>
-    <t>sip</t>
-  </si>
-  <si>
-    <t>JAD,  JD-Core</t>
-  </si>
-  <si>
-    <t>Xming</t>
-  </si>
-  <si>
-    <t>Глючит</t>
-  </si>
-  <si>
-    <t>Jira</t>
-  </si>
-  <si>
-    <t>Confluence</t>
-  </si>
-  <si>
-    <t>Версия</t>
-  </si>
-  <si>
-    <t>Порядок установки</t>
-  </si>
-  <si>
-    <t>Ссылка</t>
-  </si>
-  <si>
-    <t>MS Windows XP Prof</t>
-  </si>
-  <si>
-    <t>XP Prof</t>
-  </si>
-  <si>
-    <t>Если необходимо установить сетевой драйвер, установить обновление, MS .NET Framework и MUI</t>
-  </si>
-  <si>
-    <t>MS Windows 7 Ult</t>
-  </si>
-  <si>
-    <t>7 Ultimate</t>
-  </si>
-  <si>
-    <t>Если необходимо установить сетевой драйвер, установить MUI и обновление.</t>
-  </si>
-  <si>
-    <t>http://forum.ru-board.com/topic.cgi?forum=35&amp;topic=46670&amp;start=712&amp;limit=1&amp;m=1#1</t>
-  </si>
-  <si>
-    <t>Эмуляция CD/DVD</t>
-  </si>
-  <si>
-    <t>4.35.6</t>
-  </si>
-  <si>
-    <t>http://www.daemon-tools.cc/</t>
-  </si>
-  <si>
-    <t>Упаковка/Распаковка данных</t>
-  </si>
-  <si>
-    <t>3.93</t>
-  </si>
-  <si>
-    <t>http://www.win-rar.ru/</t>
-  </si>
-  <si>
-    <t>9.3.4</t>
-  </si>
-  <si>
-    <t>http://get.adobe.com/reader/</t>
-  </si>
-  <si>
-    <t>Bios Update</t>
-  </si>
-  <si>
-    <t>Hardware Drivers</t>
-  </si>
-  <si>
-    <t>Nod32 Antivirus</t>
-  </si>
-  <si>
-    <t>Smart Security 4</t>
-  </si>
-  <si>
-    <t>1690 за первый год, 950 за последующие</t>
-  </si>
-  <si>
-    <t>http://www.esetnod32.ru/</t>
-  </si>
-  <si>
-    <t>Конвертация набранного в неправильной раскладке текста</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>http://punto.yandex.ru/</t>
-  </si>
-  <si>
-    <t>Управление файлами, редактирование текстовых файлов</t>
-  </si>
-  <si>
-    <t>1.7 beta  5</t>
-  </si>
-  <si>
-    <t>Установить Colorer Plugin, WinSCP</t>
-  </si>
-  <si>
-    <t>http://www.win-rar.ru/; http://colorer.sourceforge.net/farplugin.html</t>
-  </si>
-  <si>
-    <t>Редактирование текстовых файлов, Создание электронных таблиц, Создание презентаций, Управление проектами</t>
-  </si>
-  <si>
-    <t>MS Office</t>
-  </si>
-  <si>
-    <t>2003 EN</t>
-  </si>
-  <si>
-    <t>Установить MUI и обновления</t>
-  </si>
-  <si>
-    <t>http://office.microsoft.com/ru-ru/?CTT=97</t>
-  </si>
-  <si>
-    <t>2007 EN</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>Установить плагины Delicious, Download Statusbar, Minimize to Tray</t>
-  </si>
-  <si>
-    <t>http://www.mozilla-russia.org/</t>
-  </si>
-  <si>
-    <t>6.0.472.53</t>
-  </si>
-  <si>
-    <t>Установить плагин Delicious</t>
-  </si>
-  <si>
-    <t>http://www.google.com/chrome</t>
-  </si>
-  <si>
-    <t>6u21</t>
-  </si>
-  <si>
-    <t>http://www.oracle.com/technetwork/java/index.html</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>http://www.microsoft.com/getsilverlight</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>http://get.adobe.com/ru/flashplayer/</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>http://www.microsoft.com/windowsmobile/en-us/downloads/microsoft/activesync-download.mspx</t>
-  </si>
-  <si>
-    <t>iTunes + QuickTime</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>http://www.apple.com/itunes/</t>
-  </si>
-  <si>
-    <t>7.1.51.0</t>
-  </si>
-  <si>
-    <t>http://www.nokia.ru/support/software/nokia-pc-suites/compatibility-and-download</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>http://spb.com/products/wallet/</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>http://www.icq.com/ru.html</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>http://www.skype.com/intl/ru/home</t>
-  </si>
-  <si>
-    <t>2.0.4</t>
-  </si>
-  <si>
-    <t>http://www.utorrent.com/downloads</t>
-  </si>
-  <si>
-    <t>k-Lite Codec Pack</t>
-  </si>
-  <si>
-    <t>6.4.0 Mega</t>
-  </si>
-  <si>
-    <t>http://www.codecguide.com/download_kl.htm</t>
-  </si>
-  <si>
-    <t>Оценить необходимость установки</t>
-  </si>
-  <si>
-    <t>10 Portable</t>
-  </si>
-  <si>
-    <t>http://www.nero.com/rus/index.html; http://rutracker.org/forum/viewtopic.php?t=3153321</t>
-  </si>
-  <si>
-    <t>Adobe Photoshop</t>
-  </si>
-  <si>
-    <t>CS2</t>
-  </si>
-  <si>
-    <t>http://www.adobe.com/ru/products/creativesuite/</t>
-  </si>
-  <si>
-    <t>2 b 2015</t>
-  </si>
-  <si>
-    <t>http://www.tgrmn.com/</t>
-  </si>
-  <si>
-    <t>10 Server Edition</t>
-  </si>
-  <si>
-    <t>http://www.paragon.ru/corporate/db-server/;http://rutracker.org/forum/viewtopic.php?t=3161076</t>
-  </si>
-  <si>
-    <t>http://www.wow-europe.com/ru/index.xml</t>
-  </si>
-  <si>
-    <t>http://www.i-funbox.com/</t>
-  </si>
-  <si>
-    <t>http://agilebits.com/products/1Password</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/</t>
-  </si>
-  <si>
-    <t>AviSynth</t>
-  </si>
-  <si>
-    <t>Xvid4PSP</t>
-  </si>
-  <si>
-    <t>Visual VM</t>
-  </si>
-  <si>
-    <t>JProfiler</t>
-  </si>
-  <si>
-    <t>Teamplayer</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Установить на Mediacenter Windows 7</t>
-  </si>
-  <si>
-    <t>MS Windows MUI</t>
-  </si>
-  <si>
-    <t>http://www.microsoft.com/downloads/ru-ru/default.aspx</t>
-  </si>
-  <si>
-    <t>Оценить Daemon Tools Pro Advanced для решения задач - эмуляция HD DVD/Blue-ray, Создание образов дисков, Запись дисков.</t>
-  </si>
-  <si>
-    <t>MS Windows XP SP</t>
-  </si>
-  <si>
-    <t>3.51</t>
-  </si>
-  <si>
-    <t>Опробовать последнюю вресию 3.90</t>
-  </si>
-  <si>
-    <t>Network Driver</t>
-  </si>
-  <si>
-    <t>Windows Update</t>
-  </si>
-  <si>
-    <t>http://windowsupdate.microsoft.com</t>
-  </si>
-  <si>
-    <t>.NET Framework</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nod32 </t>
-  </si>
-  <si>
-    <t>редактирование текстовых файлов</t>
-  </si>
-  <si>
-    <t>FAR Colorer Plugin</t>
-  </si>
-  <si>
-    <t>http://colorer.sourceforge.net/farplugin.html</t>
-  </si>
-  <si>
-    <t>2007 EN Enterprise</t>
-  </si>
-  <si>
-    <t>Установить обновление и MUI</t>
-  </si>
-  <si>
-    <t>3.6.8</t>
-  </si>
-  <si>
-    <t>Firefox Delicious</t>
-  </si>
-  <si>
-    <t>Firefox Download Statusbar</t>
-  </si>
-  <si>
-    <t>Firefox Minimize to Tray Plus</t>
-  </si>
-  <si>
-    <t>Google Chrome Delicious</t>
-  </si>
-  <si>
-    <t>FAR 3 + Basic plugins</t>
-  </si>
-  <si>
-    <t>CentOs 6.5</t>
-  </si>
-  <si>
-    <t>! Протестировать MS Windows 8
-! Протестировать Mac OS X Maverics
-! Поднять сервер на CentOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ Серверная специализация
-+ Клон, использующейся на работе RHEL </t>
-  </si>
-  <si>
-    <t>CleanMyMac 2</t>
-  </si>
-  <si>
-    <t>Очистка системы</t>
-  </si>
-  <si>
-    <t>+ Удобный доступ на удаленный компьютер, в том числе из iOS
-- Потенциальная дыра в безопасности</t>
   </si>
 </sst>
 </file>
@@ -3296,6 +3262,12 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3304,12 +3276,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3686,8 +3652,8 @@
   </sheetPr>
   <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -3740,7 +3706,7 @@
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="39"/>
@@ -3774,13 +3740,13 @@
     </row>
     <row r="8" spans="1:5" ht="26">
       <c r="A8" s="57" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B8" s="205" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C8" s="206" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D8" s="205"/>
       <c r="E8" s="205"/>
@@ -3791,7 +3757,7 @@
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="40" t="s">
-        <v>300</v>
+        <v>626</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="39"/>
@@ -3815,18 +3781,18 @@
         <v>188</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="26">
       <c r="A12" s="34" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3899,7 +3865,7 @@
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="39"/>
@@ -3952,20 +3918,20 @@
       <c r="D23" s="65"/>
       <c r="E23" s="55"/>
     </row>
-    <row r="24" spans="1:5" ht="26" collapsed="1">
+    <row r="24" spans="1:5" collapsed="1">
       <c r="A24" s="39" t="s">
         <v>118</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="40" t="s">
-        <v>302</v>
+        <v>627</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="39">
       <c r="A25" s="53" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B25" s="45" t="s">
         <v>178</v>
@@ -4088,7 +4054,7 @@
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="40" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D36" s="63"/>
       <c r="E36" s="39"/>
@@ -4147,7 +4113,7 @@
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="80" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D42" s="63"/>
       <c r="E42" s="39"/>
@@ -4190,7 +4156,7 @@
       </c>
       <c r="B47" s="40"/>
       <c r="C47" s="40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D47" s="66"/>
       <c r="E47" s="40"/>
@@ -4482,7 +4448,7 @@
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D72" s="39"/>
       <c r="E72" s="39"/>
@@ -4603,7 +4569,7 @@
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
@@ -4614,7 +4580,7 @@
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
@@ -4736,7 +4702,7 @@
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D96" s="39"/>
       <c r="E96" s="39"/>
@@ -4825,7 +4791,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="39" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="40" t="s">
@@ -4869,62 +4835,62 @@
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="40" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="60" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B112" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="26">
       <c r="A113" s="72" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B113" s="55" t="s">
         <v>193</v>
       </c>
       <c r="C113" s="56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="65"/>
       <c r="E113" s="55"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="72" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B114" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C114" s="56" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D114" s="65"/>
       <c r="E114" s="55"/>
     </row>
     <row r="115" spans="1:5" ht="26">
       <c r="A115" s="60" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B115" s="45" t="s">
         <v>188</v>
       </c>
       <c r="C115" s="50" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="39" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="40" t="s">
@@ -4938,7 +4904,9 @@
         <v>142</v>
       </c>
       <c r="B118" s="38"/>
-      <c r="C118" s="38"/>
+      <c r="C118" s="38" t="s">
+        <v>629</v>
+      </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38"/>
     </row>
@@ -4956,10 +4924,10 @@
         <v>143</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4973,13 +4941,13 @@
     </row>
     <row r="122" spans="1:5" ht="26">
       <c r="A122" s="60" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B122" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4988,7 +4956,7 @@
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -5004,7 +4972,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="39"/>
@@ -5019,7 +4987,7 @@
         <v>193</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5028,7 +4996,7 @@
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
@@ -5044,61 +5012,61 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="39" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="60" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B132" s="45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="57" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B133" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C133" s="55" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D133" s="65"/>
       <c r="E133" s="55"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="39" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B134" s="39"/>
       <c r="C134" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D134" s="39"/>
       <c r="E134" s="39"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B135" s="45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="72" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B136" s="55" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C136" s="55"/>
       <c r="D136" s="65"/>
@@ -5106,19 +5074,19 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="60" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B137" s="45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="39" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B138" s="39"/>
       <c r="C138" s="40" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D138" s="39"/>
       <c r="E138" s="39"/>
@@ -5131,18 +5099,18 @@
         <v>193</v>
       </c>
       <c r="C139" s="50" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="B140" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="C140" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="B140" s="55" t="s">
-        <v>341</v>
-      </c>
-      <c r="C140" s="56" t="s">
-        <v>342</v>
       </c>
       <c r="D140" s="65"/>
       <c r="E140" s="55"/>
@@ -5162,42 +5130,42 @@
       </c>
       <c r="B142" s="39"/>
       <c r="C142" s="40" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D142" s="39"/>
       <c r="E142" s="39"/>
     </row>
     <row r="143" spans="1:5" ht="52">
       <c r="A143" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B143" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C143" s="50" t="s">
         <v>343</v>
-      </c>
-      <c r="B143" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C143" s="50" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="52">
       <c r="A144" s="60" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B144" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C144" s="50" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="52">
       <c r="A145" s="60" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B145" s="45" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C145" s="50" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5206,7 +5174,7 @@
       </c>
       <c r="B146" s="39"/>
       <c r="C146" s="40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D146" s="39"/>
       <c r="E146" s="39"/>
@@ -5217,7 +5185,7 @@
       </c>
       <c r="B148" s="39"/>
       <c r="C148" s="40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D148" s="39"/>
       <c r="E148" s="39"/>
@@ -5237,44 +5205,44 @@
       </c>
       <c r="B151" s="39"/>
       <c r="C151" s="40" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D151" s="39"/>
       <c r="E151" s="39"/>
     </row>
     <row r="152" spans="1:5" ht="39">
       <c r="A152" s="60" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B152" s="45" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C152" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:5" outlineLevel="1">
       <c r="A153" s="72" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B153" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C153" s="55" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D153" s="65"/>
       <c r="E153" s="55"/>
     </row>
     <row r="154" spans="1:5" outlineLevel="1">
       <c r="A154" s="51" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B154" s="45" t="s">
         <v>188</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5283,7 +5251,7 @@
       </c>
       <c r="B155" s="39"/>
       <c r="C155" s="40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D155" s="39"/>
       <c r="E155" s="39"/>
@@ -5294,7 +5262,7 @@
       </c>
       <c r="B157" s="39"/>
       <c r="C157" s="40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D157" s="39"/>
       <c r="E157" s="39"/>
@@ -5314,7 +5282,7 @@
       </c>
       <c r="B160" s="39"/>
       <c r="C160" s="40" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D160" s="39"/>
       <c r="E160" s="39"/>
@@ -5330,10 +5298,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="60" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B163" s="45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="41" customFormat="1" ht="15">
@@ -5342,7 +5310,7 @@
       </c>
       <c r="B164" s="38"/>
       <c r="C164" s="38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D164" s="38"/>
       <c r="E164" s="38"/>
@@ -5373,20 +5341,20 @@
       </c>
       <c r="B169" s="39"/>
       <c r="C169" s="40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D169" s="39"/>
       <c r="E169" s="39"/>
     </row>
     <row r="170" spans="1:5" ht="78">
       <c r="A170" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B170" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C170" s="50" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="52">
@@ -5397,16 +5365,16 @@
         <v>188</v>
       </c>
       <c r="C171" s="50" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="39" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B172" s="39"/>
       <c r="C172" s="40" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D172" s="39"/>
       <c r="E172" s="39"/>
@@ -5425,14 +5393,14 @@
       </c>
       <c r="B174" s="39"/>
       <c r="C174" s="40" t="s">
-        <v>378</v>
+        <v>631</v>
       </c>
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="60" t="s">
-        <v>365</v>
+        <v>630</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5441,38 +5409,38 @@
       </c>
       <c r="B176" s="39"/>
       <c r="C176" s="39" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D176" s="39"/>
       <c r="E176" s="39"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="51" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B177" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C177" s="45" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="57" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B178" s="55" t="s">
         <v>193</v>
       </c>
       <c r="C178" s="55" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D178" s="65"/>
       <c r="E178" s="55"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="60" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B179" s="45" t="s">
         <v>193</v>
@@ -5489,18 +5457,18 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="51" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B181" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C181" s="45" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="72" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B182" s="55" t="s">
         <v>193</v>
@@ -5511,7 +5479,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="60" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B183" s="45" t="s">
         <v>193</v>
@@ -5523,7 +5491,7 @@
       </c>
       <c r="B184" s="39"/>
       <c r="C184" s="40" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D184" s="39"/>
       <c r="E184" s="39"/>
@@ -5534,7 +5502,7 @@
       </c>
       <c r="B186" s="39"/>
       <c r="C186" s="40" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D186" s="39"/>
       <c r="E186" s="39"/>
@@ -5561,31 +5529,31 @@
       </c>
       <c r="B189" s="39"/>
       <c r="C189" s="40" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D189" s="39"/>
       <c r="E189" s="39"/>
     </row>
     <row r="190" spans="1:5" ht="26">
       <c r="A190" s="60" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B190" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C190" s="50" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="26">
       <c r="A191" s="60" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B191" s="45" t="s">
         <v>188</v>
       </c>
       <c r="C191" s="50" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5594,14 +5562,14 @@
       </c>
       <c r="B192" s="39"/>
       <c r="C192" s="40" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D192" s="39"/>
       <c r="E192" s="39"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B193" s="45" t="s">
         <v>193</v>
@@ -5613,7 +5581,7 @@
       </c>
       <c r="B194" s="39"/>
       <c r="C194" s="40" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D194" s="39"/>
       <c r="E194" s="39"/>
@@ -5624,7 +5592,7 @@
       </c>
       <c r="B196" s="39"/>
       <c r="C196" s="40" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D196" s="39"/>
       <c r="E196" s="39"/>
@@ -5640,15 +5608,15 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="60" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B199" s="45" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="60" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B200" s="45" t="s">
         <v>188</v>
@@ -5659,12 +5627,12 @@
         <v>12</v>
       </c>
       <c r="B201" s="45" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="39" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B202" s="39"/>
       <c r="C202" s="39"/>
@@ -5673,35 +5641,35 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B203" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C203" s="45" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="60" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B204" s="45" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C204" s="45" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="60" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B205" s="45" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C205" s="45" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5715,13 +5683,13 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="60" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B207" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C207" s="45" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5732,7 +5700,7 @@
         <v>193</v>
       </c>
       <c r="C208" s="45" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -5803,7 +5771,7 @@
     <hyperlink ref="A171" r:id="rId58"/>
     <hyperlink ref="A170" r:id="rId59"/>
     <hyperlink ref="A173" r:id="rId60"/>
-    <hyperlink ref="A175" r:id="rId61"/>
+    <hyperlink ref="A175" r:id="rId61" display="Eclipse Indigo"/>
     <hyperlink ref="A179" r:id="rId62"/>
     <hyperlink ref="A182" r:id="rId63"/>
     <hyperlink ref="A183" r:id="rId64"/>
@@ -5858,10 +5826,10 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="213"/>
+      <c r="C1" s="210"/>
       <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
@@ -5909,7 +5877,7 @@
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="211" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5920,7 +5888,7 @@
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="209"/>
+      <c r="A6" s="211"/>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
@@ -5929,7 +5897,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="211" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -5942,7 +5910,7 @@
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="209"/>
+      <c r="A8" s="211"/>
       <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
@@ -5951,7 +5919,7 @@
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="211" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -5964,7 +5932,7 @@
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="26">
-      <c r="A10" s="209"/>
+      <c r="A10" s="211"/>
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
@@ -5986,7 +5954,7 @@
       <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="209" t="s">
+      <c r="A12" s="211" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5997,7 +5965,7 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="209"/>
+      <c r="A13" s="211"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -6006,7 +5974,7 @@
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="209"/>
+      <c r="A14" s="211"/>
       <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
@@ -6091,7 +6059,7 @@
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="212" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6104,7 +6072,7 @@
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="211"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -6198,7 +6166,7 @@
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="209" t="s">
+      <c r="A30" s="211" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6211,7 +6179,7 @@
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="209"/>
+      <c r="A31" s="211"/>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
@@ -6314,7 +6282,7 @@
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="210" t="s">
+      <c r="A40" s="212" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -6325,7 +6293,7 @@
       <c r="E40" s="16"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="211"/>
+      <c r="A41" s="213"/>
       <c r="B41" s="6" t="s">
         <v>78</v>
       </c>
@@ -6376,7 +6344,7 @@
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="209" t="s">
+      <c r="A46" s="211" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -6387,7 +6355,7 @@
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="209"/>
+      <c r="A47" s="211"/>
       <c r="B47" s="28" t="s">
         <v>101</v>
       </c>
@@ -6396,7 +6364,7 @@
       <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A48" s="209"/>
+      <c r="A48" s="211"/>
       <c r="B48" s="6" t="s">
         <v>67</v>
       </c>
@@ -6493,7 +6461,7 @@
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="209" t="s">
+      <c r="A57" s="211" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6504,7 +6472,7 @@
       <c r="E57" s="16"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="209"/>
+      <c r="A58" s="211"/>
       <c r="B58" s="6" t="s">
         <v>15</v>
       </c>
@@ -6525,16 +6493,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6650,101 +6618,101 @@
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1" s="83" t="s">
         <v>408</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="G1" s="83" t="s">
         <v>409</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="H1" s="214" t="s">
         <v>410</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>411</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>412</v>
-      </c>
-      <c r="G1" s="83" t="s">
-        <v>413</v>
-      </c>
-      <c r="H1" s="214" t="s">
-        <v>414</v>
       </c>
       <c r="I1" s="215"/>
     </row>
     <row r="2" spans="1:9" s="91" customFormat="1" ht="91">
       <c r="A2" s="85" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D2" s="87">
         <v>10</v>
       </c>
       <c r="E2" s="87"/>
       <c r="F2" s="88" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G2" s="88"/>
       <c r="H2" s="89">
         <v>5500</v>
       </c>
       <c r="I2" s="90" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="143">
       <c r="A3" s="85" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="92" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H3" s="93">
         <v>11990</v>
       </c>
       <c r="I3" s="94" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26">
       <c r="A4" s="95" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D4" s="87">
         <v>90</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87"/>
       <c r="H4" s="96"/>
       <c r="I4" s="97" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6755,21 +6723,21 @@
         <v>225</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D5" s="100"/>
       <c r="E5" s="100" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G5" s="101"/>
       <c r="H5" s="102">
         <v>29</v>
       </c>
       <c r="I5" s="103" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1">
@@ -6786,11 +6754,11 @@
       <c r="E6" s="106"/>
       <c r="F6" s="107"/>
       <c r="G6" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H6" s="108"/>
       <c r="I6" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6805,17 +6773,17 @@
         <v>40</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H7" s="108"/>
       <c r="I7" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="38.25" customHeight="1">
@@ -6823,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C8" s="104"/>
       <c r="D8" s="106">
@@ -6834,7 +6802,7 @@
       <c r="G8" s="107"/>
       <c r="H8" s="108"/>
       <c r="I8" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6845,21 +6813,21 @@
         <v>216</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D9" s="100"/>
       <c r="E9" s="100" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="102">
         <v>1080</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6874,49 +6842,49 @@
         <v>120</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F10" s="106"/>
       <c r="G10" s="110" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H10" s="108"/>
       <c r="I10" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="52">
       <c r="A11" s="98" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B11" s="99" t="s">
         <v>236</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D11" s="100"/>
       <c r="E11" s="100" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F11" s="100"/>
       <c r="G11" s="111" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H11" s="112"/>
       <c r="I11" s="113" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="26">
       <c r="A12" s="98" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B12" s="99" t="s">
         <v>238</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D12" s="100">
         <v>160</v>
@@ -6928,22 +6896,22 @@
         <v>46</v>
       </c>
       <c r="I12" s="103" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="52">
       <c r="A13" s="98" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D13" s="101"/>
       <c r="E13" s="100" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F13" s="100"/>
       <c r="G13" s="100"/>
@@ -6951,18 +6919,18 @@
         <v>15000</v>
       </c>
       <c r="I13" s="103" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="52">
       <c r="A14" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="95" t="s">
         <v>433</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>436</v>
-      </c>
-      <c r="C14" s="95" t="s">
-        <v>437</v>
       </c>
       <c r="D14" s="88">
         <v>170</v>
@@ -6970,13 +6938,13 @@
       <c r="E14" s="87"/>
       <c r="F14" s="87"/>
       <c r="G14" s="92" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H14" s="93">
         <v>14990</v>
       </c>
       <c r="I14" s="94" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="26">
@@ -6984,20 +6952,20 @@
         <v>5</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D15" s="100"/>
       <c r="E15" s="100" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F15" s="100"/>
       <c r="G15" s="100"/>
       <c r="H15" s="112"/>
       <c r="I15" s="113" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="65">
@@ -7008,98 +6976,98 @@
         <v>53</v>
       </c>
       <c r="C16" s="95" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D16" s="87">
         <v>30</v>
       </c>
       <c r="E16" s="88"/>
       <c r="F16" s="88" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H16" s="96"/>
       <c r="I16" s="97" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="114" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C17" s="104"/>
       <c r="D17" s="106">
         <v>60</v>
       </c>
       <c r="E17" s="106" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H17" s="108"/>
       <c r="I17" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="114" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C18" s="104"/>
       <c r="D18" s="106">
         <v>70</v>
       </c>
       <c r="E18" s="106" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F18" s="106"/>
       <c r="G18" s="106"/>
       <c r="H18" s="108"/>
       <c r="I18" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="114" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B19" s="105" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C19" s="104"/>
       <c r="D19" s="106">
         <v>50</v>
       </c>
       <c r="E19" s="106" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F19" s="106"/>
       <c r="G19" s="110" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H19" s="108"/>
       <c r="I19" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="120" customFormat="1">
       <c r="A20" s="115" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C20" s="115"/>
       <c r="D20" s="117"/>
@@ -7108,12 +7076,12 @@
       <c r="G20" s="117"/>
       <c r="H20" s="118"/>
       <c r="I20" s="119" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="26">
       <c r="A21" s="104" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B21" s="105" t="s">
         <v>17</v>
@@ -7123,34 +7091,34 @@
         <v>200</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F21" s="106"/>
       <c r="G21" s="106"/>
       <c r="H21" s="108"/>
       <c r="I21" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="98" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D22" s="100"/>
       <c r="E22" s="100" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F22" s="100"/>
       <c r="G22" s="100"/>
       <c r="H22" s="112"/>
       <c r="I22" s="113" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -7161,7 +7129,7 @@
         <v>196</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D23" s="117"/>
       <c r="E23" s="117"/>
@@ -7172,18 +7140,18 @@
         <v>308.45</v>
       </c>
       <c r="I23" s="119" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="115" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B24" s="116" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D24" s="117"/>
       <c r="E24" s="117"/>
@@ -7191,12 +7159,12 @@
       <c r="G24" s="117"/>
       <c r="H24" s="118"/>
       <c r="I24" s="119" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26">
       <c r="A25" s="104" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B25" s="105" t="s">
         <v>1</v>
@@ -7208,11 +7176,11 @@
       <c r="E25" s="107"/>
       <c r="F25" s="107"/>
       <c r="G25" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H25" s="108"/>
       <c r="I25" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -7227,18 +7195,18 @@
         <v>150</v>
       </c>
       <c r="E26" s="106" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F26" s="106"/>
       <c r="G26" s="106"/>
       <c r="H26" s="108"/>
       <c r="I26" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="104" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B27" s="105" t="s">
         <v>21</v>
@@ -7248,24 +7216,24 @@
         <v>180</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F27" s="107"/>
       <c r="G27" s="107"/>
       <c r="H27" s="108"/>
       <c r="I27" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="115" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B28" s="121" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D28" s="117"/>
       <c r="E28" s="117"/>
@@ -7276,13 +7244,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="115" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B29" s="121" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C29" s="115" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="117"/>
@@ -7299,7 +7267,7 @@
         <v>245</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D30" s="117"/>
       <c r="E30" s="117"/>
@@ -7309,7 +7277,7 @@
         <v>3000</v>
       </c>
       <c r="I30" s="119" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7320,7 +7288,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="95" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D31" s="87">
         <v>100</v>
@@ -7330,7 +7298,7 @@
       <c r="G31" s="88"/>
       <c r="H31" s="96"/>
       <c r="I31" s="97" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7341,7 +7309,7 @@
         <v>48</v>
       </c>
       <c r="C32" s="95" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D32" s="87">
         <v>110</v>
@@ -7351,18 +7319,18 @@
       <c r="G32" s="88"/>
       <c r="H32" s="96"/>
       <c r="I32" s="97" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="115" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B33" s="121" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C33" s="122" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D33" s="117"/>
       <c r="E33" s="117"/>
@@ -7373,13 +7341,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="115" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B34" s="121" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D34" s="117"/>
       <c r="E34" s="117"/>
@@ -7393,10 +7361,10 @@
         <v>23</v>
       </c>
       <c r="B35" s="121" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C35" s="122" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D35" s="117"/>
       <c r="E35" s="117"/>
@@ -7410,7 +7378,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C36" s="104"/>
       <c r="D36" s="106">
@@ -7423,18 +7391,18 @@
         <v>30000</v>
       </c>
       <c r="I36" s="124" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="115" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B37" s="121" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C37" s="115" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D37" s="117"/>
       <c r="E37" s="117"/>
@@ -7442,7 +7410,7 @@
       <c r="G37" s="117"/>
       <c r="H37" s="118"/>
       <c r="I37" s="119" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7450,10 +7418,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="125" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C38" s="115" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D38" s="117"/>
       <c r="E38" s="117"/>
@@ -7464,7 +7432,7 @@
         <v>1860</v>
       </c>
       <c r="I38" s="119" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7472,16 +7440,16 @@
         <v>93</v>
       </c>
       <c r="B39" s="105" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D39" s="106">
         <v>220</v>
       </c>
       <c r="E39" s="106" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F39" s="106"/>
       <c r="G39" s="106"/>
@@ -7489,18 +7457,18 @@
         <v>9900</v>
       </c>
       <c r="I39" s="124" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="126" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B40" s="127" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D40" s="117"/>
       <c r="E40" s="128"/>
@@ -7510,37 +7478,37 @@
         <v>10</v>
       </c>
       <c r="I40" s="130" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="104" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B41" s="131" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C41" s="104"/>
       <c r="D41" s="107"/>
       <c r="E41" s="106" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F41" s="106"/>
       <c r="G41" s="106"/>
       <c r="H41" s="108"/>
       <c r="I41" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="104" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D42" s="107">
         <v>210</v>
@@ -7550,7 +7518,7 @@
       <c r="G42" s="107"/>
       <c r="H42" s="108"/>
       <c r="I42" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7570,10 +7538,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="132" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C44" s="132"/>
       <c r="D44" s="134"/>
@@ -7585,10 +7553,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="132" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B45" s="137" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C45" s="132"/>
       <c r="D45" s="134"/>
@@ -7612,13 +7580,13 @@
       <c r="E46" s="107"/>
       <c r="F46" s="107"/>
       <c r="G46" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H46" s="123">
         <v>50</v>
       </c>
       <c r="I46" s="124" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7635,11 +7603,11 @@
       <c r="E47" s="107"/>
       <c r="F47" s="107"/>
       <c r="G47" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H47" s="108"/>
       <c r="I47" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="26">
@@ -7647,67 +7615,67 @@
         <v>25</v>
       </c>
       <c r="B48" s="105" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D48" s="107"/>
       <c r="E48" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F48" s="107"/>
       <c r="G48" s="107"/>
       <c r="H48" s="108"/>
       <c r="I48" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="95" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C49" s="95" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D49" s="88"/>
       <c r="E49" s="88" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F49" s="88"/>
       <c r="G49" s="88"/>
       <c r="H49" s="96"/>
       <c r="I49" s="97" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="104" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B50" s="105" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D50" s="107"/>
       <c r="E50" s="107"/>
       <c r="F50" s="107"/>
       <c r="G50" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H50" s="108"/>
       <c r="I50" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="26">
       <c r="A51" s="104" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B51" s="105" t="s">
         <v>7</v>
@@ -7717,16 +7685,16 @@
       <c r="E51" s="107"/>
       <c r="F51" s="107"/>
       <c r="G51" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H51" s="108"/>
       <c r="I51" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="104" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B52" s="105" t="s">
         <v>8</v>
@@ -7736,42 +7704,42 @@
       <c r="E52" s="107"/>
       <c r="F52" s="107"/>
       <c r="G52" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H52" s="108"/>
       <c r="I52" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="104" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B53" s="105" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C53" s="104" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D53" s="107"/>
       <c r="E53" s="107"/>
       <c r="F53" s="107"/>
       <c r="G53" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H53" s="139">
         <v>500</v>
       </c>
       <c r="I53" s="140" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="132" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B54" s="133" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C54" s="132"/>
       <c r="D54" s="134"/>
@@ -7793,35 +7761,35 @@
       <c r="E55" s="107"/>
       <c r="F55" s="107"/>
       <c r="G55" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H55" s="108"/>
       <c r="I55" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="104" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B56" s="105" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C56" s="104"/>
       <c r="D56" s="107"/>
       <c r="E56" s="107"/>
       <c r="F56" s="107"/>
       <c r="G56" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H56" s="108"/>
       <c r="I56" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="104" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B57" s="105" t="s">
         <v>11</v>
@@ -7831,11 +7799,11 @@
       <c r="E57" s="107"/>
       <c r="F57" s="107"/>
       <c r="G57" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H57" s="108"/>
       <c r="I57" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7843,10 +7811,10 @@
         <v>27</v>
       </c>
       <c r="B58" s="141" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C58" s="122" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D58" s="142"/>
       <c r="E58" s="142"/>
@@ -7856,7 +7824,7 @@
         <v>60</v>
       </c>
       <c r="I58" s="144" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7867,17 +7835,17 @@
         <v>31</v>
       </c>
       <c r="C59" s="104" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D59" s="107"/>
       <c r="E59" s="107"/>
       <c r="F59" s="107"/>
       <c r="G59" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H59" s="108"/>
       <c r="I59" s="145" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7892,59 +7860,59 @@
       <c r="E60" s="107"/>
       <c r="F60" s="107"/>
       <c r="G60" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H60" s="108"/>
       <c r="I60" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="104" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B61" s="105" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="104" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D61" s="107"/>
       <c r="E61" s="107"/>
       <c r="F61" s="107"/>
       <c r="G61" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H61" s="108"/>
       <c r="I61" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="104" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B62" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="104" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D62" s="107"/>
       <c r="E62" s="107"/>
       <c r="F62" s="107"/>
       <c r="G62" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H62" s="108"/>
       <c r="I62" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="132"/>
       <c r="B63" s="133" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C63" s="132"/>
       <c r="D63" s="134"/>
@@ -7959,20 +7927,20 @@
         <v>29</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C64" s="104" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D64" s="107"/>
       <c r="E64" s="107"/>
       <c r="F64" s="107"/>
       <c r="G64" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H64" s="108"/>
       <c r="I64" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -7987,17 +7955,17 @@
       <c r="E65" s="107"/>
       <c r="F65" s="107"/>
       <c r="G65" s="107" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H65" s="108"/>
       <c r="I65" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="132"/>
       <c r="B66" s="133" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C66" s="132"/>
       <c r="D66" s="134"/>
@@ -8023,7 +7991,7 @@
     <row r="68" spans="1:9" ht="14" thickBot="1">
       <c r="A68" s="146"/>
       <c r="B68" s="147" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C68" s="146"/>
       <c r="D68" s="148"/>
@@ -8130,31 +8098,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="154" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="155" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="156" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" s="153" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="153" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="153" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="153" t="s">
         <v>408</v>
       </c>
-      <c r="C1" s="155" t="s">
-        <v>513</v>
-      </c>
-      <c r="D1" s="156" t="s">
-        <v>514</v>
-      </c>
-      <c r="E1" s="153" t="s">
-        <v>409</v>
-      </c>
-      <c r="F1" s="153" t="s">
+      <c r="I1" s="157" t="s">
         <v>410</v>
       </c>
-      <c r="G1" s="153" t="s">
-        <v>411</v>
-      </c>
-      <c r="H1" s="153" t="s">
-        <v>412</v>
-      </c>
-      <c r="I1" s="157" t="s">
-        <v>414</v>
-      </c>
       <c r="J1" s="154" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="165" customFormat="1" ht="26">
@@ -8162,23 +8130,23 @@
         <v>35</v>
       </c>
       <c r="B2" s="159" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C2" s="160" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D2" s="161">
         <v>100</v>
       </c>
       <c r="E2" s="158" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F2" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G2" s="158"/>
       <c r="H2" s="162" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I2" s="163">
         <v>5497.5</v>
@@ -8188,91 +8156,91 @@
     <row r="3" spans="1:10" ht="26">
       <c r="A3" s="158"/>
       <c r="B3" s="159" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C3" s="160" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D3" s="161">
         <v>100</v>
       </c>
       <c r="E3" s="158" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F3" s="158" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G3" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H3" s="158"/>
       <c r="I3" s="166"/>
       <c r="J3" s="164" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="162" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B4" s="159" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="167" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D4" s="168">
         <v>300</v>
       </c>
       <c r="E4" s="162"/>
       <c r="F4" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G4" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H4" s="158"/>
       <c r="I4" s="169">
         <v>0</v>
       </c>
       <c r="J4" s="170" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="162" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B5" s="159" t="s">
         <v>225</v>
       </c>
       <c r="C5" s="167" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D5" s="168">
         <v>500</v>
       </c>
       <c r="E5" s="162"/>
       <c r="F5" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G5" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H5" s="162" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I5" s="169">
         <f>29*30</f>
         <v>870</v>
       </c>
       <c r="J5" s="170" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="172" customFormat="1">
       <c r="A6" s="171" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B6" s="172" t="s">
         <v>49</v>
@@ -8294,25 +8262,25 @@
         <v>50</v>
       </c>
       <c r="C7" s="179" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D7" s="180">
         <v>600</v>
       </c>
       <c r="F7" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G7" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H7" s="162" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I7" s="181">
         <v>0</v>
       </c>
       <c r="J7" s="182" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8320,19 +8288,19 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D8" s="180">
         <v>800</v>
       </c>
       <c r="F8" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G8" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H8" s="162" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I8" s="181">
         <v>0</v>
@@ -8343,19 +8311,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D9" s="180">
         <v>1100</v>
       </c>
       <c r="F9" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G9" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H9" s="162" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I9" s="181">
         <v>0</v>
@@ -8366,108 +8334,108 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C10" s="179" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D10" s="180">
         <v>1200</v>
       </c>
       <c r="E10" s="178" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F10" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G10" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H10" s="162" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I10" s="181">
         <v>1690</v>
       </c>
       <c r="J10" s="182" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="26">
       <c r="A11" s="178" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="179" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D11" s="180">
         <v>1300</v>
       </c>
       <c r="F11" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G11" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H11" s="158"/>
       <c r="I11" s="181">
         <v>0</v>
       </c>
       <c r="J11" s="182" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="26">
       <c r="A12" s="178" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B12" t="s">
         <v>236</v>
       </c>
       <c r="C12" s="179" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D12" s="180">
         <v>1400</v>
       </c>
       <c r="E12" s="178" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F12" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G12" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H12" s="158"/>
       <c r="I12" s="181">
         <v>0</v>
       </c>
       <c r="J12" s="183" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="52">
       <c r="A13" s="162" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B13" s="159" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C13" s="167" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D13" s="168">
         <v>1600</v>
       </c>
       <c r="E13" s="162" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F13" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G13" s="162"/>
       <c r="H13" s="162"/>
@@ -8475,26 +8443,26 @@
         <v>15000</v>
       </c>
       <c r="J13" s="170" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="162"/>
       <c r="B14" s="159" t="s">
+        <v>541</v>
+      </c>
+      <c r="C14" s="167" t="s">
         <v>545</v>
-      </c>
-      <c r="C14" s="167" t="s">
-        <v>549</v>
       </c>
       <c r="D14" s="168">
         <v>1700</v>
       </c>
       <c r="E14" s="162" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F14" s="162"/>
       <c r="G14" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H14" s="158"/>
       <c r="I14" s="169">
@@ -8505,10 +8473,10 @@
     <row r="15" spans="1:10" s="172" customFormat="1">
       <c r="A15" s="171"/>
       <c r="B15" s="172" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C15" s="173" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D15" s="174"/>
       <c r="E15" s="171"/>
@@ -8522,29 +8490,29 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C16" s="179" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D16" s="180">
         <v>1900</v>
       </c>
       <c r="E16" s="178" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F16" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G16" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H16" s="158"/>
       <c r="I16" s="181">
         <v>0</v>
       </c>
       <c r="J16" s="182" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8555,25 +8523,25 @@
         <v>53</v>
       </c>
       <c r="C17" s="179" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D17" s="180">
         <v>2300</v>
       </c>
       <c r="E17" s="178" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F17" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H17" s="178" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I17" s="181">
         <v>0</v>
       </c>
       <c r="J17" s="182" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8581,28 +8549,28 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C18" s="179" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D18" s="180">
         <v>2500</v>
       </c>
       <c r="F18" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G18" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H18" s="162" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I18" s="181">
         <v>0</v>
       </c>
       <c r="J18" s="182" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8610,118 +8578,118 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C19" s="179" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D19" s="180">
         <v>2600</v>
       </c>
       <c r="F19" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G19" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H19" s="158"/>
       <c r="I19" s="181">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C20" s="179" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D20" s="180">
         <v>2700</v>
       </c>
       <c r="F20" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G20" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H20" s="158"/>
       <c r="I20" s="181">
         <v>0</v>
       </c>
       <c r="J20" s="182" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C21" s="179" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D21" s="180">
         <v>2800</v>
       </c>
       <c r="F21" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I21" s="181">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C22" s="179" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D22" s="180">
         <v>2900</v>
       </c>
       <c r="F22" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G22" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H22" s="158"/>
       <c r="I22" s="181">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C23" s="179" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D23" s="180">
         <v>3000</v>
       </c>
       <c r="F23" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G23" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H23" s="158"/>
       <c r="I23" s="181">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8729,16 +8697,16 @@
         <v>196</v>
       </c>
       <c r="C24" s="179" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D24" s="180">
         <v>3100</v>
       </c>
       <c r="F24" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G24" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H24" s="158"/>
       <c r="I24" s="181">
@@ -8746,27 +8714,27 @@
         <v>308.45</v>
       </c>
       <c r="J24" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C25" s="179" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D25" s="180">
         <v>3200</v>
       </c>
       <c r="F25" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I25" s="181">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -8774,19 +8742,19 @@
         <v>1</v>
       </c>
       <c r="C26" s="179" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D26" s="180">
         <v>3300</v>
       </c>
       <c r="F26" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I26" s="181">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -8794,59 +8762,59 @@
         <v>2</v>
       </c>
       <c r="C27" s="179" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D27" s="180">
         <v>3400</v>
       </c>
       <c r="F27" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G27" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H27" s="158"/>
       <c r="I27" s="181">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C28" s="179" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D28" s="180">
         <v>3500</v>
       </c>
       <c r="F28" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G28" s="178" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I28" s="181">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="184"/>
       <c r="B29" s="185" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C29" s="186"/>
       <c r="D29" s="187">
         <v>3600</v>
       </c>
       <c r="E29" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F29" s="184"/>
       <c r="G29" s="184"/>
@@ -8857,14 +8825,14 @@
     <row r="30" spans="1:10">
       <c r="A30" s="184"/>
       <c r="B30" s="185" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C30" s="186"/>
       <c r="D30" s="187">
         <v>3700</v>
       </c>
       <c r="E30" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F30" s="184"/>
       <c r="G30" s="184"/>
@@ -8877,32 +8845,32 @@
         <v>245</v>
       </c>
       <c r="C31" s="179" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D31" s="180">
         <v>3800</v>
       </c>
       <c r="F31" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I31" s="181">
         <v>3000</v>
       </c>
       <c r="J31" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="184"/>
       <c r="B32" s="185" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C32" s="186"/>
       <c r="D32" s="187">
         <v>3900</v>
       </c>
       <c r="E32" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F32" s="184"/>
       <c r="G32" s="184"/>
@@ -8913,14 +8881,14 @@
     <row r="33" spans="1:10">
       <c r="A33" s="184"/>
       <c r="B33" s="185" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C33" s="186"/>
       <c r="D33" s="187">
         <v>4000</v>
       </c>
       <c r="E33" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F33" s="184"/>
       <c r="G33" s="184"/>
@@ -8931,14 +8899,14 @@
     <row r="34" spans="1:10">
       <c r="A34" s="184"/>
       <c r="B34" s="185" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C34" s="186"/>
       <c r="D34" s="187">
         <v>4100</v>
       </c>
       <c r="E34" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F34" s="184"/>
       <c r="G34" s="184"/>
@@ -8948,35 +8916,35 @@
     </row>
     <row r="35" spans="1:10">
       <c r="B35" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C35" s="179" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D35" s="180">
         <v>4200</v>
       </c>
       <c r="F35" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I35" s="181">
         <v>30000</v>
       </c>
       <c r="J35" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C36" s="186"/>
       <c r="D36" s="187">
         <v>4300</v>
       </c>
       <c r="E36" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F36" s="184"/>
       <c r="G36" s="184"/>
@@ -8986,19 +8954,19 @@
     </row>
     <row r="37" spans="1:10">
       <c r="B37" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C37" s="179" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D37" s="180">
         <v>4400</v>
       </c>
       <c r="F37" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G37" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H37" s="158"/>
       <c r="I37" s="181">
@@ -9006,7 +8974,7 @@
         <v>1860</v>
       </c>
       <c r="J37" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -9014,53 +8982,53 @@
         <v>187</v>
       </c>
       <c r="C38" s="179" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D38" s="180">
         <v>4500</v>
       </c>
       <c r="F38" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G38" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H38" s="158"/>
       <c r="I38" s="181">
         <v>7000</v>
       </c>
       <c r="J38" s="182" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D39" s="180">
         <v>4600</v>
       </c>
       <c r="F39" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I39" s="181">
         <v>0</v>
       </c>
       <c r="J39" s="182" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="189"/>
       <c r="B40" s="190" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C40" s="191"/>
       <c r="D40" s="192"/>
       <c r="E40" s="189"/>
       <c r="F40" s="189"/>
       <c r="G40" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H40" s="158"/>
       <c r="I40" s="193"/>
@@ -9068,10 +9036,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="B41" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F41" s="178" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -9081,15 +9049,15 @@
     </row>
     <row r="43" spans="1:10">
       <c r="B43" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J44" s="182" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -9097,7 +9065,7 @@
         <v>192</v>
       </c>
       <c r="J45" s="182" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -9105,17 +9073,17 @@
         <v>6</v>
       </c>
       <c r="J46" s="182" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="B48" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="195" customFormat="1">
@@ -9143,17 +9111,17 @@
     </row>
     <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -9163,7 +9131,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -9173,7 +9141,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -9193,12 +9161,12 @@
     </row>
     <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="2:2" customFormat="1">
       <c r="B65" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="2:2" customFormat="1">
@@ -9208,7 +9176,7 @@
     </row>
     <row r="68" spans="2:2" customFormat="1">
       <c r="B68" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69" spans="2:2" customFormat="1">
@@ -9218,12 +9186,12 @@
     </row>
     <row r="70" spans="2:2" customFormat="1">
       <c r="B70" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="2:2" customFormat="1">
       <c r="B71" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -9283,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="154" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C1" s="155" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D1" s="156" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E1" s="153" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F1" s="157" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G1" s="154" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9307,13 +9275,13 @@
         <v>188</v>
       </c>
       <c r="C2" s="200" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D2" s="201"/>
       <c r="E2" s="199"/>
       <c r="F2" s="202"/>
       <c r="G2" s="165" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9324,13 +9292,13 @@
         <v>188</v>
       </c>
       <c r="C3" s="191" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D3" s="192">
         <v>100</v>
       </c>
       <c r="E3" s="189" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F3" s="203">
         <v>5497.5</v>
@@ -9342,10 +9310,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C4" s="179" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D4" s="180">
         <v>200</v>
@@ -9355,30 +9323,30 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="39">
       <c r="A5" s="189" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B5" s="190" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D5" s="192">
         <v>300</v>
       </c>
       <c r="E5" s="189" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F5" s="193">
         <v>0</v>
       </c>
       <c r="G5" s="204" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9386,7 +9354,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C6" s="179">
         <v>3</v>
@@ -9399,31 +9367,31 @@
         <v>0</v>
       </c>
       <c r="G6" s="182" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="189" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B7" s="190" t="s">
         <v>225</v>
       </c>
       <c r="C7" s="191" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D7" s="192">
         <v>500</v>
       </c>
       <c r="E7" s="189" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F7" s="193">
         <f>29*30</f>
         <v>870</v>
       </c>
       <c r="G7" s="204" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9434,7 +9402,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="179" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D8" s="180">
         <v>600</v>
@@ -9444,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="182" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9452,7 +9420,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C9" s="179"/>
       <c r="D9" s="180">
@@ -9469,7 +9437,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C10" s="179"/>
       <c r="D10" s="180">
@@ -9485,7 +9453,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C11" s="179"/>
       <c r="D11" s="180">
@@ -9496,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="182" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9504,10 +9472,10 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C12" s="179" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D12" s="180">
         <v>1000</v>
@@ -9517,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="182" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9525,7 +9493,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C13" s="179"/>
       <c r="D13" s="180">
@@ -9541,33 +9509,33 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C14" s="179" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D14" s="180">
         <v>1200</v>
       </c>
       <c r="E14" s="178" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F14" s="181">
         <v>1690</v>
       </c>
       <c r="G14" s="182" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="39">
       <c r="A15" s="178" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="179" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D15" s="180">
         <v>1300</v>
@@ -9577,18 +9545,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="182" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="39">
       <c r="A16" s="178" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B16" t="s">
         <v>236</v>
       </c>
       <c r="C16" s="179" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D16" s="180">
         <v>1400</v>
@@ -9598,15 +9566,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="182" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26">
       <c r="A17" s="178" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B17" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C17" s="179"/>
       <c r="D17" s="180">
@@ -9617,30 +9585,30 @@
         <v>0</v>
       </c>
       <c r="G17" s="182" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="65">
       <c r="A18" s="189" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B18" s="190" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C18" s="191" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D18" s="192">
         <v>1600</v>
       </c>
       <c r="E18" s="189" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F18" s="193">
         <v>15000</v>
       </c>
       <c r="G18" s="204" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -9648,10 +9616,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C19" s="179" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D19" s="180">
         <v>1900</v>
@@ -9661,13 +9629,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="182" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="178"/>
       <c r="B20" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C20" s="179"/>
       <c r="D20" s="180">
@@ -9681,7 +9649,7 @@
     <row r="21" spans="1:7">
       <c r="A21" s="178"/>
       <c r="B21" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C21" s="179"/>
       <c r="D21" s="180">
@@ -9695,7 +9663,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="178"/>
       <c r="B22" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C22" s="179"/>
       <c r="D22" s="180">
@@ -9714,7 +9682,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="179" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D23" s="180">
         <v>2300</v>
@@ -9724,13 +9692,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="182" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="178"/>
       <c r="B24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C24" s="179"/>
       <c r="D24" s="180">
@@ -9746,10 +9714,10 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C25" s="179" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D25" s="180">
         <v>2500</v>
@@ -9759,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="182" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -9767,10 +9735,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C26" s="179" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D26" s="180">
         <v>2600</v>
@@ -9780,16 +9748,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="178"/>
       <c r="B27" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C27" s="179" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D27" s="180">
         <v>2700</v>
@@ -9799,16 +9767,16 @@
         <v>0</v>
       </c>
       <c r="G27" s="182" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="178"/>
       <c r="B28" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C28" s="179" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D28" s="180">
         <v>2800</v>
@@ -9818,16 +9786,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="178"/>
       <c r="B29" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C29" s="179" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D29" s="180">
         <v>2900</v>
@@ -9837,16 +9805,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="178"/>
       <c r="B30" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C30" s="179" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D30" s="180">
         <v>3000</v>
@@ -9856,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -9865,7 +9833,7 @@
         <v>196</v>
       </c>
       <c r="C31" s="179" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D31" s="180">
         <v>3100</v>
@@ -9876,16 +9844,16 @@
         <v>308.45</v>
       </c>
       <c r="G31" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="178"/>
       <c r="B32" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C32" s="179" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D32" s="180">
         <v>3200</v>
@@ -9895,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9904,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="179" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D33" s="180">
         <v>3300</v>
@@ -9914,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9923,7 +9891,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="179" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D34" s="180">
         <v>3400</v>
@@ -9933,16 +9901,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="178"/>
       <c r="B35" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C35" s="179" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D35" s="180">
         <v>3500</v>
@@ -9952,20 +9920,20 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C36" s="186"/>
       <c r="D36" s="187">
         <v>3600</v>
       </c>
       <c r="E36" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F36" s="188"/>
       <c r="G36" s="185"/>
@@ -9973,14 +9941,14 @@
     <row r="37" spans="1:7">
       <c r="A37" s="184"/>
       <c r="B37" s="185" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C37" s="186"/>
       <c r="D37" s="187">
         <v>3700</v>
       </c>
       <c r="E37" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F37" s="188"/>
       <c r="G37" s="185"/>
@@ -9991,7 +9959,7 @@
         <v>245</v>
       </c>
       <c r="C38" s="179" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D38" s="180">
         <v>3800</v>
@@ -10001,20 +9969,20 @@
         <v>3000</v>
       </c>
       <c r="G38" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="184"/>
       <c r="B39" s="185" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C39" s="186"/>
       <c r="D39" s="187">
         <v>3900</v>
       </c>
       <c r="E39" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F39" s="188"/>
       <c r="G39" s="185"/>
@@ -10022,14 +9990,14 @@
     <row r="40" spans="1:7">
       <c r="A40" s="184"/>
       <c r="B40" s="185" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C40" s="186"/>
       <c r="D40" s="187">
         <v>4000</v>
       </c>
       <c r="E40" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F40" s="188"/>
       <c r="G40" s="185"/>
@@ -10037,14 +10005,14 @@
     <row r="41" spans="1:7">
       <c r="A41" s="184"/>
       <c r="B41" s="185" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C41" s="186"/>
       <c r="D41" s="187">
         <v>4100</v>
       </c>
       <c r="E41" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F41" s="188"/>
       <c r="G41" s="185"/>
@@ -10052,10 +10020,10 @@
     <row r="42" spans="1:7">
       <c r="A42" s="178"/>
       <c r="B42" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C42" s="179" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D42" s="180">
         <v>4200</v>
@@ -10065,20 +10033,20 @@
         <v>30000</v>
       </c>
       <c r="G42" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="184"/>
       <c r="B43" s="185" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C43" s="186"/>
       <c r="D43" s="187">
         <v>4300</v>
       </c>
       <c r="E43" s="184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F43" s="188"/>
       <c r="G43" s="185"/>
@@ -10086,10 +10054,10 @@
     <row r="44" spans="1:7">
       <c r="A44" s="178"/>
       <c r="B44" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C44" s="179" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D44" s="180">
         <v>4400</v>
@@ -10100,7 +10068,7 @@
         <v>1860</v>
       </c>
       <c r="G44" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -10109,7 +10077,7 @@
         <v>187</v>
       </c>
       <c r="C45" s="179" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D45" s="180">
         <v>4500</v>
@@ -10119,13 +10087,13 @@
         <v>7000</v>
       </c>
       <c r="G45" s="182" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="178"/>
       <c r="B46" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C46" s="179"/>
       <c r="D46" s="180">
@@ -10136,13 +10104,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="182" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="189"/>
       <c r="B47" s="190" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C47" s="191"/>
       <c r="D47" s="192"/>

--- a/Task-n-Tool.xlsx
+++ b/Task-n-Tool.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="17940"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
-    <sheet name="2014" sheetId="2" r:id="rId1"/>
-    <sheet name="2013" sheetId="1" r:id="rId2"/>
-    <sheet name="2012.03" sheetId="3" r:id="rId3"/>
-    <sheet name="2012.02" sheetId="4" r:id="rId4"/>
-    <sheet name="2012.01" sheetId="5" r:id="rId5"/>
+    <sheet name="2015" sheetId="6" r:id="rId1"/>
+    <sheet name="2015.list" sheetId="7" r:id="rId2"/>
+    <sheet name="2015 Win" sheetId="8" r:id="rId3"/>
+    <sheet name="2014.01" sheetId="2" r:id="rId4"/>
+    <sheet name="2013" sheetId="1" r:id="rId5"/>
+    <sheet name="2012.03" sheetId="3" r:id="rId6"/>
+    <sheet name="2012.02" sheetId="4" r:id="rId7"/>
+    <sheet name="2012.01" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014'!$A$1:$E$66</definedName>
-    <definedName name="_Toc251017352" localSheetId="0">'2014'!$A$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2014.01'!$A$1:$E$66</definedName>
+    <definedName name="_Toc251017352" localSheetId="3">'2014.01'!$A$166</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="695">
   <si>
     <t>Задачи</t>
   </si>
@@ -791,17 +794,7 @@
     <t>MS Windows 7 Home Extended</t>
   </si>
   <si>
-    <t>Mac OS X 10.8.5 (Mountain Lion)</t>
-  </si>
-  <si>
-    <t>iOS 7.0.4</t>
-  </si>
-  <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>! Организовать регулярное резервное копирование на выделенный в домашней сети сервер.
-? Придумать как сделать регулярное полное копирование iOS устройств на домашний сервер.</t>
   </si>
   <si>
     <t>? Использование защищенного хранилища паролей безусловно удобно, однако снижает безопасность ваших паролей. Лучшее место для паролей голова, осталось ответить на вопрос, как их все уместить в ней</t>
@@ -1346,9 +1339,6 @@
     <t>Бесплатный Oracle клиент, написан на Java</t>
   </si>
   <si>
-    <t>POSIX поддержка и менеджер пакетов</t>
-  </si>
-  <si>
     <t xml:space="preserve">Звуковой редактор и конвертация аудио форматов </t>
   </si>
   <si>
@@ -2037,11 +2027,6 @@
     <t>CentOs 6.5</t>
   </si>
   <si>
-    <t>! Протестировать MS Windows 8
-! Протестировать Mac OS X Maverics
-! Поднять сервер на CentOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">+ Серверная специализация
 + Клон, использующейся на работе RHEL </t>
   </si>
@@ -2061,30 +2046,302 @@
 ! Найти уттилиты для чистки Windows</t>
   </si>
   <si>
+    <t>FAR 3</t>
+  </si>
+  <si>
+    <t>! Переход с TODO Pro на Напоминания</t>
+  </si>
+  <si>
+    <t>Eclipse Kepler 4.3</t>
+  </si>
+  <si>
+    <t>! Потестировать IntelliJ Idea
+! Протестировать Eclipse Luna 4.4
+! Сформировать список используемых плагинов</t>
+  </si>
+  <si>
+    <t>! Протестировать MS Windows 8</t>
+  </si>
+  <si>
+    <t>iOS 7.1.1, iOS 8.1.1</t>
+  </si>
+  <si>
+    <t>Mac OS X 10.9.5 (Maverics)</t>
+  </si>
+  <si>
+    <t>POSIX поддержка и менеджер пакетов (входит в MobaXTerm)</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>OS X 10.9.5 (Maverics)</t>
+  </si>
+  <si>
+    <t>OS X</t>
+  </si>
+  <si>
+    <t>Task/Category</t>
+  </si>
+  <si>
+    <t>Packet Manager</t>
+  </si>
+  <si>
+    <t>Clean &amp; Uninstall</t>
+  </si>
+  <si>
+    <t>Используем до появление стабильной 10.10</t>
+  </si>
+  <si>
+    <t>Для инсталляции сторонних пакетов</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>In use</t>
+  </si>
+  <si>
+    <t>Obsolete</t>
+  </si>
+  <si>
+    <t>To test</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>DiskOrder</t>
+  </si>
+  <si>
+    <t>? Придумать как сделать регулярное полное копирование iOS устройств на домашний сервер.</t>
+  </si>
+  <si>
+    <t>Acronis True Image for Mac</t>
+  </si>
+  <si>
+    <t>Синхронизация и Backup</t>
+  </si>
+  <si>
+    <t>Price for me</t>
+  </si>
+  <si>
+    <t>Офисный пакет</t>
+  </si>
+  <si>
+    <t>Editra</t>
+  </si>
+  <si>
+    <t>TextWrangler</t>
+  </si>
+  <si>
+    <t>Finereader for Mac</t>
+  </si>
+  <si>
+    <t>Редактор изображений</t>
+  </si>
+  <si>
+    <t>Редактор видео и звука</t>
+  </si>
+  <si>
+    <t>Браузер</t>
+  </si>
+  <si>
+    <t>Viber</t>
+  </si>
+  <si>
+    <t>+ Бесплатные видеозвонки
++ Недорогие международные звонки</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Perforce</t>
+  </si>
+  <si>
+    <t>IntelliJ Idea</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop CS4</t>
+  </si>
+  <si>
+    <t>+ Стандарт отрасли
+- Дорогой</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Бесплатный
++ Большой набор поддерживаемых архивов
++ Выбор кодировки имен файлов в Zip архивах
+</t>
+    </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial Cyr"/>
         <charset val="204"/>
       </rPr>
-      <t>! Найти файловый менеджер под Mac OS X</t>
+      <t>* Найти All-In-One решение</t>
     </r>
   </si>
   <si>
-    <t>FAR 3</t>
-  </si>
-  <si>
-    <t>! Переход с TODO Pro на Напоминания</t>
-  </si>
-  <si>
-    <t>Eclipse Kepler 4.3</t>
-  </si>
-  <si>
-    <t>! Потестировать IntelliJ Idea
-! Протестировать Eclipse Luna 4.4
-! Сформировать список используемых плагинов</t>
+    <r>
+      <t xml:space="preserve">+ Бесплатный
++ Выбор кодировки файлов в Zip архиве
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>* Найти All-In-One решение</t>
+    </r>
+  </si>
+  <si>
+    <t>+ Самое лучшее, что есть</t>
+  </si>
+  <si>
+    <t>* Найти</t>
+  </si>
+  <si>
+    <t>Beyond Compare</t>
+  </si>
+  <si>
+    <t>Araxis Merge</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">java - jvm
+javac - java compiler
+jmap - дамп памяти 
+jhat - анализатор дампа памяти
+jvisualvm - профайлер
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>* протестировать Java 8</t>
+    </r>
+  </si>
+  <si>
+    <t>JDK &amp; JRE 7</t>
+  </si>
+  <si>
+    <t>Java анализ дампа памяти</t>
+  </si>
+  <si>
+    <t>Перешел с Eclipse</t>
+  </si>
+  <si>
+    <t>VCM Perforce</t>
+  </si>
+  <si>
+    <t>VCM CVS</t>
+  </si>
+  <si>
+    <t>SmartCVS</t>
+  </si>
+  <si>
+    <t>Java Build</t>
+  </si>
+  <si>
+    <t>Installed using brew</t>
+  </si>
+  <si>
+    <t>Drivers</t>
+  </si>
+  <si>
+    <t>ASIX AX88772B USB to Eth</t>
+  </si>
+  <si>
+    <t>Драйвер для Eth to USB адаптера</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Полноценная поддержка офисных файлов
+- Есть огрехи в переносимости шрифтов
+- Горячие клавиши часто отличаются от версии для Windows
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>* Попробовать Open Office, MS Office 365</t>
+    </r>
+  </si>
+  <si>
+    <t>Терминал</t>
+  </si>
+  <si>
+    <t>iTerm2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Похож на Total Commander
++ Есть табы
+- Есть работа с архивами, но пока не полная
++ Есть подключение ftp, scp, sftp каталогов
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>* Продолжать мониторить filemanager'ы (pathfinder, mucommander, etc)</t>
+    </r>
+  </si>
+  <si>
+    <t>Улаленное адимнистирование</t>
+  </si>
+  <si>
+    <t>* Протестировать 8.1</t>
+  </si>
+  <si>
+    <t>POSIX для Win</t>
+  </si>
+  <si>
+    <t>Перешел на total commander
++ Самый популярный
++ В отличие от total commander бесплатный
+- Нет табов</t>
+  </si>
+  <si>
+    <t>Перешел с FAR, для меня более удобен</t>
+  </si>
+  <si>
+    <t>Запись диска</t>
+  </si>
+  <si>
+    <t>Пользовался разок - помог</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2894,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -2705,8 +2962,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3256,6 +3578,51 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3284,7 +3651,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="129">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
@@ -3349,14 +3716,74 @@
     <cellStyle name="Просмотренная гиперссылка" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="128" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3647,13 +4074,1321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9" style="208" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="208" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="208" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="208"/>
+    <col min="5" max="5" width="4.42578125" style="208" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="208" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="208"/>
+    <col min="9" max="9" width="71.5703125" style="208" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="208"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="213" customFormat="1">
+      <c r="A1" s="213" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1" s="213" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1" s="213" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1" s="213" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="213" t="s">
+        <v>651</v>
+      </c>
+      <c r="G1" s="213" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1" s="213" t="s">
+        <v>640</v>
+      </c>
+      <c r="I1" s="213" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="208" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="208" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G2" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H2" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I2" s="208" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="208" t="s">
+        <v>681</v>
+      </c>
+      <c r="C3" s="207" t="s">
+        <v>682</v>
+      </c>
+      <c r="D3" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G3" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H3" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I3" s="208" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="208" t="s">
+        <v>635</v>
+      </c>
+      <c r="C4" s="207" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G4" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H4" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I4" s="208" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26">
+      <c r="B5" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="C5" s="207" t="s">
+        <v>618</v>
+      </c>
+      <c r="D5" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G5" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H5" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="208" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="209" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G6" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H6" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="26">
+      <c r="B7" s="210" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="209" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G7" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H7" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="52">
+      <c r="B8" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="207" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G8" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H8" s="208" t="s">
+        <v>645</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="39">
+      <c r="B9" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="211" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G9" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H9" s="208" t="s">
+        <v>645</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="65">
+      <c r="B10" s="208" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="211" t="s">
+        <v>647</v>
+      </c>
+      <c r="D10" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G10" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H10" s="208" t="s">
+        <v>645</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26">
+      <c r="B11" s="208" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G11" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H11" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="214" customFormat="1" ht="52">
+      <c r="B12" s="214" t="s">
+        <v>650</v>
+      </c>
+      <c r="C12" s="211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="214" t="s">
+        <v>633</v>
+      </c>
+      <c r="G12" s="214" t="s">
+        <v>641</v>
+      </c>
+      <c r="H12" s="214" t="s">
+        <v>644</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="214" t="s">
+        <v>650</v>
+      </c>
+      <c r="C13" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G13" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H13" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="214" t="s">
+        <v>650</v>
+      </c>
+      <c r="C14" s="215" t="s">
+        <v>649</v>
+      </c>
+      <c r="D14" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G14" s="208" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="52">
+      <c r="B15" s="208" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="215" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G15" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H15" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="52">
+      <c r="B16" s="208" t="s">
+        <v>652</v>
+      </c>
+      <c r="C16" s="216" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G16" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H16" s="208" t="s">
+        <v>645</v>
+      </c>
+      <c r="I16" s="212" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="208" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="207" t="s">
+        <v>653</v>
+      </c>
+      <c r="D17" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G17" s="208" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="208" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="207" t="s">
+        <v>654</v>
+      </c>
+      <c r="D18" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G18" s="208" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="78">
+      <c r="B19" s="208" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="207" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G19" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H19" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="208" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="207" t="s">
+        <v>655</v>
+      </c>
+      <c r="D20" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G20" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H20" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I20" s="219" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="65">
+      <c r="B21" s="208" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="207" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G21" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H21" s="208" t="s">
+        <v>645</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="208" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="217" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G22" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H22" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="26">
+      <c r="B23" s="208" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="207" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G23" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H23" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="26">
+      <c r="B24" s="208" t="s">
+        <v>656</v>
+      </c>
+      <c r="C24" s="207" t="s">
+        <v>664</v>
+      </c>
+      <c r="D24" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G24" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H24" s="208" t="s">
+        <v>645</v>
+      </c>
+      <c r="I24" s="218" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="208" t="s">
+        <v>657</v>
+      </c>
+      <c r="D25" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="I25" s="220" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="208" t="s">
+        <v>658</v>
+      </c>
+      <c r="C26" s="217" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G26" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H26" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="26">
+      <c r="B27" s="208" t="s">
+        <v>333</v>
+      </c>
+      <c r="C27" s="217" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G27" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H27" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="208" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="207" t="s">
+        <v>659</v>
+      </c>
+      <c r="D28" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G28" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H28" s="208" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="208" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="207" t="s">
+        <v>661</v>
+      </c>
+      <c r="D29" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G29" s="208" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="208" t="s">
+        <v>688</v>
+      </c>
+      <c r="C30" s="207" t="s">
+        <v>372</v>
+      </c>
+      <c r="D30" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G30" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H30" s="208" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="208" t="s">
+        <v>685</v>
+      </c>
+      <c r="C31" s="207" t="s">
+        <v>686</v>
+      </c>
+      <c r="D31" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G31" s="208" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="208" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="207" t="s">
+        <v>357</v>
+      </c>
+      <c r="D32" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G32" s="208" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="208" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="207" t="s">
+        <v>670</v>
+      </c>
+      <c r="D33" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G33" s="208" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="208" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="207" t="s">
+        <v>671</v>
+      </c>
+      <c r="D34" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G34" s="208" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="78">
+      <c r="B35" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="217" t="s">
+        <v>673</v>
+      </c>
+      <c r="D35" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G35" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H35" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I35" s="221" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="208" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="207" t="s">
+        <v>663</v>
+      </c>
+      <c r="D36" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G36" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H36" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I36" s="208" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="208" t="s">
+        <v>674</v>
+      </c>
+      <c r="C37" s="217" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G37" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H37" s="208" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="C38" s="217" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G38" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H38" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I38" s="208" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="C39" s="217" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G39" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H39" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I39" s="208" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="208" t="s">
+        <v>677</v>
+      </c>
+      <c r="C40" s="207" t="s">
+        <v>678</v>
+      </c>
+      <c r="D40" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G40" s="208" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="C41" s="207" t="s">
+        <v>662</v>
+      </c>
+      <c r="D41" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G41" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H41" s="208" t="s">
+        <v>644</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="http://brew.sh/index_ru.html"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4" display="Avast! Free"/>
+    <hyperlink ref="C8" r:id="rId5" display="http://unarchiver.c3.cx/unarchiver"/>
+    <hyperlink ref="C9" r:id="rId6" display="http://www.sopht.jp/en/cleanarchiver/"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9" display="https://www.dropbox.com/"/>
+    <hyperlink ref="C13" r:id="rId10" display="https://github.com/"/>
+    <hyperlink ref="C14" r:id="rId11" display="http://www.acronis.ru/homecomputing/trueimage"/>
+    <hyperlink ref="C15" r:id="rId12" display="https://agilebits.com/onepassword"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C17" r:id="rId14"/>
+    <hyperlink ref="C18" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="C21" r:id="rId17"/>
+    <hyperlink ref="C20" r:id="rId18"/>
+    <hyperlink ref="C22" r:id="rId19"/>
+    <hyperlink ref="C23" r:id="rId20"/>
+    <hyperlink ref="C26" r:id="rId21"/>
+    <hyperlink ref="C27" r:id="rId22"/>
+    <hyperlink ref="C35" r:id="rId23" display="JDK &amp; JRE"/>
+    <hyperlink ref="C37" r:id="rId24"/>
+    <hyperlink ref="C38" r:id="rId25"/>
+    <hyperlink ref="C39" r:id="rId26"/>
+    <hyperlink ref="C24" r:id="rId27"/>
+    <hyperlink ref="C28" r:id="rId28"/>
+    <hyperlink ref="C29" r:id="rId29"/>
+    <hyperlink ref="C33" r:id="rId30"/>
+    <hyperlink ref="C34" r:id="rId31"/>
+    <hyperlink ref="C32" r:id="rId32"/>
+    <hyperlink ref="C36" r:id="rId33"/>
+    <hyperlink ref="C41" r:id="rId34"/>
+    <hyperlink ref="C40" r:id="rId35"/>
+    <hyperlink ref="C3" r:id="rId36"/>
+    <hyperlink ref="C31" r:id="rId37"/>
+    <hyperlink ref="C30" r:id="rId38"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'2015.list'!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G41</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'2015.list'!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H41</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="154" customFormat="1">
+      <c r="A1" s="154">
+        <v>201</v>
+      </c>
+      <c r="B1" s="154" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="2:9" s="208" customFormat="1">
+      <c r="B1" s="208" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H1" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I1" s="220" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" s="208" customFormat="1">
+      <c r="B2" s="208" t="s">
+        <v>690</v>
+      </c>
+      <c r="C2" s="207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="208" t="s">
+        <v>642</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="208" customFormat="1">
+      <c r="B3" s="208" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="209" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H3" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" s="208" customFormat="1" ht="26">
+      <c r="B4" s="210" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="209" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H4" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="208" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="210" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="209" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="208" t="s">
+        <v>642</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="208" customFormat="1">
+      <c r="B6" s="210" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="209" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="208" t="s">
+        <v>642</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="208" customFormat="1">
+      <c r="B7" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="207" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H7" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="208" customFormat="1">
+      <c r="B8" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="207" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="208" t="s">
+        <v>642</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="208" customFormat="1" ht="52">
+      <c r="B9" s="208" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="209" t="s">
+        <v>622</v>
+      </c>
+      <c r="D9" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="208" t="s">
+        <v>642</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="208" customFormat="1">
+      <c r="B10" s="208" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="209" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H10" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="208" customFormat="1" ht="26">
+      <c r="B11" s="208" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H11" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="208" customFormat="1" ht="39">
+      <c r="B12" s="208" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="209" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H12" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="208" customFormat="1">
+      <c r="B13" s="208" t="s">
+        <v>693</v>
+      </c>
+      <c r="C13" s="209" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H13" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" s="208" customFormat="1">
+      <c r="B14" s="208" t="s">
+        <v>693</v>
+      </c>
+      <c r="C14" s="209" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H14" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="208" customFormat="1">
+      <c r="B15" s="208" t="s">
+        <v>693</v>
+      </c>
+      <c r="C15" s="217" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="208" t="s">
+        <v>642</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" s="208" customFormat="1">
+      <c r="B16" s="208" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="215" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H16" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I16" s="208" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="214" customFormat="1" ht="52">
+      <c r="B17" s="214" t="s">
+        <v>650</v>
+      </c>
+      <c r="C17" s="211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="214" t="s">
+        <v>641</v>
+      </c>
+      <c r="H17" s="214" t="s">
+        <v>644</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="208" customFormat="1">
+      <c r="B18" s="214" t="s">
+        <v>650</v>
+      </c>
+      <c r="C18" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="208" t="s">
+        <v>633</v>
+      </c>
+      <c r="G18" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H18" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="208" customFormat="1">
+      <c r="D19" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H19" s="208" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="208" customFormat="1">
+      <c r="D20" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="208" t="s">
+        <v>641</v>
+      </c>
+      <c r="H20" s="208" t="s">
+        <v>644</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3" display="Avast! Free"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5" display="http://www.7-zip.org/"/>
+    <hyperlink ref="C8" r:id="rId6" display="http://www.win-rar.ru/"/>
+    <hyperlink ref="C9" r:id="rId7" display="FAR"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11" tooltip="Подробнее о Astroburn Lite" display="http://www.astroburn.com/rus/products/abLite"/>
+    <hyperlink ref="C14" r:id="rId12" tooltip="Подробнее о Astroburn Audio" display="http://www.astroburn.com/rus/products/abAudio"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://www.dropbox.com/"/>
+    <hyperlink ref="C18" r:id="rId16" display="https://github.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'2015.list'!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'2015.list'!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView topLeftCell="A51" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -3666,24 +5401,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1" ht="15">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="222" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="222" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="207" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="208" t="s">
+      <c r="C1" s="222" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="223" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="208"/>
+      <c r="E1" s="223"/>
     </row>
     <row r="2" spans="1:5" s="37" customFormat="1" ht="15">
-      <c r="A2" s="207"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
       <c r="D2" s="71" t="s">
         <v>199</v>
       </c>
@@ -3700,13 +5435,13 @@
       <c r="D3" s="62"/>
       <c r="E3" s="38"/>
     </row>
-    <row r="4" spans="1:5" s="41" customFormat="1" ht="39">
+    <row r="4" spans="1:5" s="41" customFormat="1">
       <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="39"/>
@@ -3721,7 +5456,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="57" t="s">
-        <v>231</v>
+        <v>628</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>33</v>
@@ -3732,7 +5467,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="51" t="s">
-        <v>232</v>
+        <v>627</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>34</v>
@@ -3740,13 +5475,13 @@
     </row>
     <row r="8" spans="1:5" ht="26">
       <c r="A8" s="57" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B8" s="205" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C8" s="206" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D8" s="205"/>
       <c r="E8" s="205"/>
@@ -3757,7 +5492,7 @@
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="40" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="39"/>
@@ -3781,18 +5516,18 @@
         <v>188</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>397</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26">
       <c r="A12" s="34" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3812,7 +5547,7 @@
         <v>193</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3835,7 +5570,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="17" spans="1:5" outlineLevel="1">
       <c r="A17" s="54" t="s">
         <v>216</v>
       </c>
@@ -3848,7 +5583,7 @@
       <c r="D17" s="65"/>
       <c r="E17" s="55"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="18" spans="1:5" outlineLevel="1">
       <c r="A18" s="53" t="s">
         <v>218</v>
       </c>
@@ -3859,13 +5594,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="26" collapsed="1">
+    <row r="19" spans="1:5" ht="26">
       <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="39"/>
@@ -3905,7 +5640,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="23" spans="1:5" outlineLevel="1">
       <c r="A23" s="59" t="s">
         <v>225</v>
       </c>
@@ -3918,42 +5653,40 @@
       <c r="D23" s="65"/>
       <c r="E23" s="55"/>
     </row>
-    <row r="24" spans="1:5" collapsed="1">
+    <row r="24" spans="1:5">
       <c r="A24" s="39" t="s">
         <v>118</v>
       </c>
       <c r="B24" s="39"/>
-      <c r="C24" s="40" t="s">
-        <v>627</v>
-      </c>
+      <c r="C24" s="40"/>
       <c r="D24" s="63"/>
       <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="39">
       <c r="A25" s="53" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B25" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" outlineLevel="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="1">
       <c r="A26" s="54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>178</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D26" s="65"/>
       <c r="E26" s="55"/>
     </row>
-    <row r="27" spans="1:5" collapsed="1">
+    <row r="27" spans="1:5">
       <c r="A27" s="39" t="s">
         <v>119</v>
       </c>
@@ -3970,12 +5703,12 @@
         <v>193</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -3990,12 +5723,12 @@
         <v>178</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B31" s="55" t="s">
         <v>33</v>
@@ -4006,7 +5739,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -4021,7 +5754,7 @@
         <v>178</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4032,36 +5765,36 @@
         <v>178</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D34" s="65"/>
       <c r="E34" s="55"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="35" spans="1:5" outlineLevel="1">
       <c r="A35" s="60" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" collapsed="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="39" t="s">
         <v>120</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D36" s="63"/>
       <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="52" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>178</v>
@@ -4078,13 +5811,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="60" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4098,13 +5831,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="60" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4113,7 +5846,7 @@
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="80" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D42" s="63"/>
       <c r="E42" s="39"/>
@@ -4129,13 +5862,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="60" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B45" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D45" s="64">
         <v>66</v>
@@ -4156,7 +5889,7 @@
       </c>
       <c r="B47" s="40"/>
       <c r="C47" s="40" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D47" s="66"/>
       <c r="E47" s="40"/>
@@ -4194,11 +5927,11 @@
         <v>169</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D50" s="67"/>
     </row>
-    <row r="51" spans="1:5" ht="26" hidden="1" outlineLevel="1">
+    <row r="51" spans="1:5" ht="26" outlineLevel="1">
       <c r="A51" s="54" t="s">
         <v>168</v>
       </c>
@@ -4211,7 +5944,7 @@
       <c r="D51" s="65"/>
       <c r="E51" s="55"/>
     </row>
-    <row r="52" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="52" spans="1:5" s="49" customFormat="1" outlineLevel="1">
       <c r="A52" s="46" t="s">
         <v>173</v>
       </c>
@@ -4222,7 +5955,7 @@
       <c r="D52" s="69"/>
       <c r="E52" s="47"/>
     </row>
-    <row r="53" spans="1:5" s="49" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="53" spans="1:5" s="49" customFormat="1" outlineLevel="1">
       <c r="A53" s="57" t="s">
         <v>174</v>
       </c>
@@ -4233,13 +5966,13 @@
       <c r="D53" s="65"/>
       <c r="E53" s="55"/>
     </row>
-    <row r="54" spans="1:5" s="41" customFormat="1" ht="52" collapsed="1">
+    <row r="54" spans="1:5" s="41" customFormat="1" ht="26">
       <c r="A54" s="39" t="s">
         <v>93</v>
       </c>
       <c r="B54" s="40"/>
       <c r="C54" s="40" t="s">
-        <v>234</v>
+        <v>648</v>
       </c>
       <c r="D54" s="66"/>
       <c r="E54" s="40"/>
@@ -4294,7 +6027,7 @@
       <c r="D58" s="68"/>
       <c r="E58" s="55"/>
     </row>
-    <row r="59" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="59" spans="1:5" outlineLevel="1">
       <c r="A59" s="52" t="s">
         <v>187</v>
       </c>
@@ -4306,7 +6039,7 @@
       </c>
       <c r="D59" s="70"/>
     </row>
-    <row r="60" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="60" spans="1:5" outlineLevel="1">
       <c r="A60" s="57" t="s">
         <v>190</v>
       </c>
@@ -4319,13 +6052,13 @@
       <c r="D60" s="68"/>
       <c r="E60" s="55"/>
     </row>
-    <row r="61" spans="1:5" ht="39" collapsed="1">
+    <row r="61" spans="1:5" ht="39">
       <c r="A61" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="40" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D61" s="63"/>
       <c r="E61" s="39"/>
@@ -4343,7 +6076,7 @@
       <c r="D62" s="70"/>
       <c r="E62" s="45"/>
     </row>
-    <row r="63" spans="1:5" s="41" customFormat="1" ht="26" hidden="1" outlineLevel="1">
+    <row r="63" spans="1:5" s="41" customFormat="1" ht="26" outlineLevel="1">
       <c r="A63" s="54" t="s">
         <v>196</v>
       </c>
@@ -4356,7 +6089,7 @@
       <c r="D63" s="68"/>
       <c r="E63" s="55"/>
     </row>
-    <row r="64" spans="1:5" s="41" customFormat="1" ht="52" hidden="1" outlineLevel="1">
+    <row r="64" spans="1:5" s="41" customFormat="1" ht="52" outlineLevel="1">
       <c r="A64" s="51" t="s">
         <v>195</v>
       </c>
@@ -4367,7 +6100,7 @@
       <c r="D64" s="64"/>
       <c r="E64" s="45"/>
     </row>
-    <row r="65" spans="1:5" s="41" customFormat="1" ht="52" hidden="1" outlineLevel="1">
+    <row r="65" spans="1:5" s="41" customFormat="1" ht="52" outlineLevel="1">
       <c r="A65" s="57" t="s">
         <v>202</v>
       </c>
@@ -4378,7 +6111,7 @@
       <c r="D65" s="65"/>
       <c r="E65" s="55"/>
     </row>
-    <row r="66" spans="1:5" collapsed="1">
+    <row r="66" spans="1:5">
       <c r="A66" s="39" t="s">
         <v>116</v>
       </c>
@@ -4398,7 +6131,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="26" hidden="1" outlineLevel="1">
+    <row r="68" spans="1:5" ht="26" outlineLevel="1">
       <c r="A68" s="57" t="s">
         <v>208</v>
       </c>
@@ -4411,7 +6144,7 @@
       <c r="D68" s="65"/>
       <c r="E68" s="55"/>
     </row>
-    <row r="69" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="69" spans="1:5" outlineLevel="1">
       <c r="A69" s="51" t="s">
         <v>211</v>
       </c>
@@ -4422,7 +6155,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="70" spans="1:5" outlineLevel="1">
       <c r="A70" s="58" t="s">
         <v>213</v>
       </c>
@@ -4433,7 +6166,7 @@
       <c r="D70" s="65"/>
       <c r="E70" s="55"/>
     </row>
-    <row r="71" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1">
+    <row r="71" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A71" s="38" t="s">
         <v>125</v>
       </c>
@@ -4448,31 +6181,31 @@
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="40" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D72" s="39"/>
       <c r="E72" s="39"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="53" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C73" s="50" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="39">
       <c r="A74" s="72" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B74" s="55" t="s">
         <v>181</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D74" s="65"/>
       <c r="E74" s="55"/>
@@ -4483,7 +6216,7 @@
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="80" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
@@ -4496,7 +6229,7 @@
         <v>178</v>
       </c>
       <c r="C76" s="50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4516,15 +6249,15 @@
         <v>178</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="57" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C79" s="55"/>
       <c r="D79" s="65"/>
@@ -4547,95 +6280,95 @@
         <v>193</v>
       </c>
       <c r="C81" s="50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" outlineLevel="1">
+      <c r="A82" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="B82" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" s="76" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15" hidden="1" outlineLevel="1">
-      <c r="A82" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="B82" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="C82" s="76" t="s">
-        <v>271</v>
       </c>
       <c r="D82" s="65"/>
       <c r="E82" s="55"/>
     </row>
-    <row r="83" spans="1:5" collapsed="1">
+    <row r="83" spans="1:5">
       <c r="A83" s="39" t="s">
         <v>131</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="40" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="40" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
     </row>
     <row r="86" spans="1:5" ht="65">
       <c r="A86" s="34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B86" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="65">
       <c r="A87" s="35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B87" s="78" t="s">
         <v>34</v>
       </c>
       <c r="C87" s="56" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D87" s="65"/>
       <c r="E87" s="55"/>
     </row>
     <row r="88" spans="1:5" ht="78">
       <c r="A88" s="34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B88" s="77" t="s">
         <v>34</v>
       </c>
       <c r="C88" s="50" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="52">
       <c r="A89" s="35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B89" s="78" t="s">
         <v>34</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D89" s="65"/>
       <c r="E89" s="55"/>
     </row>
-    <row r="90" spans="1:5" ht="15" hidden="1" outlineLevel="1">
+    <row r="90" spans="1:5" ht="15" outlineLevel="1">
       <c r="A90" s="74" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B90" s="45" t="s">
         <v>178</v>
@@ -4644,18 +6377,18 @@
         <v>210</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" hidden="1" outlineLevel="1">
+    <row r="91" spans="1:5" ht="15" outlineLevel="1">
       <c r="A91" s="74" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B91" s="73" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C91" s="73" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="41" customFormat="1" ht="15" collapsed="1">
+    <row r="92" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A92" s="38" t="s">
         <v>132</v>
       </c>
@@ -4675,18 +6408,18 @@
     </row>
     <row r="94" spans="1:5" ht="78">
       <c r="A94" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="55" customFormat="1" ht="15" outlineLevel="1">
+      <c r="A95" s="75" t="s">
         <v>284</v>
-      </c>
-      <c r="B94" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="C94" s="50" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="55" customFormat="1" ht="15" hidden="1" outlineLevel="1">
-      <c r="A95" s="75" t="s">
-        <v>287</v>
       </c>
       <c r="B95" s="55" t="s">
         <v>178</v>
@@ -4696,13 +6429,13 @@
       </c>
       <c r="D95" s="65"/>
     </row>
-    <row r="96" spans="1:5" collapsed="1">
+    <row r="96" spans="1:5">
       <c r="A96" s="39" t="s">
         <v>134</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="40" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D96" s="39"/>
       <c r="E96" s="39"/>
@@ -4727,13 +6460,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="51" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B100" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4747,13 +6480,13 @@
     </row>
     <row r="102" spans="1:5" ht="26">
       <c r="A102" s="51" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C102" s="50" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4767,35 +6500,35 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="60" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B104" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C104" s="45" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="72" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B105" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C105" s="45" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D105" s="65"/>
       <c r="E105" s="55"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="39" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="40" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
@@ -4820,13 +6553,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="51" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B110" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C110" s="45" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4835,66 +6568,66 @@
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="40" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B112" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="26">
       <c r="A113" s="72" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B113" s="55" t="s">
         <v>193</v>
       </c>
       <c r="C113" s="56" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D113" s="65"/>
       <c r="E113" s="55"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="72" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B114" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C114" s="56" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D114" s="65"/>
       <c r="E114" s="55"/>
     </row>
     <row r="115" spans="1:5" ht="26">
       <c r="A115" s="60" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B115" s="45" t="s">
         <v>188</v>
       </c>
       <c r="C115" s="50" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="39" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="40" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
@@ -4905,7 +6638,7 @@
       </c>
       <c r="B118" s="38"/>
       <c r="C118" s="38" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38"/>
@@ -4924,10 +6657,10 @@
         <v>143</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4941,13 +6674,13 @@
     </row>
     <row r="122" spans="1:5" ht="26">
       <c r="A122" s="60" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B122" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4956,7 +6689,7 @@
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="40" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -4972,7 +6705,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="39"/>
@@ -4987,7 +6720,7 @@
         <v>193</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4996,7 +6729,7 @@
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="40" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
@@ -5012,61 +6745,61 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="40" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="60" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B132" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="57" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B133" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C133" s="55" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D133" s="65"/>
       <c r="E133" s="55"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="39" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B134" s="39"/>
       <c r="C134" s="40" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D134" s="39"/>
       <c r="E134" s="39"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="60" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B135" s="45" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="72" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B136" s="55" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C136" s="55"/>
       <c r="D136" s="65"/>
@@ -5074,19 +6807,19 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="60" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B137" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="39" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B138" s="39"/>
       <c r="C138" s="40" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D138" s="39"/>
       <c r="E138" s="39"/>
@@ -5099,18 +6832,18 @@
         <v>193</v>
       </c>
       <c r="C139" s="50" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="72" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B140" s="55" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C140" s="56" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D140" s="65"/>
       <c r="E140" s="55"/>
@@ -5130,42 +6863,42 @@
       </c>
       <c r="B142" s="39"/>
       <c r="C142" s="40" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D142" s="39"/>
       <c r="E142" s="39"/>
     </row>
     <row r="143" spans="1:5" ht="52">
       <c r="A143" s="60" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B143" s="45" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C143" s="50" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="52">
       <c r="A144" s="60" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B144" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C144" s="50" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="52">
       <c r="A145" s="60" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B145" s="45" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C145" s="50" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5174,7 +6907,7 @@
       </c>
       <c r="B146" s="39"/>
       <c r="C146" s="40" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D146" s="39"/>
       <c r="E146" s="39"/>
@@ -5185,7 +6918,7 @@
       </c>
       <c r="B148" s="39"/>
       <c r="C148" s="40" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D148" s="39"/>
       <c r="E148" s="39"/>
@@ -5205,44 +6938,44 @@
       </c>
       <c r="B151" s="39"/>
       <c r="C151" s="40" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D151" s="39"/>
       <c r="E151" s="39"/>
     </row>
     <row r="152" spans="1:5" ht="39">
       <c r="A152" s="60" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B152" s="45" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C152" s="50" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="1:5" outlineLevel="1">
       <c r="A153" s="72" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B153" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C153" s="55" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D153" s="65"/>
       <c r="E153" s="55"/>
     </row>
     <row r="154" spans="1:5" outlineLevel="1">
       <c r="A154" s="51" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B154" s="45" t="s">
         <v>188</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5251,7 +6984,7 @@
       </c>
       <c r="B155" s="39"/>
       <c r="C155" s="40" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D155" s="39"/>
       <c r="E155" s="39"/>
@@ -5262,7 +6995,7 @@
       </c>
       <c r="B157" s="39"/>
       <c r="C157" s="40" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D157" s="39"/>
       <c r="E157" s="39"/>
@@ -5282,7 +7015,7 @@
       </c>
       <c r="B160" s="39"/>
       <c r="C160" s="40" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D160" s="39"/>
       <c r="E160" s="39"/>
@@ -5298,10 +7031,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="60" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B163" s="45" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="41" customFormat="1" ht="15">
@@ -5310,14 +7043,14 @@
       </c>
       <c r="B164" s="38"/>
       <c r="C164" s="38" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D164" s="38"/>
       <c r="E164" s="38"/>
     </row>
     <row r="166" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A166" s="38" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B166" s="38"/>
       <c r="C166" s="38"/>
@@ -5330,7 +7063,7 @@
       </c>
       <c r="B167" s="39"/>
       <c r="C167" s="61" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D167" s="39"/>
       <c r="E167" s="39"/>
@@ -5341,20 +7074,20 @@
       </c>
       <c r="B169" s="39"/>
       <c r="C169" s="40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D169" s="39"/>
       <c r="E169" s="39"/>
     </row>
     <row r="170" spans="1:5" ht="78">
       <c r="A170" s="34" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B170" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C170" s="50" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="52">
@@ -5365,16 +7098,16 @@
         <v>188</v>
       </c>
       <c r="C171" s="50" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="39" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B172" s="39"/>
       <c r="C172" s="40" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D172" s="39"/>
       <c r="E172" s="39"/>
@@ -5393,14 +7126,14 @@
       </c>
       <c r="B174" s="39"/>
       <c r="C174" s="40" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="60" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5409,38 +7142,38 @@
       </c>
       <c r="B176" s="39"/>
       <c r="C176" s="39" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D176" s="39"/>
       <c r="E176" s="39"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="51" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B177" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C177" s="45" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="57" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B178" s="55" t="s">
         <v>193</v>
       </c>
       <c r="C178" s="55" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D178" s="65"/>
       <c r="E178" s="55"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="60" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B179" s="45" t="s">
         <v>193</v>
@@ -5457,18 +7190,18 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="51" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B181" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C181" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="72" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B182" s="55" t="s">
         <v>193</v>
@@ -5479,7 +7212,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="60" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B183" s="45" t="s">
         <v>193</v>
@@ -5491,7 +7224,7 @@
       </c>
       <c r="B184" s="39"/>
       <c r="C184" s="40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D184" s="39"/>
       <c r="E184" s="39"/>
@@ -5502,7 +7235,7 @@
       </c>
       <c r="B186" s="39"/>
       <c r="C186" s="40" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D186" s="39"/>
       <c r="E186" s="39"/>
@@ -5525,35 +7258,35 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="39" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B189" s="39"/>
       <c r="C189" s="40" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D189" s="39"/>
       <c r="E189" s="39"/>
     </row>
     <row r="190" spans="1:5" ht="26">
       <c r="A190" s="60" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B190" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C190" s="50" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="26">
       <c r="A191" s="60" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B191" s="45" t="s">
         <v>188</v>
       </c>
       <c r="C191" s="50" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5562,14 +7295,14 @@
       </c>
       <c r="B192" s="39"/>
       <c r="C192" s="40" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D192" s="39"/>
       <c r="E192" s="39"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="60" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B193" s="45" t="s">
         <v>193</v>
@@ -5581,7 +7314,7 @@
       </c>
       <c r="B194" s="39"/>
       <c r="C194" s="40" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D194" s="39"/>
       <c r="E194" s="39"/>
@@ -5592,7 +7325,7 @@
       </c>
       <c r="B196" s="39"/>
       <c r="C196" s="40" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D196" s="39"/>
       <c r="E196" s="39"/>
@@ -5608,15 +7341,15 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="60" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B199" s="45" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="60" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B200" s="45" t="s">
         <v>188</v>
@@ -5627,12 +7360,12 @@
         <v>12</v>
       </c>
       <c r="B201" s="45" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="39" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B202" s="39"/>
       <c r="C202" s="39"/>
@@ -5641,35 +7374,35 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="60" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B203" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C203" s="45" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="60" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B204" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C204" s="45" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="60" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B205" s="45" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C205" s="45" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5683,13 +7416,13 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="60" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B207" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C207" s="45" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5700,7 +7433,7 @@
         <v>193</v>
       </c>
       <c r="C208" s="45" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -5804,7 +7537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
@@ -5826,10 +7559,10 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="210"/>
+      <c r="C1" s="225"/>
       <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
@@ -5877,7 +7610,7 @@
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="226" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5888,7 +7621,7 @@
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="211"/>
+      <c r="A6" s="226"/>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
@@ -5897,7 +7630,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="226" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -5910,7 +7643,7 @@
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="211"/>
+      <c r="A8" s="226"/>
       <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
@@ -5919,7 +7652,7 @@
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="211" t="s">
+      <c r="A9" s="226" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -5932,7 +7665,7 @@
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="26">
-      <c r="A10" s="211"/>
+      <c r="A10" s="226"/>
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
@@ -5954,7 +7687,7 @@
       <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="226" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5965,7 +7698,7 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="211"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -5974,7 +7707,7 @@
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="211"/>
+      <c r="A14" s="226"/>
       <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
@@ -6059,7 +7792,7 @@
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="227" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6072,7 +7805,7 @@
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="213"/>
+      <c r="A22" s="228"/>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -6166,7 +7899,7 @@
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="211" t="s">
+      <c r="A30" s="226" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6179,7 +7912,7 @@
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="211"/>
+      <c r="A31" s="226"/>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
@@ -6282,7 +8015,7 @@
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="212" t="s">
+      <c r="A40" s="227" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -6293,7 +8026,7 @@
       <c r="E40" s="16"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="213"/>
+      <c r="A41" s="228"/>
       <c r="B41" s="6" t="s">
         <v>78</v>
       </c>
@@ -6344,7 +8077,7 @@
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="211" t="s">
+      <c r="A46" s="226" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -6355,7 +8088,7 @@
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="211"/>
+      <c r="A47" s="226"/>
       <c r="B47" s="28" t="s">
         <v>101</v>
       </c>
@@ -6364,7 +8097,7 @@
       <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A48" s="211"/>
+      <c r="A48" s="226"/>
       <c r="B48" s="6" t="s">
         <v>67</v>
       </c>
@@ -6461,7 +8194,7 @@
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="211" t="s">
+      <c r="A57" s="226" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6472,7 +8205,7 @@
       <c r="E57" s="16"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="211"/>
+      <c r="A58" s="226"/>
       <c r="B58" s="6" t="s">
         <v>15</v>
       </c>
@@ -6591,7 +8324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
@@ -6618,101 +8351,101 @@
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1" s="83" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="G1" s="83" t="s">
         <v>405</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="H1" s="229" t="s">
         <v>406</v>
       </c>
-      <c r="E1" s="83" t="s">
-        <v>407</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>408</v>
-      </c>
-      <c r="G1" s="83" t="s">
-        <v>409</v>
-      </c>
-      <c r="H1" s="214" t="s">
-        <v>410</v>
-      </c>
-      <c r="I1" s="215"/>
+      <c r="I1" s="230"/>
     </row>
     <row r="2" spans="1:9" s="91" customFormat="1" ht="91">
       <c r="A2" s="85" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="87">
         <v>10</v>
       </c>
       <c r="E2" s="87"/>
       <c r="F2" s="88" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G2" s="88"/>
       <c r="H2" s="89">
         <v>5500</v>
       </c>
       <c r="I2" s="90" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="143">
       <c r="A3" s="85" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="92" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H3" s="93">
         <v>11990</v>
       </c>
       <c r="I3" s="94" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26">
       <c r="A4" s="95" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D4" s="87">
         <v>90</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87"/>
       <c r="H4" s="96"/>
       <c r="I4" s="97" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6723,21 +8456,21 @@
         <v>225</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D5" s="100"/>
       <c r="E5" s="100" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G5" s="101"/>
       <c r="H5" s="102">
         <v>29</v>
       </c>
       <c r="I5" s="103" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1">
@@ -6754,11 +8487,11 @@
       <c r="E6" s="106"/>
       <c r="F6" s="107"/>
       <c r="G6" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H6" s="108"/>
       <c r="I6" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6773,17 +8506,17 @@
         <v>40</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H7" s="108"/>
       <c r="I7" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="38.25" customHeight="1">
@@ -6791,7 +8524,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C8" s="104"/>
       <c r="D8" s="106">
@@ -6802,7 +8535,7 @@
       <c r="G8" s="107"/>
       <c r="H8" s="108"/>
       <c r="I8" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6813,21 +8546,21 @@
         <v>216</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D9" s="100"/>
       <c r="E9" s="100" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="102">
         <v>1080</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6842,49 +8575,49 @@
         <v>120</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F10" s="106"/>
       <c r="G10" s="110" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H10" s="108"/>
       <c r="I10" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="52">
       <c r="A11" s="98" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D11" s="100"/>
       <c r="E11" s="100" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F11" s="100"/>
       <c r="G11" s="111" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H11" s="112"/>
       <c r="I11" s="113" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="26">
       <c r="A12" s="98" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D12" s="100">
         <v>160</v>
@@ -6896,22 +8629,22 @@
         <v>46</v>
       </c>
       <c r="I12" s="103" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="52">
       <c r="A13" s="98" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D13" s="101"/>
       <c r="E13" s="100" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F13" s="100"/>
       <c r="G13" s="100"/>
@@ -6919,18 +8652,18 @@
         <v>15000</v>
       </c>
       <c r="I13" s="103" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="52">
       <c r="A14" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" s="95" t="s">
         <v>429</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>432</v>
-      </c>
-      <c r="C14" s="95" t="s">
-        <v>433</v>
       </c>
       <c r="D14" s="88">
         <v>170</v>
@@ -6938,13 +8671,13 @@
       <c r="E14" s="87"/>
       <c r="F14" s="87"/>
       <c r="G14" s="92" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H14" s="93">
         <v>14990</v>
       </c>
       <c r="I14" s="94" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="26">
@@ -6952,20 +8685,20 @@
         <v>5</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D15" s="100"/>
       <c r="E15" s="100" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F15" s="100"/>
       <c r="G15" s="100"/>
       <c r="H15" s="112"/>
       <c r="I15" s="113" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="65">
@@ -6976,98 +8709,98 @@
         <v>53</v>
       </c>
       <c r="C16" s="95" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D16" s="87">
         <v>30</v>
       </c>
       <c r="E16" s="88"/>
       <c r="F16" s="88" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H16" s="96"/>
       <c r="I16" s="97" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="114" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C17" s="104"/>
       <c r="D17" s="106">
         <v>60</v>
       </c>
       <c r="E17" s="106" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H17" s="108"/>
       <c r="I17" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="114" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C18" s="104"/>
       <c r="D18" s="106">
         <v>70</v>
       </c>
       <c r="E18" s="106" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F18" s="106"/>
       <c r="G18" s="106"/>
       <c r="H18" s="108"/>
       <c r="I18" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="114" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B19" s="105" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C19" s="104"/>
       <c r="D19" s="106">
         <v>50</v>
       </c>
       <c r="E19" s="106" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F19" s="106"/>
       <c r="G19" s="110" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H19" s="108"/>
       <c r="I19" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="120" customFormat="1">
       <c r="A20" s="115" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C20" s="115"/>
       <c r="D20" s="117"/>
@@ -7076,12 +8809,12 @@
       <c r="G20" s="117"/>
       <c r="H20" s="118"/>
       <c r="I20" s="119" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="26">
       <c r="A21" s="104" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B21" s="105" t="s">
         <v>17</v>
@@ -7091,34 +8824,34 @@
         <v>200</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F21" s="106"/>
       <c r="G21" s="106"/>
       <c r="H21" s="108"/>
       <c r="I21" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="98" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D22" s="100"/>
       <c r="E22" s="100" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F22" s="100"/>
       <c r="G22" s="100"/>
       <c r="H22" s="112"/>
       <c r="I22" s="113" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -7129,7 +8862,7 @@
         <v>196</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D23" s="117"/>
       <c r="E23" s="117"/>
@@ -7140,18 +8873,18 @@
         <v>308.45</v>
       </c>
       <c r="I23" s="119" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="115" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B24" s="116" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D24" s="117"/>
       <c r="E24" s="117"/>
@@ -7159,12 +8892,12 @@
       <c r="G24" s="117"/>
       <c r="H24" s="118"/>
       <c r="I24" s="119" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26">
       <c r="A25" s="104" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B25" s="105" t="s">
         <v>1</v>
@@ -7176,11 +8909,11 @@
       <c r="E25" s="107"/>
       <c r="F25" s="107"/>
       <c r="G25" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H25" s="108"/>
       <c r="I25" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -7195,18 +8928,18 @@
         <v>150</v>
       </c>
       <c r="E26" s="106" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F26" s="106"/>
       <c r="G26" s="106"/>
       <c r="H26" s="108"/>
       <c r="I26" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="104" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B27" s="105" t="s">
         <v>21</v>
@@ -7216,24 +8949,24 @@
         <v>180</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F27" s="107"/>
       <c r="G27" s="107"/>
       <c r="H27" s="108"/>
       <c r="I27" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="115" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B28" s="121" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D28" s="117"/>
       <c r="E28" s="117"/>
@@ -7244,13 +8977,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="115" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B29" s="121" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C29" s="115" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="117"/>
@@ -7264,10 +8997,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="121" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D30" s="117"/>
       <c r="E30" s="117"/>
@@ -7277,7 +9010,7 @@
         <v>3000</v>
       </c>
       <c r="I30" s="119" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7288,7 +9021,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="95" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D31" s="87">
         <v>100</v>
@@ -7298,7 +9031,7 @@
       <c r="G31" s="88"/>
       <c r="H31" s="96"/>
       <c r="I31" s="97" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7309,7 +9042,7 @@
         <v>48</v>
       </c>
       <c r="C32" s="95" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D32" s="87">
         <v>110</v>
@@ -7319,18 +9052,18 @@
       <c r="G32" s="88"/>
       <c r="H32" s="96"/>
       <c r="I32" s="97" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="115" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B33" s="121" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C33" s="122" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D33" s="117"/>
       <c r="E33" s="117"/>
@@ -7341,13 +9074,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="115" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B34" s="121" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D34" s="117"/>
       <c r="E34" s="117"/>
@@ -7361,10 +9094,10 @@
         <v>23</v>
       </c>
       <c r="B35" s="121" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C35" s="122" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D35" s="117"/>
       <c r="E35" s="117"/>
@@ -7378,7 +9111,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C36" s="104"/>
       <c r="D36" s="106">
@@ -7391,18 +9124,18 @@
         <v>30000</v>
       </c>
       <c r="I36" s="124" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="115" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B37" s="121" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C37" s="115" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D37" s="117"/>
       <c r="E37" s="117"/>
@@ -7410,7 +9143,7 @@
       <c r="G37" s="117"/>
       <c r="H37" s="118"/>
       <c r="I37" s="119" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7418,10 +9151,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="125" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C38" s="115" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D38" s="117"/>
       <c r="E38" s="117"/>
@@ -7432,7 +9165,7 @@
         <v>1860</v>
       </c>
       <c r="I38" s="119" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7440,16 +9173,16 @@
         <v>93</v>
       </c>
       <c r="B39" s="105" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D39" s="106">
         <v>220</v>
       </c>
       <c r="E39" s="106" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F39" s="106"/>
       <c r="G39" s="106"/>
@@ -7457,18 +9190,18 @@
         <v>9900</v>
       </c>
       <c r="I39" s="124" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="126" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B40" s="127" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D40" s="117"/>
       <c r="E40" s="128"/>
@@ -7478,37 +9211,37 @@
         <v>10</v>
       </c>
       <c r="I40" s="130" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="104" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B41" s="131" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C41" s="104"/>
       <c r="D41" s="107"/>
       <c r="E41" s="106" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F41" s="106"/>
       <c r="G41" s="106"/>
       <c r="H41" s="108"/>
       <c r="I41" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="104" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D42" s="107">
         <v>210</v>
@@ -7518,7 +9251,7 @@
       <c r="G42" s="107"/>
       <c r="H42" s="108"/>
       <c r="I42" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7526,7 +9259,7 @@
         <v>120</v>
       </c>
       <c r="B43" s="133" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C43" s="132"/>
       <c r="D43" s="134"/>
@@ -7538,10 +9271,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="132" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C44" s="132"/>
       <c r="D44" s="134"/>
@@ -7553,10 +9286,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="132" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B45" s="137" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C45" s="132"/>
       <c r="D45" s="134"/>
@@ -7580,13 +9313,13 @@
       <c r="E46" s="107"/>
       <c r="F46" s="107"/>
       <c r="G46" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H46" s="123">
         <v>50</v>
       </c>
       <c r="I46" s="124" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7603,11 +9336,11 @@
       <c r="E47" s="107"/>
       <c r="F47" s="107"/>
       <c r="G47" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H47" s="108"/>
       <c r="I47" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="26">
@@ -7615,67 +9348,67 @@
         <v>25</v>
       </c>
       <c r="B48" s="105" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D48" s="107"/>
       <c r="E48" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F48" s="107"/>
       <c r="G48" s="107"/>
       <c r="H48" s="108"/>
       <c r="I48" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="95" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C49" s="95" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D49" s="88"/>
       <c r="E49" s="88" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F49" s="88"/>
       <c r="G49" s="88"/>
       <c r="H49" s="96"/>
       <c r="I49" s="97" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="104" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B50" s="105" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D50" s="107"/>
       <c r="E50" s="107"/>
       <c r="F50" s="107"/>
       <c r="G50" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H50" s="108"/>
       <c r="I50" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="26">
       <c r="A51" s="104" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B51" s="105" t="s">
         <v>7</v>
@@ -7685,16 +9418,16 @@
       <c r="E51" s="107"/>
       <c r="F51" s="107"/>
       <c r="G51" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H51" s="108"/>
       <c r="I51" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="104" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B52" s="105" t="s">
         <v>8</v>
@@ -7704,42 +9437,42 @@
       <c r="E52" s="107"/>
       <c r="F52" s="107"/>
       <c r="G52" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H52" s="108"/>
       <c r="I52" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="104" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B53" s="105" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C53" s="104" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D53" s="107"/>
       <c r="E53" s="107"/>
       <c r="F53" s="107"/>
       <c r="G53" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H53" s="139">
         <v>500</v>
       </c>
       <c r="I53" s="140" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="132" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B54" s="133" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C54" s="132"/>
       <c r="D54" s="134"/>
@@ -7761,35 +9494,35 @@
       <c r="E55" s="107"/>
       <c r="F55" s="107"/>
       <c r="G55" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H55" s="108"/>
       <c r="I55" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="104" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B56" s="105" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C56" s="104"/>
       <c r="D56" s="107"/>
       <c r="E56" s="107"/>
       <c r="F56" s="107"/>
       <c r="G56" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H56" s="108"/>
       <c r="I56" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="104" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B57" s="105" t="s">
         <v>11</v>
@@ -7799,11 +9532,11 @@
       <c r="E57" s="107"/>
       <c r="F57" s="107"/>
       <c r="G57" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H57" s="108"/>
       <c r="I57" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7811,10 +9544,10 @@
         <v>27</v>
       </c>
       <c r="B58" s="141" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C58" s="122" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D58" s="142"/>
       <c r="E58" s="142"/>
@@ -7824,7 +9557,7 @@
         <v>60</v>
       </c>
       <c r="I58" s="144" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7835,17 +9568,17 @@
         <v>31</v>
       </c>
       <c r="C59" s="104" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D59" s="107"/>
       <c r="E59" s="107"/>
       <c r="F59" s="107"/>
       <c r="G59" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H59" s="108"/>
       <c r="I59" s="145" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7860,59 +9593,59 @@
       <c r="E60" s="107"/>
       <c r="F60" s="107"/>
       <c r="G60" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H60" s="108"/>
       <c r="I60" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="104" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B61" s="105" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="104" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D61" s="107"/>
       <c r="E61" s="107"/>
       <c r="F61" s="107"/>
       <c r="G61" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H61" s="108"/>
       <c r="I61" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="104" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B62" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="104" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D62" s="107"/>
       <c r="E62" s="107"/>
       <c r="F62" s="107"/>
       <c r="G62" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H62" s="108"/>
       <c r="I62" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="132"/>
       <c r="B63" s="133" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C63" s="132"/>
       <c r="D63" s="134"/>
@@ -7927,20 +9660,20 @@
         <v>29</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C64" s="104" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D64" s="107"/>
       <c r="E64" s="107"/>
       <c r="F64" s="107"/>
       <c r="G64" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H64" s="108"/>
       <c r="I64" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -7955,17 +9688,17 @@
       <c r="E65" s="107"/>
       <c r="F65" s="107"/>
       <c r="G65" s="107" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H65" s="108"/>
       <c r="I65" s="109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="132"/>
       <c r="B66" s="133" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C66" s="132"/>
       <c r="D66" s="134"/>
@@ -7991,7 +9724,7 @@
     <row r="68" spans="1:9" ht="14" thickBot="1">
       <c r="A68" s="146"/>
       <c r="B68" s="147" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C68" s="146"/>
       <c r="D68" s="148"/>
@@ -8071,7 +9804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
@@ -8098,31 +9831,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="154" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="155" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="156" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="153" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" s="153" t="s">
+        <v>402</v>
+      </c>
+      <c r="G1" s="153" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="153" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="155" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1" s="156" t="s">
-        <v>510</v>
-      </c>
-      <c r="E1" s="153" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" s="153" t="s">
+      <c r="I1" s="157" t="s">
         <v>406</v>
       </c>
-      <c r="G1" s="153" t="s">
-        <v>407</v>
-      </c>
-      <c r="H1" s="153" t="s">
-        <v>408</v>
-      </c>
-      <c r="I1" s="157" t="s">
-        <v>410</v>
-      </c>
       <c r="J1" s="154" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="165" customFormat="1" ht="26">
@@ -8130,23 +9863,23 @@
         <v>35</v>
       </c>
       <c r="B2" s="159" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C2" s="160" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D2" s="161">
         <v>100</v>
       </c>
       <c r="E2" s="158" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F2" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G2" s="158"/>
       <c r="H2" s="162" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I2" s="163">
         <v>5497.5</v>
@@ -8156,91 +9889,91 @@
     <row r="3" spans="1:10" ht="26">
       <c r="A3" s="158"/>
       <c r="B3" s="159" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C3" s="160" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D3" s="161">
         <v>100</v>
       </c>
       <c r="E3" s="158" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F3" s="158" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G3" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H3" s="158"/>
       <c r="I3" s="166"/>
       <c r="J3" s="164" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="162" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B4" s="159" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="167" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D4" s="168">
         <v>300</v>
       </c>
       <c r="E4" s="162"/>
       <c r="F4" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G4" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H4" s="158"/>
       <c r="I4" s="169">
         <v>0</v>
       </c>
       <c r="J4" s="170" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="162" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B5" s="159" t="s">
         <v>225</v>
       </c>
       <c r="C5" s="167" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D5" s="168">
         <v>500</v>
       </c>
       <c r="E5" s="162"/>
       <c r="F5" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G5" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H5" s="162" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I5" s="169">
         <f>29*30</f>
         <v>870</v>
       </c>
       <c r="J5" s="170" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="172" customFormat="1">
       <c r="A6" s="171" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B6" s="172" t="s">
         <v>49</v>
@@ -8262,25 +9995,25 @@
         <v>50</v>
       </c>
       <c r="C7" s="179" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D7" s="180">
         <v>600</v>
       </c>
       <c r="F7" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G7" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H7" s="162" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I7" s="181">
         <v>0</v>
       </c>
       <c r="J7" s="182" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8288,19 +10021,19 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D8" s="180">
         <v>800</v>
       </c>
       <c r="F8" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G8" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H8" s="162" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I8" s="181">
         <v>0</v>
@@ -8311,19 +10044,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D9" s="180">
         <v>1100</v>
       </c>
       <c r="F9" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G9" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H9" s="162" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I9" s="181">
         <v>0</v>
@@ -8334,108 +10067,108 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C10" s="179" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D10" s="180">
         <v>1200</v>
       </c>
       <c r="E10" s="178" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F10" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G10" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H10" s="162" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I10" s="181">
         <v>1690</v>
       </c>
       <c r="J10" s="182" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="26">
       <c r="A11" s="178" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="179" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D11" s="180">
         <v>1300</v>
       </c>
       <c r="F11" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G11" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H11" s="158"/>
       <c r="I11" s="181">
         <v>0</v>
       </c>
       <c r="J11" s="182" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="26">
       <c r="A12" s="178" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C12" s="179" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D12" s="180">
         <v>1400</v>
       </c>
       <c r="E12" s="178" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F12" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G12" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H12" s="158"/>
       <c r="I12" s="181">
         <v>0</v>
       </c>
       <c r="J12" s="183" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="52">
       <c r="A13" s="162" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B13" s="159" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C13" s="167" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D13" s="168">
         <v>1600</v>
       </c>
       <c r="E13" s="162" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F13" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G13" s="162"/>
       <c r="H13" s="162"/>
@@ -8443,26 +10176,26 @@
         <v>15000</v>
       </c>
       <c r="J13" s="170" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="162"/>
       <c r="B14" s="159" t="s">
+        <v>537</v>
+      </c>
+      <c r="C14" s="167" t="s">
         <v>541</v>
-      </c>
-      <c r="C14" s="167" t="s">
-        <v>545</v>
       </c>
       <c r="D14" s="168">
         <v>1700</v>
       </c>
       <c r="E14" s="162" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F14" s="162"/>
       <c r="G14" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H14" s="158"/>
       <c r="I14" s="169">
@@ -8473,10 +10206,10 @@
     <row r="15" spans="1:10" s="172" customFormat="1">
       <c r="A15" s="171"/>
       <c r="B15" s="172" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C15" s="173" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D15" s="174"/>
       <c r="E15" s="171"/>
@@ -8490,29 +10223,29 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C16" s="179" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D16" s="180">
         <v>1900</v>
       </c>
       <c r="E16" s="178" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F16" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G16" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H16" s="158"/>
       <c r="I16" s="181">
         <v>0</v>
       </c>
       <c r="J16" s="182" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8523,25 +10256,25 @@
         <v>53</v>
       </c>
       <c r="C17" s="179" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D17" s="180">
         <v>2300</v>
       </c>
       <c r="E17" s="178" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F17" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H17" s="178" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I17" s="181">
         <v>0</v>
       </c>
       <c r="J17" s="182" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8549,28 +10282,28 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C18" s="179" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D18" s="180">
         <v>2500</v>
       </c>
       <c r="F18" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G18" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H18" s="162" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I18" s="181">
         <v>0</v>
       </c>
       <c r="J18" s="182" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8578,118 +10311,118 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C19" s="179" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D19" s="180">
         <v>2600</v>
       </c>
       <c r="F19" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G19" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H19" s="158"/>
       <c r="I19" s="181">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C20" s="179" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D20" s="180">
         <v>2700</v>
       </c>
       <c r="F20" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G20" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H20" s="158"/>
       <c r="I20" s="181">
         <v>0</v>
       </c>
       <c r="J20" s="182" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C21" s="179" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D21" s="180">
         <v>2800</v>
       </c>
       <c r="F21" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I21" s="181">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C22" s="179" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D22" s="180">
         <v>2900</v>
       </c>
       <c r="F22" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G22" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H22" s="158"/>
       <c r="I22" s="181">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C23" s="179" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D23" s="180">
         <v>3000</v>
       </c>
       <c r="F23" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G23" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H23" s="158"/>
       <c r="I23" s="181">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8697,16 +10430,16 @@
         <v>196</v>
       </c>
       <c r="C24" s="179" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D24" s="180">
         <v>3100</v>
       </c>
       <c r="F24" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G24" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H24" s="158"/>
       <c r="I24" s="181">
@@ -8714,27 +10447,27 @@
         <v>308.45</v>
       </c>
       <c r="J24" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C25" s="179" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D25" s="180">
         <v>3200</v>
       </c>
       <c r="F25" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I25" s="181">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -8742,19 +10475,19 @@
         <v>1</v>
       </c>
       <c r="C26" s="179" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D26" s="180">
         <v>3300</v>
       </c>
       <c r="F26" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I26" s="181">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -8762,59 +10495,59 @@
         <v>2</v>
       </c>
       <c r="C27" s="179" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D27" s="180">
         <v>3400</v>
       </c>
       <c r="F27" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G27" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H27" s="158"/>
       <c r="I27" s="181">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C28" s="179" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D28" s="180">
         <v>3500</v>
       </c>
       <c r="F28" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G28" s="178" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I28" s="181">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="184"/>
       <c r="B29" s="185" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C29" s="186"/>
       <c r="D29" s="187">
         <v>3600</v>
       </c>
       <c r="E29" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F29" s="184"/>
       <c r="G29" s="184"/>
@@ -8825,14 +10558,14 @@
     <row r="30" spans="1:10">
       <c r="A30" s="184"/>
       <c r="B30" s="185" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C30" s="186"/>
       <c r="D30" s="187">
         <v>3700</v>
       </c>
       <c r="E30" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F30" s="184"/>
       <c r="G30" s="184"/>
@@ -8842,35 +10575,35 @@
     </row>
     <row r="31" spans="1:10">
       <c r="B31" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C31" s="179" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D31" s="180">
         <v>3800</v>
       </c>
       <c r="F31" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I31" s="181">
         <v>3000</v>
       </c>
       <c r="J31" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="184"/>
       <c r="B32" s="185" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C32" s="186"/>
       <c r="D32" s="187">
         <v>3900</v>
       </c>
       <c r="E32" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F32" s="184"/>
       <c r="G32" s="184"/>
@@ -8881,14 +10614,14 @@
     <row r="33" spans="1:10">
       <c r="A33" s="184"/>
       <c r="B33" s="185" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C33" s="186"/>
       <c r="D33" s="187">
         <v>4000</v>
       </c>
       <c r="E33" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F33" s="184"/>
       <c r="G33" s="184"/>
@@ -8899,14 +10632,14 @@
     <row r="34" spans="1:10">
       <c r="A34" s="184"/>
       <c r="B34" s="185" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C34" s="186"/>
       <c r="D34" s="187">
         <v>4100</v>
       </c>
       <c r="E34" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F34" s="184"/>
       <c r="G34" s="184"/>
@@ -8916,35 +10649,35 @@
     </row>
     <row r="35" spans="1:10">
       <c r="B35" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C35" s="179" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D35" s="180">
         <v>4200</v>
       </c>
       <c r="F35" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I35" s="181">
         <v>30000</v>
       </c>
       <c r="J35" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C36" s="186"/>
       <c r="D36" s="187">
         <v>4300</v>
       </c>
       <c r="E36" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F36" s="184"/>
       <c r="G36" s="184"/>
@@ -8954,19 +10687,19 @@
     </row>
     <row r="37" spans="1:10">
       <c r="B37" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C37" s="179" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D37" s="180">
         <v>4400</v>
       </c>
       <c r="F37" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G37" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H37" s="158"/>
       <c r="I37" s="181">
@@ -8974,7 +10707,7 @@
         <v>1860</v>
       </c>
       <c r="J37" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -8982,53 +10715,53 @@
         <v>187</v>
       </c>
       <c r="C38" s="179" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D38" s="180">
         <v>4500</v>
       </c>
       <c r="F38" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G38" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H38" s="158"/>
       <c r="I38" s="181">
         <v>7000</v>
       </c>
       <c r="J38" s="182" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D39" s="180">
         <v>4600</v>
       </c>
       <c r="F39" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I39" s="181">
         <v>0</v>
       </c>
       <c r="J39" s="182" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="189"/>
       <c r="B40" s="190" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C40" s="191"/>
       <c r="D40" s="192"/>
       <c r="E40" s="189"/>
       <c r="F40" s="189"/>
       <c r="G40" s="158" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H40" s="158"/>
       <c r="I40" s="193"/>
@@ -9036,28 +10769,28 @@
     </row>
     <row r="41" spans="1:10">
       <c r="B41" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F41" s="178" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="B42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J44" s="182" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -9065,7 +10798,7 @@
         <v>192</v>
       </c>
       <c r="J45" s="182" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -9073,17 +10806,17 @@
         <v>6</v>
       </c>
       <c r="J46" s="182" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="B48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="195" customFormat="1">
@@ -9111,17 +10844,17 @@
     </row>
     <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -9131,7 +10864,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -9141,7 +10874,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -9161,12 +10894,12 @@
     </row>
     <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="2:2" customFormat="1">
       <c r="B65" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="2:2" customFormat="1">
@@ -9176,7 +10909,7 @@
     </row>
     <row r="68" spans="2:2" customFormat="1">
       <c r="B68" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="2:2" customFormat="1">
@@ -9186,12 +10919,12 @@
     </row>
     <row r="70" spans="2:2" customFormat="1">
       <c r="B70" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="2:2" customFormat="1">
       <c r="B71" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -9226,7 +10959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
@@ -9251,22 +10984,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="154" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C1" s="155" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D1" s="156" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E1" s="153" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F1" s="157" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G1" s="154" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9275,13 +11008,13 @@
         <v>188</v>
       </c>
       <c r="C2" s="200" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D2" s="201"/>
       <c r="E2" s="199"/>
       <c r="F2" s="202"/>
       <c r="G2" s="165" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9292,13 +11025,13 @@
         <v>188</v>
       </c>
       <c r="C3" s="191" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D3" s="192">
         <v>100</v>
       </c>
       <c r="E3" s="189" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F3" s="203">
         <v>5497.5</v>
@@ -9310,10 +11043,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C4" s="179" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D4" s="180">
         <v>200</v>
@@ -9323,30 +11056,30 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="39">
       <c r="A5" s="189" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B5" s="190" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D5" s="192">
         <v>300</v>
       </c>
       <c r="E5" s="189" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F5" s="193">
         <v>0</v>
       </c>
       <c r="G5" s="204" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9354,7 +11087,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C6" s="179">
         <v>3</v>
@@ -9367,31 +11100,31 @@
         <v>0</v>
       </c>
       <c r="G6" s="182" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="189" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B7" s="190" t="s">
         <v>225</v>
       </c>
       <c r="C7" s="191" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D7" s="192">
         <v>500</v>
       </c>
       <c r="E7" s="189" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F7" s="193">
         <f>29*30</f>
         <v>870</v>
       </c>
       <c r="G7" s="204" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9402,7 +11135,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="179" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D8" s="180">
         <v>600</v>
@@ -9412,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="182" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9420,7 +11153,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C9" s="179"/>
       <c r="D9" s="180">
@@ -9437,7 +11170,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C10" s="179"/>
       <c r="D10" s="180">
@@ -9453,7 +11186,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C11" s="179"/>
       <c r="D11" s="180">
@@ -9464,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="182" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9472,10 +11205,10 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C12" s="179" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D12" s="180">
         <v>1000</v>
@@ -9485,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="182" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9493,7 +11226,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C13" s="179"/>
       <c r="D13" s="180">
@@ -9509,33 +11242,33 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C14" s="179" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D14" s="180">
         <v>1200</v>
       </c>
       <c r="E14" s="178" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F14" s="181">
         <v>1690</v>
       </c>
       <c r="G14" s="182" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="39">
       <c r="A15" s="178" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="179" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D15" s="180">
         <v>1300</v>
@@ -9545,18 +11278,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="182" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="39">
       <c r="A16" s="178" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C16" s="179" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D16" s="180">
         <v>1400</v>
@@ -9566,15 +11299,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="182" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26">
       <c r="A17" s="178" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B17" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C17" s="179"/>
       <c r="D17" s="180">
@@ -9585,30 +11318,30 @@
         <v>0</v>
       </c>
       <c r="G17" s="182" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="65">
       <c r="A18" s="189" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B18" s="190" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C18" s="191" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D18" s="192">
         <v>1600</v>
       </c>
       <c r="E18" s="189" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F18" s="193">
         <v>15000</v>
       </c>
       <c r="G18" s="204" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -9616,10 +11349,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C19" s="179" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D19" s="180">
         <v>1900</v>
@@ -9629,13 +11362,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="182" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="178"/>
       <c r="B20" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C20" s="179"/>
       <c r="D20" s="180">
@@ -9649,7 +11382,7 @@
     <row r="21" spans="1:7">
       <c r="A21" s="178"/>
       <c r="B21" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C21" s="179"/>
       <c r="D21" s="180">
@@ -9663,7 +11396,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="178"/>
       <c r="B22" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C22" s="179"/>
       <c r="D22" s="180">
@@ -9682,7 +11415,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="179" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D23" s="180">
         <v>2300</v>
@@ -9692,13 +11425,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="182" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="178"/>
       <c r="B24" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C24" s="179"/>
       <c r="D24" s="180">
@@ -9714,10 +11447,10 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C25" s="179" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D25" s="180">
         <v>2500</v>
@@ -9727,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="182" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -9735,10 +11468,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C26" s="179" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D26" s="180">
         <v>2600</v>
@@ -9748,16 +11481,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="178"/>
       <c r="B27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C27" s="179" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D27" s="180">
         <v>2700</v>
@@ -9767,16 +11500,16 @@
         <v>0</v>
       </c>
       <c r="G27" s="182" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="178"/>
       <c r="B28" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C28" s="179" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D28" s="180">
         <v>2800</v>
@@ -9786,16 +11519,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="178"/>
       <c r="B29" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C29" s="179" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D29" s="180">
         <v>2900</v>
@@ -9805,16 +11538,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="178"/>
       <c r="B30" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C30" s="179" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D30" s="180">
         <v>3000</v>
@@ -9824,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -9833,7 +11566,7 @@
         <v>196</v>
       </c>
       <c r="C31" s="179" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D31" s="180">
         <v>3100</v>
@@ -9844,16 +11577,16 @@
         <v>308.45</v>
       </c>
       <c r="G31" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="178"/>
       <c r="B32" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C32" s="179" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D32" s="180">
         <v>3200</v>
@@ -9863,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9872,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="179" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D33" s="180">
         <v>3300</v>
@@ -9882,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9891,7 +11624,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="179" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D34" s="180">
         <v>3400</v>
@@ -9901,16 +11634,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="178"/>
       <c r="B35" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C35" s="179" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D35" s="180">
         <v>3500</v>
@@ -9920,20 +11653,20 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C36" s="186"/>
       <c r="D36" s="187">
         <v>3600</v>
       </c>
       <c r="E36" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F36" s="188"/>
       <c r="G36" s="185"/>
@@ -9941,14 +11674,14 @@
     <row r="37" spans="1:7">
       <c r="A37" s="184"/>
       <c r="B37" s="185" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C37" s="186"/>
       <c r="D37" s="187">
         <v>3700</v>
       </c>
       <c r="E37" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F37" s="188"/>
       <c r="G37" s="185"/>
@@ -9956,10 +11689,10 @@
     <row r="38" spans="1:7">
       <c r="A38" s="178"/>
       <c r="B38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C38" s="179" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D38" s="180">
         <v>3800</v>
@@ -9969,20 +11702,20 @@
         <v>3000</v>
       </c>
       <c r="G38" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="184"/>
       <c r="B39" s="185" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C39" s="186"/>
       <c r="D39" s="187">
         <v>3900</v>
       </c>
       <c r="E39" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F39" s="188"/>
       <c r="G39" s="185"/>
@@ -9990,14 +11723,14 @@
     <row r="40" spans="1:7">
       <c r="A40" s="184"/>
       <c r="B40" s="185" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C40" s="186"/>
       <c r="D40" s="187">
         <v>4000</v>
       </c>
       <c r="E40" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F40" s="188"/>
       <c r="G40" s="185"/>
@@ -10005,14 +11738,14 @@
     <row r="41" spans="1:7">
       <c r="A41" s="184"/>
       <c r="B41" s="185" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C41" s="186"/>
       <c r="D41" s="187">
         <v>4100</v>
       </c>
       <c r="E41" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F41" s="188"/>
       <c r="G41" s="185"/>
@@ -10020,10 +11753,10 @@
     <row r="42" spans="1:7">
       <c r="A42" s="178"/>
       <c r="B42" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C42" s="179" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D42" s="180">
         <v>4200</v>
@@ -10033,20 +11766,20 @@
         <v>30000</v>
       </c>
       <c r="G42" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="184"/>
       <c r="B43" s="185" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C43" s="186"/>
       <c r="D43" s="187">
         <v>4300</v>
       </c>
       <c r="E43" s="184" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F43" s="188"/>
       <c r="G43" s="185"/>
@@ -10054,10 +11787,10 @@
     <row r="44" spans="1:7">
       <c r="A44" s="178"/>
       <c r="B44" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C44" s="179" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D44" s="180">
         <v>4400</v>
@@ -10068,7 +11801,7 @@
         <v>1860</v>
       </c>
       <c r="G44" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -10077,7 +11810,7 @@
         <v>187</v>
       </c>
       <c r="C45" s="179" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D45" s="180">
         <v>4500</v>
@@ -10087,13 +11820,13 @@
         <v>7000</v>
       </c>
       <c r="G45" s="182" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="178"/>
       <c r="B46" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C46" s="179"/>
       <c r="D46" s="180">
@@ -10104,13 +11837,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="182" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="189"/>
       <c r="B47" s="190" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C47" s="191"/>
       <c r="D47" s="192"/>

--- a/Task-n-Tool.xlsx
+++ b/Task-n-Tool.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeygomanyuk/Projects/Task-n-Tool/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="6" r:id="rId1"/>
     <sheet name="2015.list" sheetId="7" r:id="rId2"/>
-    <sheet name="2015 Win" sheetId="8" r:id="rId3"/>
-    <sheet name="2014.01" sheetId="2" r:id="rId4"/>
-    <sheet name="2013" sheetId="1" r:id="rId5"/>
-    <sheet name="2012.03" sheetId="3" r:id="rId6"/>
-    <sheet name="2012.02" sheetId="4" r:id="rId7"/>
-    <sheet name="2012.01" sheetId="5" r:id="rId8"/>
+    <sheet name="2014.01" sheetId="2" r:id="rId3"/>
+    <sheet name="2013" sheetId="1" r:id="rId4"/>
+    <sheet name="2012.03" sheetId="3" r:id="rId5"/>
+    <sheet name="2012.02" sheetId="4" r:id="rId6"/>
+    <sheet name="2012.01" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2014.01'!$A$1:$E$66</definedName>
-    <definedName name="_Toc251017352" localSheetId="3">'2014.01'!$A$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2014.01'!$A$1:$E$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2015'!$A$1:$H$65</definedName>
+    <definedName name="_Toc251017352" localSheetId="2">'2014.01'!$A$166</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -66,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="714">
   <si>
     <t>Задачи</t>
   </si>
@@ -2078,12 +2083,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>OS X 10.9.5 (Maverics)</t>
-  </si>
-  <si>
-    <t>OS X</t>
-  </si>
-  <si>
     <t>Task/Category</t>
   </si>
   <si>
@@ -2093,18 +2092,9 @@
     <t>Clean &amp; Uninstall</t>
   </si>
   <si>
-    <t>Используем до появление стабильной 10.10</t>
-  </si>
-  <si>
-    <t>Для инсталляции сторонних пакетов</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
-    <t>Satisfaction</t>
-  </si>
-  <si>
     <t>In use</t>
   </si>
   <si>
@@ -2114,12 +2104,6 @@
     <t>To test</t>
   </si>
   <si>
-    <t>Full</t>
-  </si>
-  <si>
-    <t>Partial</t>
-  </si>
-  <si>
     <t>Usage</t>
   </si>
   <si>
@@ -2129,9 +2113,6 @@
     <t>? Придумать как сделать регулярное полное копирование iOS устройств на домашний сервер.</t>
   </si>
   <si>
-    <t>Acronis True Image for Mac</t>
-  </si>
-  <si>
     <t>Синхронизация и Backup</t>
   </si>
   <si>
@@ -2145,9 +2126,6 @@
   </si>
   <si>
     <t>TextWrangler</t>
-  </si>
-  <si>
-    <t>Finereader for Mac</t>
   </si>
   <si>
     <t>Редактор изображений</t>
@@ -2166,9 +2144,6 @@
 + Недорогие международные звонки</t>
   </si>
   <si>
-    <t>Money</t>
-  </si>
-  <si>
     <t>Perforce</t>
   </si>
   <si>
@@ -2180,39 +2155,6 @@
   <si>
     <t>+ Стандарт отрасли
 - Дорогой</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+ Бесплатный
-+ Большой набор поддерживаемых архивов
-+ Выбор кодировки имен файлов в Zip архивах
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>* Найти All-In-One решение</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+ Бесплатный
-+ Выбор кодировки файлов в Zip архиве
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>* Найти All-In-One решение</t>
-    </r>
   </si>
   <si>
     <t>+ Самое лучшее, что есть</t>
@@ -2246,9 +2188,6 @@
     </r>
   </si>
   <si>
-    <t>JDK &amp; JRE 7</t>
-  </si>
-  <si>
     <t>Java анализ дампа памяти</t>
   </si>
   <si>
@@ -2276,72 +2215,192 @@
     <t>ASIX AX88772B USB to Eth</t>
   </si>
   <si>
-    <t>Драйвер для Eth to USB адаптера</t>
+    <t>Терминал</t>
+  </si>
+  <si>
+    <t>iTerm2</t>
+  </si>
+  <si>
+    <t>Улаленное адимнистирование</t>
+  </si>
+  <si>
+    <t>Запись диска</t>
+  </si>
+  <si>
+    <t>Пользовался разок - помог</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Начинаем эксплуатацию - декабрь 2015</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Mac, Win</t>
+  </si>
+  <si>
+    <t>добавить SFTP plugin</t>
+  </si>
+  <si>
+    <t>Протестировать на Маке</t>
+  </si>
+  <si>
+    <t>Finereader</t>
+  </si>
+  <si>
+    <t>Удаленный доступ, POSIX</t>
+  </si>
+  <si>
+    <t>To test on Mac</t>
+  </si>
+  <si>
+    <t>Захват траффика</t>
+  </si>
+  <si>
+    <t>Mac, Linux</t>
+  </si>
+  <si>
+    <t>Win, Linux</t>
+  </si>
+  <si>
+    <t>Доступ к БД</t>
+  </si>
+  <si>
+    <t>OS X 10.11.2 (El Capitan)</t>
+  </si>
+  <si>
+    <t>Обновился с Maverics до El Capitan 02.01.16</t>
+  </si>
+  <si>
+    <t>Пока не исользуется</t>
+  </si>
+  <si>
+    <t>CleanMyMac</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">+ Полноценная поддержка офисных файлов
-- Есть огрехи в переносимости шрифтов
-- Горячие клавиши часто отличаются от версии для Windows
-</t>
+      <t xml:space="preserve">+ отличная очистка системы
+- CleanMyMac 2 - платный, мне достался вместе с Parallels Desktop на распродаже
+- CleanMyMac 3 - перешел 02.01.16 c50% скидкой ($19,97 = </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
+        <rFont val="PT Serif Italic"/>
       </rPr>
-      <t>* Попробовать Open Office, MS Office 365</t>
-    </r>
-  </si>
-  <si>
-    <t>Терминал</t>
-  </si>
-  <si>
-    <t>iTerm2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+ Похож на Total Commander
-+ Есть табы
-- Есть работа с архивами, но пока не полная
-+ Есть подключение ftp, scp, sftp каталогов
-</t>
+      <t>₽</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial Cyr"/>
         <charset val="204"/>
       </rPr>
-      <t>* Продолжать мониторить filemanager'ы (pathfinder, mucommander, etc)</t>
+      <t>1560 руб.)</t>
     </r>
   </si>
   <si>
-    <t>Улаленное адимнистирование</t>
-  </si>
-  <si>
-    <t>* Протестировать 8.1</t>
-  </si>
-  <si>
-    <t>POSIX для Win</t>
-  </si>
-  <si>
-    <t>Перешел на total commander
-+ Самый популярный
-+ В отличие от total commander бесплатный
-- Нет табов</t>
-  </si>
-  <si>
-    <t>Перешел с FAR, для меня более удобен</t>
-  </si>
-  <si>
-    <t>Запись диска</t>
-  </si>
-  <si>
-    <t>Пользовался разок - помог</t>
+    <t>+ Бесплатный
++ Выбор кодировки файлов в Zip архиве
+* Прекратил использование за ненадобностью, заменил Commander One</t>
+  </si>
+  <si>
+    <t>+ Похож на Total Commander
++ Есть табы
+- Есть работа с архивами, но пока не полная
++ Есть подключение ftp, scp, sftp каталогов
+* Перешел на Commander One</t>
+  </si>
+  <si>
+    <t>Commander One</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Из протестированных, лучший вариант файлового менеджера
+- PRO pack платный, с купоном мне достался за $20,96 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="PT Serif Italic"/>
+      </rPr>
+      <t>₽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1530
++ PRO pack - поддержка архиваторов, поддержка sftp, ftps</t>
+    </r>
+  </si>
+  <si>
+    <t>Драйвер для Eth to USB адаптера
+- 02.01.2015 v2.4.0_20151117</t>
+  </si>
+  <si>
+    <t>+ Плагины для всех популярных браузеров
++ Удобная систематизация и поиск паролей
++ Синхронизация как прямая, так и облачная
+- Высокая цена (был куплен, далее также достался как довесок в Parallels Desktop)</t>
+  </si>
+  <si>
+    <t>Тестируем</t>
+  </si>
+  <si>
+    <t>Еще варианты: Fraise, Coda, TextMate, Sublime Text, Brackets, Vim, gedit, Aptana studio,
+Atom, Komodo Edit, Kod</t>
+  </si>
+  <si>
+    <t>+ Мультиформатный транслятор видео на ATV
+- 02.01.16 - перешел на Beamer 3 ($8)</t>
+  </si>
+  <si>
+    <t>iBank</t>
+  </si>
+  <si>
+    <t>- Работает устойчивее, чем скайп</t>
+  </si>
+  <si>
+    <t>- Лучшее, что я смог найти для Mac</t>
+  </si>
+  <si>
+    <t>- Простой доступ к удаленному рабочему столу</t>
+  </si>
+  <si>
+    <t>- Не проникся</t>
+  </si>
+  <si>
+    <t>+ Полноценная поддержка офисных файлов
+- Есть огрехи в переносимости шрифтов
+- Горячие клавиши часто отличаются от версии для Windows
+- MS Office 2011 for Mac для Дома и Учебы
+- MS Office 2010 для Дома и Учебы
+- 02.01.2016 - перешел на MS Office 2016 для Мака и 2013 для PS (Office 365 подписка от Amdocs)
+- На Маке необходимо дополнительно поставить Remote Desktop и Lync</t>
+  </si>
+  <si>
+    <t>Mac IDE</t>
+  </si>
+  <si>
+    <t>Xcode</t>
+  </si>
+  <si>
+    <t>MyRuLibRC</t>
+  </si>
+  <si>
+    <t>Замена MyHomeLib для PC</t>
   </si>
 </sst>
 </file>
@@ -2351,7 +2410,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -2473,6 +2532,10 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="PT Serif Italic"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2894,7 +2957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -3027,8 +3090,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3593,9 +3663,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3623,27 +3690,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3651,139 +3724,151 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="136">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="135" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4074,839 +4159,1169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="208" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="208" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="208" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="208"/>
-    <col min="5" max="5" width="4.42578125" style="208" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="208" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="208"/>
-    <col min="9" max="9" width="71.5703125" style="208" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="208"/>
+    <col min="2" max="2" width="30.83203125" style="208" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="208" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="208"/>
+    <col min="5" max="5" width="4.5" style="208" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="208" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="208"/>
+    <col min="8" max="8" width="71.5" style="208" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="208"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="213" customFormat="1">
-      <c r="A1" s="213" t="s">
+    <row r="1" spans="1:8" s="212" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="212" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1" s="212" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" s="212" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1" s="212" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="212" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="212" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1" s="212" t="s">
         <v>639</v>
       </c>
-      <c r="B1" s="213" t="s">
-        <v>634</v>
-      </c>
-      <c r="C1" s="213" t="s">
-        <v>630</v>
-      </c>
-      <c r="D1" s="213" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="213" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="213" t="s">
-        <v>651</v>
-      </c>
-      <c r="G1" s="213" t="s">
-        <v>646</v>
-      </c>
-      <c r="H1" s="213" t="s">
-        <v>640</v>
-      </c>
-      <c r="I1" s="213" t="s">
+      <c r="H1" s="212" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" s="208" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="208" t="s">
-        <v>632</v>
+        <v>689</v>
       </c>
       <c r="D2" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G2" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H2" s="208" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="208" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="208" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="G3" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H3" s="208" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B4" s="208" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4" s="207" t="s">
+        <v>669</v>
+      </c>
+      <c r="D4" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G4" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="208" t="s">
         <v>633</v>
       </c>
-      <c r="G2" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H2" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I2" s="208" t="s">
+      <c r="C5" s="207" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G5" s="208" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="208" t="s">
-        <v>681</v>
-      </c>
-      <c r="C3" s="207" t="s">
-        <v>682</v>
-      </c>
-      <c r="D3" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G3" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H3" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I3" s="208" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="208" t="s">
-        <v>635</v>
-      </c>
-      <c r="C4" s="207" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G4" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H4" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I4" s="208" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="26">
-      <c r="B5" s="208" t="s">
+      <c r="H5" s="208" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40" x14ac:dyDescent="0.15">
+      <c r="B6" s="208" t="s">
+        <v>634</v>
+      </c>
+      <c r="C6" s="207" t="s">
+        <v>692</v>
+      </c>
+      <c r="D6" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G6" s="208" t="s">
         <v>636</v>
       </c>
-      <c r="C5" s="207" t="s">
-        <v>618</v>
-      </c>
-      <c r="D5" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G5" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H5" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="208" t="s">
+      <c r="H6" s="50" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="209" t="s">
+      <c r="C7" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G6" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H6" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I6" s="50" t="s">
+      <c r="D7" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G7" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H7" s="50" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="26">
-      <c r="B7" s="210" t="s">
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B8" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="209" t="s">
+      <c r="C8" s="209" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G7" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H7" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I7" s="50" t="s">
+      <c r="D8" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G8" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H8" s="50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="52">
-      <c r="B8" s="208" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="207" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G8" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H8" s="208" t="s">
-        <v>645</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="39">
+    <row r="9" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="B9" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="211" t="s">
+      <c r="C9" s="207" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G9" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+      <c r="B10" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="211" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G9" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H9" s="208" t="s">
+      <c r="D10" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G10" s="208" t="s">
+        <v>637</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="207" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="G11" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="65" x14ac:dyDescent="0.15">
+      <c r="B12" s="208" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="211" t="s">
+        <v>640</v>
+      </c>
+      <c r="D12" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G12" s="208" t="s">
+        <v>637</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="208" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="209" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="G13" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40" x14ac:dyDescent="0.15">
+      <c r="B14" s="208" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="209" t="s">
+        <v>696</v>
+      </c>
+      <c r="D14" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G14" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B15" s="208" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G15" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+      <c r="B16" s="208" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="209" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="G16" s="208" t="s">
+        <v>637</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="208" t="s">
+        <v>673</v>
+      </c>
+      <c r="C17" s="209" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="G17" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="208" t="s">
+        <v>673</v>
+      </c>
+      <c r="C18" s="209" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="G18" s="208" t="s">
+        <v>637</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="208" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="214" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="G19" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H19" s="208" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="213" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="B20" s="213" t="s">
+        <v>642</v>
+      </c>
+      <c r="C20" s="211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="213" t="s">
+        <v>679</v>
+      </c>
+      <c r="G20" s="213" t="s">
+        <v>636</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B21" s="213" t="s">
+        <v>642</v>
+      </c>
+      <c r="C21" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G21" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="213" t="s">
+        <v>642</v>
+      </c>
+      <c r="C22" s="214" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G22" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H22" s="208" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="52" x14ac:dyDescent="0.15">
+      <c r="B23" s="208" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="214" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G23" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="208" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="216" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="G24" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H24" s="50"/>
+    </row>
+    <row r="25" spans="2:8" ht="104" x14ac:dyDescent="0.15">
+      <c r="B25" s="208" t="s">
+        <v>644</v>
+      </c>
+      <c r="C25" s="215" t="s">
+        <v>537</v>
+      </c>
+      <c r="D25" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G25" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H25" s="221" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="208" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="207" t="s">
         <v>645</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="D26" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G26" s="208" t="s">
+        <v>697</v>
+      </c>
+      <c r="H26" s="208" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B27" s="208" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="207" t="s">
+        <v>646</v>
+      </c>
+      <c r="D27" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G27" s="208" t="s">
+        <v>697</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="208" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="G28" s="208" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="78" x14ac:dyDescent="0.15">
+      <c r="B29" s="208" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="207" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G29" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="208" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="207" t="s">
+        <v>682</v>
+      </c>
+      <c r="D30" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G30" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H30" s="218" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="208" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="207" t="s">
+        <v>712</v>
+      </c>
+      <c r="D31" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G31" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H31" s="218" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="65" x14ac:dyDescent="0.15">
+      <c r="B32" s="208" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="207" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G32" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B33" s="208" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="216" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G33" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B34" s="208" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="207" t="s">
+        <v>305</v>
+      </c>
+      <c r="D34" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G34" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B35" s="208" t="s">
+        <v>647</v>
+      </c>
+      <c r="C35" s="207" t="s">
+        <v>654</v>
+      </c>
+      <c r="D35" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G35" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H35" s="217" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="208" t="s">
+        <v>648</v>
+      </c>
+      <c r="D36" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="H36" s="219" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="208" t="s">
+        <v>649</v>
+      </c>
+      <c r="C37" s="216" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G37" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B38" s="208" t="s">
+        <v>333</v>
+      </c>
+      <c r="C38" s="216" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G38" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="208" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" s="207" t="s">
+        <v>650</v>
+      </c>
+      <c r="D39" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G39" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H39" s="218" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="208" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="207" t="s">
+        <v>704</v>
+      </c>
+      <c r="D40" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G40" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H40" s="218" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="208" t="s">
+        <v>672</v>
+      </c>
+      <c r="C41" s="207" t="s">
+        <v>372</v>
+      </c>
+      <c r="D41" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G41" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H41" s="218" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="208" t="s">
+        <v>670</v>
+      </c>
+      <c r="C42" s="207" t="s">
+        <v>671</v>
+      </c>
+      <c r="D42" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G42" s="208" t="s">
+        <v>637</v>
+      </c>
+      <c r="H42" s="218" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="208" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="207" t="s">
+        <v>357</v>
+      </c>
+      <c r="D43" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G43" s="208" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="208" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="207" t="s">
+        <v>658</v>
+      </c>
+      <c r="D44" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G44" s="208" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="52" x14ac:dyDescent="0.15">
+      <c r="B45" s="208" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="G45" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="208" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="207" t="s">
+        <v>659</v>
+      </c>
+      <c r="D46" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G46" s="208" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="78" x14ac:dyDescent="0.15">
+      <c r="B47" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="216" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G47" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H47" s="220" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="208" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="207" t="s">
+        <v>653</v>
+      </c>
+      <c r="D48" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G48" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H48" s="208" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" s="208" t="s">
+        <v>661</v>
+      </c>
+      <c r="C49" s="216" t="s">
+        <v>360</v>
+      </c>
+      <c r="D49" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G49" s="208" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" s="208" t="s">
+        <v>666</v>
+      </c>
+      <c r="C50" s="216" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G50" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H50" s="208" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="65">
-      <c r="B10" s="208" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="211" t="s">
-        <v>647</v>
-      </c>
-      <c r="D10" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G10" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H10" s="208" t="s">
-        <v>645</v>
-      </c>
-      <c r="I10" s="50" t="s">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" s="208" t="s">
+        <v>666</v>
+      </c>
+      <c r="C51" s="216" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G51" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H51" s="208" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="208" t="s">
+        <v>664</v>
+      </c>
+      <c r="C52" s="207" t="s">
+        <v>665</v>
+      </c>
+      <c r="D52" s="208" t="s">
+        <v>678</v>
+      </c>
+      <c r="G52" s="208" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="208" t="s">
+        <v>664</v>
+      </c>
+      <c r="C53" s="216" t="s">
+        <v>375</v>
+      </c>
+      <c r="D53" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G53" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H53" s="208" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" s="208" t="s">
+        <v>663</v>
+      </c>
+      <c r="C54" s="207" t="s">
+        <v>652</v>
+      </c>
+      <c r="D54" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G54" s="208" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="208" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="222" t="s">
+        <v>368</v>
+      </c>
+      <c r="D55" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G55" s="208" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" s="208" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="216" t="s">
+        <v>369</v>
+      </c>
+      <c r="D56" s="208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G56" s="208" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B57" s="208" t="s">
+        <v>683</v>
+      </c>
+      <c r="C57" s="216" t="s">
+        <v>373</v>
+      </c>
+      <c r="D57" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="G57" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H57" s="50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" s="208" t="s">
+        <v>685</v>
+      </c>
+      <c r="C58" s="216" t="s">
+        <v>382</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>686</v>
+      </c>
+      <c r="G58" s="208" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59" s="208" t="s">
+        <v>685</v>
+      </c>
+      <c r="C59" s="216" t="s">
+        <v>384</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="208" t="s">
+        <v>685</v>
+      </c>
+      <c r="C60" s="216" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>679</v>
+      </c>
+      <c r="G60" s="208" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B61" s="208" t="s">
+        <v>388</v>
+      </c>
+      <c r="C61" s="216" t="s">
+        <v>378</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>679</v>
+      </c>
+      <c r="G61" s="208" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62" s="208" t="s">
+        <v>388</v>
+      </c>
+      <c r="C62" s="216" t="s">
+        <v>379</v>
+      </c>
+      <c r="D62" s="45" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="26">
-      <c r="B11" s="208" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G11" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H11" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="214" customFormat="1" ht="52">
-      <c r="B12" s="214" t="s">
-        <v>650</v>
-      </c>
-      <c r="C12" s="211" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="214" t="s">
-        <v>633</v>
-      </c>
-      <c r="G12" s="214" t="s">
-        <v>641</v>
-      </c>
-      <c r="H12" s="214" t="s">
-        <v>644</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="214" t="s">
-        <v>650</v>
-      </c>
-      <c r="C13" s="211" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G13" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H13" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="214" t="s">
-        <v>650</v>
-      </c>
-      <c r="C14" s="215" t="s">
-        <v>649</v>
-      </c>
-      <c r="D14" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G14" s="208" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="52">
-      <c r="B15" s="208" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="215" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G15" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H15" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="52">
-      <c r="B16" s="208" t="s">
-        <v>652</v>
-      </c>
-      <c r="C16" s="216" t="s">
-        <v>255</v>
-      </c>
-      <c r="D16" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G16" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H16" s="208" t="s">
-        <v>645</v>
-      </c>
-      <c r="I16" s="212" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="208" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="207" t="s">
-        <v>653</v>
-      </c>
-      <c r="D17" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G17" s="208" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="208" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="207" t="s">
-        <v>654</v>
-      </c>
-      <c r="D18" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G18" s="208" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="78">
-      <c r="B19" s="208" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="207" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G19" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H19" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="208" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="207" t="s">
-        <v>655</v>
-      </c>
-      <c r="D20" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G20" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H20" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I20" s="219" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="65">
-      <c r="B21" s="208" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" s="207" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G21" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H21" s="208" t="s">
-        <v>645</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="208" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="217" t="s">
-        <v>307</v>
-      </c>
-      <c r="D22" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G22" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H22" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="26">
-      <c r="B23" s="208" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="207" t="s">
-        <v>305</v>
-      </c>
-      <c r="D23" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G23" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H23" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="26">
-      <c r="B24" s="208" t="s">
-        <v>656</v>
-      </c>
-      <c r="C24" s="207" t="s">
-        <v>664</v>
-      </c>
-      <c r="D24" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G24" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H24" s="208" t="s">
-        <v>645</v>
-      </c>
-      <c r="I24" s="218" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="208" t="s">
-        <v>657</v>
-      </c>
-      <c r="D25" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="I25" s="220" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="208" t="s">
-        <v>658</v>
-      </c>
-      <c r="C26" s="217" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G26" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H26" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="26">
-      <c r="B27" s="208" t="s">
-        <v>333</v>
-      </c>
-      <c r="C27" s="217" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G27" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H27" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I27" s="50" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="208" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" s="207" t="s">
-        <v>659</v>
-      </c>
-      <c r="D28" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G28" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H28" s="208" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="208" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="207" t="s">
-        <v>661</v>
-      </c>
-      <c r="D29" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G29" s="208" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="208" t="s">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63" s="208" t="s">
+        <v>388</v>
+      </c>
+      <c r="C63" s="216" t="s">
+        <v>380</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" s="208" t="s">
         <v>688</v>
       </c>
-      <c r="C30" s="207" t="s">
-        <v>372</v>
-      </c>
-      <c r="D30" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G30" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H30" s="208" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="208" t="s">
-        <v>685</v>
-      </c>
-      <c r="C31" s="207" t="s">
-        <v>686</v>
-      </c>
-      <c r="D31" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G31" s="208" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="208" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="207" t="s">
-        <v>357</v>
-      </c>
-      <c r="D32" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G32" s="208" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="208" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="207" t="s">
-        <v>670</v>
-      </c>
-      <c r="D33" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G33" s="208" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="208" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="207" t="s">
-        <v>671</v>
-      </c>
-      <c r="D34" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G34" s="208" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="78">
-      <c r="B35" s="208" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="217" t="s">
-        <v>673</v>
-      </c>
-      <c r="D35" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G35" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H35" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I35" s="221" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="208" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="207" t="s">
-        <v>663</v>
-      </c>
-      <c r="D36" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G36" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H36" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I36" s="208" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="208" t="s">
-        <v>674</v>
-      </c>
-      <c r="C37" s="217" t="s">
-        <v>360</v>
-      </c>
-      <c r="D37" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G37" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H37" s="208" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="208" t="s">
+      <c r="C64" s="216" t="s">
+        <v>381</v>
+      </c>
+      <c r="D64" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="C38" s="217" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G38" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H38" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I38" s="208" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="208" t="s">
+      <c r="G64" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B65" s="208" t="s">
+        <v>688</v>
+      </c>
+      <c r="C65" s="216" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="C39" s="217" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G39" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H39" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I39" s="208" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="208" t="s">
-        <v>677</v>
-      </c>
-      <c r="C40" s="207" t="s">
+      <c r="G65" s="208" t="s">
+        <v>636</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B66" s="208" t="s">
+        <v>710</v>
+      </c>
+      <c r="C66" s="207" t="s">
+        <v>711</v>
+      </c>
+      <c r="D66" s="208" t="s">
         <v>678</v>
       </c>
-      <c r="D40" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G40" s="208" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="208" t="s">
-        <v>676</v>
-      </c>
-      <c r="C41" s="207" t="s">
-        <v>662</v>
-      </c>
-      <c r="D41" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G41" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H41" s="208" t="s">
-        <v>644</v>
+      <c r="G66" s="208" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H65"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="http://brew.sh/index_ru.html"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4" display="Avast! Free"/>
-    <hyperlink ref="C8" r:id="rId5" display="http://unarchiver.c3.cx/unarchiver"/>
-    <hyperlink ref="C9" r:id="rId6" display="http://www.sopht.jp/en/cleanarchiver/"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C12" r:id="rId9" display="https://www.dropbox.com/"/>
-    <hyperlink ref="C13" r:id="rId10" display="https://github.com/"/>
-    <hyperlink ref="C14" r:id="rId11" display="http://www.acronis.ru/homecomputing/trueimage"/>
-    <hyperlink ref="C15" r:id="rId12" display="https://agilebits.com/onepassword"/>
-    <hyperlink ref="C16" r:id="rId13"/>
-    <hyperlink ref="C17" r:id="rId14"/>
-    <hyperlink ref="C18" r:id="rId15"/>
-    <hyperlink ref="C19" r:id="rId16"/>
-    <hyperlink ref="C21" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C22" r:id="rId19"/>
-    <hyperlink ref="C23" r:id="rId20"/>
-    <hyperlink ref="C26" r:id="rId21"/>
-    <hyperlink ref="C27" r:id="rId22"/>
-    <hyperlink ref="C35" r:id="rId23" display="JDK &amp; JRE"/>
-    <hyperlink ref="C37" r:id="rId24"/>
-    <hyperlink ref="C38" r:id="rId25"/>
-    <hyperlink ref="C39" r:id="rId26"/>
-    <hyperlink ref="C24" r:id="rId27"/>
-    <hyperlink ref="C28" r:id="rId28"/>
-    <hyperlink ref="C29" r:id="rId29"/>
-    <hyperlink ref="C33" r:id="rId30"/>
-    <hyperlink ref="C34" r:id="rId31"/>
-    <hyperlink ref="C32" r:id="rId32"/>
-    <hyperlink ref="C36" r:id="rId33"/>
-    <hyperlink ref="C41" r:id="rId34"/>
-    <hyperlink ref="C40" r:id="rId35"/>
-    <hyperlink ref="C3" r:id="rId36"/>
-    <hyperlink ref="C31" r:id="rId37"/>
-    <hyperlink ref="C30" r:id="rId38"/>
+    <hyperlink ref="C5" r:id="rId1" display="http://brew.sh/index_ru.html"/>
+    <hyperlink ref="C6" r:id="rId2" display="CleanMyMac 2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4" display="Avast! Free"/>
+    <hyperlink ref="C9" r:id="rId5" display="http://unarchiver.c3.cx/unarchiver"/>
+    <hyperlink ref="C10" r:id="rId6" display="http://www.sopht.jp/en/cleanarchiver/"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C15" r:id="rId8"/>
+    <hyperlink ref="C20" r:id="rId9" display="https://www.dropbox.com/"/>
+    <hyperlink ref="C21" r:id="rId10" display="https://github.com/"/>
+    <hyperlink ref="C22" r:id="rId11" display="http://www.acronis.ru/homecomputing/trueimage"/>
+    <hyperlink ref="C23" r:id="rId12" display="https://agilebits.com/onepassword"/>
+    <hyperlink ref="C25" r:id="rId13"/>
+    <hyperlink ref="C26" r:id="rId14"/>
+    <hyperlink ref="C27" r:id="rId15"/>
+    <hyperlink ref="C29" r:id="rId16"/>
+    <hyperlink ref="C32" r:id="rId17"/>
+    <hyperlink ref="C30" r:id="rId18" display="Finereader for Mac"/>
+    <hyperlink ref="C33" r:id="rId19"/>
+    <hyperlink ref="C34" r:id="rId20"/>
+    <hyperlink ref="C37" r:id="rId21"/>
+    <hyperlink ref="C38" r:id="rId22"/>
+    <hyperlink ref="C47" r:id="rId23"/>
+    <hyperlink ref="C49" r:id="rId24"/>
+    <hyperlink ref="C50" r:id="rId25"/>
+    <hyperlink ref="C51" r:id="rId26"/>
+    <hyperlink ref="C35" r:id="rId27"/>
+    <hyperlink ref="C39" r:id="rId28"/>
+    <hyperlink ref="C40" r:id="rId29"/>
+    <hyperlink ref="C44" r:id="rId30"/>
+    <hyperlink ref="C46" r:id="rId31"/>
+    <hyperlink ref="C43" r:id="rId32"/>
+    <hyperlink ref="C48" r:id="rId33"/>
+    <hyperlink ref="C54" r:id="rId34"/>
+    <hyperlink ref="C52" r:id="rId35"/>
+    <hyperlink ref="C4" r:id="rId36"/>
+    <hyperlink ref="C42" r:id="rId37"/>
+    <hyperlink ref="C41" r:id="rId38"/>
+    <hyperlink ref="C11" r:id="rId39" display="http://www.7-zip.org/"/>
+    <hyperlink ref="C13" r:id="rId40"/>
+    <hyperlink ref="C16" r:id="rId41"/>
+    <hyperlink ref="C17" r:id="rId42" tooltip="Подробнее о Astroburn Lite" display="http://www.astroburn.com/rus/products/abLite"/>
+    <hyperlink ref="C18" r:id="rId43" tooltip="Подробнее о Astroburn Audio" display="http://www.astroburn.com/rus/products/abAudio"/>
+    <hyperlink ref="C19" r:id="rId44"/>
+    <hyperlink ref="C28" r:id="rId45"/>
+    <hyperlink ref="C24" r:id="rId46"/>
+    <hyperlink ref="C45" r:id="rId47"/>
+    <hyperlink ref="C55" r:id="rId48"/>
+    <hyperlink ref="C56" r:id="rId49"/>
+    <hyperlink ref="C57" r:id="rId50"/>
+    <hyperlink ref="C53" r:id="rId51" display="WinCVS"/>
+    <hyperlink ref="C58" r:id="rId52"/>
+    <hyperlink ref="C59" r:id="rId53"/>
+    <hyperlink ref="C60" r:id="rId54"/>
+    <hyperlink ref="C61" r:id="rId55"/>
+    <hyperlink ref="C62" r:id="rId56"/>
+    <hyperlink ref="C63" r:id="rId57"/>
+    <hyperlink ref="C64" r:id="rId58"/>
+    <hyperlink ref="C65" r:id="rId59"/>
+    <hyperlink ref="C14" r:id="rId60"/>
+    <hyperlink ref="C66" r:id="rId61"/>
+    <hyperlink ref="C31" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'2015.list'!$A$2:$A$4</xm:f>
+            <xm:f>'2015.list'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G41</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'2015.list'!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H41</xm:sqref>
+          <xm:sqref>G64:G66 G60:G61 G2:G58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -4914,511 +5329,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" s="154" customFormat="1">
-      <c r="A1" s="154">
-        <v>201</v>
-      </c>
-      <c r="B1" s="154" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:1" s="154" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="154" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>642</v>
-      </c>
-      <c r="B3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>643</v>
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="2:9" s="208" customFormat="1">
-      <c r="B1" s="208" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H1" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I1" s="220" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" s="208" customFormat="1">
-      <c r="B2" s="208" t="s">
-        <v>690</v>
-      </c>
-      <c r="C2" s="207" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="208" t="s">
-        <v>642</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" s="208" customFormat="1">
-      <c r="B3" s="208" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="209" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H3" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" s="208" customFormat="1" ht="26">
-      <c r="B4" s="210" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="209" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H4" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="208" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="210" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="209" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="G5" s="208" t="s">
-        <v>642</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" s="208" customFormat="1">
-      <c r="B6" s="210" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="209" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="208" t="s">
-        <v>642</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" s="208" customFormat="1">
-      <c r="B7" s="208" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="207" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H7" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" s="208" customFormat="1">
-      <c r="B8" s="208" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="207" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="208" t="s">
-        <v>642</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" s="208" customFormat="1" ht="52">
-      <c r="B9" s="208" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="209" t="s">
-        <v>622</v>
-      </c>
-      <c r="D9" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="208" t="s">
-        <v>642</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" s="208" customFormat="1">
-      <c r="B10" s="208" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="209" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H10" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="208" customFormat="1" ht="26">
-      <c r="B11" s="208" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H11" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" s="208" customFormat="1" ht="39">
-      <c r="B12" s="208" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="209" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H12" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" s="208" customFormat="1">
-      <c r="B13" s="208" t="s">
-        <v>693</v>
-      </c>
-      <c r="C13" s="209" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H13" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" s="208" customFormat="1">
-      <c r="B14" s="208" t="s">
-        <v>693</v>
-      </c>
-      <c r="C14" s="209" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H14" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" s="208" customFormat="1">
-      <c r="B15" s="208" t="s">
-        <v>693</v>
-      </c>
-      <c r="C15" s="217" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="208" t="s">
-        <v>642</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" s="208" customFormat="1">
-      <c r="B16" s="208" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="215" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H16" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I16" s="208" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" s="214" customFormat="1" ht="52">
-      <c r="B17" s="214" t="s">
-        <v>650</v>
-      </c>
-      <c r="C17" s="211" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="214" t="s">
-        <v>641</v>
-      </c>
-      <c r="H17" s="214" t="s">
-        <v>644</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="208" customFormat="1">
-      <c r="B18" s="214" t="s">
-        <v>650</v>
-      </c>
-      <c r="C18" s="211" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="208" t="s">
-        <v>633</v>
-      </c>
-      <c r="G18" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H18" s="208" t="s">
-        <v>644</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="208" customFormat="1">
-      <c r="D19" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H19" s="208" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="208" customFormat="1">
-      <c r="D20" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="208" t="s">
-        <v>641</v>
-      </c>
-      <c r="H20" s="208" t="s">
-        <v>644</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3" display="Avast! Free"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5" display="http://www.7-zip.org/"/>
-    <hyperlink ref="C8" r:id="rId6" display="http://www.win-rar.ru/"/>
-    <hyperlink ref="C9" r:id="rId7" display="FAR"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11" tooltip="Подробнее о Astroburn Lite" display="http://www.astroburn.com/rus/products/abLite"/>
-    <hyperlink ref="C14" r:id="rId12" tooltip="Подробнее о Astroburn Audio" display="http://www.astroburn.com/rus/products/abAudio"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15" display="https://www.dropbox.com/"/>
-    <hyperlink ref="C18" r:id="rId16" display="https://github.com/"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'2015.list'!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'2015.list'!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1:G20</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A177" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189:XFD208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="63.5703125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="64" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="45"/>
+    <col min="1" max="1" width="51.5" style="45" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="63.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="64" customWidth="1"/>
+    <col min="5" max="16384" width="11.5" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="37" customFormat="1" ht="15">
-      <c r="A1" s="222" t="s">
+    <row r="1" spans="1:5" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="223" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="223" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="222" t="s">
+      <c r="C1" s="223" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="223" t="s">
+      <c r="D1" s="224" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="223"/>
-    </row>
-    <row r="2" spans="1:5" s="37" customFormat="1" ht="15">
-      <c r="A2" s="222"/>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
+      <c r="E1" s="224"/>
+    </row>
+    <row r="2" spans="1:5" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
       <c r="D2" s="71" t="s">
         <v>199</v>
       </c>
@@ -5426,7 +5413,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
         <v>229</v>
       </c>
@@ -5435,7 +5422,7 @@
       <c r="D3" s="62"/>
       <c r="E3" s="38"/>
     </row>
-    <row r="4" spans="1:5" s="41" customFormat="1">
+    <row r="4" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
@@ -5446,7 +5433,7 @@
       <c r="D4" s="63"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>230</v>
       </c>
@@ -5454,7 +5441,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="57" t="s">
         <v>628</v>
       </c>
@@ -5465,7 +5452,7 @@
       <c r="D6" s="65"/>
       <c r="E6" s="55"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="51" t="s">
         <v>627</v>
       </c>
@@ -5473,7 +5460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26">
+    <row r="8" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="57" t="s">
         <v>616</v>
       </c>
@@ -5486,7 +5473,7 @@
       <c r="D8" s="205"/>
       <c r="E8" s="205"/>
     </row>
-    <row r="9" spans="1:5" s="41" customFormat="1" ht="26">
+    <row r="9" spans="1:5" s="41" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
         <v>220</v>
       </c>
@@ -5497,7 +5484,7 @@
       <c r="D9" s="63"/>
       <c r="E9" s="39"/>
     </row>
-    <row r="10" spans="1:5" ht="39">
+    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
         <v>221</v>
       </c>
@@ -5508,7 +5495,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="34" t="s">
         <v>11</v>
       </c>
@@ -5519,7 +5506,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="26">
+    <row r="12" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="34" t="s">
         <v>618</v>
       </c>
@@ -5530,7 +5517,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
         <v>19</v>
       </c>
@@ -5539,7 +5526,7 @@
       <c r="D13" s="63"/>
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="53" t="s">
         <v>51</v>
       </c>
@@ -5550,7 +5537,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
         <v>117</v>
       </c>
@@ -5559,7 +5546,7 @@
       <c r="D15" s="63"/>
       <c r="E15" s="39"/>
     </row>
-    <row r="16" spans="1:5" ht="26">
+    <row r="16" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="53" t="s">
         <v>219</v>
       </c>
@@ -5570,7 +5557,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A17" s="54" t="s">
         <v>216</v>
       </c>
@@ -5583,7 +5570,7 @@
       <c r="D17" s="65"/>
       <c r="E17" s="55"/>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1">
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A18" s="53" t="s">
         <v>218</v>
       </c>
@@ -5594,7 +5581,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="26">
+    <row r="19" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
@@ -5605,7 +5592,7 @@
       <c r="D19" s="63"/>
       <c r="E19" s="39"/>
     </row>
-    <row r="20" spans="1:5" ht="39">
+    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A20" s="34" t="s">
         <v>223</v>
       </c>
@@ -5616,7 +5603,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="26">
+    <row r="21" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="35" t="s">
         <v>224</v>
       </c>
@@ -5629,7 +5616,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="55"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="34" t="s">
         <v>49</v>
       </c>
@@ -5640,7 +5627,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1">
+    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="59" t="s">
         <v>225</v>
       </c>
@@ -5653,7 +5640,7 @@
       <c r="D23" s="65"/>
       <c r="E23" s="55"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
         <v>118</v>
       </c>
@@ -5662,7 +5649,7 @@
       <c r="D24" s="63"/>
       <c r="E24" s="39"/>
     </row>
-    <row r="25" spans="1:5" ht="39">
+    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A25" s="53" t="s">
         <v>622</v>
       </c>
@@ -5673,7 +5660,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="54" t="s">
         <v>235</v>
       </c>
@@ -5686,7 +5673,7 @@
       <c r="D26" s="65"/>
       <c r="E26" s="55"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
         <v>119</v>
       </c>
@@ -5695,7 +5682,7 @@
       <c r="D27" s="63"/>
       <c r="E27" s="39"/>
     </row>
-    <row r="28" spans="1:5" ht="26">
+    <row r="28" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A28" s="53" t="s">
         <v>2</v>
       </c>
@@ -5706,7 +5693,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
         <v>237</v>
       </c>
@@ -5715,7 +5702,7 @@
       <c r="D29" s="63"/>
       <c r="E29" s="39"/>
     </row>
-    <row r="30" spans="1:5" ht="39">
+    <row r="30" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A30" s="53" t="s">
         <v>46</v>
       </c>
@@ -5726,7 +5713,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="57" t="s">
         <v>238</v>
       </c>
@@ -5737,7 +5724,7 @@
       <c r="D31" s="65"/>
       <c r="E31" s="55"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
         <v>243</v>
       </c>
@@ -5746,7 +5733,7 @@
       <c r="D32" s="63"/>
       <c r="E32" s="39"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="53" t="s">
         <v>47</v>
       </c>
@@ -5757,7 +5744,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="54" t="s">
         <v>48</v>
       </c>
@@ -5770,7 +5757,7 @@
       <c r="D34" s="65"/>
       <c r="E34" s="55"/>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1">
+    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="60" t="s">
         <v>242</v>
       </c>
@@ -5781,7 +5768,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="39" t="s">
         <v>120</v>
       </c>
@@ -5792,7 +5779,7 @@
       <c r="D36" s="63"/>
       <c r="E36" s="39"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="52" t="s">
         <v>246</v>
       </c>
@@ -5800,7 +5787,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="39" t="s">
         <v>121</v>
       </c>
@@ -5809,7 +5796,7 @@
       <c r="D38" s="63"/>
       <c r="E38" s="39"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="60" t="s">
         <v>247</v>
       </c>
@@ -5820,7 +5807,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="39" t="s">
         <v>122</v>
       </c>
@@ -5829,7 +5816,7 @@
       <c r="D40" s="63"/>
       <c r="E40" s="39"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="60" t="s">
         <v>249</v>
       </c>
@@ -5840,7 +5827,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
         <v>123</v>
       </c>
@@ -5851,7 +5838,7 @@
       <c r="D42" s="63"/>
       <c r="E42" s="39"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="39" t="s">
         <v>124</v>
       </c>
@@ -5860,7 +5847,7 @@
       <c r="D44" s="63"/>
       <c r="E44" s="39"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="60" t="s">
         <v>252</v>
       </c>
@@ -5874,7 +5861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="37" customFormat="1" ht="15">
+    <row r="46" spans="1:5" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="38" t="s">
         <v>114</v>
       </c>
@@ -5883,7 +5870,7 @@
       <c r="D46" s="62"/>
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="1:5" s="41" customFormat="1" ht="65">
+    <row r="47" spans="1:5" s="41" customFormat="1" ht="78" x14ac:dyDescent="0.15">
       <c r="A47" s="39" t="s">
         <v>115</v>
       </c>
@@ -5894,7 +5881,7 @@
       <c r="D47" s="66"/>
       <c r="E47" s="40"/>
     </row>
-    <row r="48" spans="1:5" ht="39">
+    <row r="48" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A48" s="42" t="s">
         <v>166</v>
       </c>
@@ -5906,7 +5893,7 @@
       </c>
       <c r="D48" s="67"/>
     </row>
-    <row r="49" spans="1:5" ht="52">
+    <row r="49" spans="1:5" ht="52" x14ac:dyDescent="0.15">
       <c r="A49" s="54" t="s">
         <v>6</v>
       </c>
@@ -5919,7 +5906,7 @@
       <c r="D49" s="68"/>
       <c r="E49" s="55"/>
     </row>
-    <row r="50" spans="1:5" ht="26">
+    <row r="50" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A50" s="42" t="s">
         <v>172</v>
       </c>
@@ -5931,7 +5918,7 @@
       </c>
       <c r="D50" s="67"/>
     </row>
-    <row r="51" spans="1:5" ht="26" outlineLevel="1">
+    <row r="51" spans="1:5" ht="26" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A51" s="54" t="s">
         <v>168</v>
       </c>
@@ -5944,7 +5931,7 @@
       <c r="D51" s="65"/>
       <c r="E51" s="55"/>
     </row>
-    <row r="52" spans="1:5" s="49" customFormat="1" outlineLevel="1">
+    <row r="52" spans="1:5" s="49" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A52" s="46" t="s">
         <v>173</v>
       </c>
@@ -5955,7 +5942,7 @@
       <c r="D52" s="69"/>
       <c r="E52" s="47"/>
     </row>
-    <row r="53" spans="1:5" s="49" customFormat="1" outlineLevel="1">
+    <row r="53" spans="1:5" s="49" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A53" s="57" t="s">
         <v>174</v>
       </c>
@@ -5966,18 +5953,18 @@
       <c r="D53" s="65"/>
       <c r="E53" s="55"/>
     </row>
-    <row r="54" spans="1:5" s="41" customFormat="1" ht="26">
+    <row r="54" spans="1:5" s="41" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
         <v>93</v>
       </c>
       <c r="B54" s="40"/>
       <c r="C54" s="40" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D54" s="66"/>
       <c r="E54" s="40"/>
     </row>
-    <row r="55" spans="1:5" ht="39">
+    <row r="55" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A55" s="52" t="s">
         <v>177</v>
       </c>
@@ -5989,7 +5976,7 @@
       </c>
       <c r="D55" s="70"/>
     </row>
-    <row r="56" spans="1:5" ht="52">
+    <row r="56" spans="1:5" ht="52" x14ac:dyDescent="0.15">
       <c r="A56" s="57" t="s">
         <v>95</v>
       </c>
@@ -6002,7 +5989,7 @@
       <c r="D56" s="68"/>
       <c r="E56" s="55"/>
     </row>
-    <row r="57" spans="1:5" ht="26">
+    <row r="57" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A57" s="51" t="s">
         <v>183</v>
       </c>
@@ -6014,7 +6001,7 @@
       </c>
       <c r="D57" s="70"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="57" t="s">
         <v>185</v>
       </c>
@@ -6027,7 +6014,7 @@
       <c r="D58" s="68"/>
       <c r="E58" s="55"/>
     </row>
-    <row r="59" spans="1:5" outlineLevel="1">
+    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A59" s="52" t="s">
         <v>187</v>
       </c>
@@ -6039,7 +6026,7 @@
       </c>
       <c r="D59" s="70"/>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1">
+    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A60" s="57" t="s">
         <v>190</v>
       </c>
@@ -6052,7 +6039,7 @@
       <c r="D60" s="68"/>
       <c r="E60" s="55"/>
     </row>
-    <row r="61" spans="1:5" ht="39">
+    <row r="61" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A61" s="39" t="s">
         <v>20</v>
       </c>
@@ -6063,7 +6050,7 @@
       <c r="D61" s="63"/>
       <c r="E61" s="39"/>
     </row>
-    <row r="62" spans="1:5" s="41" customFormat="1" ht="52">
+    <row r="62" spans="1:5" s="41" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A62" s="52" t="s">
         <v>192</v>
       </c>
@@ -6076,7 +6063,7 @@
       <c r="D62" s="70"/>
       <c r="E62" s="45"/>
     </row>
-    <row r="63" spans="1:5" s="41" customFormat="1" ht="26" outlineLevel="1">
+    <row r="63" spans="1:5" s="41" customFormat="1" ht="26" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A63" s="54" t="s">
         <v>196</v>
       </c>
@@ -6089,7 +6076,7 @@
       <c r="D63" s="68"/>
       <c r="E63" s="55"/>
     </row>
-    <row r="64" spans="1:5" s="41" customFormat="1" ht="52" outlineLevel="1">
+    <row r="64" spans="1:5" s="41" customFormat="1" ht="65" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="51" t="s">
         <v>195</v>
       </c>
@@ -6100,7 +6087,7 @@
       <c r="D64" s="64"/>
       <c r="E64" s="45"/>
     </row>
-    <row r="65" spans="1:5" s="41" customFormat="1" ht="52" outlineLevel="1">
+    <row r="65" spans="1:5" s="41" customFormat="1" ht="65" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A65" s="57" t="s">
         <v>202</v>
       </c>
@@ -6111,7 +6098,7 @@
       <c r="D65" s="65"/>
       <c r="E65" s="55"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="39" t="s">
         <v>116</v>
       </c>
@@ -6120,7 +6107,7 @@
       <c r="D66" s="63"/>
       <c r="E66" s="39"/>
     </row>
-    <row r="67" spans="1:5" ht="39">
+    <row r="67" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A67" s="51" t="s">
         <v>204</v>
       </c>
@@ -6131,7 +6118,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="26" outlineLevel="1">
+    <row r="68" spans="1:5" ht="26" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A68" s="57" t="s">
         <v>208</v>
       </c>
@@ -6144,7 +6131,7 @@
       <c r="D68" s="65"/>
       <c r="E68" s="55"/>
     </row>
-    <row r="69" spans="1:5" outlineLevel="1">
+    <row r="69" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A69" s="51" t="s">
         <v>211</v>
       </c>
@@ -6155,7 +6142,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:5" outlineLevel="1">
+    <row r="70" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A70" s="58" t="s">
         <v>213</v>
       </c>
@@ -6166,7 +6153,7 @@
       <c r="D70" s="65"/>
       <c r="E70" s="55"/>
     </row>
-    <row r="71" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="71" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="38" t="s">
         <v>125</v>
       </c>
@@ -6175,7 +6162,7 @@
       <c r="D71" s="62"/>
       <c r="E71" s="38"/>
     </row>
-    <row r="72" spans="1:5" ht="39">
+    <row r="72" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A72" s="39" t="s">
         <v>126</v>
       </c>
@@ -6186,7 +6173,7 @@
       <c r="D72" s="39"/>
       <c r="E72" s="39"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="53" t="s">
         <v>254</v>
       </c>
@@ -6197,7 +6184,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="39">
+    <row r="74" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A74" s="72" t="s">
         <v>255</v>
       </c>
@@ -6210,7 +6197,7 @@
       <c r="D74" s="65"/>
       <c r="E74" s="55"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A75" s="39" t="s">
         <v>128</v>
       </c>
@@ -6221,7 +6208,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="60" t="s">
         <v>31</v>
       </c>
@@ -6232,7 +6219,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="39" t="s">
         <v>129</v>
       </c>
@@ -6241,7 +6228,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="39"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="60" t="s">
         <v>50</v>
       </c>
@@ -6252,7 +6239,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="57" t="s">
         <v>263</v>
       </c>
@@ -6263,7 +6250,7 @@
       <c r="D79" s="65"/>
       <c r="E79" s="55"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="39" t="s">
         <v>130</v>
       </c>
@@ -6272,7 +6259,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
     </row>
-    <row r="81" spans="1:5" ht="78">
+    <row r="81" spans="1:5" ht="78" x14ac:dyDescent="0.15">
       <c r="A81" s="34" t="s">
         <v>91</v>
       </c>
@@ -6283,7 +6270,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" outlineLevel="1">
+    <row r="82" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="75" t="s">
         <v>266</v>
       </c>
@@ -6296,7 +6283,7 @@
       <c r="D82" s="65"/>
       <c r="E82" s="55"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="39" t="s">
         <v>131</v>
       </c>
@@ -6307,7 +6294,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="39" t="s">
         <v>270</v>
       </c>
@@ -6318,7 +6305,7 @@
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
     </row>
-    <row r="86" spans="1:5" ht="65">
+    <row r="86" spans="1:5" ht="65" x14ac:dyDescent="0.15">
       <c r="A86" s="34" t="s">
         <v>269</v>
       </c>
@@ -6329,7 +6316,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="65">
+    <row r="87" spans="1:5" ht="65" x14ac:dyDescent="0.15">
       <c r="A87" s="35" t="s">
         <v>272</v>
       </c>
@@ -6342,7 +6329,7 @@
       <c r="D87" s="65"/>
       <c r="E87" s="55"/>
     </row>
-    <row r="88" spans="1:5" ht="78">
+    <row r="88" spans="1:5" ht="91" x14ac:dyDescent="0.15">
       <c r="A88" s="34" t="s">
         <v>274</v>
       </c>
@@ -6353,7 +6340,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="52">
+    <row r="89" spans="1:5" ht="65" x14ac:dyDescent="0.15">
       <c r="A89" s="35" t="s">
         <v>276</v>
       </c>
@@ -6366,7 +6353,7 @@
       <c r="D89" s="65"/>
       <c r="E89" s="55"/>
     </row>
-    <row r="90" spans="1:5" ht="15" outlineLevel="1">
+    <row r="90" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="74" t="s">
         <v>278</v>
       </c>
@@ -6377,7 +6364,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" outlineLevel="1">
+    <row r="91" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="74" t="s">
         <v>279</v>
       </c>
@@ -6388,7 +6375,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="92" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="38" t="s">
         <v>132</v>
       </c>
@@ -6397,7 +6384,7 @@
       <c r="D92" s="38"/>
       <c r="E92" s="38"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="39" t="s">
         <v>133</v>
       </c>
@@ -6406,7 +6393,7 @@
       <c r="D93" s="39"/>
       <c r="E93" s="39"/>
     </row>
-    <row r="94" spans="1:5" ht="78">
+    <row r="94" spans="1:5" ht="78" x14ac:dyDescent="0.15">
       <c r="A94" s="79" t="s">
         <v>281</v>
       </c>
@@ -6417,7 +6404,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="55" customFormat="1" ht="15" outlineLevel="1">
+    <row r="95" spans="1:5" s="55" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="75" t="s">
         <v>284</v>
       </c>
@@ -6429,7 +6416,7 @@
       </c>
       <c r="D95" s="65"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="39" t="s">
         <v>134</v>
       </c>
@@ -6440,7 +6427,7 @@
       <c r="D96" s="39"/>
       <c r="E96" s="39"/>
     </row>
-    <row r="98" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="98" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="38" t="s">
         <v>135</v>
       </c>
@@ -6449,7 +6436,7 @@
       <c r="D98" s="38"/>
       <c r="E98" s="38"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="39" t="s">
         <v>136</v>
       </c>
@@ -6458,7 +6445,7 @@
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="51" t="s">
         <v>288</v>
       </c>
@@ -6469,7 +6456,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="39" t="s">
         <v>137</v>
       </c>
@@ -6478,7 +6465,7 @@
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
     </row>
-    <row r="102" spans="1:5" ht="26">
+    <row r="102" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A102" s="51" t="s">
         <v>291</v>
       </c>
@@ -6489,7 +6476,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="39" t="s">
         <v>138</v>
       </c>
@@ -6498,7 +6485,7 @@
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="60" t="s">
         <v>293</v>
       </c>
@@ -6509,7 +6496,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="72" t="s">
         <v>295</v>
       </c>
@@ -6522,7 +6509,7 @@
       <c r="D105" s="65"/>
       <c r="E105" s="55"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="39" t="s">
         <v>394</v>
       </c>
@@ -6533,7 +6520,7 @@
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
     </row>
-    <row r="108" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="108" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="38" t="s">
         <v>139</v>
       </c>
@@ -6542,7 +6529,7 @@
       <c r="D108" s="38"/>
       <c r="E108" s="38"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="39" t="s">
         <v>140</v>
       </c>
@@ -6551,7 +6538,7 @@
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="51" t="s">
         <v>296</v>
       </c>
@@ -6562,7 +6549,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="39" t="s">
         <v>141</v>
       </c>
@@ -6573,7 +6560,7 @@
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="60" t="s">
         <v>307</v>
       </c>
@@ -6584,7 +6571,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="26">
+    <row r="113" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A113" s="72" t="s">
         <v>305</v>
       </c>
@@ -6597,7 +6584,7 @@
       <c r="D113" s="65"/>
       <c r="E113" s="55"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="72" t="s">
         <v>310</v>
       </c>
@@ -6610,7 +6597,7 @@
       <c r="D114" s="65"/>
       <c r="E114" s="55"/>
     </row>
-    <row r="115" spans="1:5" ht="26">
+    <row r="115" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A115" s="60" t="s">
         <v>306</v>
       </c>
@@ -6621,7 +6608,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="39" t="s">
         <v>396</v>
       </c>
@@ -6632,7 +6619,7 @@
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
     </row>
-    <row r="118" spans="1:5" ht="15">
+    <row r="118" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="38" t="s">
         <v>142</v>
       </c>
@@ -6643,7 +6630,7 @@
       <c r="D118" s="38"/>
       <c r="E118" s="38"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="39" t="s">
         <v>143</v>
       </c>
@@ -6652,7 +6639,7 @@
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="51" t="s">
         <v>143</v>
       </c>
@@ -6663,7 +6650,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="39" t="s">
         <v>144</v>
       </c>
@@ -6672,7 +6659,7 @@
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
     </row>
-    <row r="122" spans="1:5" ht="26">
+    <row r="122" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A122" s="60" t="s">
         <v>314</v>
       </c>
@@ -6683,7 +6670,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="39" t="s">
         <v>145</v>
       </c>
@@ -6694,7 +6681,7 @@
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
     </row>
-    <row r="125" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="125" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="38" t="s">
         <v>5</v>
       </c>
@@ -6703,7 +6690,7 @@
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="39" t="s">
         <v>319</v>
       </c>
@@ -6712,7 +6699,7 @@
       <c r="D126" s="39"/>
       <c r="E126" s="39"/>
     </row>
-    <row r="127" spans="1:5" ht="26">
+    <row r="127" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A127" s="60" t="s">
         <v>53</v>
       </c>
@@ -6723,7 +6710,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="39" t="s">
         <v>146</v>
       </c>
@@ -6734,7 +6721,7 @@
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
     </row>
-    <row r="130" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="130" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="38" t="s">
         <v>147</v>
       </c>
@@ -6743,7 +6730,7 @@
       <c r="D130" s="38"/>
       <c r="E130" s="38"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="39" t="s">
         <v>327</v>
       </c>
@@ -6754,7 +6741,7 @@
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="60" t="s">
         <v>320</v>
       </c>
@@ -6762,7 +6749,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="57" t="s">
         <v>323</v>
       </c>
@@ -6775,7 +6762,7 @@
       <c r="D133" s="65"/>
       <c r="E133" s="55"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="39" t="s">
         <v>328</v>
       </c>
@@ -6786,7 +6773,7 @@
       <c r="D134" s="39"/>
       <c r="E134" s="39"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="60" t="s">
         <v>325</v>
       </c>
@@ -6794,7 +6781,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="72" t="s">
         <v>326</v>
       </c>
@@ -6805,7 +6792,7 @@
       <c r="D136" s="65"/>
       <c r="E136" s="55"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="60" t="s">
         <v>329</v>
       </c>
@@ -6813,7 +6800,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="39" t="s">
         <v>333</v>
       </c>
@@ -6824,7 +6811,7 @@
       <c r="D138" s="39"/>
       <c r="E138" s="39"/>
     </row>
-    <row r="139" spans="1:5" ht="39">
+    <row r="139" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A139" s="60" t="s">
         <v>1</v>
       </c>
@@ -6835,7 +6822,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A140" s="72" t="s">
         <v>335</v>
       </c>
@@ -6848,7 +6835,7 @@
       <c r="D140" s="65"/>
       <c r="E140" s="55"/>
     </row>
-    <row r="141" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="141" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="38" t="s">
         <v>148</v>
       </c>
@@ -6857,7 +6844,7 @@
       <c r="D141" s="38"/>
       <c r="E141" s="38"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="39" t="s">
         <v>149</v>
       </c>
@@ -6868,7 +6855,7 @@
       <c r="D142" s="39"/>
       <c r="E142" s="39"/>
     </row>
-    <row r="143" spans="1:5" ht="52">
+    <row r="143" spans="1:5" ht="52" x14ac:dyDescent="0.15">
       <c r="A143" s="60" t="s">
         <v>338</v>
       </c>
@@ -6879,7 +6866,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="52">
+    <row r="144" spans="1:5" ht="52" x14ac:dyDescent="0.15">
       <c r="A144" s="60" t="s">
         <v>341</v>
       </c>
@@ -6890,7 +6877,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="52">
+    <row r="145" spans="1:5" ht="52" x14ac:dyDescent="0.15">
       <c r="A145" s="60" t="s">
         <v>343</v>
       </c>
@@ -6901,7 +6888,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="39" t="s">
         <v>150</v>
       </c>
@@ -6912,7 +6899,7 @@
       <c r="D146" s="39"/>
       <c r="E146" s="39"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="39" t="s">
         <v>151</v>
       </c>
@@ -6923,7 +6910,7 @@
       <c r="D148" s="39"/>
       <c r="E148" s="39"/>
     </row>
-    <row r="150" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="150" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="38" t="s">
         <v>23</v>
       </c>
@@ -6932,7 +6919,7 @@
       <c r="D150" s="38"/>
       <c r="E150" s="38"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="39" t="s">
         <v>152</v>
       </c>
@@ -6943,7 +6930,7 @@
       <c r="D151" s="39"/>
       <c r="E151" s="39"/>
     </row>
-    <row r="152" spans="1:5" ht="39">
+    <row r="152" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A152" s="60" t="s">
         <v>347</v>
       </c>
@@ -6954,7 +6941,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="153" spans="1:5" outlineLevel="1">
+    <row r="153" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A153" s="72" t="s">
         <v>348</v>
       </c>
@@ -6967,7 +6954,7 @@
       <c r="D153" s="65"/>
       <c r="E153" s="55"/>
     </row>
-    <row r="154" spans="1:5" outlineLevel="1">
+    <row r="154" spans="1:5" ht="26" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A154" s="51" t="s">
         <v>349</v>
       </c>
@@ -6978,7 +6965,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="39" t="s">
         <v>153</v>
       </c>
@@ -6989,7 +6976,7 @@
       <c r="D155" s="39"/>
       <c r="E155" s="39"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="39" t="s">
         <v>154</v>
       </c>
@@ -7000,7 +6987,7 @@
       <c r="D157" s="39"/>
       <c r="E157" s="39"/>
     </row>
-    <row r="159" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="159" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="38" t="s">
         <v>155</v>
       </c>
@@ -7009,7 +6996,7 @@
       <c r="D159" s="38"/>
       <c r="E159" s="38"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="39" t="s">
         <v>156</v>
       </c>
@@ -7020,7 +7007,7 @@
       <c r="D160" s="39"/>
       <c r="E160" s="39"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="39" t="s">
         <v>157</v>
       </c>
@@ -7029,7 +7016,7 @@
       <c r="D162" s="39"/>
       <c r="E162" s="39"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="60" t="s">
         <v>354</v>
       </c>
@@ -7037,7 +7024,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="164" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="38" t="s">
         <v>158</v>
       </c>
@@ -7048,7 +7035,7 @@
       <c r="D164" s="38"/>
       <c r="E164" s="38"/>
     </row>
-    <row r="166" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="166" spans="1:5" s="41" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A166" s="38" t="s">
         <v>264</v>
       </c>
@@ -7057,7 +7044,7 @@
       <c r="D166" s="38"/>
       <c r="E166" s="38"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A167" s="39" t="s">
         <v>127</v>
       </c>
@@ -7068,7 +7055,7 @@
       <c r="D167" s="39"/>
       <c r="E167" s="39"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="39" t="s">
         <v>26</v>
       </c>
@@ -7079,7 +7066,7 @@
       <c r="D169" s="39"/>
       <c r="E169" s="39"/>
     </row>
-    <row r="170" spans="1:5" ht="78">
+    <row r="170" spans="1:5" ht="78" x14ac:dyDescent="0.15">
       <c r="A170" s="34" t="s">
         <v>357</v>
       </c>
@@ -7090,7 +7077,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="52">
+    <row r="171" spans="1:5" ht="52" x14ac:dyDescent="0.15">
       <c r="A171" s="34" t="s">
         <v>10</v>
       </c>
@@ -7101,7 +7088,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="39" t="s">
         <v>355</v>
       </c>
@@ -7112,7 +7099,7 @@
       <c r="D172" s="39"/>
       <c r="E172" s="39"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="60" t="s">
         <v>159</v>
       </c>
@@ -7120,7 +7107,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="39">
+    <row r="174" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A174" s="39" t="s">
         <v>79</v>
       </c>
@@ -7131,12 +7118,12 @@
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="60" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="39" t="s">
         <v>162</v>
       </c>
@@ -7147,7 +7134,7 @@
       <c r="D176" s="39"/>
       <c r="E176" s="39"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="51" t="s">
         <v>362</v>
       </c>
@@ -7158,7 +7145,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="57" t="s">
         <v>364</v>
       </c>
@@ -7171,7 +7158,7 @@
       <c r="D178" s="65"/>
       <c r="E178" s="55"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="60" t="s">
         <v>360</v>
       </c>
@@ -7179,7 +7166,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="39" t="s">
         <v>163</v>
       </c>
@@ -7188,7 +7175,7 @@
       <c r="D180" s="39"/>
       <c r="E180" s="39"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="51" t="s">
         <v>366</v>
       </c>
@@ -7199,7 +7186,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="72" t="s">
         <v>368</v>
       </c>
@@ -7210,7 +7197,7 @@
       <c r="D182" s="65"/>
       <c r="E182" s="55"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="60" t="s">
         <v>369</v>
       </c>
@@ -7218,7 +7205,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="39" t="s">
         <v>164</v>
       </c>
@@ -7229,7 +7216,7 @@
       <c r="D184" s="39"/>
       <c r="E184" s="39"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="39" t="s">
         <v>165</v>
       </c>
@@ -7240,7 +7227,7 @@
       <c r="D186" s="39"/>
       <c r="E186" s="39"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="60" t="s">
         <v>104</v>
       </c>
@@ -7248,7 +7235,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="60" t="s">
         <v>103</v>
       </c>
@@ -7256,7 +7243,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="39" t="s">
         <v>287</v>
       </c>
@@ -7267,7 +7254,7 @@
       <c r="D189" s="39"/>
       <c r="E189" s="39"/>
     </row>
-    <row r="190" spans="1:5" ht="26">
+    <row r="190" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A190" s="60" t="s">
         <v>372</v>
       </c>
@@ -7278,7 +7265,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="26">
+    <row r="191" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A191" s="60" t="s">
         <v>373</v>
       </c>
@@ -7289,7 +7276,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="39" t="s">
         <v>160</v>
       </c>
@@ -7300,7 +7287,7 @@
       <c r="D192" s="39"/>
       <c r="E192" s="39"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" s="60" t="s">
         <v>375</v>
       </c>
@@ -7308,7 +7295,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="39" t="s">
         <v>72</v>
       </c>
@@ -7319,7 +7306,7 @@
       <c r="D194" s="39"/>
       <c r="E194" s="39"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="39" t="s">
         <v>73</v>
       </c>
@@ -7330,7 +7317,7 @@
       <c r="D196" s="39"/>
       <c r="E196" s="39"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" s="39" t="s">
         <v>28</v>
       </c>
@@ -7339,7 +7326,7 @@
       <c r="D198" s="39"/>
       <c r="E198" s="39"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" s="60" t="s">
         <v>382</v>
       </c>
@@ -7347,7 +7334,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" s="60" t="s">
         <v>384</v>
       </c>
@@ -7355,7 +7342,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="60" t="s">
         <v>12</v>
       </c>
@@ -7363,7 +7350,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="39" t="s">
         <v>388</v>
       </c>
@@ -7372,7 +7359,7 @@
       <c r="D202" s="39"/>
       <c r="E202" s="39"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="60" t="s">
         <v>378</v>
       </c>
@@ -7383,7 +7370,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" s="60" t="s">
         <v>379</v>
       </c>
@@ -7394,7 +7381,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" s="60" t="s">
         <v>380</v>
       </c>
@@ -7405,7 +7392,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="39" t="s">
         <v>161</v>
       </c>
@@ -7414,7 +7401,7 @@
       <c r="D206" s="39"/>
       <c r="E206" s="39"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="60" t="s">
         <v>381</v>
       </c>
@@ -7425,7 +7412,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" s="60" t="s">
         <v>108</v>
       </c>
@@ -7529,15 +7516,10 @@
   <headerFooter>
     <oddFooter>&amp;LLevel 1 – Confidential</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
@@ -7546,23 +7528,23 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="29" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="22.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="29" customWidth="1"/>
+    <col min="4" max="5" width="27.83203125" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="14" thickBot="1">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="225"/>
+      <c r="C1" s="229"/>
       <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
@@ -7570,7 +7552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1">
+    <row r="2" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
         <v>97</v>
@@ -7581,7 +7563,7 @@
       <c r="D2" s="31"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -7596,7 +7578,7 @@
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -7609,8 +7591,8 @@
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="226" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="225" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -7620,8 +7602,8 @@
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="226"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="225"/>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
@@ -7629,8 +7611,8 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="226" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="225" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -7642,8 +7624,8 @@
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="226"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="225"/>
       <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
@@ -7651,8 +7633,8 @@
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="226" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="225" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -7664,8 +7646,8 @@
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" ht="26">
-      <c r="A10" s="226"/>
+    <row r="10" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+      <c r="A10" s="225"/>
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
@@ -7673,7 +7655,7 @@
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -7686,8 +7668,8 @@
       </c>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="226" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="225" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -7697,8 +7679,8 @@
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="226"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="225"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -7706,8 +7688,8 @@
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="226"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="225"/>
       <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
@@ -7715,7 +7697,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -7728,7 +7710,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="26">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -7741,7 +7723,7 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -7752,7 +7734,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>90</v>
       </c>
@@ -7765,7 +7747,7 @@
       </c>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -7778,7 +7760,7 @@
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="26">
+    <row r="20" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -7791,8 +7773,8 @@
       </c>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="227" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="226" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -7804,8 +7786,8 @@
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="228"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="227"/>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -7815,7 +7797,7 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -7826,7 +7808,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -7839,7 +7821,7 @@
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="25"/>
       <c r="B25" s="6" t="s">
         <v>113</v>
@@ -7848,7 +7830,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -7861,7 +7843,7 @@
       </c>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -7874,7 +7856,7 @@
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="26">
+    <row r="28" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
@@ -7885,7 +7867,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
@@ -7898,8 +7880,8 @@
       </c>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="226" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="225" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -7911,8 +7893,8 @@
       </c>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="226"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="225"/>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
@@ -7922,7 +7904,7 @@
       </c>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="26">
+    <row r="32" spans="1:5" ht="39" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
@@ -7933,7 +7915,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
         <v>93</v>
       </c>
@@ -7950,7 +7932,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="26">
+    <row r="34" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A34" s="24"/>
       <c r="B34" s="6" t="s">
         <v>100</v>
@@ -7959,7 +7941,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -7970,7 +7952,7 @@
       <c r="D35" s="21"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
@@ -7981,7 +7963,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="25" t="s">
         <v>109</v>
       </c>
@@ -7992,7 +7974,7 @@
       <c r="D37" s="21"/>
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="25" t="s">
         <v>105</v>
       </c>
@@ -8003,7 +7985,7 @@
       <c r="D38" s="21"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -8014,8 +7996,8 @@
       <c r="D39" s="21"/>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="227" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="226" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -8025,8 +8007,8 @@
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="228"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="227"/>
       <c r="B41" s="6" t="s">
         <v>78</v>
       </c>
@@ -8034,7 +8016,7 @@
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
         <v>102</v>
       </c>
@@ -8045,7 +8027,7 @@
       <c r="D42" s="15"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="6" t="s">
         <v>104</v>
@@ -8054,7 +8036,7 @@
       <c r="D43" s="15"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>63</v>
       </c>
@@ -8065,7 +8047,7 @@
       <c r="D44" s="21"/>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>26</v>
       </c>
@@ -8076,8 +8058,8 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="226" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="225" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -8087,8 +8069,8 @@
       <c r="D46" s="21"/>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="226"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="225"/>
       <c r="B47" s="28" t="s">
         <v>101</v>
       </c>
@@ -8096,8 +8078,8 @@
       <c r="D47" s="21"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A48" s="226"/>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="225"/>
       <c r="B48" s="6" t="s">
         <v>67</v>
       </c>
@@ -8105,7 +8087,7 @@
       <c r="D48" s="21"/>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>65</v>
       </c>
@@ -8116,7 +8098,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>28</v>
       </c>
@@ -8127,7 +8109,7 @@
       <c r="D50" s="21"/>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="25" t="s">
         <v>111</v>
       </c>
@@ -8138,7 +8120,7 @@
       <c r="D51" s="21"/>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>68</v>
       </c>
@@ -8149,7 +8131,7 @@
       <c r="D52" s="21"/>
       <c r="E52" s="22"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>69</v>
       </c>
@@ -8160,7 +8142,7 @@
       <c r="D53" s="21"/>
       <c r="E53" s="22"/>
     </row>
-    <row r="54" spans="1:5" ht="26">
+    <row r="54" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>29</v>
       </c>
@@ -8171,7 +8153,7 @@
       <c r="D54" s="21"/>
       <c r="E54" s="22"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
@@ -8182,7 +8164,7 @@
       <c r="D55" s="21"/>
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="26" t="s">
         <v>107</v>
       </c>
@@ -8193,8 +8175,8 @@
       <c r="D56" s="15"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="226" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="225" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -8204,8 +8186,8 @@
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="226"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="225"/>
       <c r="B58" s="6" t="s">
         <v>15</v>
       </c>
@@ -8213,7 +8195,7 @@
       <c r="D58" s="15"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" ht="14" thickBot="1">
+    <row r="59" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>73</v>
       </c>
@@ -8226,16 +8208,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A46:A48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8316,37 +8298,32 @@
     <oddFooter>&amp;LLevel 1 – Confidential</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId71"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="151" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="151" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="151" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="151" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" style="151" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="151" customWidth="1"/>
     <col min="5" max="5" width="7" style="151" customWidth="1"/>
-    <col min="6" max="7" width="9.28515625" style="151" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" style="151" customWidth="1"/>
     <col min="8" max="8" width="9" style="151" customWidth="1"/>
     <col min="9" max="9" width="12" style="152" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="2"/>
+    <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="84" customFormat="1">
+    <row r="1" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -8368,12 +8345,12 @@
       <c r="G1" s="83" t="s">
         <v>405</v>
       </c>
-      <c r="H1" s="229" t="s">
+      <c r="H1" s="230" t="s">
         <v>406</v>
       </c>
-      <c r="I1" s="230"/>
-    </row>
-    <row r="2" spans="1:9" s="91" customFormat="1" ht="91">
+      <c r="I1" s="231"/>
+    </row>
+    <row r="2" spans="1:9" s="91" customFormat="1" ht="91" x14ac:dyDescent="0.15">
       <c r="A2" s="85" t="s">
         <v>407</v>
       </c>
@@ -8398,7 +8375,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="143">
+    <row r="3" spans="1:9" ht="143" x14ac:dyDescent="0.15">
       <c r="A3" s="85" t="s">
         <v>407</v>
       </c>
@@ -8425,7 +8402,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26">
+    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="95" t="s">
         <v>415</v>
       </c>
@@ -8448,7 +8425,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="98" t="s">
         <v>18</v>
       </c>
@@ -8473,7 +8450,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="104" t="s">
         <v>18</v>
       </c>
@@ -8494,7 +8471,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="104" t="s">
         <v>3</v>
       </c>
@@ -8519,7 +8496,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="38.25" customHeight="1">
+    <row r="8" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="104" t="s">
         <v>4</v>
       </c>
@@ -8538,7 +8515,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="98" t="s">
         <v>4</v>
       </c>
@@ -8563,7 +8540,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="104" t="s">
         <v>19</v>
       </c>
@@ -8586,7 +8563,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52">
+    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="s">
         <v>422</v>
       </c>
@@ -8609,7 +8586,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26">
+    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="98" t="s">
         <v>422</v>
       </c>
@@ -8632,7 +8609,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52">
+    <row r="13" spans="1:9" ht="52" x14ac:dyDescent="0.15">
       <c r="A13" s="98" t="s">
         <v>425</v>
       </c>
@@ -8655,7 +8632,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="52">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A14" s="95" t="s">
         <v>425</v>
       </c>
@@ -8680,7 +8657,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="26">
+    <row r="15" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A15" s="98" t="s">
         <v>5</v>
       </c>
@@ -8701,7 +8678,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="65">
+    <row r="16" spans="1:9" ht="65" x14ac:dyDescent="0.15">
       <c r="A16" s="95" t="s">
         <v>5</v>
       </c>
@@ -8726,7 +8703,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="114" t="s">
         <v>407</v>
       </c>
@@ -8751,7 +8728,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="114" t="s">
         <v>407</v>
       </c>
@@ -8772,7 +8749,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="114" t="s">
         <v>407</v>
       </c>
@@ -8795,7 +8772,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="120" customFormat="1">
+    <row r="20" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="115" t="s">
         <v>436</v>
       </c>
@@ -8812,7 +8789,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="26">
+    <row r="21" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="104" t="s">
         <v>438</v>
       </c>
@@ -8833,7 +8810,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="98" t="s">
         <v>439</v>
       </c>
@@ -8854,7 +8831,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="115" t="s">
         <v>20</v>
       </c>
@@ -8876,7 +8853,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="115" t="s">
         <v>443</v>
       </c>
@@ -8895,7 +8872,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="26">
+    <row r="25" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A25" s="104" t="s">
         <v>446</v>
       </c>
@@ -8916,7 +8893,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="104" t="s">
         <v>119</v>
       </c>
@@ -8937,7 +8914,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="104" t="s">
         <v>447</v>
       </c>
@@ -8958,7 +8935,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="115" t="s">
         <v>447</v>
       </c>
@@ -8975,7 +8952,7 @@
       <c r="H28" s="118"/>
       <c r="I28" s="119"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="115" t="s">
         <v>447</v>
       </c>
@@ -8992,7 +8969,7 @@
       <c r="H29" s="118"/>
       <c r="I29" s="119"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="115" t="s">
         <v>22</v>
       </c>
@@ -9013,7 +8990,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="95" t="s">
         <v>22</v>
       </c>
@@ -9034,7 +9011,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="95" t="s">
         <v>22</v>
       </c>
@@ -9055,7 +9032,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="115" t="s">
         <v>453</v>
       </c>
@@ -9072,7 +9049,7 @@
       <c r="H33" s="118"/>
       <c r="I33" s="119"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="115" t="s">
         <v>456</v>
       </c>
@@ -9089,7 +9066,7 @@
       <c r="H34" s="118"/>
       <c r="I34" s="119"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="115" t="s">
         <v>23</v>
       </c>
@@ -9106,7 +9083,7 @@
       <c r="H35" s="118"/>
       <c r="I35" s="119"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="104" t="s">
         <v>24</v>
       </c>
@@ -9127,7 +9104,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="115" t="s">
         <v>461</v>
       </c>
@@ -9146,7 +9123,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="115" t="s">
         <v>25</v>
       </c>
@@ -9168,7 +9145,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="104" t="s">
         <v>93</v>
       </c>
@@ -9193,7 +9170,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="126" t="s">
         <v>468</v>
       </c>
@@ -9214,7 +9191,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="104" t="s">
         <v>471</v>
       </c>
@@ -9233,7 +9210,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="104" t="s">
         <v>473</v>
       </c>
@@ -9254,7 +9231,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="132" t="s">
         <v>120</v>
       </c>
@@ -9269,7 +9246,7 @@
       <c r="H43" s="135"/>
       <c r="I43" s="136"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="132" t="s">
         <v>476</v>
       </c>
@@ -9284,7 +9261,7 @@
       <c r="H44" s="135"/>
       <c r="I44" s="136"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="132" t="s">
         <v>476</v>
       </c>
@@ -9299,7 +9276,7 @@
       <c r="H45" s="135"/>
       <c r="I45" s="136"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="104" t="s">
         <v>20</v>
       </c>
@@ -9322,7 +9299,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="104" t="s">
         <v>25</v>
       </c>
@@ -9343,7 +9320,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="26">
+    <row r="48" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A48" s="104" t="s">
         <v>25</v>
       </c>
@@ -9364,7 +9341,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="95" t="s">
         <v>481</v>
       </c>
@@ -9385,7 +9362,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="104" t="s">
         <v>484</v>
       </c>
@@ -9406,7 +9383,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="26">
+    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A51" s="104" t="s">
         <v>486</v>
       </c>
@@ -9425,7 +9402,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="104" t="s">
         <v>487</v>
       </c>
@@ -9444,7 +9421,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="104" t="s">
         <v>488</v>
       </c>
@@ -9467,7 +9444,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="132" t="s">
         <v>488</v>
       </c>
@@ -9482,7 +9459,7 @@
       <c r="H54" s="135"/>
       <c r="I54" s="136"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="104" t="s">
         <v>26</v>
       </c>
@@ -9501,7 +9478,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="104" t="s">
         <v>492</v>
       </c>
@@ -9520,7 +9497,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A57" s="104" t="s">
         <v>494</v>
       </c>
@@ -9539,7 +9516,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="122" t="s">
         <v>27</v>
       </c>
@@ -9560,7 +9537,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="104" t="s">
         <v>27</v>
       </c>
@@ -9581,7 +9558,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="104" t="s">
         <v>28</v>
       </c>
@@ -9600,7 +9577,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="104" t="s">
         <v>388</v>
       </c>
@@ -9621,7 +9598,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="104" t="s">
         <v>388</v>
       </c>
@@ -9642,7 +9619,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="132"/>
       <c r="B63" s="133" t="s">
         <v>500</v>
@@ -9655,7 +9632,7 @@
       <c r="H63" s="135"/>
       <c r="I63" s="136"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="104" t="s">
         <v>29</v>
       </c>
@@ -9676,7 +9653,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="104" t="s">
         <v>30</v>
       </c>
@@ -9695,7 +9672,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="132"/>
       <c r="B66" s="133" t="s">
         <v>503</v>
@@ -9708,7 +9685,7 @@
       <c r="H66" s="135"/>
       <c r="I66" s="136"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="132"/>
       <c r="B67" s="133" t="s">
         <v>15</v>
@@ -9721,7 +9698,7 @@
       <c r="H67" s="135"/>
       <c r="I67" s="136"/>
     </row>
-    <row r="68" spans="1:9" ht="14" thickBot="1">
+    <row r="68" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="146"/>
       <c r="B68" s="147" t="s">
         <v>504</v>
@@ -9796,15 +9773,10 @@
   <headerFooter>
     <oddFooter>&amp;LLevel 1 – Confidential</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
@@ -9813,20 +9785,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="178" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="179" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="180" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="178" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="178" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="179" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="180" customWidth="1"/>
+    <col min="5" max="5" width="49.1640625" style="178" customWidth="1"/>
     <col min="6" max="6" width="8" style="178" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" style="178" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="181" customWidth="1"/>
-    <col min="10" max="10" width="46.42578125" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" style="178" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="181" customWidth="1"/>
+    <col min="10" max="10" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="154" customFormat="1">
+    <row r="1" spans="1:10" s="154" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
@@ -9858,7 +9830,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="165" customFormat="1" ht="26">
+    <row r="2" spans="1:10" s="165" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="158" t="s">
         <v>35</v>
       </c>
@@ -9886,7 +9858,7 @@
       </c>
       <c r="J2" s="164"/>
     </row>
-    <row r="3" spans="1:10" ht="26">
+    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="158"/>
       <c r="B3" s="159" t="s">
         <v>511</v>
@@ -9912,7 +9884,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="162" t="s">
         <v>515</v>
       </c>
@@ -9940,7 +9912,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="162" t="s">
         <v>518</v>
       </c>
@@ -9971,7 +9943,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="172" customFormat="1">
+    <row r="6" spans="1:10" s="172" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="171" t="s">
         <v>518</v>
       </c>
@@ -9987,7 +9959,7 @@
       <c r="I6" s="176"/>
       <c r="J6" s="177"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="178" t="s">
         <v>3</v>
       </c>
@@ -10016,7 +9988,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="178" t="s">
         <v>35</v>
       </c>
@@ -10039,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="38.25" customHeight="1">
+    <row r="9" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="178" t="s">
         <v>35</v>
       </c>
@@ -10062,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="178" t="s">
         <v>4</v>
       </c>
@@ -10094,7 +10066,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26">
+    <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="178" t="s">
         <v>529</v>
       </c>
@@ -10121,7 +10093,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="26">
+    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="178" t="s">
         <v>532</v>
       </c>
@@ -10151,7 +10123,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="52">
+    <row r="13" spans="1:10" ht="52" x14ac:dyDescent="0.15">
       <c r="A13" s="162" t="s">
         <v>536</v>
       </c>
@@ -10179,7 +10151,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="162"/>
       <c r="B14" s="159" t="s">
         <v>537</v>
@@ -10203,7 +10175,7 @@
       </c>
       <c r="J14" s="159"/>
     </row>
-    <row r="15" spans="1:10" s="172" customFormat="1">
+    <row r="15" spans="1:10" s="172" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="171"/>
       <c r="B15" s="172" t="s">
         <v>537</v>
@@ -10218,7 +10190,7 @@
       <c r="H15" s="175"/>
       <c r="I15" s="176"/>
     </row>
-    <row r="16" spans="1:10" ht="26">
+    <row r="16" spans="1:10" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="178" t="s">
         <v>5</v>
       </c>
@@ -10248,7 +10220,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="178" t="s">
         <v>5</v>
       </c>
@@ -10277,7 +10249,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="178" t="s">
         <v>35</v>
       </c>
@@ -10306,7 +10278,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="178" t="s">
         <v>5</v>
       </c>
@@ -10333,7 +10305,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>435</v>
       </c>
@@ -10357,7 +10329,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>437</v>
       </c>
@@ -10377,7 +10349,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>557</v>
       </c>
@@ -10401,7 +10373,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>440</v>
       </c>
@@ -10425,7 +10397,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>196</v>
       </c>
@@ -10450,7 +10422,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>444</v>
       </c>
@@ -10470,7 +10442,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>1</v>
       </c>
@@ -10490,7 +10462,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>2</v>
       </c>
@@ -10514,7 +10486,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>570</v>
       </c>
@@ -10537,7 +10509,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="184"/>
       <c r="B29" s="185" t="s">
         <v>448</v>
@@ -10555,7 +10527,7 @@
       <c r="I29" s="188"/>
       <c r="J29" s="185"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="184"/>
       <c r="B30" s="185" t="s">
         <v>450</v>
@@ -10573,7 +10545,7 @@
       <c r="I30" s="188"/>
       <c r="J30" s="185"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>242</v>
       </c>
@@ -10593,7 +10565,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="184"/>
       <c r="B32" s="185" t="s">
         <v>454</v>
@@ -10611,7 +10583,7 @@
       <c r="I32" s="188"/>
       <c r="J32" s="185"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="184"/>
       <c r="B33" s="185" t="s">
         <v>457</v>
@@ -10629,7 +10601,7 @@
       <c r="I33" s="188"/>
       <c r="J33" s="185"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="184"/>
       <c r="B34" s="185" t="s">
         <v>349</v>
@@ -10647,7 +10619,7 @@
       <c r="I34" s="188"/>
       <c r="J34" s="185"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>576</v>
       </c>
@@ -10667,7 +10639,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
         <v>462</v>
@@ -10685,7 +10657,7 @@
       <c r="I36" s="188"/>
       <c r="J36" s="185"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>464</v>
       </c>
@@ -10710,7 +10682,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>187</v>
       </c>
@@ -10734,7 +10706,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>469</v>
       </c>
@@ -10751,7 +10723,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="189"/>
       <c r="B40" s="190" t="s">
         <v>472</v>
@@ -10767,7 +10739,7 @@
       <c r="I40" s="193"/>
       <c r="J40" s="190"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>474</v>
       </c>
@@ -10775,17 +10747,17 @@
         <v>410</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>478</v>
       </c>
@@ -10793,7 +10765,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>192</v>
       </c>
@@ -10801,7 +10773,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>6</v>
       </c>
@@ -10809,17 +10781,17 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="195" customFormat="1">
+    <row r="51" spans="1:9" s="195" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="194"/>
       <c r="B51" s="195" t="s">
         <v>9</v>
@@ -10832,97 +10804,97 @@
       <c r="H51" s="194"/>
       <c r="I51" s="198"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="2:2" customFormat="1">
+    <row r="65" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="2:2" customFormat="1">
+    <row r="66" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:2" customFormat="1">
+    <row r="68" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="69" spans="2:2" customFormat="1">
+    <row r="69" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:2" customFormat="1">
+    <row r="70" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="71" spans="2:2" customFormat="1">
+    <row r="71" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>591</v>
       </c>
@@ -10951,15 +10923,10 @@
   <headerFooter>
     <oddFooter>&amp;LLevel 1 – Confidential</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
@@ -10968,18 +10935,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
@@ -11002,7 +10969,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="199"/>
       <c r="B2" s="190" t="s">
         <v>188</v>
@@ -11017,7 +10984,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="189" t="s">
         <v>35</v>
       </c>
@@ -11038,7 +11005,7 @@
       </c>
       <c r="G3" s="190"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="178" t="s">
         <v>35</v>
       </c>
@@ -11059,7 +11026,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39">
+    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.15">
       <c r="A5" s="189" t="s">
         <v>515</v>
       </c>
@@ -11082,7 +11049,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="178" t="s">
         <v>35</v>
       </c>
@@ -11103,7 +11070,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="189" t="s">
         <v>518</v>
       </c>
@@ -11127,7 +11094,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="178" t="s">
         <v>3</v>
       </c>
@@ -11148,7 +11115,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="178" t="s">
         <v>35</v>
       </c>
@@ -11165,7 +11132,7 @@
       </c>
       <c r="G9" s="182"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="178" t="s">
         <v>35</v>
       </c>
@@ -11181,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="178" t="s">
         <v>35</v>
       </c>
@@ -11200,7 +11167,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="178" t="s">
         <v>35</v>
       </c>
@@ -11221,7 +11188,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="178" t="s">
         <v>35</v>
       </c>
@@ -11237,7 +11204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="178" t="s">
         <v>4</v>
       </c>
@@ -11260,7 +11227,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="39">
+    <row r="15" spans="1:7" ht="39" x14ac:dyDescent="0.15">
       <c r="A15" s="178" t="s">
         <v>529</v>
       </c>
@@ -11281,7 +11248,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39">
+    <row r="16" spans="1:7" ht="39" x14ac:dyDescent="0.15">
       <c r="A16" s="178" t="s">
         <v>532</v>
       </c>
@@ -11302,7 +11269,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="26">
+    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A17" s="178" t="s">
         <v>606</v>
       </c>
@@ -11321,7 +11288,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="65">
+    <row r="18" spans="1:7" ht="65" x14ac:dyDescent="0.15">
       <c r="A18" s="189" t="s">
         <v>536</v>
       </c>
@@ -11344,7 +11311,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="178" t="s">
         <v>5</v>
       </c>
@@ -11365,7 +11332,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="178"/>
       <c r="B20" t="s">
         <v>612</v>
@@ -11379,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="178"/>
       <c r="B21" t="s">
         <v>613</v>
@@ -11393,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="178"/>
       <c r="B22" t="s">
         <v>614</v>
@@ -11407,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="178" t="s">
         <v>5</v>
       </c>
@@ -11428,7 +11395,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="178"/>
       <c r="B24" t="s">
         <v>615</v>
@@ -11442,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="178" t="s">
         <v>35</v>
       </c>
@@ -11463,7 +11430,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="178" t="s">
         <v>5</v>
       </c>
@@ -11484,7 +11451,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="178"/>
       <c r="B27" t="s">
         <v>435</v>
@@ -11503,7 +11470,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="178"/>
       <c r="B28" t="s">
         <v>437</v>
@@ -11522,7 +11489,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="178"/>
       <c r="B29" t="s">
         <v>557</v>
@@ -11541,7 +11508,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="178"/>
       <c r="B30" t="s">
         <v>440</v>
@@ -11560,7 +11527,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="178"/>
       <c r="B31" t="s">
         <v>196</v>
@@ -11580,7 +11547,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="178"/>
       <c r="B32" t="s">
         <v>444</v>
@@ -11599,7 +11566,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="178"/>
       <c r="B33" t="s">
         <v>1</v>
@@ -11618,7 +11585,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="178"/>
       <c r="B34" t="s">
         <v>2</v>
@@ -11637,7 +11604,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="178"/>
       <c r="B35" t="s">
         <v>570</v>
@@ -11656,7 +11623,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
         <v>448</v>
@@ -11671,7 +11638,7 @@
       <c r="F36" s="188"/>
       <c r="G36" s="185"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="184"/>
       <c r="B37" s="185" t="s">
         <v>450</v>
@@ -11686,7 +11653,7 @@
       <c r="F37" s="188"/>
       <c r="G37" s="185"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="178"/>
       <c r="B38" t="s">
         <v>242</v>
@@ -11705,7 +11672,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="184"/>
       <c r="B39" s="185" t="s">
         <v>454</v>
@@ -11720,7 +11687,7 @@
       <c r="F39" s="188"/>
       <c r="G39" s="185"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="184"/>
       <c r="B40" s="185" t="s">
         <v>457</v>
@@ -11735,7 +11702,7 @@
       <c r="F40" s="188"/>
       <c r="G40" s="185"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="184"/>
       <c r="B41" s="185" t="s">
         <v>349</v>
@@ -11750,7 +11717,7 @@
       <c r="F41" s="188"/>
       <c r="G41" s="185"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="178"/>
       <c r="B42" t="s">
         <v>576</v>
@@ -11769,7 +11736,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="184"/>
       <c r="B43" s="185" t="s">
         <v>462</v>
@@ -11784,7 +11751,7 @@
       <c r="F43" s="188"/>
       <c r="G43" s="185"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="178"/>
       <c r="B44" t="s">
         <v>464</v>
@@ -11804,7 +11771,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="178"/>
       <c r="B45" t="s">
         <v>187</v>
@@ -11823,7 +11790,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="178"/>
       <c r="B46" t="s">
         <v>469</v>
@@ -11840,7 +11807,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="189"/>
       <c r="B47" s="190" t="s">
         <v>472</v>
@@ -11876,10 +11843,5 @@
   <headerFooter>
     <oddFooter>&amp;LLevel 1 – Confidential</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Task-n-Tool.xlsx
+++ b/Task-n-Tool.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeygomanyuk/Projects/Task-n-Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergeygo\Projects\Task-n-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="6" r:id="rId1"/>
@@ -22,10 +22,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2014.01'!$A$1:$E$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2015'!$A$1:$H$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2015'!$A$1:$H$67</definedName>
     <definedName name="_Toc251017352" localSheetId="2">'2014.01'!$A$166</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
     <author>Sergey Gomanyuk</author>
   </authors>
   <commentList>
-    <comment ref="C33" authorId="0">
+    <comment ref="C33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="719">
   <si>
     <t>Задачи</t>
   </si>
@@ -2402,6 +2402,21 @@
   <si>
     <t>Замена MyHomeLib для PC</t>
   </si>
+  <si>
+    <t>iperf</t>
+  </si>
+  <si>
+    <t>Ping over TCP/IP</t>
+  </si>
+  <si>
+    <t>TCP, UDP, and SCTP network bandwidth measurement tool</t>
+  </si>
+  <si>
+    <t>tcping, tcptraceroute</t>
+  </si>
+  <si>
+    <t>Linux, Win</t>
+  </si>
 </sst>
 </file>
 
@@ -2410,7 +2425,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -3702,6 +3717,12 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3711,12 +3732,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3725,148 +3740,151 @@
     </xf>
   </cellXfs>
   <cellStyles count="136">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4159,26 +4177,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="208" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="208" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="208" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="208"/>
-    <col min="5" max="5" width="4.5" style="208" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="208" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="208"/>
-    <col min="8" max="8" width="71.5" style="208" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="208"/>
+    <col min="2" max="2" width="30.85546875" style="208" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="208" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="208"/>
+    <col min="5" max="5" width="4.42578125" style="208" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="208" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="208"/>
+    <col min="8" max="8" width="71.42578125" style="208" customWidth="1"/>
+    <col min="9" max="16384" width="10.85546875" style="208"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="212" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="212" customFormat="1">
       <c r="A1" s="212" t="s">
         <v>635</v>
       </c>
@@ -4204,7 +4220,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="B2" s="208" t="s">
         <v>35</v>
       </c>
@@ -4221,7 +4237,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="B3" s="208" t="s">
         <v>35</v>
       </c>
@@ -4238,7 +4254,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="25.5">
       <c r="B4" s="208" t="s">
         <v>668</v>
       </c>
@@ -4255,7 +4271,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="B5" s="208" t="s">
         <v>633</v>
       </c>
@@ -4272,7 +4288,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="51">
       <c r="B6" s="208" t="s">
         <v>634</v>
       </c>
@@ -4289,7 +4305,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="B7" s="208" t="s">
         <v>19</v>
       </c>
@@ -4306,7 +4322,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="25.5">
       <c r="B8" s="210" t="s">
         <v>117</v>
       </c>
@@ -4323,7 +4339,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="38.25">
       <c r="B9" s="208" t="s">
         <v>18</v>
       </c>
@@ -4340,7 +4356,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="38.25">
       <c r="B10" s="208" t="s">
         <v>18</v>
       </c>
@@ -4357,7 +4373,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="B11" s="208" t="s">
         <v>18</v>
       </c>
@@ -4374,7 +4390,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="65" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="63.75">
       <c r="B12" s="208" t="s">
         <v>118</v>
       </c>
@@ -4391,7 +4407,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="B13" s="208" t="s">
         <v>118</v>
       </c>
@@ -4408,7 +4424,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="38.25">
       <c r="B14" s="208" t="s">
         <v>118</v>
       </c>
@@ -4425,7 +4441,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="25.5">
       <c r="B15" s="208" t="s">
         <v>119</v>
       </c>
@@ -4442,7 +4458,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="38.25">
       <c r="B16" s="208" t="s">
         <v>237</v>
       </c>
@@ -4459,7 +4475,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17" s="208" t="s">
         <v>673</v>
       </c>
@@ -4476,7 +4492,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="208" t="s">
         <v>673</v>
       </c>
@@ -4493,7 +4509,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="B19" s="208" t="s">
         <v>120</v>
       </c>
@@ -4510,7 +4526,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="213" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" s="213" customFormat="1" ht="51">
       <c r="B20" s="213" t="s">
         <v>642</v>
       </c>
@@ -4527,7 +4543,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" ht="25.5">
       <c r="B21" s="213" t="s">
         <v>642</v>
       </c>
@@ -4544,7 +4560,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22" s="213" t="s">
         <v>642</v>
       </c>
@@ -4561,7 +4577,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="52" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" ht="63.75">
       <c r="B23" s="208" t="s">
         <v>20</v>
       </c>
@@ -4578,7 +4594,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="B24" s="208" t="s">
         <v>3</v>
       </c>
@@ -4593,7 +4609,7 @@
       </c>
       <c r="H24" s="50"/>
     </row>
-    <row r="25" spans="2:8" ht="104" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" ht="102">
       <c r="B25" s="208" t="s">
         <v>644</v>
       </c>
@@ -4610,7 +4626,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8">
       <c r="B26" s="208" t="s">
         <v>27</v>
       </c>
@@ -4627,7 +4643,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" ht="38.25">
       <c r="B27" s="208" t="s">
         <v>27</v>
       </c>
@@ -4644,7 +4660,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8">
       <c r="B28" s="208" t="s">
         <v>27</v>
       </c>
@@ -4658,7 +4674,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="78" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8" ht="76.5">
       <c r="B29" s="208" t="s">
         <v>130</v>
       </c>
@@ -4675,7 +4691,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="B30" s="208" t="s">
         <v>131</v>
       </c>
@@ -4692,7 +4708,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="B31" s="208" t="s">
         <v>270</v>
       </c>
@@ -4709,7 +4725,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="65" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" ht="63.75">
       <c r="B32" s="208" t="s">
         <v>270</v>
       </c>
@@ -4726,7 +4742,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" ht="25.5">
       <c r="B33" s="208" t="s">
         <v>141</v>
       </c>
@@ -4743,7 +4759,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" ht="25.5">
       <c r="B34" s="208" t="s">
         <v>141</v>
       </c>
@@ -4760,7 +4776,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8" ht="25.5">
       <c r="B35" s="208" t="s">
         <v>647</v>
       </c>
@@ -4777,7 +4793,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8">
       <c r="B36" s="208" t="s">
         <v>648</v>
       </c>
@@ -4788,7 +4804,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" ht="25.5">
       <c r="B37" s="208" t="s">
         <v>649</v>
       </c>
@@ -4805,7 +4821,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" ht="25.5">
       <c r="B38" s="208" t="s">
         <v>333</v>
       </c>
@@ -4822,7 +4838,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8">
       <c r="B39" s="208" t="s">
         <v>333</v>
       </c>
@@ -4839,7 +4855,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8">
       <c r="B40" s="208" t="s">
         <v>152</v>
       </c>
@@ -4856,7 +4872,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8">
       <c r="B41" s="208" t="s">
         <v>672</v>
       </c>
@@ -4873,7 +4889,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8">
       <c r="B42" s="208" t="s">
         <v>670</v>
       </c>
@@ -4890,7 +4906,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8">
       <c r="B43" s="208" t="s">
         <v>26</v>
       </c>
@@ -4904,7 +4920,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8">
       <c r="B44" s="208" t="s">
         <v>26</v>
       </c>
@@ -4918,7 +4934,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="52" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8" ht="51">
       <c r="B45" s="208" t="s">
         <v>26</v>
       </c>
@@ -4935,7 +4951,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8">
       <c r="B46" s="208" t="s">
         <v>26</v>
       </c>
@@ -4949,7 +4965,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="78" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8" ht="76.5">
       <c r="B47" s="208" t="s">
         <v>9</v>
       </c>
@@ -4966,7 +4982,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8">
       <c r="B48" s="208" t="s">
         <v>79</v>
       </c>
@@ -4983,7 +4999,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="B49" s="208" t="s">
         <v>661</v>
       </c>
@@ -4997,7 +5013,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="B50" s="208" t="s">
         <v>666</v>
       </c>
@@ -5014,7 +5030,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="B51" s="208" t="s">
         <v>666</v>
       </c>
@@ -5031,7 +5047,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="B52" s="208" t="s">
         <v>664</v>
       </c>
@@ -5045,7 +5061,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" s="208" t="s">
         <v>664</v>
       </c>
@@ -5062,7 +5078,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8">
       <c r="B54" s="208" t="s">
         <v>663</v>
       </c>
@@ -5076,7 +5092,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8">
       <c r="B55" s="208" t="s">
         <v>80</v>
       </c>
@@ -5090,7 +5106,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8">
       <c r="B56" s="208" t="s">
         <v>80</v>
       </c>
@@ -5104,7 +5120,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8" ht="25.5">
       <c r="B57" s="208" t="s">
         <v>683</v>
       </c>
@@ -5121,7 +5137,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8">
       <c r="B58" s="208" t="s">
         <v>685</v>
       </c>
@@ -5135,7 +5151,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:8">
       <c r="B59" s="208" t="s">
         <v>685</v>
       </c>
@@ -5146,7 +5162,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:8">
       <c r="B60" s="208" t="s">
         <v>685</v>
       </c>
@@ -5160,7 +5176,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8">
       <c r="B61" s="208" t="s">
         <v>388</v>
       </c>
@@ -5174,7 +5190,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:8">
       <c r="B62" s="208" t="s">
         <v>388</v>
       </c>
@@ -5185,7 +5201,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:8">
       <c r="B63" s="208" t="s">
         <v>388</v>
       </c>
@@ -5196,56 +5212,78 @@
         <v>391</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:8">
       <c r="B64" s="208" t="s">
+        <v>715</v>
+      </c>
+      <c r="C64" s="216" t="s">
+        <v>717</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="208" t="s">
+        <v>716</v>
+      </c>
+      <c r="C65" s="216" t="s">
+        <v>714</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="208" t="s">
         <v>688</v>
       </c>
-      <c r="C64" s="216" t="s">
+      <c r="C66" s="216" t="s">
         <v>381</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D66" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="G64" s="208" t="s">
+      <c r="G66" s="208" t="s">
         <v>636</v>
       </c>
-      <c r="H64" s="45" t="s">
+      <c r="H66" s="45" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B65" s="208" t="s">
+    <row r="67" spans="2:8">
+      <c r="B67" s="208" t="s">
         <v>688</v>
       </c>
-      <c r="C65" s="216" t="s">
+      <c r="C67" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D67" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="G65" s="208" t="s">
+      <c r="G67" s="208" t="s">
         <v>636</v>
       </c>
-      <c r="H65" s="45" t="s">
+      <c r="H67" s="45" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B66" s="208" t="s">
+    <row r="68" spans="2:8">
+      <c r="B68" s="208" t="s">
         <v>710</v>
       </c>
-      <c r="C66" s="207" t="s">
+      <c r="C68" s="207" t="s">
         <v>711</v>
       </c>
-      <c r="D66" s="208" t="s">
+      <c r="D68" s="208" t="s">
         <v>678</v>
       </c>
-      <c r="G66" s="208" t="s">
+      <c r="G68" s="208" t="s">
         <v>697</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H65"/>
+  <autoFilter ref="A1:H67"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" display="http://brew.sh/index_ru.html"/>
     <hyperlink ref="C6" r:id="rId2" display="CleanMyMac 2"/>
@@ -5304,14 +5342,16 @@
     <hyperlink ref="C61" r:id="rId55"/>
     <hyperlink ref="C62" r:id="rId56"/>
     <hyperlink ref="C63" r:id="rId57"/>
-    <hyperlink ref="C64" r:id="rId58"/>
-    <hyperlink ref="C65" r:id="rId59"/>
+    <hyperlink ref="C66" r:id="rId58"/>
+    <hyperlink ref="C67" r:id="rId59"/>
     <hyperlink ref="C14" r:id="rId60"/>
-    <hyperlink ref="C66" r:id="rId61"/>
+    <hyperlink ref="C68" r:id="rId61"/>
     <hyperlink ref="C31" r:id="rId62"/>
+    <hyperlink ref="C64" r:id="rId63" display="tcping"/>
+    <hyperlink ref="C65" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId65"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -5319,7 +5359,7 @@
           <x14:formula1>
             <xm:f>'2015.list'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G64:G66 G60:G61 G2:G58</xm:sqref>
+          <xm:sqref>G66:G68 G60:G61 G2:G58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5335,29 +5375,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1" s="154" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" s="154" customFormat="1">
       <c r="A1" s="154" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>638</v>
       </c>
@@ -5369,7 +5409,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:E208"/>
@@ -5378,16 +5418,16 @@
       <selection activeCell="A189" sqref="A189:XFD208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="51.5" style="45" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="63.5" style="45" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="64" customWidth="1"/>
-    <col min="5" max="16384" width="11.5" style="45"/>
+    <col min="1" max="1" width="51.42578125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="64" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="37" customFormat="1" ht="15">
       <c r="A1" s="223" t="s">
         <v>180</v>
       </c>
@@ -5402,7 +5442,7 @@
       </c>
       <c r="E1" s="224"/>
     </row>
-    <row r="2" spans="1:5" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="37" customFormat="1" ht="15">
       <c r="A2" s="223"/>
       <c r="B2" s="223"/>
       <c r="C2" s="223"/>
@@ -5413,7 +5453,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>229</v>
       </c>
@@ -5422,7 +5462,7 @@
       <c r="D3" s="62"/>
       <c r="E3" s="38"/>
     </row>
-    <row r="4" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="41" customFormat="1">
       <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
@@ -5433,7 +5473,7 @@
       <c r="D4" s="63"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="51" t="s">
         <v>230</v>
       </c>
@@ -5441,7 +5481,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="57" t="s">
         <v>628</v>
       </c>
@@ -5452,7 +5492,7 @@
       <c r="D6" s="65"/>
       <c r="E6" s="55"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="51" t="s">
         <v>627</v>
       </c>
@@ -5460,7 +5500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="25.5">
       <c r="A8" s="57" t="s">
         <v>616</v>
       </c>
@@ -5473,7 +5513,7 @@
       <c r="D8" s="205"/>
       <c r="E8" s="205"/>
     </row>
-    <row r="9" spans="1:5" s="41" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="41" customFormat="1" ht="25.5">
       <c r="A9" s="39" t="s">
         <v>220</v>
       </c>
@@ -5484,7 +5524,7 @@
       <c r="D9" s="63"/>
       <c r="E9" s="39"/>
     </row>
-    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="38.25">
       <c r="A10" s="34" t="s">
         <v>221</v>
       </c>
@@ -5495,7 +5535,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="34" t="s">
         <v>11</v>
       </c>
@@ -5506,7 +5546,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="25.5">
       <c r="A12" s="34" t="s">
         <v>618</v>
       </c>
@@ -5517,7 +5557,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="39" t="s">
         <v>19</v>
       </c>
@@ -5526,7 +5566,7 @@
       <c r="D13" s="63"/>
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="53" t="s">
         <v>51</v>
       </c>
@@ -5537,7 +5577,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="39" t="s">
         <v>117</v>
       </c>
@@ -5546,7 +5586,7 @@
       <c r="D15" s="63"/>
       <c r="E15" s="39"/>
     </row>
-    <row r="16" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="25.5">
       <c r="A16" s="53" t="s">
         <v>219</v>
       </c>
@@ -5557,7 +5597,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" outlineLevel="1">
       <c r="A17" s="54" t="s">
         <v>216</v>
       </c>
@@ -5570,7 +5610,7 @@
       <c r="D17" s="65"/>
       <c r="E17" s="55"/>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" outlineLevel="1">
       <c r="A18" s="53" t="s">
         <v>218</v>
       </c>
@@ -5581,7 +5621,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
@@ -5592,7 +5632,7 @@
       <c r="D19" s="63"/>
       <c r="E19" s="39"/>
     </row>
-    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="38.25">
       <c r="A20" s="34" t="s">
         <v>223</v>
       </c>
@@ -5603,7 +5643,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="25.5">
       <c r="A21" s="35" t="s">
         <v>224</v>
       </c>
@@ -5616,7 +5656,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="55"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="34" t="s">
         <v>49</v>
       </c>
@@ -5627,7 +5667,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" outlineLevel="1">
       <c r="A23" s="59" t="s">
         <v>225</v>
       </c>
@@ -5640,7 +5680,7 @@
       <c r="D23" s="65"/>
       <c r="E23" s="55"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="39" t="s">
         <v>118</v>
       </c>
@@ -5649,7 +5689,7 @@
       <c r="D24" s="63"/>
       <c r="E24" s="39"/>
     </row>
-    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="38.25">
       <c r="A25" s="53" t="s">
         <v>622</v>
       </c>
@@ -5660,7 +5700,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" outlineLevel="1">
       <c r="A26" s="54" t="s">
         <v>235</v>
       </c>
@@ -5673,7 +5713,7 @@
       <c r="D26" s="65"/>
       <c r="E26" s="55"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="39" t="s">
         <v>119</v>
       </c>
@@ -5682,7 +5722,7 @@
       <c r="D27" s="63"/>
       <c r="E27" s="39"/>
     </row>
-    <row r="28" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="25.5">
       <c r="A28" s="53" t="s">
         <v>2</v>
       </c>
@@ -5693,7 +5733,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="39" t="s">
         <v>237</v>
       </c>
@@ -5702,7 +5742,7 @@
       <c r="D29" s="63"/>
       <c r="E29" s="39"/>
     </row>
-    <row r="30" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="38.25">
       <c r="A30" s="53" t="s">
         <v>46</v>
       </c>
@@ -5713,7 +5753,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="57" t="s">
         <v>238</v>
       </c>
@@ -5724,7 +5764,7 @@
       <c r="D31" s="65"/>
       <c r="E31" s="55"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="39" t="s">
         <v>243</v>
       </c>
@@ -5733,7 +5773,7 @@
       <c r="D32" s="63"/>
       <c r="E32" s="39"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="53" t="s">
         <v>47</v>
       </c>
@@ -5744,7 +5784,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="54" t="s">
         <v>48</v>
       </c>
@@ -5757,7 +5797,7 @@
       <c r="D34" s="65"/>
       <c r="E34" s="55"/>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" outlineLevel="1">
       <c r="A35" s="60" t="s">
         <v>242</v>
       </c>
@@ -5768,7 +5808,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="39" t="s">
         <v>120</v>
       </c>
@@ -5779,7 +5819,7 @@
       <c r="D36" s="63"/>
       <c r="E36" s="39"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="52" t="s">
         <v>246</v>
       </c>
@@ -5787,7 +5827,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="39" t="s">
         <v>121</v>
       </c>
@@ -5796,7 +5836,7 @@
       <c r="D38" s="63"/>
       <c r="E38" s="39"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="60" t="s">
         <v>247</v>
       </c>
@@ -5807,7 +5847,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" s="39" t="s">
         <v>122</v>
       </c>
@@ -5816,7 +5856,7 @@
       <c r="D40" s="63"/>
       <c r="E40" s="39"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" s="60" t="s">
         <v>249</v>
       </c>
@@ -5827,7 +5867,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" s="39" t="s">
         <v>123</v>
       </c>
@@ -5838,7 +5878,7 @@
       <c r="D42" s="63"/>
       <c r="E42" s="39"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" s="39" t="s">
         <v>124</v>
       </c>
@@ -5847,7 +5887,7 @@
       <c r="D44" s="63"/>
       <c r="E44" s="39"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="60" t="s">
         <v>252</v>
       </c>
@@ -5861,7 +5901,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" s="37" customFormat="1" ht="15">
       <c r="A46" s="38" t="s">
         <v>114</v>
       </c>
@@ -5870,7 +5910,7 @@
       <c r="D46" s="62"/>
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="1:5" s="41" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" s="41" customFormat="1" ht="89.25">
       <c r="A47" s="39" t="s">
         <v>115</v>
       </c>
@@ -5881,7 +5921,7 @@
       <c r="D47" s="66"/>
       <c r="E47" s="40"/>
     </row>
-    <row r="48" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="38.25">
       <c r="A48" s="42" t="s">
         <v>166</v>
       </c>
@@ -5893,7 +5933,7 @@
       </c>
       <c r="D48" s="67"/>
     </row>
-    <row r="49" spans="1:5" ht="52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="51">
       <c r="A49" s="54" t="s">
         <v>6</v>
       </c>
@@ -5906,7 +5946,7 @@
       <c r="D49" s="68"/>
       <c r="E49" s="55"/>
     </row>
-    <row r="50" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="25.5">
       <c r="A50" s="42" t="s">
         <v>172</v>
       </c>
@@ -5918,7 +5958,7 @@
       </c>
       <c r="D50" s="67"/>
     </row>
-    <row r="51" spans="1:5" ht="26" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="25.5" outlineLevel="1">
       <c r="A51" s="54" t="s">
         <v>168</v>
       </c>
@@ -5931,7 +5971,7 @@
       <c r="D51" s="65"/>
       <c r="E51" s="55"/>
     </row>
-    <row r="52" spans="1:5" s="49" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" s="49" customFormat="1" outlineLevel="1">
       <c r="A52" s="46" t="s">
         <v>173</v>
       </c>
@@ -5942,7 +5982,7 @@
       <c r="D52" s="69"/>
       <c r="E52" s="47"/>
     </row>
-    <row r="53" spans="1:5" s="49" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" s="49" customFormat="1" outlineLevel="1">
       <c r="A53" s="57" t="s">
         <v>174</v>
       </c>
@@ -5953,7 +5993,7 @@
       <c r="D53" s="65"/>
       <c r="E53" s="55"/>
     </row>
-    <row r="54" spans="1:5" s="41" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" s="41" customFormat="1" ht="25.5">
       <c r="A54" s="39" t="s">
         <v>93</v>
       </c>
@@ -5964,7 +6004,7 @@
       <c r="D54" s="66"/>
       <c r="E54" s="40"/>
     </row>
-    <row r="55" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="38.25">
       <c r="A55" s="52" t="s">
         <v>177</v>
       </c>
@@ -5976,7 +6016,7 @@
       </c>
       <c r="D55" s="70"/>
     </row>
-    <row r="56" spans="1:5" ht="52" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="51">
       <c r="A56" s="57" t="s">
         <v>95</v>
       </c>
@@ -5989,7 +6029,7 @@
       <c r="D56" s="68"/>
       <c r="E56" s="55"/>
     </row>
-    <row r="57" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="25.5">
       <c r="A57" s="51" t="s">
         <v>183</v>
       </c>
@@ -6001,7 +6041,7 @@
       </c>
       <c r="D57" s="70"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5">
       <c r="A58" s="57" t="s">
         <v>185</v>
       </c>
@@ -6014,7 +6054,7 @@
       <c r="D58" s="68"/>
       <c r="E58" s="55"/>
     </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" outlineLevel="1">
       <c r="A59" s="52" t="s">
         <v>187</v>
       </c>
@@ -6026,7 +6066,7 @@
       </c>
       <c r="D59" s="70"/>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="25.5" outlineLevel="1">
       <c r="A60" s="57" t="s">
         <v>190</v>
       </c>
@@ -6039,7 +6079,7 @@
       <c r="D60" s="68"/>
       <c r="E60" s="55"/>
     </row>
-    <row r="61" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="51">
       <c r="A61" s="39" t="s">
         <v>20</v>
       </c>
@@ -6050,7 +6090,7 @@
       <c r="D61" s="63"/>
       <c r="E61" s="39"/>
     </row>
-    <row r="62" spans="1:5" s="41" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" s="41" customFormat="1" ht="51">
       <c r="A62" s="52" t="s">
         <v>192</v>
       </c>
@@ -6063,7 +6103,7 @@
       <c r="D62" s="70"/>
       <c r="E62" s="45"/>
     </row>
-    <row r="63" spans="1:5" s="41" customFormat="1" ht="26" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" s="41" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A63" s="54" t="s">
         <v>196</v>
       </c>
@@ -6076,7 +6116,7 @@
       <c r="D63" s="68"/>
       <c r="E63" s="55"/>
     </row>
-    <row r="64" spans="1:5" s="41" customFormat="1" ht="65" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" s="41" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A64" s="51" t="s">
         <v>195</v>
       </c>
@@ -6087,7 +6127,7 @@
       <c r="D64" s="64"/>
       <c r="E64" s="45"/>
     </row>
-    <row r="65" spans="1:5" s="41" customFormat="1" ht="65" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" s="41" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A65" s="57" t="s">
         <v>202</v>
       </c>
@@ -6098,7 +6138,7 @@
       <c r="D65" s="65"/>
       <c r="E65" s="55"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5">
       <c r="A66" s="39" t="s">
         <v>116</v>
       </c>
@@ -6107,7 +6147,7 @@
       <c r="D66" s="63"/>
       <c r="E66" s="39"/>
     </row>
-    <row r="67" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="38.25">
       <c r="A67" s="51" t="s">
         <v>204</v>
       </c>
@@ -6118,7 +6158,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="26" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="25.5" outlineLevel="1">
       <c r="A68" s="57" t="s">
         <v>208</v>
       </c>
@@ -6131,7 +6171,7 @@
       <c r="D68" s="65"/>
       <c r="E68" s="55"/>
     </row>
-    <row r="69" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="25.5" outlineLevel="1">
       <c r="A69" s="51" t="s">
         <v>211</v>
       </c>
@@ -6142,7 +6182,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" outlineLevel="1">
       <c r="A70" s="58" t="s">
         <v>213</v>
       </c>
@@ -6153,7 +6193,7 @@
       <c r="D70" s="65"/>
       <c r="E70" s="55"/>
     </row>
-    <row r="71" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A71" s="38" t="s">
         <v>125</v>
       </c>
@@ -6162,7 +6202,7 @@
       <c r="D71" s="62"/>
       <c r="E71" s="38"/>
     </row>
-    <row r="72" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="38.25">
       <c r="A72" s="39" t="s">
         <v>126</v>
       </c>
@@ -6173,7 +6213,7 @@
       <c r="D72" s="39"/>
       <c r="E72" s="39"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5">
       <c r="A73" s="53" t="s">
         <v>254</v>
       </c>
@@ -6184,7 +6224,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="38.25">
       <c r="A74" s="72" t="s">
         <v>255</v>
       </c>
@@ -6197,7 +6237,7 @@
       <c r="D74" s="65"/>
       <c r="E74" s="55"/>
     </row>
-    <row r="75" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="25.5">
       <c r="A75" s="39" t="s">
         <v>128</v>
       </c>
@@ -6208,7 +6248,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5">
       <c r="A76" s="60" t="s">
         <v>31</v>
       </c>
@@ -6219,7 +6259,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5">
       <c r="A77" s="39" t="s">
         <v>129</v>
       </c>
@@ -6228,7 +6268,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="39"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5">
       <c r="A78" s="60" t="s">
         <v>50</v>
       </c>
@@ -6239,7 +6279,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5">
       <c r="A79" s="57" t="s">
         <v>263</v>
       </c>
@@ -6250,7 +6290,7 @@
       <c r="D79" s="65"/>
       <c r="E79" s="55"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5">
       <c r="A80" s="39" t="s">
         <v>130</v>
       </c>
@@ -6259,7 +6299,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
     </row>
-    <row r="81" spans="1:5" ht="78" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="76.5">
       <c r="A81" s="34" t="s">
         <v>91</v>
       </c>
@@ -6270,7 +6310,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="15.75" outlineLevel="1">
       <c r="A82" s="75" t="s">
         <v>266</v>
       </c>
@@ -6283,7 +6323,7 @@
       <c r="D82" s="65"/>
       <c r="E82" s="55"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5">
       <c r="A83" s="39" t="s">
         <v>131</v>
       </c>
@@ -6294,7 +6334,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="25.5">
       <c r="A85" s="39" t="s">
         <v>270</v>
       </c>
@@ -6305,7 +6345,7 @@
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
     </row>
-    <row r="86" spans="1:5" ht="65" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="63.75">
       <c r="A86" s="34" t="s">
         <v>269</v>
       </c>
@@ -6316,7 +6356,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="65" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="63.75">
       <c r="A87" s="35" t="s">
         <v>272</v>
       </c>
@@ -6329,7 +6369,7 @@
       <c r="D87" s="65"/>
       <c r="E87" s="55"/>
     </row>
-    <row r="88" spans="1:5" ht="91" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="89.25">
       <c r="A88" s="34" t="s">
         <v>274</v>
       </c>
@@ -6340,7 +6380,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="65" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="63.75">
       <c r="A89" s="35" t="s">
         <v>276</v>
       </c>
@@ -6353,7 +6393,7 @@
       <c r="D89" s="65"/>
       <c r="E89" s="55"/>
     </row>
-    <row r="90" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="15.75" outlineLevel="1">
       <c r="A90" s="74" t="s">
         <v>278</v>
       </c>
@@ -6364,7 +6404,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="15.75" outlineLevel="1">
       <c r="A91" s="74" t="s">
         <v>279</v>
       </c>
@@ -6375,7 +6415,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A92" s="38" t="s">
         <v>132</v>
       </c>
@@ -6384,7 +6424,7 @@
       <c r="D92" s="38"/>
       <c r="E92" s="38"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5">
       <c r="A93" s="39" t="s">
         <v>133</v>
       </c>
@@ -6393,7 +6433,7 @@
       <c r="D93" s="39"/>
       <c r="E93" s="39"/>
     </row>
-    <row r="94" spans="1:5" ht="78" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="76.5">
       <c r="A94" s="79" t="s">
         <v>281</v>
       </c>
@@ -6404,7 +6444,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="55" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" s="55" customFormat="1" ht="15.75" outlineLevel="1">
       <c r="A95" s="75" t="s">
         <v>284</v>
       </c>
@@ -6416,7 +6456,7 @@
       </c>
       <c r="D95" s="65"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="25.5">
       <c r="A96" s="39" t="s">
         <v>134</v>
       </c>
@@ -6427,7 +6467,7 @@
       <c r="D96" s="39"/>
       <c r="E96" s="39"/>
     </row>
-    <row r="98" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A98" s="38" t="s">
         <v>135</v>
       </c>
@@ -6436,7 +6476,7 @@
       <c r="D98" s="38"/>
       <c r="E98" s="38"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5">
       <c r="A99" s="39" t="s">
         <v>136</v>
       </c>
@@ -6445,7 +6485,7 @@
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5">
       <c r="A100" s="51" t="s">
         <v>288</v>
       </c>
@@ -6456,7 +6496,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5">
       <c r="A101" s="39" t="s">
         <v>137</v>
       </c>
@@ -6465,7 +6505,7 @@
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
     </row>
-    <row r="102" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="25.5">
       <c r="A102" s="51" t="s">
         <v>291</v>
       </c>
@@ -6476,7 +6516,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5">
       <c r="A103" s="39" t="s">
         <v>138</v>
       </c>
@@ -6485,7 +6525,7 @@
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5">
       <c r="A104" s="60" t="s">
         <v>293</v>
       </c>
@@ -6496,7 +6536,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5">
       <c r="A105" s="72" t="s">
         <v>295</v>
       </c>
@@ -6509,7 +6549,7 @@
       <c r="D105" s="65"/>
       <c r="E105" s="55"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="25.5">
       <c r="A106" s="39" t="s">
         <v>394</v>
       </c>
@@ -6520,7 +6560,7 @@
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
     </row>
-    <row r="108" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A108" s="38" t="s">
         <v>139</v>
       </c>
@@ -6529,7 +6569,7 @@
       <c r="D108" s="38"/>
       <c r="E108" s="38"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5">
       <c r="A109" s="39" t="s">
         <v>140</v>
       </c>
@@ -6538,7 +6578,7 @@
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5">
       <c r="A110" s="51" t="s">
         <v>296</v>
       </c>
@@ -6549,7 +6589,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5">
       <c r="A111" s="39" t="s">
         <v>141</v>
       </c>
@@ -6560,7 +6600,7 @@
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5">
       <c r="A112" s="60" t="s">
         <v>307</v>
       </c>
@@ -6571,7 +6611,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" ht="25.5">
       <c r="A113" s="72" t="s">
         <v>305</v>
       </c>
@@ -6584,7 +6624,7 @@
       <c r="D113" s="65"/>
       <c r="E113" s="55"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5">
       <c r="A114" s="72" t="s">
         <v>310</v>
       </c>
@@ -6597,7 +6637,7 @@
       <c r="D114" s="65"/>
       <c r="E114" s="55"/>
     </row>
-    <row r="115" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" ht="25.5">
       <c r="A115" s="60" t="s">
         <v>306</v>
       </c>
@@ -6608,7 +6648,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5">
       <c r="A116" s="39" t="s">
         <v>396</v>
       </c>
@@ -6619,7 +6659,7 @@
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
     </row>
-    <row r="118" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="15">
       <c r="A118" s="38" t="s">
         <v>142</v>
       </c>
@@ -6630,7 +6670,7 @@
       <c r="D118" s="38"/>
       <c r="E118" s="38"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5">
       <c r="A119" s="39" t="s">
         <v>143</v>
       </c>
@@ -6639,7 +6679,7 @@
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5">
       <c r="A120" s="51" t="s">
         <v>143</v>
       </c>
@@ -6650,7 +6690,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5">
       <c r="A121" s="39" t="s">
         <v>144</v>
       </c>
@@ -6659,7 +6699,7 @@
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
     </row>
-    <row r="122" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="25.5">
       <c r="A122" s="60" t="s">
         <v>314</v>
       </c>
@@ -6670,7 +6710,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5">
       <c r="A123" s="39" t="s">
         <v>145</v>
       </c>
@@ -6681,7 +6721,7 @@
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
     </row>
-    <row r="125" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A125" s="38" t="s">
         <v>5</v>
       </c>
@@ -6690,7 +6730,7 @@
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="25.5">
       <c r="A126" s="39" t="s">
         <v>319</v>
       </c>
@@ -6699,7 +6739,7 @@
       <c r="D126" s="39"/>
       <c r="E126" s="39"/>
     </row>
-    <row r="127" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="25.5">
       <c r="A127" s="60" t="s">
         <v>53</v>
       </c>
@@ -6710,7 +6750,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="25.5">
       <c r="A128" s="39" t="s">
         <v>146</v>
       </c>
@@ -6721,7 +6761,7 @@
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
     </row>
-    <row r="130" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A130" s="38" t="s">
         <v>147</v>
       </c>
@@ -6730,7 +6770,7 @@
       <c r="D130" s="38"/>
       <c r="E130" s="38"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5">
       <c r="A131" s="39" t="s">
         <v>327</v>
       </c>
@@ -6741,7 +6781,7 @@
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5">
       <c r="A132" s="60" t="s">
         <v>320</v>
       </c>
@@ -6749,7 +6789,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5">
       <c r="A133" s="57" t="s">
         <v>323</v>
       </c>
@@ -6762,7 +6802,7 @@
       <c r="D133" s="65"/>
       <c r="E133" s="55"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" ht="25.5">
       <c r="A134" s="39" t="s">
         <v>328</v>
       </c>
@@ -6773,7 +6813,7 @@
       <c r="D134" s="39"/>
       <c r="E134" s="39"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5">
       <c r="A135" s="60" t="s">
         <v>325</v>
       </c>
@@ -6781,7 +6821,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5">
       <c r="A136" s="72" t="s">
         <v>326</v>
       </c>
@@ -6792,7 +6832,7 @@
       <c r="D136" s="65"/>
       <c r="E136" s="55"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5">
       <c r="A137" s="60" t="s">
         <v>329</v>
       </c>
@@ -6800,7 +6840,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5">
       <c r="A138" s="39" t="s">
         <v>333</v>
       </c>
@@ -6811,7 +6851,7 @@
       <c r="D138" s="39"/>
       <c r="E138" s="39"/>
     </row>
-    <row r="139" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="38.25">
       <c r="A139" s="60" t="s">
         <v>1</v>
       </c>
@@ -6822,7 +6862,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" ht="25.5">
       <c r="A140" s="72" t="s">
         <v>335</v>
       </c>
@@ -6835,7 +6875,7 @@
       <c r="D140" s="65"/>
       <c r="E140" s="55"/>
     </row>
-    <row r="141" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A141" s="38" t="s">
         <v>148</v>
       </c>
@@ -6844,7 +6884,7 @@
       <c r="D141" s="38"/>
       <c r="E141" s="38"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5">
       <c r="A142" s="39" t="s">
         <v>149</v>
       </c>
@@ -6855,7 +6895,7 @@
       <c r="D142" s="39"/>
       <c r="E142" s="39"/>
     </row>
-    <row r="143" spans="1:5" ht="52" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="51">
       <c r="A143" s="60" t="s">
         <v>338</v>
       </c>
@@ -6866,7 +6906,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="52" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="51">
       <c r="A144" s="60" t="s">
         <v>341</v>
       </c>
@@ -6877,7 +6917,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="52" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="51">
       <c r="A145" s="60" t="s">
         <v>343</v>
       </c>
@@ -6888,7 +6928,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5">
       <c r="A146" s="39" t="s">
         <v>150</v>
       </c>
@@ -6899,7 +6939,7 @@
       <c r="D146" s="39"/>
       <c r="E146" s="39"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5">
       <c r="A148" s="39" t="s">
         <v>151</v>
       </c>
@@ -6910,7 +6950,7 @@
       <c r="D148" s="39"/>
       <c r="E148" s="39"/>
     </row>
-    <row r="150" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A150" s="38" t="s">
         <v>23</v>
       </c>
@@ -6919,7 +6959,7 @@
       <c r="D150" s="38"/>
       <c r="E150" s="38"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5">
       <c r="A151" s="39" t="s">
         <v>152</v>
       </c>
@@ -6930,7 +6970,7 @@
       <c r="D151" s="39"/>
       <c r="E151" s="39"/>
     </row>
-    <row r="152" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" ht="51">
       <c r="A152" s="60" t="s">
         <v>347</v>
       </c>
@@ -6941,7 +6981,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="153" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" outlineLevel="1">
       <c r="A153" s="72" t="s">
         <v>348</v>
       </c>
@@ -6954,7 +6994,7 @@
       <c r="D153" s="65"/>
       <c r="E153" s="55"/>
     </row>
-    <row r="154" spans="1:5" ht="26" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" ht="25.5" outlineLevel="1">
       <c r="A154" s="51" t="s">
         <v>349</v>
       </c>
@@ -6965,7 +7005,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5">
       <c r="A155" s="39" t="s">
         <v>153</v>
       </c>
@@ -6976,7 +7016,7 @@
       <c r="D155" s="39"/>
       <c r="E155" s="39"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5">
       <c r="A157" s="39" t="s">
         <v>154</v>
       </c>
@@ -6987,7 +7027,7 @@
       <c r="D157" s="39"/>
       <c r="E157" s="39"/>
     </row>
-    <row r="159" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A159" s="38" t="s">
         <v>155</v>
       </c>
@@ -6996,7 +7036,7 @@
       <c r="D159" s="38"/>
       <c r="E159" s="38"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5">
       <c r="A160" s="39" t="s">
         <v>156</v>
       </c>
@@ -7007,7 +7047,7 @@
       <c r="D160" s="39"/>
       <c r="E160" s="39"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5">
       <c r="A162" s="39" t="s">
         <v>157</v>
       </c>
@@ -7016,7 +7056,7 @@
       <c r="D162" s="39"/>
       <c r="E162" s="39"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5">
       <c r="A163" s="60" t="s">
         <v>354</v>
       </c>
@@ -7024,7 +7064,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="41" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A164" s="38" t="s">
         <v>158</v>
       </c>
@@ -7035,7 +7075,7 @@
       <c r="D164" s="38"/>
       <c r="E164" s="38"/>
     </row>
-    <row r="166" spans="1:5" s="41" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" s="41" customFormat="1" ht="30">
       <c r="A166" s="38" t="s">
         <v>264</v>
       </c>
@@ -7044,7 +7084,7 @@
       <c r="D166" s="38"/>
       <c r="E166" s="38"/>
     </row>
-    <row r="167" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" ht="25.5">
       <c r="A167" s="39" t="s">
         <v>127</v>
       </c>
@@ -7055,7 +7095,7 @@
       <c r="D167" s="39"/>
       <c r="E167" s="39"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5">
       <c r="A169" s="39" t="s">
         <v>26</v>
       </c>
@@ -7066,7 +7106,7 @@
       <c r="D169" s="39"/>
       <c r="E169" s="39"/>
     </row>
-    <row r="170" spans="1:5" ht="78" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" ht="76.5">
       <c r="A170" s="34" t="s">
         <v>357</v>
       </c>
@@ -7077,7 +7117,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="52" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" ht="51">
       <c r="A171" s="34" t="s">
         <v>10</v>
       </c>
@@ -7088,7 +7128,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5">
       <c r="A172" s="39" t="s">
         <v>355</v>
       </c>
@@ -7099,7 +7139,7 @@
       <c r="D172" s="39"/>
       <c r="E172" s="39"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5">
       <c r="A173" s="60" t="s">
         <v>159</v>
       </c>
@@ -7107,7 +7147,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" ht="38.25">
       <c r="A174" s="39" t="s">
         <v>79</v>
       </c>
@@ -7118,12 +7158,12 @@
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5">
       <c r="A175" s="60" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5">
       <c r="A176" s="39" t="s">
         <v>162</v>
       </c>
@@ -7134,7 +7174,7 @@
       <c r="D176" s="39"/>
       <c r="E176" s="39"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5">
       <c r="A177" s="51" t="s">
         <v>362</v>
       </c>
@@ -7145,7 +7185,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5">
       <c r="A178" s="57" t="s">
         <v>364</v>
       </c>
@@ -7158,7 +7198,7 @@
       <c r="D178" s="65"/>
       <c r="E178" s="55"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5">
       <c r="A179" s="60" t="s">
         <v>360</v>
       </c>
@@ -7166,7 +7206,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5">
       <c r="A180" s="39" t="s">
         <v>163</v>
       </c>
@@ -7175,7 +7215,7 @@
       <c r="D180" s="39"/>
       <c r="E180" s="39"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5">
       <c r="A181" s="51" t="s">
         <v>366</v>
       </c>
@@ -7186,7 +7226,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5">
       <c r="A182" s="72" t="s">
         <v>368</v>
       </c>
@@ -7197,7 +7237,7 @@
       <c r="D182" s="65"/>
       <c r="E182" s="55"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5">
       <c r="A183" s="60" t="s">
         <v>369</v>
       </c>
@@ -7205,7 +7245,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5">
       <c r="A184" s="39" t="s">
         <v>164</v>
       </c>
@@ -7216,7 +7256,7 @@
       <c r="D184" s="39"/>
       <c r="E184" s="39"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5">
       <c r="A186" s="39" t="s">
         <v>165</v>
       </c>
@@ -7227,7 +7267,7 @@
       <c r="D186" s="39"/>
       <c r="E186" s="39"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5">
       <c r="A187" s="60" t="s">
         <v>104</v>
       </c>
@@ -7235,7 +7275,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5">
       <c r="A188" s="60" t="s">
         <v>103</v>
       </c>
@@ -7243,7 +7283,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5">
       <c r="A189" s="39" t="s">
         <v>287</v>
       </c>
@@ -7254,7 +7294,7 @@
       <c r="D189" s="39"/>
       <c r="E189" s="39"/>
     </row>
-    <row r="190" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" ht="25.5">
       <c r="A190" s="60" t="s">
         <v>372</v>
       </c>
@@ -7265,7 +7305,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" ht="25.5">
       <c r="A191" s="60" t="s">
         <v>373</v>
       </c>
@@ -7276,7 +7316,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5">
       <c r="A192" s="39" t="s">
         <v>160</v>
       </c>
@@ -7287,7 +7327,7 @@
       <c r="D192" s="39"/>
       <c r="E192" s="39"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5">
       <c r="A193" s="60" t="s">
         <v>375</v>
       </c>
@@ -7295,7 +7335,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5">
       <c r="A194" s="39" t="s">
         <v>72</v>
       </c>
@@ -7306,7 +7346,7 @@
       <c r="D194" s="39"/>
       <c r="E194" s="39"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5">
       <c r="A196" s="39" t="s">
         <v>73</v>
       </c>
@@ -7317,7 +7357,7 @@
       <c r="D196" s="39"/>
       <c r="E196" s="39"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5">
       <c r="A198" s="39" t="s">
         <v>28</v>
       </c>
@@ -7326,7 +7366,7 @@
       <c r="D198" s="39"/>
       <c r="E198" s="39"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5">
       <c r="A199" s="60" t="s">
         <v>382</v>
       </c>
@@ -7334,7 +7374,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5">
       <c r="A200" s="60" t="s">
         <v>384</v>
       </c>
@@ -7342,7 +7382,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5">
       <c r="A201" s="60" t="s">
         <v>12</v>
       </c>
@@ -7350,7 +7390,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5">
       <c r="A202" s="39" t="s">
         <v>388</v>
       </c>
@@ -7359,7 +7399,7 @@
       <c r="D202" s="39"/>
       <c r="E202" s="39"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5">
       <c r="A203" s="60" t="s">
         <v>378</v>
       </c>
@@ -7370,7 +7410,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5">
       <c r="A204" s="60" t="s">
         <v>379</v>
       </c>
@@ -7381,7 +7421,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5">
       <c r="A205" s="60" t="s">
         <v>380</v>
       </c>
@@ -7392,7 +7432,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5">
       <c r="A206" s="39" t="s">
         <v>161</v>
       </c>
@@ -7401,7 +7441,7 @@
       <c r="D206" s="39"/>
       <c r="E206" s="39"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5">
       <c r="A207" s="60" t="s">
         <v>381</v>
       </c>
@@ -7412,7 +7452,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5">
       <c r="A208" s="60" t="s">
         <v>108</v>
       </c>
@@ -7521,30 +7561,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="29" customWidth="1"/>
-    <col min="4" max="5" width="27.83203125" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="22.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="29" customWidth="1"/>
+    <col min="4" max="5" width="27.85546875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="13.5" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="228" t="s">
+      <c r="B1" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="229"/>
+      <c r="C1" s="226"/>
       <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
@@ -7552,7 +7592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="14" customFormat="1">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
         <v>97</v>
@@ -7563,7 +7603,7 @@
       <c r="D2" s="31"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -7578,7 +7618,7 @@
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -7591,8 +7631,8 @@
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="225" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="227" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -7602,8 +7642,8 @@
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="225"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="227"/>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
@@ -7611,8 +7651,8 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="225" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="227" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -7624,8 +7664,8 @@
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="225"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="227"/>
       <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
@@ -7633,8 +7673,8 @@
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="225" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="227" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -7646,8 +7686,8 @@
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" ht="26" x14ac:dyDescent="0.15">
-      <c r="A10" s="225"/>
+    <row r="10" spans="1:5" ht="25.5">
+      <c r="A10" s="227"/>
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
@@ -7655,7 +7695,7 @@
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="25.5">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -7668,8 +7708,8 @@
       </c>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="225" t="s">
+    <row r="12" spans="1:5" ht="25.5">
+      <c r="A12" s="227" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -7679,8 +7719,8 @@
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="225"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="227"/>
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -7688,8 +7728,8 @@
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="225"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="227"/>
       <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
@@ -7697,7 +7737,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -7710,7 +7750,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="25.5">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -7723,7 +7763,7 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -7734,7 +7774,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>90</v>
       </c>
@@ -7747,7 +7787,7 @@
       </c>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -7760,7 +7800,7 @@
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="25.5">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -7773,8 +7813,8 @@
       </c>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="226" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="228" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -7786,8 +7826,8 @@
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="227"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="229"/>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
@@ -7797,7 +7837,7 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -7808,7 +7848,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -7821,7 +7861,7 @@
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="25"/>
       <c r="B25" s="6" t="s">
         <v>113</v>
@@ -7830,7 +7870,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -7843,7 +7883,7 @@
       </c>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -7856,7 +7896,7 @@
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="25.5">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
@@ -7867,7 +7907,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
@@ -7880,8 +7920,8 @@
       </c>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="225" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="227" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -7893,8 +7933,8 @@
       </c>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="225"/>
+    <row r="31" spans="1:5">
+      <c r="A31" s="227"/>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
@@ -7904,7 +7944,7 @@
       </c>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="38.25">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
@@ -7915,7 +7955,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="24" t="s">
         <v>93</v>
       </c>
@@ -7932,7 +7972,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="25.5">
       <c r="A34" s="24"/>
       <c r="B34" s="6" t="s">
         <v>100</v>
@@ -7941,7 +7981,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -7952,7 +7992,7 @@
       <c r="D35" s="21"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
@@ -7963,7 +8003,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="25" t="s">
         <v>109</v>
       </c>
@@ -7974,7 +8014,7 @@
       <c r="D37" s="21"/>
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="25" t="s">
         <v>105</v>
       </c>
@@ -7985,7 +8025,7 @@
       <c r="D38" s="21"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -7996,8 +8036,8 @@
       <c r="D39" s="21"/>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="226" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="228" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -8007,8 +8047,8 @@
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="227"/>
+    <row r="41" spans="1:5">
+      <c r="A41" s="229"/>
       <c r="B41" s="6" t="s">
         <v>78</v>
       </c>
@@ -8016,7 +8056,7 @@
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" s="26" t="s">
         <v>102</v>
       </c>
@@ -8027,7 +8067,7 @@
       <c r="D42" s="15"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" s="26"/>
       <c r="B43" s="6" t="s">
         <v>104</v>
@@ -8036,7 +8076,7 @@
       <c r="D43" s="15"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
         <v>63</v>
       </c>
@@ -8047,7 +8087,7 @@
       <c r="D44" s="21"/>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>26</v>
       </c>
@@ -8058,8 +8098,8 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="225" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="227" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -8069,8 +8109,8 @@
       <c r="D46" s="21"/>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="225"/>
+    <row r="47" spans="1:5">
+      <c r="A47" s="227"/>
       <c r="B47" s="28" t="s">
         <v>101</v>
       </c>
@@ -8078,8 +8118,8 @@
       <c r="D47" s="21"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="225"/>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A48" s="227"/>
       <c r="B48" s="6" t="s">
         <v>67</v>
       </c>
@@ -8087,7 +8127,7 @@
       <c r="D48" s="21"/>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>65</v>
       </c>
@@ -8098,7 +8138,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="25.5">
       <c r="A50" s="4" t="s">
         <v>28</v>
       </c>
@@ -8109,7 +8149,7 @@
       <c r="D50" s="21"/>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5">
       <c r="A51" s="25" t="s">
         <v>111</v>
       </c>
@@ -8120,7 +8160,7 @@
       <c r="D51" s="21"/>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="25.5">
       <c r="A52" s="4" t="s">
         <v>68</v>
       </c>
@@ -8131,7 +8171,7 @@
       <c r="D52" s="21"/>
       <c r="E52" s="22"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
         <v>69</v>
       </c>
@@ -8142,7 +8182,7 @@
       <c r="D53" s="21"/>
       <c r="E53" s="22"/>
     </row>
-    <row r="54" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="25.5">
       <c r="A54" s="4" t="s">
         <v>29</v>
       </c>
@@ -8153,7 +8193,7 @@
       <c r="D54" s="21"/>
       <c r="E54" s="22"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5">
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
@@ -8164,7 +8204,7 @@
       <c r="D55" s="21"/>
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5">
       <c r="A56" s="26" t="s">
         <v>107</v>
       </c>
@@ -8175,8 +8215,8 @@
       <c r="D56" s="15"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="225" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="227" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -8186,8 +8226,8 @@
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="225"/>
+    <row r="58" spans="1:5">
+      <c r="A58" s="227"/>
       <c r="B58" s="6" t="s">
         <v>15</v>
       </c>
@@ -8195,7 +8235,7 @@
       <c r="D58" s="15"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="26.25" thickBot="1">
       <c r="A59" s="10" t="s">
         <v>73</v>
       </c>
@@ -8208,16 +8248,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8303,27 +8343,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="151" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" style="151" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="151" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="151" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" style="151" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="151" customWidth="1"/>
     <col min="5" max="5" width="7" style="151" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="151" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="151" customWidth="1"/>
     <col min="8" max="8" width="9" style="151" customWidth="1"/>
     <col min="9" max="9" width="12" style="152" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="2"/>
+    <col min="10" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="84" customFormat="1" ht="25.5">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -8350,7 +8390,7 @@
       </c>
       <c r="I1" s="231"/>
     </row>
-    <row r="2" spans="1:9" s="91" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="91" customFormat="1" ht="89.25">
       <c r="A2" s="85" t="s">
         <v>407</v>
       </c>
@@ -8375,7 +8415,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="143" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="140.25">
       <c r="A3" s="85" t="s">
         <v>407</v>
       </c>
@@ -8402,7 +8442,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="38.25">
       <c r="A4" s="95" t="s">
         <v>415</v>
       </c>
@@ -8425,7 +8465,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="98" t="s">
         <v>18</v>
       </c>
@@ -8450,7 +8490,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="A6" s="104" t="s">
         <v>18</v>
       </c>
@@ -8471,7 +8511,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="104" t="s">
         <v>3</v>
       </c>
@@ -8496,7 +8536,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="38.25" customHeight="1">
       <c r="A8" s="104" t="s">
         <v>4</v>
       </c>
@@ -8515,7 +8555,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="98" t="s">
         <v>4</v>
       </c>
@@ -8540,7 +8580,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="104" t="s">
         <v>19</v>
       </c>
@@ -8563,7 +8603,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="51">
       <c r="A11" s="98" t="s">
         <v>422</v>
       </c>
@@ -8586,7 +8626,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="25.5">
       <c r="A12" s="98" t="s">
         <v>422</v>
       </c>
@@ -8609,7 +8649,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" s="98" t="s">
         <v>425</v>
       </c>
@@ -8632,7 +8672,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="51">
       <c r="A14" s="95" t="s">
         <v>425</v>
       </c>
@@ -8657,7 +8697,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="25.5">
       <c r="A15" s="98" t="s">
         <v>5</v>
       </c>
@@ -8678,7 +8718,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="65" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="63.75">
       <c r="A16" s="95" t="s">
         <v>5</v>
       </c>
@@ -8703,7 +8743,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="114" t="s">
         <v>407</v>
       </c>
@@ -8728,7 +8768,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="114" t="s">
         <v>407</v>
       </c>
@@ -8749,7 +8789,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="114" t="s">
         <v>407</v>
       </c>
@@ -8772,7 +8812,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" s="120" customFormat="1">
       <c r="A20" s="115" t="s">
         <v>436</v>
       </c>
@@ -8789,7 +8829,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="25.5">
       <c r="A21" s="104" t="s">
         <v>438</v>
       </c>
@@ -8810,7 +8850,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="98" t="s">
         <v>439</v>
       </c>
@@ -8831,7 +8871,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="115" t="s">
         <v>20</v>
       </c>
@@ -8853,7 +8893,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="25.5">
       <c r="A24" s="115" t="s">
         <v>443</v>
       </c>
@@ -8872,7 +8912,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="38.25">
       <c r="A25" s="104" t="s">
         <v>446</v>
       </c>
@@ -8893,7 +8933,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="104" t="s">
         <v>119</v>
       </c>
@@ -8914,7 +8954,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="104" t="s">
         <v>447</v>
       </c>
@@ -8935,7 +8975,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="115" t="s">
         <v>447</v>
       </c>
@@ -8952,7 +8992,7 @@
       <c r="H28" s="118"/>
       <c r="I28" s="119"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="115" t="s">
         <v>447</v>
       </c>
@@ -8969,7 +9009,7 @@
       <c r="H29" s="118"/>
       <c r="I29" s="119"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="115" t="s">
         <v>22</v>
       </c>
@@ -8990,7 +9030,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="95" t="s">
         <v>22</v>
       </c>
@@ -9011,7 +9051,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="95" t="s">
         <v>22</v>
       </c>
@@ -9032,7 +9072,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="115" t="s">
         <v>453</v>
       </c>
@@ -9049,7 +9089,7 @@
       <c r="H33" s="118"/>
       <c r="I33" s="119"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" s="115" t="s">
         <v>456</v>
       </c>
@@ -9066,7 +9106,7 @@
       <c r="H34" s="118"/>
       <c r="I34" s="119"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" s="115" t="s">
         <v>23</v>
       </c>
@@ -9083,7 +9123,7 @@
       <c r="H35" s="118"/>
       <c r="I35" s="119"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" s="104" t="s">
         <v>24</v>
       </c>
@@ -9104,7 +9144,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" s="115" t="s">
         <v>461</v>
       </c>
@@ -9123,7 +9163,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" s="115" t="s">
         <v>25</v>
       </c>
@@ -9145,7 +9185,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" s="104" t="s">
         <v>93</v>
       </c>
@@ -9170,7 +9210,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" s="126" t="s">
         <v>468</v>
       </c>
@@ -9191,7 +9231,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" s="104" t="s">
         <v>471</v>
       </c>
@@ -9210,7 +9250,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42" s="104" t="s">
         <v>473</v>
       </c>
@@ -9231,7 +9271,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="A43" s="132" t="s">
         <v>120</v>
       </c>
@@ -9246,7 +9286,7 @@
       <c r="H43" s="135"/>
       <c r="I43" s="136"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44" s="132" t="s">
         <v>476</v>
       </c>
@@ -9261,7 +9301,7 @@
       <c r="H44" s="135"/>
       <c r="I44" s="136"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="A45" s="132" t="s">
         <v>476</v>
       </c>
@@ -9276,7 +9316,7 @@
       <c r="H45" s="135"/>
       <c r="I45" s="136"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46" s="104" t="s">
         <v>20</v>
       </c>
@@ -9299,7 +9339,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="A47" s="104" t="s">
         <v>25</v>
       </c>
@@ -9320,7 +9360,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="25.5">
       <c r="A48" s="104" t="s">
         <v>25</v>
       </c>
@@ -9341,7 +9381,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="25.5">
       <c r="A49" s="95" t="s">
         <v>481</v>
       </c>
@@ -9362,7 +9402,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9">
       <c r="A50" s="104" t="s">
         <v>484</v>
       </c>
@@ -9383,7 +9423,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="25.5">
       <c r="A51" s="104" t="s">
         <v>486</v>
       </c>
@@ -9402,7 +9442,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="A52" s="104" t="s">
         <v>487</v>
       </c>
@@ -9421,7 +9461,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9">
       <c r="A53" s="104" t="s">
         <v>488</v>
       </c>
@@ -9444,7 +9484,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54" s="132" t="s">
         <v>488</v>
       </c>
@@ -9459,7 +9499,7 @@
       <c r="H54" s="135"/>
       <c r="I54" s="136"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9">
       <c r="A55" s="104" t="s">
         <v>26</v>
       </c>
@@ -9478,7 +9518,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9">
       <c r="A56" s="104" t="s">
         <v>492</v>
       </c>
@@ -9497,7 +9537,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="25.5">
       <c r="A57" s="104" t="s">
         <v>494</v>
       </c>
@@ -9516,7 +9556,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9">
       <c r="A58" s="122" t="s">
         <v>27</v>
       </c>
@@ -9537,7 +9577,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9">
       <c r="A59" s="104" t="s">
         <v>27</v>
       </c>
@@ -9558,7 +9598,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9">
       <c r="A60" s="104" t="s">
         <v>28</v>
       </c>
@@ -9577,7 +9617,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9">
       <c r="A61" s="104" t="s">
         <v>388</v>
       </c>
@@ -9598,7 +9638,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9">
       <c r="A62" s="104" t="s">
         <v>388</v>
       </c>
@@ -9619,7 +9659,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9">
       <c r="A63" s="132"/>
       <c r="B63" s="133" t="s">
         <v>500</v>
@@ -9632,7 +9672,7 @@
       <c r="H63" s="135"/>
       <c r="I63" s="136"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9">
       <c r="A64" s="104" t="s">
         <v>29</v>
       </c>
@@ -9653,7 +9693,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9">
       <c r="A65" s="104" t="s">
         <v>30</v>
       </c>
@@ -9672,7 +9712,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9">
       <c r="A66" s="132"/>
       <c r="B66" s="133" t="s">
         <v>503</v>
@@ -9685,7 +9725,7 @@
       <c r="H66" s="135"/>
       <c r="I66" s="136"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9">
       <c r="A67" s="132"/>
       <c r="B67" s="133" t="s">
         <v>15</v>
@@ -9698,7 +9738,7 @@
       <c r="H67" s="135"/>
       <c r="I67" s="136"/>
     </row>
-    <row r="68" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="13.5" thickBot="1">
       <c r="A68" s="146"/>
       <c r="B68" s="147" t="s">
         <v>504</v>
@@ -9778,27 +9818,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="178" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="179" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="180" customWidth="1"/>
-    <col min="5" max="5" width="49.1640625" style="178" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="178" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="179" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="180" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="178" customWidth="1"/>
     <col min="6" max="6" width="8" style="178" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" style="178" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="181" customWidth="1"/>
-    <col min="10" max="10" width="46.5" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" style="178" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="181" customWidth="1"/>
+    <col min="10" max="10" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="154" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="154" customFormat="1">
       <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
@@ -9830,7 +9870,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="165" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="165" customFormat="1" ht="25.5">
       <c r="A2" s="158" t="s">
         <v>35</v>
       </c>
@@ -9858,7 +9898,7 @@
       </c>
       <c r="J2" s="164"/>
     </row>
-    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="158"/>
       <c r="B3" s="159" t="s">
         <v>511</v>
@@ -9884,7 +9924,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="162" t="s">
         <v>515</v>
       </c>
@@ -9912,7 +9952,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="162" t="s">
         <v>518</v>
       </c>
@@ -9943,7 +9983,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="172" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="172" customFormat="1">
       <c r="A6" s="171" t="s">
         <v>518</v>
       </c>
@@ -9959,7 +9999,7 @@
       <c r="I6" s="176"/>
       <c r="J6" s="177"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="178" t="s">
         <v>3</v>
       </c>
@@ -9988,7 +10028,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="178" t="s">
         <v>35</v>
       </c>
@@ -10011,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="38.25" customHeight="1">
       <c r="A9" s="178" t="s">
         <v>35</v>
       </c>
@@ -10034,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="178" t="s">
         <v>4</v>
       </c>
@@ -10066,7 +10106,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="38.25">
       <c r="A11" s="178" t="s">
         <v>529</v>
       </c>
@@ -10093,7 +10133,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" s="178" t="s">
         <v>532</v>
       </c>
@@ -10123,7 +10163,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="63.75">
       <c r="A13" s="162" t="s">
         <v>536</v>
       </c>
@@ -10151,7 +10191,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="162"/>
       <c r="B14" s="159" t="s">
         <v>537</v>
@@ -10175,7 +10215,7 @@
       </c>
       <c r="J14" s="159"/>
     </row>
-    <row r="15" spans="1:10" s="172" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="172" customFormat="1">
       <c r="A15" s="171"/>
       <c r="B15" s="172" t="s">
         <v>537</v>
@@ -10190,7 +10230,7 @@
       <c r="H15" s="175"/>
       <c r="I15" s="176"/>
     </row>
-    <row r="16" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="25.5">
       <c r="A16" s="178" t="s">
         <v>5</v>
       </c>
@@ -10220,7 +10260,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="178" t="s">
         <v>5</v>
       </c>
@@ -10249,7 +10289,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="178" t="s">
         <v>35</v>
       </c>
@@ -10278,7 +10318,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="178" t="s">
         <v>5</v>
       </c>
@@ -10305,7 +10345,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="B20" t="s">
         <v>435</v>
       </c>
@@ -10329,7 +10369,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="B21" t="s">
         <v>437</v>
       </c>
@@ -10349,7 +10389,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="B22" t="s">
         <v>557</v>
       </c>
@@ -10373,7 +10413,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="B23" t="s">
         <v>440</v>
       </c>
@@ -10397,7 +10437,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="B24" t="s">
         <v>196</v>
       </c>
@@ -10422,7 +10462,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="B25" t="s">
         <v>444</v>
       </c>
@@ -10442,7 +10482,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="B26" t="s">
         <v>1</v>
       </c>
@@ -10462,7 +10502,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="B27" t="s">
         <v>2</v>
       </c>
@@ -10486,7 +10526,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="B28" t="s">
         <v>570</v>
       </c>
@@ -10509,7 +10549,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="184"/>
       <c r="B29" s="185" t="s">
         <v>448</v>
@@ -10527,7 +10567,7 @@
       <c r="I29" s="188"/>
       <c r="J29" s="185"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="184"/>
       <c r="B30" s="185" t="s">
         <v>450</v>
@@ -10545,7 +10585,7 @@
       <c r="I30" s="188"/>
       <c r="J30" s="185"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="B31" t="s">
         <v>242</v>
       </c>
@@ -10565,7 +10605,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="184"/>
       <c r="B32" s="185" t="s">
         <v>454</v>
@@ -10583,7 +10623,7 @@
       <c r="I32" s="188"/>
       <c r="J32" s="185"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="184"/>
       <c r="B33" s="185" t="s">
         <v>457</v>
@@ -10601,7 +10641,7 @@
       <c r="I33" s="188"/>
       <c r="J33" s="185"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="184"/>
       <c r="B34" s="185" t="s">
         <v>349</v>
@@ -10619,7 +10659,7 @@
       <c r="I34" s="188"/>
       <c r="J34" s="185"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="B35" t="s">
         <v>576</v>
       </c>
@@ -10639,7 +10679,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
         <v>462</v>
@@ -10657,7 +10697,7 @@
       <c r="I36" s="188"/>
       <c r="J36" s="185"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="B37" t="s">
         <v>464</v>
       </c>
@@ -10682,7 +10722,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="B38" t="s">
         <v>187</v>
       </c>
@@ -10706,7 +10746,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="B39" t="s">
         <v>469</v>
       </c>
@@ -10723,7 +10763,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="189"/>
       <c r="B40" s="190" t="s">
         <v>472</v>
@@ -10739,7 +10779,7 @@
       <c r="I40" s="193"/>
       <c r="J40" s="190"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="B41" t="s">
         <v>474</v>
       </c>
@@ -10747,17 +10787,17 @@
         <v>410</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="B42" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="B43" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="B44" t="s">
         <v>478</v>
       </c>
@@ -10765,7 +10805,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="B45" t="s">
         <v>192</v>
       </c>
@@ -10773,7 +10813,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="B46" t="s">
         <v>6</v>
       </c>
@@ -10781,17 +10821,17 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="B48" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="195" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" s="195" customFormat="1">
       <c r="A51" s="194"/>
       <c r="B51" s="195" t="s">
         <v>9</v>
@@ -10804,97 +10844,97 @@
       <c r="H51" s="194"/>
       <c r="I51" s="198"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:2" customFormat="1">
       <c r="B65" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:2" customFormat="1">
       <c r="B66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:2" customFormat="1">
       <c r="B68" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="69" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:2" customFormat="1">
       <c r="B69" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:2" customFormat="1">
       <c r="B70" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="71" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:2" customFormat="1">
       <c r="B71" t="s">
         <v>591</v>
       </c>
@@ -10928,25 +10968,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="49.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
@@ -10969,7 +11009,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="199"/>
       <c r="B2" s="190" t="s">
         <v>188</v>
@@ -10984,7 +11024,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="189" t="s">
         <v>35</v>
       </c>
@@ -11005,7 +11045,7 @@
       </c>
       <c r="G3" s="190"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="178" t="s">
         <v>35</v>
       </c>
@@ -11026,7 +11066,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="38.25">
       <c r="A5" s="189" t="s">
         <v>515</v>
       </c>
@@ -11049,7 +11089,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="178" t="s">
         <v>35</v>
       </c>
@@ -11070,7 +11110,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="189" t="s">
         <v>518</v>
       </c>
@@ -11094,7 +11134,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="178" t="s">
         <v>3</v>
       </c>
@@ -11115,7 +11155,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="178" t="s">
         <v>35</v>
       </c>
@@ -11132,7 +11172,7 @@
       </c>
       <c r="G9" s="182"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="178" t="s">
         <v>35</v>
       </c>
@@ -11148,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="178" t="s">
         <v>35</v>
       </c>
@@ -11167,7 +11207,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="178" t="s">
         <v>35</v>
       </c>
@@ -11188,7 +11228,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="178" t="s">
         <v>35</v>
       </c>
@@ -11204,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="178" t="s">
         <v>4</v>
       </c>
@@ -11227,7 +11267,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="38.25">
       <c r="A15" s="178" t="s">
         <v>529</v>
       </c>
@@ -11248,7 +11288,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="38.25">
       <c r="A16" s="178" t="s">
         <v>532</v>
       </c>
@@ -11269,7 +11309,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="25.5">
       <c r="A17" s="178" t="s">
         <v>606</v>
       </c>
@@ -11288,7 +11328,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="65" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="76.5">
       <c r="A18" s="189" t="s">
         <v>536</v>
       </c>
@@ -11311,7 +11351,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="178" t="s">
         <v>5</v>
       </c>
@@ -11332,7 +11372,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="178"/>
       <c r="B20" t="s">
         <v>612</v>
@@ -11346,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="178"/>
       <c r="B21" t="s">
         <v>613</v>
@@ -11360,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="178"/>
       <c r="B22" t="s">
         <v>614</v>
@@ -11374,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="178" t="s">
         <v>5</v>
       </c>
@@ -11395,7 +11435,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="178"/>
       <c r="B24" t="s">
         <v>615</v>
@@ -11409,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="178" t="s">
         <v>35</v>
       </c>
@@ -11430,7 +11470,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="178" t="s">
         <v>5</v>
       </c>
@@ -11451,7 +11491,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="178"/>
       <c r="B27" t="s">
         <v>435</v>
@@ -11470,7 +11510,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="178"/>
       <c r="B28" t="s">
         <v>437</v>
@@ -11489,7 +11529,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="178"/>
       <c r="B29" t="s">
         <v>557</v>
@@ -11508,7 +11548,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="178"/>
       <c r="B30" t="s">
         <v>440</v>
@@ -11527,7 +11567,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="178"/>
       <c r="B31" t="s">
         <v>196</v>
@@ -11547,7 +11587,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="178"/>
       <c r="B32" t="s">
         <v>444</v>
@@ -11566,7 +11606,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="178"/>
       <c r="B33" t="s">
         <v>1</v>
@@ -11585,7 +11625,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="178"/>
       <c r="B34" t="s">
         <v>2</v>
@@ -11604,7 +11644,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="178"/>
       <c r="B35" t="s">
         <v>570</v>
@@ -11623,7 +11663,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="184"/>
       <c r="B36" s="185" t="s">
         <v>448</v>
@@ -11638,7 +11678,7 @@
       <c r="F36" s="188"/>
       <c r="G36" s="185"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="184"/>
       <c r="B37" s="185" t="s">
         <v>450</v>
@@ -11653,7 +11693,7 @@
       <c r="F37" s="188"/>
       <c r="G37" s="185"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="178"/>
       <c r="B38" t="s">
         <v>242</v>
@@ -11672,7 +11712,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="184"/>
       <c r="B39" s="185" t="s">
         <v>454</v>
@@ -11687,7 +11727,7 @@
       <c r="F39" s="188"/>
       <c r="G39" s="185"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="184"/>
       <c r="B40" s="185" t="s">
         <v>457</v>
@@ -11702,7 +11742,7 @@
       <c r="F40" s="188"/>
       <c r="G40" s="185"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="184"/>
       <c r="B41" s="185" t="s">
         <v>349</v>
@@ -11717,7 +11757,7 @@
       <c r="F41" s="188"/>
       <c r="G41" s="185"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="178"/>
       <c r="B42" t="s">
         <v>576</v>
@@ -11736,7 +11776,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="184"/>
       <c r="B43" s="185" t="s">
         <v>462</v>
@@ -11751,7 +11791,7 @@
       <c r="F43" s="188"/>
       <c r="G43" s="185"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="178"/>
       <c r="B44" t="s">
         <v>464</v>
@@ -11771,7 +11811,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="178"/>
       <c r="B45" t="s">
         <v>187</v>
@@ -11790,7 +11830,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="178"/>
       <c r="B46" t="s">
         <v>469</v>
@@ -11807,7 +11847,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="189"/>
       <c r="B47" s="190" t="s">
         <v>472</v>
